--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="319">
   <si>
     <t>League</t>
   </si>
@@ -211,6 +211,9 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Romanian Liga II</t>
+  </si>
+  <si>
     <t>Romanian Liga I</t>
   </si>
   <si>
@@ -241,12 +244,12 @@
     <t>Swedish Allsvenskan</t>
   </si>
   <si>
+    <t>Danish Superliga</t>
+  </si>
+  <si>
     <t>Polish Ekstraklasa</t>
   </si>
   <si>
-    <t>Danish Superliga</t>
-  </si>
-  <si>
     <t>Dutch Eerste Divisie</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
     <t>2024-04-29</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -352,6 +358,9 @@
     <t>22:00:00</t>
   </si>
   <si>
+    <t>FC Hunedoara</t>
+  </si>
+  <si>
     <t>ACS Petrolul 52</t>
   </si>
   <si>
@@ -385,15 +394,15 @@
     <t>Brommapojkarna</t>
   </si>
   <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
+    <t>Mjallby</t>
+  </si>
+  <si>
     <t>Puszcza Niepolomice</t>
   </si>
   <si>
-    <t>Mjallby</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
     <t>Elfsborg</t>
   </si>
   <si>
@@ -466,6 +475,9 @@
     <t>Universidad Cesar Vallejo</t>
   </si>
   <si>
+    <t>CSC 1599 Selimbar</t>
+  </si>
+  <si>
     <t>Botosani</t>
   </si>
   <si>
@@ -499,15 +511,15 @@
     <t>IFK Goteborg</t>
   </si>
   <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Kalmar FF</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
-    <t>Kalmar FF</t>
-  </si>
-  <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
     <t>Sirius</t>
   </si>
   <si>
@@ -580,6 +592,9 @@
     <t>Sporting Cristal</t>
   </si>
   <si>
+    <t>33228860</t>
+  </si>
+  <si>
     <t>33220780</t>
   </si>
   <si>
@@ -613,15 +628,15 @@
     <t>33214084</t>
   </si>
   <si>
+    <t>33212665</t>
+  </si>
+  <si>
+    <t>33214087</t>
+  </si>
+  <si>
     <t>33215119</t>
   </si>
   <si>
-    <t>33214087</t>
-  </si>
-  <si>
-    <t>33212665</t>
-  </si>
-  <si>
     <t>33214068</t>
   </si>
   <si>
@@ -694,6 +709,9 @@
     <t>33215359</t>
   </si>
   <si>
+    <t>1.228202273</t>
+  </si>
+  <si>
     <t>1.228074436</t>
   </si>
   <si>
@@ -724,15 +742,15 @@
     <t>1.227967040</t>
   </si>
   <si>
+    <t>1.227942966</t>
+  </si>
+  <si>
+    <t>1.227966949</t>
+  </si>
+  <si>
     <t>1.227990085</t>
   </si>
   <si>
-    <t>1.227966949</t>
-  </si>
-  <si>
-    <t>1.227942966</t>
-  </si>
-  <si>
     <t>1.227966669</t>
   </si>
   <si>
@@ -802,6 +820,9 @@
     <t>1.228001955</t>
   </si>
   <si>
+    <t>1.228202318</t>
+  </si>
+  <si>
     <t>1.228074481</t>
   </si>
   <si>
@@ -835,15 +856,15 @@
     <t>1.227967085</t>
   </si>
   <si>
+    <t>1.227942976</t>
+  </si>
+  <si>
+    <t>1.227966994</t>
+  </si>
+  <si>
     <t>1.227990130</t>
   </si>
   <si>
-    <t>1.227966994</t>
-  </si>
-  <si>
-    <t>1.227942976</t>
-  </si>
-  <si>
     <t>1.227966714</t>
   </si>
   <si>
@@ -916,6 +937,9 @@
     <t>1.227992588</t>
   </si>
   <si>
+    <t>1.228202357</t>
+  </si>
+  <si>
     <t>1.227601522</t>
   </si>
   <si>
@@ -929,6 +953,9 @@
   </si>
   <si>
     <t>1.227928042</t>
+  </si>
+  <si>
+    <t>1.228202282</t>
   </si>
   <si>
     <t>1.227601532</t>
@@ -1301,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM39"/>
+  <dimension ref="A1:BM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,22 +1536,22 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F2">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="G2">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H2">
         <v>1.04</v>
@@ -1533,172 +1560,172 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L2">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="M2">
-        <v>1.76</v>
+        <v>990</v>
       </c>
       <c r="N2">
+        <v>1.06</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
         <v>1.01</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <v>1.01</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>1000</v>
+      </c>
+      <c r="X2">
+        <v>19</v>
+      </c>
+      <c r="Y2">
+        <v>1000</v>
+      </c>
+      <c r="Z2">
+        <v>20</v>
+      </c>
+      <c r="AA2">
+        <v>1000</v>
+      </c>
+      <c r="AB2">
+        <v>7.4</v>
+      </c>
+      <c r="AC2">
+        <v>1000</v>
+      </c>
+      <c r="AD2">
+        <v>6.2</v>
+      </c>
+      <c r="AE2">
+        <v>1000</v>
+      </c>
+      <c r="AF2">
         <v>13.5</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BG2">
-        <v>14299496</v>
+        <v>7223889</v>
       </c>
       <c r="BH2">
-        <v>3465177</v>
+        <v>48459989</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BK2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1706,22 +1733,22 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H3">
         <v>1.04</v>
@@ -1730,22 +1757,22 @@
         <v>1000</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="O3">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1874,22 +1901,22 @@
         <v>0</v>
       </c>
       <c r="BF3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BG3">
-        <v>19579579</v>
+        <v>14299496</v>
       </c>
       <c r="BH3">
-        <v>20716213</v>
+        <v>3465177</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BK3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1903,46 +1930,46 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="G4">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H4">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
         <v>1000</v>
       </c>
       <c r="L4">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="M4">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2071,22 +2098,22 @@
         <v>0</v>
       </c>
       <c r="BF4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BG4">
-        <v>20732043</v>
+        <v>19579579</v>
       </c>
       <c r="BH4">
-        <v>20731976</v>
+        <v>20716213</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BK4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -2100,46 +2127,46 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L5">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="O5">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2268,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="BF5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>20732043</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>20731976</v>
       </c>
       <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>234</v>
       </c>
       <c r="BK5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -2297,46 +2324,46 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F6">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="M6">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="N6">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="O6">
-        <v>2.66</v>
+        <v>36</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2465,22 +2492,22 @@
         <v>0</v>
       </c>
       <c r="BF6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BG6">
-        <v>37456793</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>10539864</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>58805</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>229</v>
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
       </c>
       <c r="BK6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2494,46 +2521,46 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="G7">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K7">
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="L7">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M7">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="N7">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="O7">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2662,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="BF7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BG7">
-        <v>2618007</v>
+        <v>37456793</v>
       </c>
       <c r="BH7">
-        <v>6635878</v>
+        <v>10539864</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="BK7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2688,46 +2715,46 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F8">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="G8">
-        <v>4.1</v>
+        <v>2.92</v>
       </c>
       <c r="H8">
-        <v>1.98</v>
+        <v>2.8</v>
       </c>
       <c r="I8">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="J8">
         <v>3.1</v>
       </c>
       <c r="K8">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="L8">
         <v>1.68</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="N8">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="O8">
         <v>2.46</v>
@@ -2859,22 +2886,22 @@
         <v>0</v>
       </c>
       <c r="BF8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BG8">
-        <v>5822815</v>
+        <v>2618007</v>
       </c>
       <c r="BH8">
-        <v>487520</v>
+        <v>6635878</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="BK8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2888,46 +2915,46 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="G9">
+        <v>6.4</v>
+      </c>
+      <c r="H9">
+        <v>1.04</v>
+      </c>
+      <c r="I9">
+        <v>2.72</v>
+      </c>
+      <c r="J9">
+        <v>3.15</v>
+      </c>
+      <c r="K9">
+        <v>17.5</v>
+      </c>
+      <c r="L9">
+        <v>1.8</v>
+      </c>
+      <c r="M9">
+        <v>2.18</v>
+      </c>
+      <c r="N9">
         <v>1.84</v>
       </c>
-      <c r="H9">
-        <v>5.5</v>
-      </c>
-      <c r="I9">
-        <v>28</v>
-      </c>
-      <c r="J9">
-        <v>3.65</v>
-      </c>
-      <c r="K9">
-        <v>7.8</v>
-      </c>
-      <c r="L9">
-        <v>1.62</v>
-      </c>
-      <c r="M9">
-        <v>2.34</v>
-      </c>
-      <c r="N9">
-        <v>1.74</v>
-      </c>
       <c r="O9">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3056,22 +3083,22 @@
         <v>0</v>
       </c>
       <c r="BF9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BG9">
-        <v>844519</v>
+        <v>5822815</v>
       </c>
       <c r="BH9">
-        <v>3157354</v>
+        <v>487520</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BK9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -3085,46 +3112,46 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F10">
-        <v>2.18</v>
+        <v>1.44</v>
       </c>
       <c r="G10">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="I10">
-        <v>3.85</v>
+        <v>65</v>
       </c>
       <c r="J10">
         <v>3.45</v>
       </c>
       <c r="K10">
-        <v>3.55</v>
+        <v>8.6</v>
       </c>
       <c r="L10">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M10">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="N10">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="O10">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3253,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="BF10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BG10">
-        <v>10472882</v>
+        <v>844519</v>
       </c>
       <c r="BH10">
-        <v>113188</v>
+        <v>3157354</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BK10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -3282,46 +3309,46 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="G11">
-        <v>3.75</v>
+        <v>2.34</v>
       </c>
       <c r="H11">
-        <v>2.26</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="J11">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L11">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="M11">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="N11">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O11">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3450,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="BF11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BG11">
-        <v>767907</v>
+        <v>10472882</v>
       </c>
       <c r="BH11">
-        <v>784612</v>
+        <v>113188</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="BK11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -3479,46 +3506,46 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F12">
+        <v>3.2</v>
+      </c>
+      <c r="G12">
+        <v>3.75</v>
+      </c>
+      <c r="H12">
+        <v>2.26</v>
+      </c>
+      <c r="I12">
         <v>2.42</v>
       </c>
-      <c r="G12">
-        <v>2.46</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>3.3</v>
-      </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K12">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L12">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N12">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O12">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3647,22 +3674,22 @@
         <v>0</v>
       </c>
       <c r="BF12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BG12">
-        <v>151472</v>
+        <v>767907</v>
       </c>
       <c r="BH12">
-        <v>30689</v>
+        <v>784612</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BK12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="BL12">
         <v>0</v>
@@ -3676,46 +3703,46 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F13">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="G13">
-        <v>3.85</v>
+        <v>2.46</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K13">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L13">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="M13">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="N13">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="O13">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3844,22 +3871,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BG13">
-        <v>5751503</v>
+        <v>151472</v>
       </c>
       <c r="BH13">
-        <v>1209555</v>
+        <v>30689</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="BK13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3870,49 +3897,49 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="H14">
-        <v>3.9</v>
+        <v>1.82</v>
       </c>
       <c r="I14">
+        <v>1.9</v>
+      </c>
+      <c r="J14">
+        <v>3.85</v>
+      </c>
+      <c r="K14">
         <v>4.6</v>
       </c>
-      <c r="J14">
-        <v>3.3</v>
-      </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
       <c r="L14">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="M14">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="O14">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4041,22 +4068,22 @@
         <v>0</v>
       </c>
       <c r="BF14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BG14">
-        <v>60143</v>
+        <v>28216</v>
       </c>
       <c r="BH14">
-        <v>130433</v>
+        <v>28220</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BK14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="BL14">
         <v>0</v>
@@ -4067,49 +4094,49 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="G15">
-        <v>4.8</v>
+        <v>2.28</v>
       </c>
       <c r="H15">
-        <v>1.82</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="J15">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K15">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="M15">
+        <v>1.77</v>
+      </c>
+      <c r="N15">
         <v>2.3</v>
       </c>
-      <c r="N15">
-        <v>1.78</v>
-      </c>
       <c r="O15">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4238,22 +4265,22 @@
         <v>0</v>
       </c>
       <c r="BF15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BG15">
-        <v>28216</v>
+        <v>60143</v>
       </c>
       <c r="BH15">
-        <v>28220</v>
+        <v>130433</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="BK15" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="BL15">
         <v>0</v>
@@ -4264,49 +4291,49 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F16">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="G16">
-        <v>1.94</v>
+        <v>3.9</v>
       </c>
       <c r="H16">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="I16">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K16">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="N16">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="O16">
-        <v>1.82</v>
+        <v>2.5</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4435,22 +4462,22 @@
         <v>0</v>
       </c>
       <c r="BF16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BG16">
-        <v>30684</v>
+        <v>5751503</v>
       </c>
       <c r="BH16">
-        <v>4638067</v>
+        <v>1209555</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="BK16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -4461,49 +4488,49 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F17">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G17">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="H17">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>4.6</v>
       </c>
       <c r="J17">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L17">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M17">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="O17">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4632,22 +4659,22 @@
         <v>0</v>
       </c>
       <c r="BF17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BG17">
-        <v>30679</v>
+        <v>30684</v>
       </c>
       <c r="BH17">
-        <v>4638399</v>
+        <v>4638067</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="BK17" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="BL17">
         <v>0</v>
@@ -4658,49 +4685,49 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F18">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="G18">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="H18">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>4.6</v>
       </c>
       <c r="J18">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K18">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="L18">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M18">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="N18">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="O18">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4829,22 +4856,22 @@
         <v>0</v>
       </c>
       <c r="BF18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BG18">
-        <v>4127866</v>
+        <v>30679</v>
       </c>
       <c r="BH18">
-        <v>5112597</v>
+        <v>4638399</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="BK18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="BL18">
         <v>0</v>
@@ -4855,49 +4882,49 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F19">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>1.69</v>
       </c>
       <c r="H19">
-        <v>1.52</v>
+        <v>4.7</v>
       </c>
       <c r="I19">
-        <v>1.96</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K19">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="L19">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="N19">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="O19">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -5026,22 +5053,22 @@
         <v>0</v>
       </c>
       <c r="BF19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BG19">
-        <v>5266551</v>
+        <v>4127866</v>
       </c>
       <c r="BH19">
-        <v>52465647</v>
+        <v>5112597</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="BK19" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="BL19">
         <v>0</v>
@@ -5052,49 +5079,49 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F20">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="G20">
-        <v>2.54</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>1.94</v>
       </c>
       <c r="J20">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K20">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M20">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="O20">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -5223,22 +5250,22 @@
         <v>0</v>
       </c>
       <c r="BF20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BG20">
-        <v>6394</v>
+        <v>5266551</v>
       </c>
       <c r="BH20">
-        <v>2487036</v>
+        <v>52465647</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="BK20" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="BL20">
         <v>0</v>
@@ -5249,49 +5276,49 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="G21">
-        <v>5.4</v>
+        <v>2.54</v>
       </c>
       <c r="H21">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="I21">
-        <v>1.94</v>
+        <v>4.5</v>
       </c>
       <c r="J21">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="L21">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="N21">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="O21">
-        <v>1.77</v>
+        <v>2.32</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5420,22 +5447,22 @@
         <v>0</v>
       </c>
       <c r="BF21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BG21">
-        <v>11378686</v>
+        <v>6394</v>
       </c>
       <c r="BH21">
-        <v>315069</v>
+        <v>2487036</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="BK21" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="BL21">
         <v>0</v>
@@ -5446,49 +5473,49 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="H22">
-        <v>3.15</v>
+        <v>1.72</v>
       </c>
       <c r="I22">
-        <v>5.2</v>
+        <v>1.94</v>
       </c>
       <c r="J22">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K22">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M22">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O22">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5617,22 +5644,22 @@
         <v>0</v>
       </c>
       <c r="BF22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BG22">
-        <v>419126</v>
+        <v>11378686</v>
       </c>
       <c r="BH22">
-        <v>419129</v>
+        <v>315069</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="BK22" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="BL22">
         <v>0</v>
@@ -5646,46 +5673,46 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F23">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="G23">
+        <v>2.12</v>
+      </c>
+      <c r="H23">
+        <v>3.2</v>
+      </c>
+      <c r="I23">
+        <v>5.4</v>
+      </c>
+      <c r="J23">
+        <v>3.7</v>
+      </c>
+      <c r="K23">
         <v>1000</v>
       </c>
-      <c r="H23">
-        <v>1.04</v>
-      </c>
-      <c r="I23">
-        <v>990</v>
-      </c>
-      <c r="J23">
-        <v>1.01</v>
-      </c>
-      <c r="K23">
-        <v>990</v>
-      </c>
       <c r="L23">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="N23">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="O23">
-        <v>110</v>
+        <v>1.9</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -5814,22 +5841,22 @@
         <v>0</v>
       </c>
       <c r="BF23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BG23">
-        <v>4465708</v>
+        <v>419126</v>
       </c>
       <c r="BH23">
-        <v>5313392</v>
+        <v>419129</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="BK23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="BL23">
         <v>0</v>
@@ -5843,46 +5870,46 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H24">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I24">
-        <v>4.9</v>
+        <v>990</v>
       </c>
       <c r="J24">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>990</v>
       </c>
       <c r="L24">
-        <v>1.58</v>
+        <v>1.03</v>
       </c>
       <c r="M24">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="O24">
-        <v>2.74</v>
+        <v>110</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6011,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="BF24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BG24">
-        <v>10478536</v>
+        <v>4465708</v>
       </c>
       <c r="BH24">
-        <v>565024</v>
+        <v>5313392</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="BK24" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -6040,46 +6067,46 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H25">
-        <v>1.82</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>2.02</v>
+        <v>4.9</v>
       </c>
       <c r="J25">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K25">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L25">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="M25">
-        <v>2.18</v>
+        <v>1.66</v>
       </c>
       <c r="N25">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>1.93</v>
+        <v>2.74</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -6208,22 +6235,22 @@
         <v>0</v>
       </c>
       <c r="BF25" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BG25">
-        <v>2250259</v>
+        <v>10478536</v>
       </c>
       <c r="BH25">
-        <v>44800</v>
+        <v>565024</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="BK25" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="BL25">
         <v>0</v>
@@ -6237,196 +6264,196 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="G26">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H26">
-        <v>3.65</v>
+        <v>1.82</v>
       </c>
       <c r="I26">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="J26">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K26">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="L26">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="M26">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="N26">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="O26">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="P26">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AY26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BA26">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BB26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BC26">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BD26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BE26">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BG26">
-        <v>60310</v>
+        <v>2250259</v>
       </c>
       <c r="BH26">
-        <v>60297</v>
+        <v>44800</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="BK26" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>305</v>
+        <v>292</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6434,196 +6461,196 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F27">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="G27">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H27">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="I27">
+        <v>3.75</v>
+      </c>
+      <c r="J27">
+        <v>3.2</v>
+      </c>
+      <c r="K27">
         <v>3.25</v>
       </c>
-      <c r="J27">
-        <v>3.1</v>
-      </c>
-      <c r="K27">
-        <v>8</v>
-      </c>
       <c r="L27">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="M27">
+        <v>1.7</v>
+      </c>
+      <c r="N27">
+        <v>2.44</v>
+      </c>
+      <c r="O27">
+        <v>2.56</v>
+      </c>
+      <c r="P27">
+        <v>2.04</v>
+      </c>
+      <c r="Q27">
+        <v>2.12</v>
+      </c>
+      <c r="R27">
+        <v>1.89</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U27">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>11.5</v>
+      </c>
+      <c r="X27">
+        <v>21</v>
+      </c>
+      <c r="Y27">
+        <v>30</v>
+      </c>
+      <c r="Z27">
+        <v>46</v>
+      </c>
+      <c r="AA27">
+        <v>95</v>
+      </c>
+      <c r="AB27">
+        <v>7.4</v>
+      </c>
+      <c r="AC27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27">
+        <v>6.8</v>
+      </c>
+      <c r="AE27">
+        <v>7.4</v>
+      </c>
+      <c r="AF27">
+        <v>14.5</v>
+      </c>
+      <c r="AG27">
+        <v>16.5</v>
+      </c>
+      <c r="AH27">
+        <v>34</v>
+      </c>
+      <c r="AI27">
+        <v>65</v>
+      </c>
+      <c r="AJ27">
+        <v>12</v>
+      </c>
+      <c r="AK27">
+        <v>13.5</v>
+      </c>
+      <c r="AL27">
+        <v>10.5</v>
+      </c>
+      <c r="AM27">
+        <v>12</v>
+      </c>
+      <c r="AN27">
+        <v>19.5</v>
+      </c>
+      <c r="AO27">
+        <v>27</v>
+      </c>
+      <c r="AP27">
+        <v>48</v>
+      </c>
+      <c r="AQ27">
+        <v>90</v>
+      </c>
+      <c r="AR27">
+        <v>27</v>
+      </c>
+      <c r="AS27">
+        <v>40</v>
+      </c>
+      <c r="AT27">
+        <v>24</v>
+      </c>
+      <c r="AU27">
+        <v>38</v>
+      </c>
+      <c r="AV27">
+        <v>44</v>
+      </c>
+      <c r="AW27">
+        <v>70</v>
+      </c>
+      <c r="AX27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY27">
+        <v>200</v>
+      </c>
+      <c r="AZ27">
+        <v>6.8</v>
+      </c>
+      <c r="BA27">
+        <v>34</v>
+      </c>
+      <c r="BB27">
+        <v>11</v>
+      </c>
+      <c r="BC27">
+        <v>80</v>
+      </c>
+      <c r="BD27">
+        <v>8.6</v>
+      </c>
+      <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="N27">
-        <v>1.01</v>
-      </c>
-      <c r="O27">
-        <v>6.4</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
       <c r="BF27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BG27">
-        <v>77586</v>
+        <v>60310</v>
       </c>
       <c r="BH27">
-        <v>496950</v>
+        <v>60297</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="BK27" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6631,46 +6658,46 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F28">
-        <v>1.22</v>
+        <v>2.7</v>
       </c>
       <c r="G28">
-        <v>1.58</v>
+        <v>5.5</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>2.04</v>
       </c>
       <c r="I28">
+        <v>3.3</v>
+      </c>
+      <c r="J28">
+        <v>3.05</v>
+      </c>
+      <c r="K28">
+        <v>4.4</v>
+      </c>
+      <c r="L28">
+        <v>1.2</v>
+      </c>
+      <c r="M28">
         <v>1000</v>
       </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>150</v>
-      </c>
-      <c r="L28">
-        <v>1.81</v>
-      </c>
-      <c r="M28">
-        <v>2.96</v>
-      </c>
       <c r="N28">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="O28">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -6799,22 +6826,22 @@
         <v>0</v>
       </c>
       <c r="BF28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BG28">
-        <v>184325</v>
+        <v>77586</v>
       </c>
       <c r="BH28">
-        <v>184329</v>
+        <v>496950</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="BK28" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="BL28">
         <v>0</v>
@@ -6828,196 +6855,196 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F29">
+        <v>1.28</v>
+      </c>
+      <c r="G29">
+        <v>1.6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>4.8</v>
+      </c>
+      <c r="K29">
+        <v>19.5</v>
+      </c>
+      <c r="L29">
+        <v>1.89</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
         <v>1.38</v>
       </c>
-      <c r="G29">
-        <v>1.4</v>
-      </c>
-      <c r="H29">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>5.7</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>2.4</v>
-      </c>
-      <c r="M29">
-        <v>2.46</v>
-      </c>
-      <c r="N29">
-        <v>1.68</v>
-      </c>
       <c r="O29">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="P29">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA29">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="BB29">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC29">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BE29">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BG29">
-        <v>52480964</v>
+        <v>184325</v>
       </c>
       <c r="BH29">
-        <v>66183</v>
+        <v>184329</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="BK29" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>306</v>
+        <v>295</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7025,196 +7052,196 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F30">
-        <v>5.1</v>
+        <v>1.38</v>
       </c>
       <c r="G30">
-        <v>5.4</v>
+        <v>1.39</v>
       </c>
       <c r="H30">
-        <v>1.7</v>
+        <v>9.6</v>
       </c>
       <c r="I30">
-        <v>1.74</v>
+        <v>10.5</v>
       </c>
       <c r="J30">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="K30">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="L30">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="M30">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="O30">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="P30">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q30">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="S30">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="T30">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="U30">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="V30">
-        <v>8.800000000000001</v>
+        <v>26</v>
       </c>
       <c r="W30">
+        <v>40</v>
+      </c>
+      <c r="X30">
+        <v>65</v>
+      </c>
+      <c r="Y30">
+        <v>110</v>
+      </c>
+      <c r="Z30">
+        <v>100</v>
+      </c>
+      <c r="AA30">
+        <v>980</v>
+      </c>
+      <c r="AB30">
+        <v>8.4</v>
+      </c>
+      <c r="AC30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>13</v>
+      </c>
+      <c r="AF30">
+        <v>30</v>
+      </c>
+      <c r="AG30">
+        <v>42</v>
+      </c>
+      <c r="AH30">
+        <v>90</v>
+      </c>
+      <c r="AI30">
+        <v>170</v>
+      </c>
+      <c r="AJ30">
+        <v>7.8</v>
+      </c>
+      <c r="AK30">
+        <v>8.6</v>
+      </c>
+      <c r="AL30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM30">
         <v>10.5</v>
       </c>
-      <c r="X30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y30">
+      <c r="AN30">
+        <v>24</v>
+      </c>
+      <c r="AO30">
+        <v>34</v>
+      </c>
+      <c r="AP30">
+        <v>95</v>
+      </c>
+      <c r="AQ30">
+        <v>150</v>
+      </c>
+      <c r="AR30">
+        <v>10.5</v>
+      </c>
+      <c r="AS30">
         <v>11.5</v>
       </c>
-      <c r="Z30">
-        <v>14</v>
-      </c>
-      <c r="AA30">
-        <v>19</v>
-      </c>
-      <c r="AB30">
-        <v>16</v>
-      </c>
-      <c r="AC30">
-        <v>22</v>
-      </c>
-      <c r="AD30">
-        <v>8.4</v>
-      </c>
-      <c r="AE30">
-        <v>10.5</v>
-      </c>
-      <c r="AF30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG30">
-        <v>10.5</v>
-      </c>
-      <c r="AH30">
-        <v>15.5</v>
-      </c>
-      <c r="AI30">
-        <v>19</v>
-      </c>
-      <c r="AJ30">
-        <v>24</v>
-      </c>
-      <c r="AK30">
-        <v>46</v>
-      </c>
-      <c r="AL30">
-        <v>18</v>
-      </c>
-      <c r="AM30">
-        <v>23</v>
-      </c>
-      <c r="AN30">
-        <v>15.5</v>
-      </c>
-      <c r="AO30">
-        <v>23</v>
-      </c>
-      <c r="AP30">
+      <c r="AT30">
+        <v>12.5</v>
+      </c>
+      <c r="AU30">
+        <v>14.5</v>
+      </c>
+      <c r="AV30">
         <v>29</v>
       </c>
-      <c r="AQ30">
-        <v>36</v>
-      </c>
-      <c r="AR30">
-        <v>7.4</v>
-      </c>
-      <c r="AS30">
-        <v>980</v>
-      </c>
-      <c r="AT30">
-        <v>32</v>
-      </c>
-      <c r="AU30">
-        <v>980</v>
-      </c>
-      <c r="AV30">
-        <v>32</v>
-      </c>
       <c r="AW30">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AX30">
-        <v>7.4</v>
+        <v>100</v>
       </c>
       <c r="AY30">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AZ30">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="BA30">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="BB30">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC30">
-        <v>9.800000000000001</v>
+        <v>200</v>
       </c>
       <c r="BD30">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BG30">
-        <v>56295</v>
+        <v>52480964</v>
       </c>
       <c r="BH30">
-        <v>48461</v>
+        <v>66183</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="BK30" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="BL30" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="BM30" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7222,196 +7249,196 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F31">
-        <v>2.18</v>
+        <v>5.3</v>
       </c>
       <c r="G31">
-        <v>2.32</v>
+        <v>5.4</v>
       </c>
       <c r="H31">
-        <v>3.5</v>
+        <v>1.68</v>
       </c>
       <c r="I31">
-        <v>3.8</v>
+        <v>1.69</v>
       </c>
       <c r="J31">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L31">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="M31">
-        <v>2.02</v>
+        <v>5.6</v>
       </c>
       <c r="N31">
-        <v>1.98</v>
+        <v>1.22</v>
       </c>
       <c r="O31">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BG31">
-        <v>36362918</v>
+        <v>56295</v>
       </c>
       <c r="BH31">
-        <v>48788</v>
+        <v>48461</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="BK31" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7419,196 +7446,196 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F32">
+        <v>2.18</v>
+      </c>
+      <c r="G32">
+        <v>2.32</v>
+      </c>
+      <c r="H32">
+        <v>3.5</v>
+      </c>
+      <c r="I32">
+        <v>3.8</v>
+      </c>
+      <c r="J32">
+        <v>3.45</v>
+      </c>
+      <c r="K32">
+        <v>3.75</v>
+      </c>
+      <c r="L32">
+        <v>1.84</v>
+      </c>
+      <c r="M32">
         <v>2.04</v>
       </c>
-      <c r="G32">
-        <v>2.22</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>4.8</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>3.55</v>
-      </c>
-      <c r="L32">
-        <v>1.58</v>
-      </c>
-      <c r="M32">
-        <v>1.74</v>
-      </c>
       <c r="N32">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="O32">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="P32">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AU32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AV32">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AW32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AY32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BA32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="BB32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BC32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD32">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BE32">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BG32">
-        <v>2760854</v>
+        <v>36362918</v>
       </c>
       <c r="BH32">
-        <v>5287019</v>
+        <v>48788</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="BK32" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7616,196 +7643,196 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F33">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="G33">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="H33">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="L33">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M33">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="N33">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="P33">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="Q33">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S33">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="T33">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="U33">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="V33">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>13.5</v>
+        <v>1.36</v>
       </c>
       <c r="Y33">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33">
-        <v>36</v>
+        <v>1.17</v>
       </c>
       <c r="AA33">
+        <v>1000</v>
+      </c>
+      <c r="AB33">
+        <v>6.2</v>
+      </c>
+      <c r="AC33">
         <v>980</v>
       </c>
-      <c r="AB33">
-        <v>8.4</v>
-      </c>
-      <c r="AC33">
-        <v>10.5</v>
-      </c>
       <c r="AD33">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="AE33">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AF33">
-        <v>11</v>
+        <v>2.38</v>
       </c>
       <c r="AG33">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH33">
-        <v>29</v>
+        <v>1.17</v>
       </c>
       <c r="AI33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ33">
-        <v>15.5</v>
+        <v>2.06</v>
       </c>
       <c r="AK33">
         <v>980</v>
       </c>
       <c r="AL33">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM33">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AN33">
-        <v>19</v>
+        <v>1.11</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>46</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR33">
-        <v>44</v>
+        <v>1.17</v>
       </c>
       <c r="AS33">
         <v>980</v>
       </c>
       <c r="AT33">
-        <v>32</v>
+        <v>1.17</v>
       </c>
       <c r="AU33">
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>50</v>
+        <v>1.14</v>
       </c>
       <c r="AW33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX33">
-        <v>7.8</v>
+        <v>1.17</v>
       </c>
       <c r="AY33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>7</v>
+        <v>1.17</v>
       </c>
       <c r="BA33">
         <v>980</v>
       </c>
       <c r="BB33">
-        <v>6.8</v>
+        <v>1.17</v>
       </c>
       <c r="BC33">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD33">
-        <v>7.6</v>
+        <v>1.17</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BG33">
-        <v>198126</v>
+        <v>2760854</v>
       </c>
       <c r="BH33">
-        <v>22498185</v>
+        <v>5287019</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BK33" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="BL33" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="BM33" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7813,234 +7840,234 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F34">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="G34">
+        <v>3.3</v>
+      </c>
+      <c r="H34">
+        <v>2.68</v>
+      </c>
+      <c r="I34">
+        <v>2.84</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>1.53</v>
+      </c>
+      <c r="M34">
+        <v>1.67</v>
+      </c>
+      <c r="N34">
+        <v>2.48</v>
+      </c>
+      <c r="O34">
+        <v>2.9</v>
+      </c>
+      <c r="P34">
+        <v>2.08</v>
+      </c>
+      <c r="Q34">
+        <v>2.24</v>
+      </c>
+      <c r="R34">
+        <v>1.8</v>
+      </c>
+      <c r="S34">
+        <v>1.92</v>
+      </c>
+      <c r="T34">
+        <v>4.6</v>
+      </c>
+      <c r="U34">
+        <v>9.4</v>
+      </c>
+      <c r="V34">
+        <v>7.6</v>
+      </c>
+      <c r="W34">
+        <v>980</v>
+      </c>
+      <c r="X34">
+        <v>13.5</v>
+      </c>
+      <c r="Y34">
+        <v>17.5</v>
+      </c>
+      <c r="Z34">
+        <v>36</v>
+      </c>
+      <c r="AA34">
+        <v>980</v>
+      </c>
+      <c r="AB34">
+        <v>8.4</v>
+      </c>
+      <c r="AC34">
+        <v>980</v>
+      </c>
+      <c r="AD34">
+        <v>6.2</v>
+      </c>
+      <c r="AE34">
+        <v>7.2</v>
+      </c>
+      <c r="AF34">
+        <v>11</v>
+      </c>
+      <c r="AG34">
         <v>14.5</v>
       </c>
-      <c r="H34">
-        <v>1.34</v>
-      </c>
-      <c r="I34">
-        <v>990</v>
-      </c>
-      <c r="J34">
-        <v>1.28</v>
-      </c>
-      <c r="K34">
-        <v>17.5</v>
-      </c>
-      <c r="L34">
-        <v>1.07</v>
-      </c>
-      <c r="M34">
+      <c r="AH34">
+        <v>29</v>
+      </c>
+      <c r="AI34">
+        <v>980</v>
+      </c>
+      <c r="AJ34">
+        <v>15.5</v>
+      </c>
+      <c r="AK34">
+        <v>980</v>
+      </c>
+      <c r="AL34">
+        <v>11.5</v>
+      </c>
+      <c r="AM34">
+        <v>16.5</v>
+      </c>
+      <c r="AN34">
+        <v>19</v>
+      </c>
+      <c r="AO34">
+        <v>980</v>
+      </c>
+      <c r="AP34">
+        <v>46</v>
+      </c>
+      <c r="AQ34">
+        <v>980</v>
+      </c>
+      <c r="AR34">
+        <v>44</v>
+      </c>
+      <c r="AS34">
+        <v>980</v>
+      </c>
+      <c r="AT34">
+        <v>32</v>
+      </c>
+      <c r="AU34">
+        <v>980</v>
+      </c>
+      <c r="AV34">
+        <v>50</v>
+      </c>
+      <c r="AW34">
+        <v>980</v>
+      </c>
+      <c r="AX34">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY34">
+        <v>980</v>
+      </c>
+      <c r="AZ34">
+        <v>7</v>
+      </c>
+      <c r="BA34">
+        <v>980</v>
+      </c>
+      <c r="BB34">
+        <v>6.8</v>
+      </c>
+      <c r="BC34">
+        <v>980</v>
+      </c>
+      <c r="BD34">
+        <v>2.76</v>
+      </c>
+      <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="N34">
-        <v>1.01</v>
-      </c>
-      <c r="O34">
-        <v>36</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
-      </c>
       <c r="BF34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BG34">
-        <v>5327519</v>
+        <v>198126</v>
       </c>
       <c r="BH34">
-        <v>16916284</v>
+        <v>22498185</v>
       </c>
       <c r="BI34">
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="BK34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:65">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F35">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="G35">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="H35">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J35">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="K35">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="L35">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M35">
         <v>1000</v>
@@ -8049,7 +8076,7 @@
         <v>1.01</v>
       </c>
       <c r="O35">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -8178,22 +8205,22 @@
         <v>0</v>
       </c>
       <c r="BF35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BG35">
-        <v>16916720</v>
+        <v>5327519</v>
       </c>
       <c r="BH35">
-        <v>3806543</v>
+        <v>16916284</v>
       </c>
       <c r="BI35">
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="BK35" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="BL35">
         <v>0</v>
@@ -8204,49 +8231,49 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F36">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="G36">
-        <v>1.68</v>
+        <v>1000</v>
       </c>
       <c r="H36">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="I36">
+        <v>990</v>
+      </c>
+      <c r="J36">
+        <v>1.01</v>
+      </c>
+      <c r="K36">
+        <v>990</v>
+      </c>
+      <c r="L36">
+        <v>1.05</v>
+      </c>
+      <c r="M36">
         <v>1000</v>
       </c>
-      <c r="J36">
-        <v>3.6</v>
-      </c>
-      <c r="K36">
-        <v>18.5</v>
-      </c>
-      <c r="L36">
-        <v>1.45</v>
-      </c>
-      <c r="M36">
-        <v>2.7</v>
-      </c>
       <c r="N36">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>110</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -8375,22 +8402,22 @@
         <v>0</v>
       </c>
       <c r="BF36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BG36">
-        <v>328191</v>
+        <v>16916720</v>
       </c>
       <c r="BH36">
-        <v>3206731</v>
+        <v>3806543</v>
       </c>
       <c r="BI36">
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="BK36" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="BL36">
         <v>0</v>
@@ -8401,49 +8428,49 @@
     </row>
     <row r="37" spans="1:65">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F37">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="G37">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="H37">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="I37">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="J37">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="K37">
-        <v>7.6</v>
+        <v>24</v>
       </c>
       <c r="L37">
+        <v>1.45</v>
+      </c>
+      <c r="M37">
+        <v>2.68</v>
+      </c>
+      <c r="N37">
         <v>1.59</v>
       </c>
-      <c r="M37">
-        <v>2.8</v>
-      </c>
-      <c r="N37">
-        <v>1.55</v>
-      </c>
       <c r="O37">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -8572,22 +8599,22 @@
         <v>0</v>
       </c>
       <c r="BF37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BG37">
-        <v>330234</v>
+        <v>328191</v>
       </c>
       <c r="BH37">
-        <v>10778437</v>
+        <v>3206731</v>
       </c>
       <c r="BI37">
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="BK37" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="BL37">
         <v>0</v>
@@ -8601,46 +8628,46 @@
         <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F38">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="G38">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I38">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J38">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="K38">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="L38">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M38">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="N38">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="O38">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -8769,22 +8796,22 @@
         <v>0</v>
       </c>
       <c r="BF38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BG38">
-        <v>2295419</v>
+        <v>330234</v>
       </c>
       <c r="BH38">
-        <v>5129865</v>
+        <v>10778437</v>
       </c>
       <c r="BI38">
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="BK38" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="BL38">
         <v>0</v>
@@ -8798,195 +8825,392 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39">
+        <v>1.82</v>
+      </c>
+      <c r="G39">
+        <v>2.54</v>
+      </c>
+      <c r="H39">
+        <v>3.05</v>
+      </c>
+      <c r="I39">
+        <v>5.3</v>
+      </c>
+      <c r="J39">
+        <v>3.6</v>
+      </c>
+      <c r="K39">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L39">
+        <v>1.52</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>2.9</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG39">
+        <v>2295419</v>
+      </c>
+      <c r="BH39">
+        <v>5129865</v>
+      </c>
+      <c r="BI39">
+        <v>58805</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>1.04</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>1000</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>1.01</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>110</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>225</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>299</v>
-      </c>
-      <c r="BL39">
-        <v>0</v>
-      </c>
-      <c r="BM39">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="372">
   <si>
     <t>League</t>
   </si>
@@ -721,6 +721,9 @@
     <t>1.228009988</t>
   </si>
   <si>
+    <t>1.227979262</t>
+  </si>
+  <si>
     <t>1.228037298</t>
   </si>
   <si>
@@ -940,9 +943,87 @@
     <t>1.228202357</t>
   </si>
   <si>
+    <t>1.228074520</t>
+  </si>
+  <si>
+    <t>1.228127174</t>
+  </si>
+  <si>
+    <t>1.228010072</t>
+  </si>
+  <si>
+    <t>1.227979346</t>
+  </si>
+  <si>
+    <t>1.228037382</t>
+  </si>
+  <si>
+    <t>1.228114925</t>
+  </si>
+  <si>
+    <t>1.228114835</t>
+  </si>
+  <si>
+    <t>1.228120653</t>
+  </si>
+  <si>
+    <t>1.227993360</t>
+  </si>
+  <si>
+    <t>1.228025092</t>
+  </si>
+  <si>
+    <t>1.227967124</t>
+  </si>
+  <si>
+    <t>1.227942965</t>
+  </si>
+  <si>
+    <t>1.227967033</t>
+  </si>
+  <si>
+    <t>1.227990169</t>
+  </si>
+  <si>
+    <t>1.227966753</t>
+  </si>
+  <si>
+    <t>1.227966483</t>
+  </si>
+  <si>
+    <t>1.228010208</t>
+  </si>
+  <si>
+    <t>1.228121297</t>
+  </si>
+  <si>
+    <t>1.228083204</t>
+  </si>
+  <si>
+    <t>1.227962536</t>
+  </si>
+  <si>
+    <t>1.228036180</t>
+  </si>
+  <si>
+    <t>1.228004428</t>
+  </si>
+  <si>
+    <t>1.227979821</t>
+  </si>
+  <si>
+    <t>1.228042062</t>
+  </si>
+  <si>
     <t>1.227601522</t>
   </si>
   <si>
+    <t>1.228029821</t>
+  </si>
+  <si>
+    <t>1.228175136</t>
+  </si>
+  <si>
     <t>1.227610309</t>
   </si>
   <si>
@@ -958,7 +1039,85 @@
     <t>1.228202282</t>
   </si>
   <si>
+    <t>1.228074445</t>
+  </si>
+  <si>
+    <t>1.228127099</t>
+  </si>
+  <si>
+    <t>1.228009997</t>
+  </si>
+  <si>
+    <t>1.227979271</t>
+  </si>
+  <si>
+    <t>1.228037307</t>
+  </si>
+  <si>
+    <t>1.228114850</t>
+  </si>
+  <si>
+    <t>1.228114760</t>
+  </si>
+  <si>
+    <t>1.228120572</t>
+  </si>
+  <si>
+    <t>1.227993370</t>
+  </si>
+  <si>
+    <t>1.228025017</t>
+  </si>
+  <si>
+    <t>1.227967049</t>
+  </si>
+  <si>
+    <t>1.227942975</t>
+  </si>
+  <si>
+    <t>1.227966958</t>
+  </si>
+  <si>
+    <t>1.227990094</t>
+  </si>
+  <si>
+    <t>1.227966678</t>
+  </si>
+  <si>
+    <t>1.227966408</t>
+  </si>
+  <si>
+    <t>1.228010133</t>
+  </si>
+  <si>
+    <t>1.228121222</t>
+  </si>
+  <si>
+    <t>1.228083129</t>
+  </si>
+  <si>
+    <t>1.227962461</t>
+  </si>
+  <si>
+    <t>1.228036105</t>
+  </si>
+  <si>
+    <t>1.228004353</t>
+  </si>
+  <si>
+    <t>1.227979831</t>
+  </si>
+  <si>
+    <t>1.228041987</t>
+  </si>
+  <si>
     <t>1.227601532</t>
+  </si>
+  <si>
+    <t>1.228029746</t>
+  </si>
+  <si>
+    <t>1.228175061</t>
   </si>
   <si>
     <t>1.227610319</t>
@@ -1719,13 +1878,13 @@
         <v>231</v>
       </c>
       <c r="BK2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BL2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BM2" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1745,160 +1904,160 @@
         <v>154</v>
       </c>
       <c r="F3">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G3">
-        <v>980</v>
+        <v>2.46</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J3">
-        <v>1.03</v>
+        <v>2.76</v>
       </c>
       <c r="K3">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="L3">
         <v>1.55</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N3">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="O3">
-        <v>13.5</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
         <v>193</v>
@@ -1916,13 +2075,13 @@
         <v>232</v>
       </c>
       <c r="BK3" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1942,19 +2101,19 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -1972,130 +2131,130 @@
         <v>6.4</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
         <v>194</v>
@@ -2113,13 +2272,13 @@
         <v>233</v>
       </c>
       <c r="BK4" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2139,160 +2298,160 @@
         <v>156</v>
       </c>
       <c r="F5">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G5">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="H5">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="I5">
         <v>4.6</v>
       </c>
       <c r="J5">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L5">
         <v>1.56</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N5">
         <v>2.04</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>2.76</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
         <v>195</v>
@@ -2310,13 +2469,13 @@
         <v>234</v>
       </c>
       <c r="BK5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2336,184 +2495,184 @@
         <v>157</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="N6">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="O6">
-        <v>36</v>
+        <v>2.82</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
         <v>196</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>503236</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>5664283</v>
       </c>
       <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>235</v>
       </c>
       <c r="BK6" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2533,25 +2692,25 @@
         <v>158</v>
       </c>
       <c r="F7">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="J7">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="M7">
         <v>1.92</v>
@@ -2560,133 +2719,133 @@
         <v>2.08</v>
       </c>
       <c r="O7">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
         <v>197</v>
@@ -2701,16 +2860,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BK7" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>313</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2730,160 +2889,160 @@
         <v>159</v>
       </c>
       <c r="F8">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G8">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
         <v>3.1</v>
       </c>
       <c r="K8">
+        <v>3.85</v>
+      </c>
+      <c r="L8">
+        <v>1.75</v>
+      </c>
+      <c r="M8">
+        <v>2.02</v>
+      </c>
+      <c r="N8">
+        <v>1.98</v>
+      </c>
+      <c r="O8">
+        <v>2.34</v>
+      </c>
+      <c r="P8">
+        <v>1.68</v>
+      </c>
+      <c r="Q8">
+        <v>2.16</v>
+      </c>
+      <c r="R8">
+        <v>1.86</v>
+      </c>
+      <c r="S8">
+        <v>2.48</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>15</v>
+      </c>
+      <c r="V8">
+        <v>8.6</v>
+      </c>
+      <c r="W8">
+        <v>14.5</v>
+      </c>
+      <c r="X8">
+        <v>3.65</v>
+      </c>
+      <c r="Y8">
+        <v>25</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>65</v>
+      </c>
+      <c r="AB8">
+        <v>7.6</v>
+      </c>
+      <c r="AC8">
+        <v>12.5</v>
+      </c>
+      <c r="AD8">
+        <v>5.9</v>
+      </c>
+      <c r="AE8">
+        <v>9.4</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>17</v>
+      </c>
+      <c r="AH8">
         <v>3.9</v>
       </c>
-      <c r="L8">
-        <v>1.68</v>
-      </c>
-      <c r="M8">
-        <v>2.06</v>
-      </c>
-      <c r="N8">
-        <v>1.94</v>
-      </c>
-      <c r="O8">
-        <v>2.46</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
         <v>198</v>
@@ -2898,16 +3057,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BK8" t="s">
-        <v>274</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>275</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2927,160 +3086,160 @@
         <v>160</v>
       </c>
       <c r="F9">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2.06</v>
+      </c>
+      <c r="I9">
+        <v>2.7</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>6.4</v>
-      </c>
-      <c r="H9">
-        <v>1.04</v>
-      </c>
-      <c r="I9">
-        <v>2.72</v>
-      </c>
-      <c r="J9">
-        <v>3.15</v>
-      </c>
-      <c r="K9">
-        <v>17.5</v>
       </c>
       <c r="L9">
         <v>1.8</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="N9">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O9">
         <v>2.24</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF9" t="s">
         <v>199</v>
@@ -3095,16 +3254,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BK9" t="s">
-        <v>275</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3124,160 +3283,160 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G10">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H10">
         <v>5.3</v>
       </c>
       <c r="I10">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K10">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="L10">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M10">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="N10">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="O10">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10" t="s">
         <v>200</v>
@@ -3292,16 +3451,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BK10" t="s">
-        <v>276</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>316</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3321,160 +3480,160 @@
         <v>162</v>
       </c>
       <c r="F11">
+        <v>2.1</v>
+      </c>
+      <c r="G11">
+        <v>2.2</v>
+      </c>
+      <c r="H11">
+        <v>3.65</v>
+      </c>
+      <c r="I11">
+        <v>4.1</v>
+      </c>
+      <c r="J11">
+        <v>3.55</v>
+      </c>
+      <c r="K11">
+        <v>3.7</v>
+      </c>
+      <c r="L11">
+        <v>1.95</v>
+      </c>
+      <c r="M11">
         <v>2.14</v>
       </c>
-      <c r="G11">
-        <v>2.34</v>
-      </c>
-      <c r="H11">
-        <v>3.5</v>
-      </c>
-      <c r="I11">
-        <v>3.85</v>
-      </c>
-      <c r="J11">
-        <v>3.5</v>
-      </c>
-      <c r="K11">
-        <v>3.65</v>
-      </c>
-      <c r="L11">
-        <v>1.91</v>
-      </c>
-      <c r="M11">
-        <v>2.16</v>
-      </c>
       <c r="N11">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O11">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF11" t="s">
         <v>201</v>
@@ -3489,16 +3648,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BK11" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
+        <v>278</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3521,22 +3680,22 @@
         <v>3.2</v>
       </c>
       <c r="G12">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H12">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I12">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J12">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K12">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L12">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="M12">
         <v>2.12</v>
@@ -3545,133 +3704,133 @@
         <v>1.9</v>
       </c>
       <c r="O12">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF12" t="s">
         <v>202</v>
@@ -3686,16 +3845,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BK12" t="s">
-        <v>278</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>318</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3718,157 +3877,157 @@
         <v>2.42</v>
       </c>
       <c r="G13">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J13">
         <v>3.55</v>
       </c>
       <c r="K13">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L13">
         <v>2.04</v>
       </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N13">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
         <v>1.97</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
         <v>203</v>
@@ -3883,16 +4042,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BK13" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>319</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3915,13 +4074,13 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H14">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J14">
         <v>3.85</v>
@@ -3939,133 +4098,133 @@
         <v>1.78</v>
       </c>
       <c r="O14">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="BF14" t="s">
         <v>204</v>
@@ -4080,16 +4239,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BK14" t="s">
-        <v>280</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
+        <v>281</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>320</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4109,22 +4268,22 @@
         <v>166</v>
       </c>
       <c r="F15">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G15">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H15">
         <v>3.9</v>
       </c>
       <c r="I15">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J15">
         <v>3.3</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
         <v>1.67</v>
@@ -4136,133 +4295,133 @@
         <v>2.3</v>
       </c>
       <c r="O15">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
         <v>205</v>
@@ -4277,16 +4436,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BK15" t="s">
-        <v>281</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4306,160 +4465,160 @@
         <v>167</v>
       </c>
       <c r="F16">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="G16">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="H16">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I16">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="J16">
         <v>3.05</v>
       </c>
       <c r="K16">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
         <v>1.67</v>
       </c>
       <c r="M16">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N16">
         <v>2.12</v>
       </c>
       <c r="O16">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF16" t="s">
         <v>206</v>
@@ -4474,16 +4633,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BK16" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>322</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4503,13 +4662,13 @@
         <v>168</v>
       </c>
       <c r="F17">
+        <v>1.83</v>
+      </c>
+      <c r="G17">
         <v>1.88</v>
       </c>
-      <c r="G17">
-        <v>1.97</v>
-      </c>
       <c r="H17">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I17">
         <v>4.6</v>
@@ -4518,145 +4677,145 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17">
         <v>2.22</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="N17">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O17">
         <v>1.82</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF17" t="s">
         <v>207</v>
@@ -4671,16 +4830,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BK17" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4700,19 +4859,19 @@
         <v>169</v>
       </c>
       <c r="F18">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G18">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H18">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I18">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J18">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>4.1</v>
@@ -4721,139 +4880,139 @@
         <v>2.1</v>
       </c>
       <c r="M18">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="N18">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O18">
         <v>1.91</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="BF18" t="s">
         <v>208</v>
@@ -4868,16 +5027,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BK18" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4897,160 +5056,160 @@
         <v>170</v>
       </c>
       <c r="F19">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G19">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H19">
+        <v>6.2</v>
+      </c>
+      <c r="I19">
+        <v>10.5</v>
+      </c>
+      <c r="J19">
+        <v>3.8</v>
+      </c>
+      <c r="K19">
         <v>4.7</v>
       </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="J19">
+      <c r="L19">
+        <v>1.7</v>
+      </c>
+      <c r="M19">
+        <v>1.95</v>
+      </c>
+      <c r="N19">
+        <v>2.06</v>
+      </c>
+      <c r="O19">
+        <v>2.44</v>
+      </c>
+      <c r="P19">
+        <v>2.02</v>
+      </c>
+      <c r="Q19">
+        <v>2.76</v>
+      </c>
+      <c r="R19">
+        <v>1.57</v>
+      </c>
+      <c r="S19">
+        <v>1.97</v>
+      </c>
+      <c r="T19">
+        <v>8.6</v>
+      </c>
+      <c r="U19">
+        <v>14.5</v>
+      </c>
+      <c r="V19">
         <v>3.65</v>
       </c>
-      <c r="K19">
+      <c r="W19">
+        <v>25</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>80</v>
+      </c>
+      <c r="Z19">
+        <v>4.2</v>
+      </c>
+      <c r="AA19">
+        <v>1000</v>
+      </c>
+      <c r="AB19">
         <v>5.1</v>
       </c>
-      <c r="L19">
-        <v>1.69</v>
-      </c>
-      <c r="M19">
-        <v>2.02</v>
-      </c>
-      <c r="N19">
-        <v>1.98</v>
-      </c>
-      <c r="O19">
-        <v>2.46</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19" t="s">
         <v>209</v>
@@ -5065,16 +5224,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BK19" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5094,160 +5253,160 @@
         <v>171</v>
       </c>
       <c r="F20">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G20">
+        <v>15.5</v>
+      </c>
+      <c r="H20">
+        <v>1.47</v>
+      </c>
+      <c r="I20">
+        <v>1.8</v>
+      </c>
+      <c r="J20">
+        <v>3.95</v>
+      </c>
+      <c r="K20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L20">
+        <v>1.84</v>
+      </c>
+      <c r="M20">
+        <v>2.58</v>
+      </c>
+      <c r="N20">
+        <v>1.63</v>
+      </c>
+      <c r="O20">
+        <v>2.2</v>
+      </c>
+      <c r="P20">
+        <v>1.01</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>1.01</v>
+      </c>
+      <c r="S20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>14.5</v>
+      </c>
+      <c r="U20">
+        <v>1000</v>
+      </c>
+      <c r="V20">
+        <v>8.4</v>
+      </c>
+      <c r="W20">
+        <v>1000</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <v>15</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+      <c r="AB20">
+        <v>18.5</v>
+      </c>
+      <c r="AC20">
+        <v>1000</v>
+      </c>
+      <c r="AD20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>1000</v>
+      </c>
+      <c r="AF20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG20">
+        <v>1000</v>
+      </c>
+      <c r="AH20">
+        <v>13.5</v>
+      </c>
+      <c r="AI20">
+        <v>1000</v>
+      </c>
+      <c r="AJ20">
+        <v>34</v>
+      </c>
+      <c r="AK20">
+        <v>1000</v>
+      </c>
+      <c r="AL20">
+        <v>18</v>
+      </c>
+      <c r="AM20">
+        <v>1000</v>
+      </c>
+      <c r="AN20">
+        <v>16.5</v>
+      </c>
+      <c r="AO20">
+        <v>1000</v>
+      </c>
+      <c r="AP20">
+        <v>26</v>
+      </c>
+      <c r="AQ20">
+        <v>1000</v>
+      </c>
+      <c r="AR20">
+        <v>90</v>
+      </c>
+      <c r="AS20">
+        <v>1000</v>
+      </c>
+      <c r="AT20">
         <v>48</v>
       </c>
-      <c r="H20">
-        <v>1.48</v>
-      </c>
-      <c r="I20">
-        <v>1.94</v>
-      </c>
-      <c r="J20">
-        <v>3.6</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <v>1.8</v>
-      </c>
-      <c r="M20">
-        <v>3.25</v>
-      </c>
-      <c r="N20">
-        <v>1.44</v>
-      </c>
-      <c r="O20">
-        <v>2.24</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
       <c r="AU20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20" t="s">
         <v>210</v>
@@ -5262,16 +5421,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BK20" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>326</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5291,160 +5450,160 @@
         <v>172</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="G21">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="H21">
-        <v>1.66</v>
+        <v>3.35</v>
       </c>
       <c r="I21">
         <v>4.5</v>
       </c>
       <c r="J21">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L21">
         <v>1.75</v>
       </c>
       <c r="M21">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="N21">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>2.32</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
         <v>211</v>
@@ -5459,16 +5618,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BK21" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>327</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5488,25 +5647,25 @@
         <v>173</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G22">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="H22">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="I22">
         <v>1.94</v>
       </c>
       <c r="J22">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="M22">
         <v>2.6</v>
@@ -5515,133 +5674,133 @@
         <v>1.63</v>
       </c>
       <c r="O22">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
         <v>212</v>
@@ -5656,16 +5815,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BK22" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+        <v>289</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5685,160 +5844,160 @@
         <v>174</v>
       </c>
       <c r="F23">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G23">
         <v>2.12</v>
       </c>
       <c r="H23">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I23">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J23">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K23">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="M23">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="N23">
         <v>1.65</v>
       </c>
       <c r="O23">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
         <v>213</v>
@@ -5853,16 +6012,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK23" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+        <v>290</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5900,142 +6059,142 @@
         <v>990</v>
       </c>
       <c r="L24">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="M24">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="O24">
-        <v>110</v>
+        <v>13.5</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
         <v>214</v>
@@ -6050,16 +6209,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK24" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6079,22 +6238,22 @@
         <v>176</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G25">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H25">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I25">
         <v>4.9</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K25">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L25">
         <v>1.58</v>
@@ -6109,130 +6268,130 @@
         <v>2.74</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
         <v>215</v>
@@ -6247,16 +6406,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK25" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6276,160 +6435,160 @@
         <v>177</v>
       </c>
       <c r="F26">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G26">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H26">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I26">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="J26">
         <v>3.7</v>
       </c>
       <c r="K26">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L26">
+        <v>1.95</v>
+      </c>
+      <c r="M26">
+        <v>2.1</v>
+      </c>
+      <c r="N26">
+        <v>1.91</v>
+      </c>
+      <c r="O26">
         <v>2.06</v>
       </c>
-      <c r="M26">
-        <v>2.18</v>
-      </c>
-      <c r="N26">
-        <v>1.86</v>
-      </c>
-      <c r="O26">
-        <v>1.93</v>
-      </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
         <v>216</v>
@@ -6444,16 +6603,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BK26" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6473,7 +6632,7 @@
         <v>178</v>
       </c>
       <c r="F27">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G27">
         <v>2.4</v>
@@ -6491,7 +6650,7 @@
         <v>3.25</v>
       </c>
       <c r="L27">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M27">
         <v>1.7</v>
@@ -6500,10 +6659,10 @@
         <v>2.44</v>
       </c>
       <c r="O27">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="P27">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q27">
         <v>2.12</v>
@@ -6515,31 +6674,31 @@
         <v>1.95</v>
       </c>
       <c r="T27">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V27">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W27">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X27">
         <v>21</v>
       </c>
       <c r="Y27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z27">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AA27">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB27">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC27">
         <v>8.199999999999999</v>
@@ -6548,82 +6707,82 @@
         <v>6.8</v>
       </c>
       <c r="AE27">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF27">
         <v>14.5</v>
       </c>
       <c r="AG27">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AI27">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ27">
         <v>12</v>
       </c>
       <c r="AK27">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL27">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM27">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN27">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO27">
+        <v>22</v>
+      </c>
+      <c r="AP27">
+        <v>65</v>
+      </c>
+      <c r="AQ27">
+        <v>75</v>
+      </c>
+      <c r="AR27">
+        <v>29</v>
+      </c>
+      <c r="AS27">
+        <v>32</v>
+      </c>
+      <c r="AT27">
         <v>27</v>
       </c>
-      <c r="AP27">
+      <c r="AU27">
+        <v>30</v>
+      </c>
+      <c r="AV27">
         <v>48</v>
       </c>
-      <c r="AQ27">
-        <v>90</v>
-      </c>
-      <c r="AR27">
-        <v>27</v>
-      </c>
-      <c r="AS27">
-        <v>40</v>
-      </c>
-      <c r="AT27">
-        <v>24</v>
-      </c>
-      <c r="AU27">
-        <v>38</v>
-      </c>
-      <c r="AV27">
-        <v>44</v>
-      </c>
       <c r="AW27">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX27">
-        <v>8.199999999999999</v>
+        <v>95</v>
       </c>
       <c r="AY27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AZ27">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="BA27">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BB27">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="BC27">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BD27">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6641,16 +6800,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BL27" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="BM27" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6670,160 +6829,160 @@
         <v>179</v>
       </c>
       <c r="F28">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G28">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H28">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="I28">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="J28">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K28">
         <v>4.4</v>
       </c>
       <c r="L28">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="M28">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="N28">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
-        <v>6.4</v>
+        <v>2.98</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28" t="s">
         <v>218</v>
@@ -6838,16 +6997,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK28" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6867,160 +7026,160 @@
         <v>180</v>
       </c>
       <c r="F29">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G29">
+        <v>1.4</v>
+      </c>
+      <c r="H29">
+        <v>6.8</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>2.28</v>
+      </c>
+      <c r="M29">
+        <v>2.64</v>
+      </c>
+      <c r="N29">
         <v>1.6</v>
       </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>100</v>
-      </c>
-      <c r="J29">
-        <v>4.8</v>
-      </c>
-      <c r="K29">
-        <v>19.5</v>
-      </c>
-      <c r="L29">
-        <v>1.89</v>
-      </c>
-      <c r="M29">
-        <v>3.6</v>
-      </c>
-      <c r="N29">
-        <v>1.38</v>
-      </c>
       <c r="O29">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF29" t="s">
         <v>219</v>
@@ -7035,16 +7194,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BK29" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7070,7 +7229,7 @@
         <v>1.39</v>
       </c>
       <c r="H30">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I30">
         <v>10.5</v>
@@ -7082,10 +7241,10 @@
         <v>5.8</v>
       </c>
       <c r="L30">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="M30">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="N30">
         <v>1.68</v>
@@ -7100,7 +7259,7 @@
         <v>2.1</v>
       </c>
       <c r="R30">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S30">
         <v>1.99</v>
@@ -7109,28 +7268,28 @@
         <v>19.5</v>
       </c>
       <c r="U30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W30">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X30">
         <v>65</v>
       </c>
       <c r="Y30">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="Z30">
         <v>100</v>
       </c>
       <c r="AA30">
-        <v>980</v>
+        <v>360</v>
       </c>
       <c r="AB30">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC30">
         <v>9.199999999999999</v>
@@ -7139,82 +7298,82 @@
         <v>11</v>
       </c>
       <c r="AE30">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF30">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG30">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AH30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AI30">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ30">
         <v>7.8</v>
       </c>
       <c r="AK30">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AL30">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM30">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN30">
         <v>24</v>
       </c>
       <c r="AO30">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AP30">
         <v>95</v>
       </c>
       <c r="AQ30">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AR30">
         <v>10.5</v>
       </c>
       <c r="AS30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT30">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU30">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AV30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW30">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AX30">
         <v>100</v>
       </c>
       <c r="AY30">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AZ30">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="BA30">
         <v>5.7</v>
       </c>
       <c r="BB30">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="BC30">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="BD30">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7232,16 +7391,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BK30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BL30" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="BM30" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7282,136 +7441,136 @@
         <v>2.1</v>
       </c>
       <c r="M31">
-        <v>5.6</v>
+        <v>2.26</v>
       </c>
       <c r="N31">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
         <v>1.9</v>
       </c>
       <c r="P31">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="Q31">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="S31">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="T31">
-        <v>1.12</v>
+        <v>15</v>
       </c>
       <c r="U31">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="V31">
-        <v>1.12</v>
+        <v>8.6</v>
       </c>
       <c r="W31">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X31">
-        <v>1.12</v>
+        <v>9.6</v>
       </c>
       <c r="Y31">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z31">
-        <v>1.12</v>
+        <v>15</v>
       </c>
       <c r="AA31">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB31">
-        <v>1.12</v>
+        <v>17.5</v>
       </c>
       <c r="AC31">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD31">
-        <v>1.12</v>
+        <v>8.6</v>
       </c>
       <c r="AE31">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AF31">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31">
-        <v>1.12</v>
+        <v>15.5</v>
       </c>
       <c r="AI31">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AJ31">
-        <v>1.12</v>
+        <v>40</v>
       </c>
       <c r="AK31">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL31">
-        <v>1.12</v>
+        <v>19.5</v>
       </c>
       <c r="AM31">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AN31">
-        <v>1.12</v>
+        <v>19</v>
       </c>
       <c r="AO31">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP31">
-        <v>1.12</v>
+        <v>30</v>
       </c>
       <c r="AQ31">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AR31">
-        <v>1.12</v>
+        <v>42</v>
       </c>
       <c r="AS31">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AT31">
-        <v>1.12</v>
+        <v>55</v>
       </c>
       <c r="AU31">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AV31">
-        <v>1.12</v>
+        <v>55</v>
       </c>
       <c r="AW31">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AX31">
-        <v>1.12</v>
+        <v>40</v>
       </c>
       <c r="AY31">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ31">
-        <v>1.12</v>
+        <v>55</v>
       </c>
       <c r="BA31">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BB31">
-        <v>1.12</v>
+        <v>7.6</v>
       </c>
       <c r="BC31">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="BD31">
-        <v>1.12</v>
+        <v>13.5</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7429,16 +7588,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BK31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BL31" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="BM31" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7626,10 +7785,10 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BK32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL32">
         <v>0</v>
@@ -7658,7 +7817,7 @@
         <v>2.04</v>
       </c>
       <c r="G33">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -7667,13 +7826,13 @@
         <v>4.6</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K33">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L33">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="M33">
         <v>1.74</v>
@@ -7682,10 +7841,10 @@
         <v>2.34</v>
       </c>
       <c r="O33">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="P33">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q33">
         <v>2.22</v>
@@ -7694,10 +7853,10 @@
         <v>1.81</v>
       </c>
       <c r="S33">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="T33">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="U33">
         <v>980</v>
@@ -7709,13 +7868,13 @@
         <v>980</v>
       </c>
       <c r="X33">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="Y33">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AA33">
         <v>1000</v>
@@ -7724,28 +7883,28 @@
         <v>6.2</v>
       </c>
       <c r="AC33">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE33">
         <v>980</v>
       </c>
       <c r="AF33">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AI33">
         <v>1000</v>
       </c>
       <c r="AJ33">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="AK33">
         <v>980</v>
@@ -7757,55 +7916,55 @@
         <v>980</v>
       </c>
       <c r="AN33">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AQ33">
         <v>1000</v>
       </c>
       <c r="AR33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AS33">
         <v>980</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AU33">
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="AW33">
         <v>1000</v>
       </c>
       <c r="AX33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AY33">
         <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="BA33">
         <v>980</v>
       </c>
       <c r="BB33">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="BC33">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD33">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7823,16 +7982,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BK33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BL33" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="BM33" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7852,7 +8011,7 @@
         <v>185</v>
       </c>
       <c r="F34">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G34">
         <v>3.3</v>
@@ -7870,16 +8029,16 @@
         <v>3.2</v>
       </c>
       <c r="L34">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M34">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="N34">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P34">
         <v>2.08</v>
@@ -7897,7 +8056,7 @@
         <v>4.6</v>
       </c>
       <c r="U34">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="V34">
         <v>7.6</v>
@@ -7951,7 +8110,7 @@
         <v>11.5</v>
       </c>
       <c r="AM34">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN34">
         <v>19</v>
@@ -7990,19 +8149,19 @@
         <v>980</v>
       </c>
       <c r="AZ34">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BA34">
         <v>980</v>
       </c>
       <c r="BB34">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BC34">
         <v>980</v>
       </c>
       <c r="BD34">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -8020,16 +8179,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BL34" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="BM34" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8049,22 +8208,22 @@
         <v>186</v>
       </c>
       <c r="F35">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="G35">
         <v>14.5</v>
       </c>
       <c r="H35">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="I35">
         <v>990</v>
       </c>
       <c r="J35">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="K35">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="L35">
         <v>1.07</v>
@@ -8076,7 +8235,7 @@
         <v>1.01</v>
       </c>
       <c r="O35">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -8217,10 +8376,10 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL35">
         <v>0</v>
@@ -8252,7 +8411,7 @@
         <v>1000</v>
       </c>
       <c r="H36">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="I36">
         <v>990</v>
@@ -8414,10 +8573,10 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BL36">
         <v>0</v>
@@ -8443,34 +8602,34 @@
         <v>188</v>
       </c>
       <c r="F37">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G37">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="H37">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I37">
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K37">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="L37">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M37">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="N37">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -8611,10 +8770,10 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BL37">
         <v>0</v>
@@ -8640,34 +8799,34 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="G38">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H38">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I38">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J38">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K38">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L38">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M38">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="N38">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="O38">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -8808,10 +8967,10 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BL38">
         <v>0</v>
@@ -8837,34 +8996,34 @@
         <v>190</v>
       </c>
       <c r="F39">
-        <v>1.82</v>
+        <v>1.11</v>
       </c>
       <c r="G39">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H39">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I39">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J39">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K39">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L39">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="O39">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -9005,10 +9164,10 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BL39">
         <v>0</v>
@@ -9205,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="BK40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BL40">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="374">
   <si>
     <t>League</t>
   </si>
@@ -1030,6 +1030,9 @@
     <t>1.227892438</t>
   </si>
   <si>
+    <t>1.227974403</t>
+  </si>
+  <si>
     <t>1.228001129</t>
   </si>
   <si>
@@ -1124,6 +1127,9 @@
   </si>
   <si>
     <t>1.227892448</t>
+  </si>
+  <si>
+    <t>1.227974328</t>
   </si>
   <si>
     <t>1.228001139</t>
@@ -1884,7 +1890,7 @@
         <v>308</v>
       </c>
       <c r="BM2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1925,13 +1931,13 @@
         <v>1.55</v>
       </c>
       <c r="M3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P3">
         <v>1.01</v>
@@ -2081,7 +2087,7 @@
         <v>309</v>
       </c>
       <c r="BM3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2101,19 +2107,19 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G4">
         <v>9.800000000000001</v>
       </c>
       <c r="H4">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -2251,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2278,7 +2284,7 @@
         <v>310</v>
       </c>
       <c r="BM4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2301,7 +2307,7 @@
         <v>2.2</v>
       </c>
       <c r="G5">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="H5">
         <v>3.05</v>
@@ -2319,7 +2325,7 @@
         <v>1.56</v>
       </c>
       <c r="M5">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="N5">
         <v>2.04</v>
@@ -2475,7 +2481,7 @@
         <v>311</v>
       </c>
       <c r="BM5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2495,31 +2501,31 @@
         <v>157</v>
       </c>
       <c r="F6">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G6">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H6">
         <v>3.1</v>
       </c>
       <c r="I6">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J6">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K6">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>1.54</v>
       </c>
       <c r="M6">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="O6">
         <v>2.82</v>
@@ -2537,13 +2543,13 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U6">
         <v>1000</v>
       </c>
       <c r="V6">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W6">
         <v>1000</v>
@@ -2561,19 +2567,19 @@
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC6">
         <v>1000</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE6">
         <v>1000</v>
       </c>
       <c r="AF6">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG6">
         <v>1000</v>
@@ -2585,19 +2591,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6">
         <v>1000</v>
       </c>
       <c r="AL6">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM6">
         <v>1000</v>
       </c>
       <c r="AN6">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO6">
         <v>1000</v>
@@ -2609,13 +2615,13 @@
         <v>1000</v>
       </c>
       <c r="AR6">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AU6">
         <v>1000</v>
@@ -2672,7 +2678,7 @@
         <v>312</v>
       </c>
       <c r="BM6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2692,46 +2698,46 @@
         <v>158</v>
       </c>
       <c r="F7">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G7">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="H7">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="I7">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="J7">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L7">
         <v>1.69</v>
       </c>
       <c r="M7">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="N7">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O7">
         <v>2.46</v>
       </c>
       <c r="P7">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="Q7">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="R7">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="S7">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="T7">
         <v>3.3</v>
@@ -2869,7 +2875,7 @@
         <v>313</v>
       </c>
       <c r="BM7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2889,16 +2895,16 @@
         <v>159</v>
       </c>
       <c r="F8">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G8">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H8">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I8">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -2910,10 +2916,10 @@
         <v>1.75</v>
       </c>
       <c r="M8">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>2.34</v>
@@ -3066,7 +3072,7 @@
         <v>314</v>
       </c>
       <c r="BM8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3089,28 +3095,28 @@
         <v>2.78</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H9">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I9">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K9">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="L9">
         <v>1.8</v>
       </c>
       <c r="M9">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="N9">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
         <v>2.24</v>
@@ -3263,7 +3269,7 @@
         <v>315</v>
       </c>
       <c r="BM9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3283,7 +3289,7 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="G10">
         <v>1.82</v>
@@ -3292,25 +3298,25 @@
         <v>5.3</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>3.65</v>
       </c>
       <c r="K10">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="L10">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="M10">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="N10">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -3460,7 +3466,7 @@
         <v>316</v>
       </c>
       <c r="BM10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3480,13 +3486,13 @@
         <v>162</v>
       </c>
       <c r="F11">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H11">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I11">
         <v>4.1</v>
@@ -3510,7 +3516,7 @@
         <v>2.06</v>
       </c>
       <c r="P11">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q11">
         <v>2.08</v>
@@ -3531,13 +3537,13 @@
         <v>13.5</v>
       </c>
       <c r="W11">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X11">
         <v>24</v>
       </c>
       <c r="Y11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z11">
         <v>60</v>
@@ -3549,19 +3555,19 @@
         <v>9</v>
       </c>
       <c r="AC11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD11">
         <v>7.4</v>
       </c>
       <c r="AE11">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AF11">
         <v>14</v>
       </c>
       <c r="AG11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH11">
         <v>36</v>
@@ -3570,22 +3576,22 @@
         <v>48</v>
       </c>
       <c r="AJ11">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK11">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AL11">
         <v>9.800000000000001</v>
       </c>
       <c r="AM11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN11">
         <v>16</v>
       </c>
       <c r="AO11">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP11">
         <v>44</v>
@@ -3597,10 +3603,10 @@
         <v>23</v>
       </c>
       <c r="AS11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU11">
         <v>23</v>
@@ -3618,7 +3624,7 @@
         <v>100</v>
       </c>
       <c r="AZ11">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>16.5</v>
@@ -3630,7 +3636,7 @@
         <v>46</v>
       </c>
       <c r="BD11">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3657,7 +3663,7 @@
         <v>317</v>
       </c>
       <c r="BM11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3854,7 +3860,7 @@
         <v>318</v>
       </c>
       <c r="BM12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4006,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="AX13">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY13">
         <v>85</v>
@@ -4051,7 +4057,7 @@
         <v>319</v>
       </c>
       <c r="BM13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4071,10 +4077,10 @@
         <v>165</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G14">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H14">
         <v>1.85</v>
@@ -4083,31 +4089,31 @@
         <v>1.89</v>
       </c>
       <c r="J14">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N14">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="O14">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P14">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q14">
         <v>1.93</v>
       </c>
       <c r="R14">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S14">
         <v>2.46</v>
@@ -4248,7 +4254,7 @@
         <v>320</v>
       </c>
       <c r="BM14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4298,13 +4304,13 @@
         <v>2.5</v>
       </c>
       <c r="P15">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q15">
         <v>2.26</v>
       </c>
       <c r="R15">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S15">
         <v>2.08</v>
@@ -4445,7 +4451,7 @@
         <v>321</v>
       </c>
       <c r="BM15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4465,16 +4471,16 @@
         <v>167</v>
       </c>
       <c r="F16">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="G16">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I16">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J16">
         <v>3.05</v>
@@ -4495,16 +4501,16 @@
         <v>2.48</v>
       </c>
       <c r="P16">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q16">
         <v>2.12</v>
       </c>
       <c r="R16">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T16">
         <v>9</v>
@@ -4513,28 +4519,28 @@
         <v>12</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W16">
         <v>11</v>
       </c>
       <c r="X16">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y16">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB16">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC16">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD16">
         <v>6.2</v>
@@ -4543,28 +4549,28 @@
         <v>8.4</v>
       </c>
       <c r="AF16">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG16">
         <v>14</v>
       </c>
       <c r="AH16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ16">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK16">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM16">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN16">
         <v>16</v>
@@ -4576,19 +4582,19 @@
         <v>40</v>
       </c>
       <c r="AQ16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AS16">
         <v>55</v>
       </c>
       <c r="AT16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV16">
         <v>42</v>
@@ -4606,7 +4612,7 @@
         <v>1.01</v>
       </c>
       <c r="BA16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB16">
         <v>1.01</v>
@@ -4642,7 +4648,7 @@
         <v>322</v>
       </c>
       <c r="BM16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4668,7 +4674,7 @@
         <v>1.88</v>
       </c>
       <c r="H17">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I17">
         <v>4.6</v>
@@ -4839,7 +4845,7 @@
         <v>323</v>
       </c>
       <c r="BM17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4862,10 +4868,10 @@
         <v>1.89</v>
       </c>
       <c r="G18">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H18">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
         <v>4.5</v>
@@ -4901,7 +4907,7 @@
         <v>2.44</v>
       </c>
       <c r="T18">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U18">
         <v>16.5</v>
@@ -4910,7 +4916,7 @@
         <v>15.5</v>
       </c>
       <c r="W18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X18">
         <v>30</v>
@@ -4967,7 +4973,7 @@
         <v>18.5</v>
       </c>
       <c r="AP18">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ18">
         <v>60</v>
@@ -5000,13 +5006,13 @@
         <v>8.6</v>
       </c>
       <c r="BA18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BB18">
         <v>34</v>
       </c>
       <c r="BC18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BD18">
         <v>7.6</v>
@@ -5036,7 +5042,7 @@
         <v>324</v>
       </c>
       <c r="BM18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5059,10 +5065,10 @@
         <v>1.49</v>
       </c>
       <c r="G19">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H19">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I19">
         <v>10.5</v>
@@ -5074,28 +5080,28 @@
         <v>4.7</v>
       </c>
       <c r="L19">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M19">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N19">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="O19">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="P19">
         <v>2.02</v>
       </c>
       <c r="Q19">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R19">
         <v>1.57</v>
       </c>
       <c r="S19">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T19">
         <v>8.6</v>
@@ -5104,19 +5110,19 @@
         <v>14.5</v>
       </c>
       <c r="V19">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W19">
         <v>25</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y19">
         <v>80</v>
       </c>
       <c r="Z19">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA19">
         <v>1000</v>
@@ -5131,16 +5137,16 @@
         <v>7.2</v>
       </c>
       <c r="AE19">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF19">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AG19">
         <v>38</v>
       </c>
       <c r="AH19">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AI19">
         <v>1000</v>
@@ -5158,25 +5164,25 @@
         <v>13</v>
       </c>
       <c r="AN19">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO19">
         <v>38</v>
       </c>
       <c r="AP19">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ19">
         <v>1000</v>
       </c>
       <c r="AR19">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AS19">
         <v>17.5</v>
       </c>
       <c r="AT19">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AU19">
         <v>24</v>
@@ -5200,13 +5206,13 @@
         <v>13.5</v>
       </c>
       <c r="BB19">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC19">
         <v>1000</v>
       </c>
       <c r="BD19">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -5233,7 +5239,7 @@
         <v>325</v>
       </c>
       <c r="BM19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5256,31 +5262,31 @@
         <v>4.5</v>
       </c>
       <c r="G20">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>1.47</v>
       </c>
       <c r="I20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J20">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K20">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L20">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="M20">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="N20">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="O20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P20">
         <v>1.01</v>
@@ -5430,7 +5436,7 @@
         <v>326</v>
       </c>
       <c r="BM20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5450,7 +5456,7 @@
         <v>172</v>
       </c>
       <c r="F21">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="G21">
         <v>2.34</v>
@@ -5465,16 +5471,16 @@
         <v>3</v>
       </c>
       <c r="K21">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L21">
         <v>1.75</v>
       </c>
       <c r="M21">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O21">
         <v>2.32</v>
@@ -5627,7 +5633,7 @@
         <v>327</v>
       </c>
       <c r="BM21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5656,16 +5662,16 @@
         <v>1.78</v>
       </c>
       <c r="I22">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="J22">
         <v>4.4</v>
       </c>
       <c r="K22">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L22">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M22">
         <v>2.6</v>
@@ -5674,130 +5680,130 @@
         <v>1.63</v>
       </c>
       <c r="O22">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="P22">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="Q22">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="R22">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="S22">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="T22">
-        <v>19</v>
+        <v>3.65</v>
       </c>
       <c r="U22">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="V22">
-        <v>9.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="W22">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="X22">
+        <v>3.35</v>
+      </c>
+      <c r="Y22">
+        <v>15.5</v>
+      </c>
+      <c r="Z22">
+        <v>3.6</v>
+      </c>
+      <c r="AA22">
+        <v>24</v>
+      </c>
+      <c r="AB22">
+        <v>3.65</v>
+      </c>
+      <c r="AC22">
+        <v>26</v>
+      </c>
+      <c r="AD22">
+        <v>3.15</v>
+      </c>
+      <c r="AE22">
+        <v>12.5</v>
+      </c>
+      <c r="AF22">
+        <v>3.15</v>
+      </c>
+      <c r="AG22">
+        <v>12.5</v>
+      </c>
+      <c r="AH22">
+        <v>3.55</v>
+      </c>
+      <c r="AI22">
+        <v>21</v>
+      </c>
+      <c r="AJ22">
+        <v>3.9</v>
+      </c>
+      <c r="AK22">
+        <v>46</v>
+      </c>
+      <c r="AL22">
+        <v>3.55</v>
+      </c>
+      <c r="AM22">
+        <v>22</v>
+      </c>
+      <c r="AN22">
+        <v>3.55</v>
+      </c>
+      <c r="AO22">
+        <v>22</v>
+      </c>
+      <c r="AP22">
+        <v>3.8</v>
+      </c>
+      <c r="AQ22">
+        <v>36</v>
+      </c>
+      <c r="AR22">
+        <v>4.1</v>
+      </c>
+      <c r="AS22">
+        <v>120</v>
+      </c>
+      <c r="AT22">
+        <v>4</v>
+      </c>
+      <c r="AU22">
+        <v>60</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>65</v>
+      </c>
+      <c r="AX22">
+        <v>4.1</v>
+      </c>
+      <c r="AY22">
+        <v>100</v>
+      </c>
+      <c r="AZ22">
+        <v>3.95</v>
+      </c>
+      <c r="BA22">
+        <v>50</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BC22">
         <v>10.5</v>
       </c>
-      <c r="Y22">
-        <v>1000</v>
-      </c>
-      <c r="Z22">
-        <v>18.5</v>
-      </c>
-      <c r="AA22">
-        <v>1000</v>
-      </c>
-      <c r="AB22">
-        <v>19.5</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-      <c r="AD22">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE22">
-        <v>1000</v>
-      </c>
-      <c r="AF22">
-        <v>8.6</v>
-      </c>
-      <c r="AG22">
-        <v>1000</v>
-      </c>
-      <c r="AH22">
-        <v>12.5</v>
-      </c>
-      <c r="AI22">
-        <v>1000</v>
-      </c>
-      <c r="AJ22">
-        <v>29</v>
-      </c>
-      <c r="AK22">
-        <v>1000</v>
-      </c>
-      <c r="AL22">
-        <v>16</v>
-      </c>
-      <c r="AM22">
-        <v>1000</v>
-      </c>
-      <c r="AN22">
-        <v>13</v>
-      </c>
-      <c r="AO22">
-        <v>1000</v>
-      </c>
-      <c r="AP22">
-        <v>20</v>
-      </c>
-      <c r="AQ22">
-        <v>1000</v>
-      </c>
-      <c r="AR22">
-        <v>70</v>
-      </c>
-      <c r="AS22">
-        <v>1000</v>
-      </c>
-      <c r="AT22">
-        <v>36</v>
-      </c>
-      <c r="AU22">
-        <v>1000</v>
-      </c>
-      <c r="AV22">
-        <v>38</v>
-      </c>
-      <c r="AW22">
-        <v>1000</v>
-      </c>
-      <c r="AX22">
-        <v>46</v>
-      </c>
-      <c r="AY22">
-        <v>1000</v>
-      </c>
-      <c r="AZ22">
-        <v>1.01</v>
-      </c>
-      <c r="BA22">
-        <v>1000</v>
-      </c>
-      <c r="BB22">
-        <v>1.01</v>
-      </c>
-      <c r="BC22">
-        <v>1000</v>
-      </c>
       <c r="BD22">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5824,7 +5830,7 @@
         <v>328</v>
       </c>
       <c r="BM22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5844,7 +5850,7 @@
         <v>174</v>
       </c>
       <c r="F23">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G23">
         <v>2.12</v>
@@ -5853,10 +5859,10 @@
         <v>3.65</v>
       </c>
       <c r="I23">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J23">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K23">
         <v>4.7</v>
@@ -5865,10 +5871,10 @@
         <v>2.14</v>
       </c>
       <c r="M23">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="N23">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O23">
         <v>1.88</v>
@@ -6021,7 +6027,7 @@
         <v>329</v>
       </c>
       <c r="BM23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6059,13 +6065,13 @@
         <v>990</v>
       </c>
       <c r="L24">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>12.5</v>
       </c>
       <c r="N24">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="O24">
         <v>13.5</v>
@@ -6218,7 +6224,7 @@
         <v>330</v>
       </c>
       <c r="BM24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6238,7 +6244,7 @@
         <v>176</v>
       </c>
       <c r="F25">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G25">
         <v>2.12</v>
@@ -6298,7 +6304,7 @@
         <v>32</v>
       </c>
       <c r="Z25">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA25">
         <v>120</v>
@@ -6322,10 +6328,10 @@
         <v>19.5</v>
       </c>
       <c r="AH25">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -6346,7 +6352,7 @@
         <v>26</v>
       </c>
       <c r="AP25">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ25">
         <v>110</v>
@@ -6370,7 +6376,7 @@
         <v>60</v>
       </c>
       <c r="AX25">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY25">
         <v>200</v>
@@ -6382,13 +6388,13 @@
         <v>25</v>
       </c>
       <c r="BB25">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BC25">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD25">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6415,7 +6421,7 @@
         <v>331</v>
       </c>
       <c r="BM25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6471,7 +6477,7 @@
         <v>2.04</v>
       </c>
       <c r="R26">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S26">
         <v>2.34</v>
@@ -6525,7 +6531,7 @@
         <v>22</v>
       </c>
       <c r="AJ26">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK26">
         <v>38</v>
@@ -6543,49 +6549,49 @@
         <v>22</v>
       </c>
       <c r="AP26">
-        <v>28</v>
+        <v>5.8</v>
       </c>
       <c r="AQ26">
         <v>40</v>
       </c>
       <c r="AR26">
-        <v>75</v>
+        <v>6.4</v>
       </c>
       <c r="AS26">
         <v>110</v>
       </c>
       <c r="AT26">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="AU26">
         <v>65</v>
       </c>
       <c r="AV26">
-        <v>50</v>
+        <v>6.2</v>
       </c>
       <c r="AW26">
         <v>70</v>
       </c>
       <c r="AX26">
-        <v>85</v>
+        <v>6.4</v>
       </c>
       <c r="AY26">
         <v>120</v>
       </c>
       <c r="AZ26">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BA26">
         <v>65</v>
       </c>
       <c r="BB26">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BC26">
         <v>13.5</v>
       </c>
       <c r="BD26">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6612,7 +6618,7 @@
         <v>332</v>
       </c>
       <c r="BM26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6809,7 +6815,7 @@
         <v>333</v>
       </c>
       <c r="BM27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6832,31 +6838,31 @@
         <v>2.8</v>
       </c>
       <c r="G28">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I28">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="J28">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K28">
         <v>4.4</v>
       </c>
       <c r="L28">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M28">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="N28">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="P28">
         <v>1.01</v>
@@ -7006,7 +7012,7 @@
         <v>334</v>
       </c>
       <c r="BM28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7026,22 +7032,22 @@
         <v>180</v>
       </c>
       <c r="F29">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G29">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H29">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>2.28</v>
@@ -7056,127 +7062,127 @@
         <v>1.77</v>
       </c>
       <c r="P29">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="Q29">
-        <v>3.1</v>
+        <v>2.32</v>
       </c>
       <c r="R29">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="S29">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="T29">
         <v>18</v>
       </c>
       <c r="U29">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="V29">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="W29">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="X29">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="Y29">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z29">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AA29">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB29">
         <v>7.6</v>
       </c>
       <c r="AC29">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD29">
         <v>11</v>
       </c>
       <c r="AE29">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF29">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AG29">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH29">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AI29">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ29">
         <v>6.8</v>
       </c>
       <c r="AK29">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AL29">
         <v>8.800000000000001</v>
       </c>
       <c r="AM29">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AN29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO29">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AP29">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AQ29">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AR29">
         <v>8.800000000000001</v>
       </c>
       <c r="AS29">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AT29">
         <v>11.5</v>
       </c>
       <c r="AU29">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AV29">
-        <v>30</v>
+        <v>5.9</v>
       </c>
       <c r="AW29">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX29">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY29">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AZ29">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="BA29">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="BB29">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BC29">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="BD29">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -7203,7 +7209,7 @@
         <v>335</v>
       </c>
       <c r="BM29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7244,7 +7250,7 @@
         <v>2.38</v>
       </c>
       <c r="M30">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="N30">
         <v>1.68</v>
@@ -7259,7 +7265,7 @@
         <v>2.1</v>
       </c>
       <c r="R30">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S30">
         <v>1.99</v>
@@ -7400,7 +7406,7 @@
         <v>336</v>
       </c>
       <c r="BM30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7420,16 +7426,16 @@
         <v>182</v>
       </c>
       <c r="F31">
+        <v>5.2</v>
+      </c>
+      <c r="G31">
         <v>5.3</v>
       </c>
-      <c r="G31">
-        <v>5.4</v>
-      </c>
       <c r="H31">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I31">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="J31">
         <v>4.4</v>
@@ -7438,19 +7444,19 @@
         <v>4.5</v>
       </c>
       <c r="L31">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M31">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O31">
         <v>1.9</v>
       </c>
       <c r="P31">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>1.95</v>
@@ -7462,7 +7468,7 @@
         <v>2.18</v>
       </c>
       <c r="T31">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U31">
         <v>17</v>
@@ -7483,10 +7489,10 @@
         <v>15</v>
       </c>
       <c r="AA31">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB31">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC31">
         <v>22</v>
@@ -7495,7 +7501,7 @@
         <v>8.6</v>
       </c>
       <c r="AE31">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF31">
         <v>9.199999999999999</v>
@@ -7507,7 +7513,7 @@
         <v>15.5</v>
       </c>
       <c r="AI31">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ31">
         <v>40</v>
@@ -7516,7 +7522,7 @@
         <v>44</v>
       </c>
       <c r="AL31">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM31">
         <v>21</v>
@@ -7528,7 +7534,7 @@
         <v>21</v>
       </c>
       <c r="AP31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ31">
         <v>32</v>
@@ -7540,16 +7546,16 @@
         <v>140</v>
       </c>
       <c r="AT31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AU31">
         <v>70</v>
       </c>
       <c r="AV31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW31">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AX31">
         <v>40</v>
@@ -7558,19 +7564,19 @@
         <v>110</v>
       </c>
       <c r="AZ31">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="BA31">
         <v>75</v>
       </c>
       <c r="BB31">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BC31">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BD31">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7597,7 +7603,7 @@
         <v>337</v>
       </c>
       <c r="BM31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7638,139 +7644,139 @@
         <v>1.84</v>
       </c>
       <c r="M32">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="N32">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O32">
         <v>2.18</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AU32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AW32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX32">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AY32">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF32" t="s">
         <v>222</v>
@@ -7790,11 +7796,11 @@
       <c r="BK32" t="s">
         <v>299</v>
       </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
+      <c r="BL32" t="s">
+        <v>338</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7829,7 +7835,7 @@
         <v>3.25</v>
       </c>
       <c r="K33">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L33">
         <v>1.63</v>
@@ -7988,10 +7994,10 @@
         <v>300</v>
       </c>
       <c r="BL33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BM33" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8020,7 +8026,7 @@
         <v>2.68</v>
       </c>
       <c r="I34">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -8185,10 +8191,10 @@
         <v>301</v>
       </c>
       <c r="BL34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BM34" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8208,19 +8214,19 @@
         <v>186</v>
       </c>
       <c r="F35">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="G35">
         <v>14.5</v>
       </c>
       <c r="H35">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="I35">
         <v>990</v>
       </c>
       <c r="J35">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="K35">
         <v>15.5</v>
@@ -8411,7 +8417,7 @@
         <v>1000</v>
       </c>
       <c r="H36">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="I36">
         <v>990</v>
@@ -8602,10 +8608,10 @@
         <v>188</v>
       </c>
       <c r="F37">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G37">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="H37">
         <v>6.4</v>
@@ -8614,22 +8620,22 @@
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K37">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="L37">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="M37">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="N37">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="O37">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -8799,34 +8805,34 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G38">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="H38">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I38">
         <v>10.5</v>
       </c>
       <c r="J38">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K38">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L38">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="M38">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="N38">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="O38">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -8996,34 +9002,34 @@
         <v>190</v>
       </c>
       <c r="F39">
-        <v>1.11</v>
+        <v>2.02</v>
       </c>
       <c r="G39">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="H39">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I39">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="J39">
         <v>3.65</v>
       </c>
       <c r="K39">
-        <v>7.8</v>
+        <v>990</v>
       </c>
       <c r="L39">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="M39">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="N39">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -9220,7 +9226,7 @@
         <v>1.01</v>
       </c>
       <c r="O40">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="P40">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="380">
   <si>
     <t>League</t>
   </si>
@@ -1039,6 +1039,15 @@
     <t>1.227928042</t>
   </si>
   <si>
+    <t>1.228045648</t>
+  </si>
+  <si>
+    <t>1.228046484</t>
+  </si>
+  <si>
+    <t>1.228004158</t>
+  </si>
+  <si>
     <t>1.228202282</t>
   </si>
   <si>
@@ -1136,6 +1145,15 @@
   </si>
   <si>
     <t>1.227928046</t>
+  </si>
+  <si>
+    <t>1.228045573</t>
+  </si>
+  <si>
+    <t>1.228046409</t>
+  </si>
+  <si>
+    <t>1.228004009</t>
   </si>
 </sst>
 </file>
@@ -1761,19 +1779,19 @@
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="W2">
         <v>1000</v>
       </c>
       <c r="X2">
-        <v>19</v>
+        <v>1.03</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AA2">
         <v>1000</v>
@@ -1791,19 +1809,19 @@
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG2">
         <v>1000</v>
       </c>
       <c r="AH2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AK2">
         <v>1000</v>
@@ -1815,37 +1833,37 @@
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>18</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1863,7 +1881,7 @@
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1890,7 +1908,7 @@
         <v>308</v>
       </c>
       <c r="BM2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1931,13 +1949,13 @@
         <v>1.55</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N3">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="P3">
         <v>1.01</v>
@@ -1952,7 +1970,7 @@
         <v>2.02</v>
       </c>
       <c r="T3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="U3">
         <v>10.5</v>
@@ -1970,7 +1988,7 @@
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA3">
         <v>1000</v>
@@ -1988,13 +2006,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG3">
         <v>19</v>
       </c>
       <c r="AH3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI3">
         <v>1000</v>
@@ -2012,13 +2030,13 @@
         <v>13</v>
       </c>
       <c r="AN3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO3">
         <v>1000</v>
       </c>
       <c r="AP3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
@@ -2036,13 +2054,13 @@
         <v>1000</v>
       </c>
       <c r="AV3">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY3">
         <v>1000</v>
@@ -2087,7 +2105,7 @@
         <v>309</v>
       </c>
       <c r="BM3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2107,19 +2125,19 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="G4">
-        <v>9.800000000000001</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -2149,25 +2167,25 @@
         <v>1000</v>
       </c>
       <c r="T4">
-        <v>15</v>
+        <v>1.03</v>
       </c>
       <c r="U4">
         <v>1000</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="W4">
         <v>1000</v>
       </c>
       <c r="X4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="Y4">
         <v>1000</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AA4">
         <v>1000</v>
@@ -2185,13 +2203,13 @@
         <v>1000</v>
       </c>
       <c r="AF4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AG4">
         <v>1000</v>
       </c>
       <c r="AH4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AI4">
         <v>1000</v>
@@ -2209,37 +2227,37 @@
         <v>1000</v>
       </c>
       <c r="AN4">
-        <v>18.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO4">
         <v>1000</v>
       </c>
       <c r="AP4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS4">
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY4">
         <v>1000</v>
@@ -2257,7 +2275,7 @@
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2284,7 +2302,7 @@
         <v>310</v>
       </c>
       <c r="BM4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2307,7 +2325,7 @@
         <v>2.2</v>
       </c>
       <c r="G5">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H5">
         <v>3.05</v>
@@ -2358,7 +2376,7 @@
         <v>14.5</v>
       </c>
       <c r="X5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y5">
         <v>1000</v>
@@ -2388,7 +2406,7 @@
         <v>19.5</v>
       </c>
       <c r="AH5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI5">
         <v>1000</v>
@@ -2418,19 +2436,19 @@
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW5">
         <v>1000</v>
@@ -2454,7 +2472,7 @@
         <v>1000</v>
       </c>
       <c r="BD5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2481,7 +2499,7 @@
         <v>311</v>
       </c>
       <c r="BM5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2501,34 +2519,34 @@
         <v>157</v>
       </c>
       <c r="F6">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G6">
-        <v>2.72</v>
+        <v>110</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>1.23</v>
       </c>
       <c r="I6">
-        <v>6.6</v>
+        <v>110</v>
       </c>
       <c r="J6">
-        <v>3.25</v>
+        <v>1.29</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="M6">
-        <v>2.7</v>
+        <v>1000</v>
       </c>
       <c r="N6">
-        <v>1.58</v>
+        <v>1.03</v>
       </c>
       <c r="O6">
-        <v>2.82</v>
+        <v>13.5</v>
       </c>
       <c r="P6">
         <v>1.01</v>
@@ -2543,25 +2561,25 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="U6">
         <v>1000</v>
       </c>
       <c r="V6">
-        <v>12.5</v>
+        <v>1.03</v>
       </c>
       <c r="W6">
         <v>1000</v>
       </c>
       <c r="X6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="Y6">
         <v>1000</v>
       </c>
       <c r="Z6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AA6">
         <v>1000</v>
@@ -2579,19 +2597,19 @@
         <v>1000</v>
       </c>
       <c r="AF6">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AG6">
         <v>1000</v>
       </c>
       <c r="AH6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AI6">
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="AK6">
         <v>1000</v>
@@ -2603,37 +2621,37 @@
         <v>1000</v>
       </c>
       <c r="AN6">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO6">
         <v>1000</v>
       </c>
       <c r="AP6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
       </c>
       <c r="AR6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>18.5</v>
+        <v>1.03</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AW6">
         <v>1000</v>
       </c>
       <c r="AX6">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY6">
         <v>1000</v>
@@ -2651,7 +2669,7 @@
         <v>1000</v>
       </c>
       <c r="BD6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2678,7 +2696,7 @@
         <v>312</v>
       </c>
       <c r="BM6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2698,91 +2716,91 @@
         <v>158</v>
       </c>
       <c r="F7">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G7">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H7">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="I7">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="K7">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="M7">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="N7">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="O7">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="P7">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="Q7">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="R7">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="S7">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="T7">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="U7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V7">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W7">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X7">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <v>46</v>
       </c>
       <c r="Z7">
+        <v>4.3</v>
+      </c>
+      <c r="AA7">
+        <v>1000</v>
+      </c>
+      <c r="AB7">
+        <v>6.6</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>3.8</v>
+      </c>
+      <c r="AG7">
+        <v>26</v>
+      </c>
+      <c r="AH7">
         <v>4.2</v>
-      </c>
-      <c r="AA7">
-        <v>1000</v>
-      </c>
-      <c r="AB7">
-        <v>2.98</v>
-      </c>
-      <c r="AC7">
-        <v>9.4</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AE7">
-        <v>10</v>
-      </c>
-      <c r="AF7">
-        <v>3.7</v>
-      </c>
-      <c r="AG7">
-        <v>25</v>
-      </c>
-      <c r="AH7">
-        <v>4.1</v>
       </c>
       <c r="AI7">
         <v>1000</v>
@@ -2791,19 +2809,19 @@
         <v>3.25</v>
       </c>
       <c r="AK7">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL7">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM7">
         <v>13</v>
       </c>
       <c r="AN7">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP7">
         <v>4.2</v>
@@ -2812,43 +2830,43 @@
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AS7">
         <v>25</v>
       </c>
       <c r="AT7">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AX7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY7">
         <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BA7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC7">
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2875,7 +2893,7 @@
         <v>313</v>
       </c>
       <c r="BM7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2916,10 +2934,10 @@
         <v>1.75</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O8">
         <v>2.34</v>
@@ -3072,7 +3090,7 @@
         <v>314</v>
       </c>
       <c r="BM8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3095,7 +3113,7 @@
         <v>2.78</v>
       </c>
       <c r="G9">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>2.02</v>
@@ -3107,7 +3125,7 @@
         <v>3.45</v>
       </c>
       <c r="K9">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>1.8</v>
@@ -3116,7 +3134,7 @@
         <v>2.18</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O9">
         <v>2.24</v>
@@ -3146,7 +3164,7 @@
         <v>13.5</v>
       </c>
       <c r="X9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Y9">
         <v>18.5</v>
@@ -3176,13 +3194,13 @@
         <v>14</v>
       </c>
       <c r="AH9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AK9">
         <v>1000</v>
@@ -3194,7 +3212,7 @@
         <v>17.5</v>
       </c>
       <c r="AN9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AO9">
         <v>22</v>
@@ -3269,7 +3287,7 @@
         <v>315</v>
       </c>
       <c r="BM9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3289,34 +3307,34 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="G10">
-        <v>1.82</v>
+        <v>110</v>
       </c>
       <c r="H10">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>3.65</v>
+        <v>2.34</v>
       </c>
       <c r="K10">
         <v>8.4</v>
       </c>
       <c r="L10">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>2.04</v>
+        <v>13.5</v>
       </c>
       <c r="N10">
-        <v>1.96</v>
+        <v>1.3</v>
       </c>
       <c r="O10">
-        <v>2.72</v>
+        <v>6.4</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -3337,19 +3355,19 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>32</v>
+        <v>2.8</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>95</v>
+        <v>3.4</v>
       </c>
       <c r="AA10">
         <v>1000</v>
@@ -3367,13 +3385,13 @@
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>19.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>60</v>
+        <v>4.4</v>
       </c>
       <c r="AI10">
         <v>1000</v>
@@ -3391,13 +3409,13 @@
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
@@ -3409,19 +3427,19 @@
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>15</v>
+        <v>4.1</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>30</v>
+        <v>5.9</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -3439,7 +3457,7 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3466,7 +3484,7 @@
         <v>316</v>
       </c>
       <c r="BM10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3486,13 +3504,13 @@
         <v>162</v>
       </c>
       <c r="F11">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G11">
         <v>2.16</v>
       </c>
       <c r="H11">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
         <v>4.1</v>
@@ -3501,7 +3519,7 @@
         <v>3.55</v>
       </c>
       <c r="K11">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11">
         <v>1.95</v>
@@ -3510,7 +3528,7 @@
         <v>2.14</v>
       </c>
       <c r="N11">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O11">
         <v>2.06</v>
@@ -3561,7 +3579,7 @@
         <v>7.4</v>
       </c>
       <c r="AE11">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF11">
         <v>14</v>
@@ -3570,10 +3588,10 @@
         <v>16</v>
       </c>
       <c r="AH11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ11">
         <v>12</v>
@@ -3609,7 +3627,7 @@
         <v>19</v>
       </c>
       <c r="AU11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV11">
         <v>30</v>
@@ -3636,7 +3654,7 @@
         <v>46</v>
       </c>
       <c r="BD11">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3663,7 +3681,7 @@
         <v>317</v>
       </c>
       <c r="BM11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3740,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="Y12">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z12">
         <v>5.7</v>
@@ -3827,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="BB12">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BC12">
         <v>19</v>
@@ -3860,7 +3878,7 @@
         <v>318</v>
       </c>
       <c r="BM12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4057,7 +4075,7 @@
         <v>319</v>
       </c>
       <c r="BM13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4086,7 +4104,7 @@
         <v>1.85</v>
       </c>
       <c r="I14">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -4254,7 +4272,7 @@
         <v>320</v>
       </c>
       <c r="BM14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4304,13 +4322,13 @@
         <v>2.5</v>
       </c>
       <c r="P15">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q15">
         <v>2.26</v>
       </c>
       <c r="R15">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S15">
         <v>2.08</v>
@@ -4451,7 +4469,7 @@
         <v>321</v>
       </c>
       <c r="BM15" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4480,7 +4498,7 @@
         <v>2.52</v>
       </c>
       <c r="I16">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J16">
         <v>3.05</v>
@@ -4492,10 +4510,10 @@
         <v>1.67</v>
       </c>
       <c r="M16">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N16">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O16">
         <v>2.48</v>
@@ -4555,7 +4573,7 @@
         <v>14</v>
       </c>
       <c r="AH16">
-        <v>27</v>
+        <v>5.5</v>
       </c>
       <c r="AI16">
         <v>38</v>
@@ -4621,7 +4639,7 @@
         <v>34</v>
       </c>
       <c r="BD16">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4648,7 +4666,7 @@
         <v>322</v>
       </c>
       <c r="BM16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4674,7 +4692,7 @@
         <v>1.88</v>
       </c>
       <c r="H17">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I17">
         <v>4.6</v>
@@ -4710,118 +4728,118 @@
         <v>2.74</v>
       </c>
       <c r="T17">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="U17">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="V17">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="W17">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="X17">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="Y17">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z17">
-        <v>1.01</v>
+        <v>60</v>
       </c>
       <c r="AA17">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB17">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AC17">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD17">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AE17">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AF17">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AG17">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH17">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AI17">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ17">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK17">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL17">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AM17">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AN17">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AO17">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP17">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="AQ17">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AR17">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AS17">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AT17">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AU17">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AV17">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AW17">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AX17">
-        <v>1.01</v>
+        <v>60</v>
       </c>
       <c r="AY17">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ17">
         <v>1.01</v>
       </c>
       <c r="BA17">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="BB17">
         <v>1.01</v>
       </c>
       <c r="BC17">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD17">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="BE17">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="BF17" t="s">
         <v>207</v>
@@ -4845,7 +4863,7 @@
         <v>323</v>
       </c>
       <c r="BM17" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4874,7 +4892,7 @@
         <v>4.4</v>
       </c>
       <c r="I18">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -4916,7 +4934,7 @@
         <v>15.5</v>
       </c>
       <c r="W18">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="X18">
         <v>30</v>
@@ -5012,10 +5030,10 @@
         <v>34</v>
       </c>
       <c r="BC18">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BD18">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="BE18">
         <v>950</v>
@@ -5042,7 +5060,7 @@
         <v>324</v>
       </c>
       <c r="BM18" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5080,16 +5098,16 @@
         <v>4.7</v>
       </c>
       <c r="L19">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="M19">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N19">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O19">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="P19">
         <v>2.02</v>
@@ -5239,7 +5257,7 @@
         <v>325</v>
       </c>
       <c r="BM19" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5259,34 +5277,34 @@
         <v>171</v>
       </c>
       <c r="F20">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="H20">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="I20">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>1.14</v>
       </c>
       <c r="K20">
         <v>9.6</v>
       </c>
       <c r="L20">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="M20">
-        <v>2.72</v>
+        <v>21</v>
       </c>
       <c r="N20">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="O20">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="P20">
         <v>1.01</v>
@@ -5319,13 +5337,13 @@
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA20">
         <v>1000</v>
       </c>
       <c r="AB20">
-        <v>18.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC20">
         <v>1000</v>
@@ -5349,49 +5367,49 @@
         <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>34</v>
+        <v>2.8</v>
       </c>
       <c r="AK20">
         <v>1000</v>
       </c>
       <c r="AL20">
-        <v>18</v>
+        <v>3.25</v>
       </c>
       <c r="AM20">
         <v>1000</v>
       </c>
       <c r="AN20">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO20">
         <v>1000</v>
       </c>
       <c r="AP20">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="AQ20">
         <v>1000</v>
       </c>
       <c r="AR20">
-        <v>90</v>
+        <v>4.1</v>
       </c>
       <c r="AS20">
         <v>1000</v>
       </c>
       <c r="AT20">
-        <v>48</v>
+        <v>4.6</v>
       </c>
       <c r="AU20">
         <v>1000</v>
       </c>
       <c r="AV20">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY20">
         <v>1000</v>
@@ -5409,7 +5427,7 @@
         <v>1000</v>
       </c>
       <c r="BD20">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5436,7 +5454,7 @@
         <v>326</v>
       </c>
       <c r="BM20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5456,7 +5474,7 @@
         <v>172</v>
       </c>
       <c r="F21">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G21">
         <v>2.34</v>
@@ -5465,7 +5483,7 @@
         <v>3.35</v>
       </c>
       <c r="I21">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -5558,7 +5576,7 @@
         <v>13.5</v>
       </c>
       <c r="AN21">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AO21">
         <v>23</v>
@@ -5570,7 +5588,7 @@
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS21">
         <v>34</v>
@@ -5588,7 +5606,7 @@
         <v>1000</v>
       </c>
       <c r="AX21">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="AY21">
         <v>1000</v>
@@ -5633,7 +5651,7 @@
         <v>327</v>
       </c>
       <c r="BM21" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5653,25 +5671,25 @@
         <v>173</v>
       </c>
       <c r="F22">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G22">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H22">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="I22">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="J22">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K22">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M22">
         <v>2.6</v>
@@ -5680,55 +5698,55 @@
         <v>1.63</v>
       </c>
       <c r="O22">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="P22">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q22">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R22">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="S22">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T22">
         <v>3.65</v>
       </c>
       <c r="U22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V22">
+        <v>3.25</v>
+      </c>
+      <c r="W22">
+        <v>14</v>
+      </c>
+      <c r="X22">
         <v>3.3</v>
       </c>
-      <c r="W22">
-        <v>14.5</v>
-      </c>
-      <c r="X22">
-        <v>3.35</v>
-      </c>
       <c r="Y22">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z22">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AA22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB22">
         <v>3.65</v>
       </c>
       <c r="AC22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD22">
         <v>3.15</v>
       </c>
       <c r="AE22">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF22">
         <v>3.15</v>
@@ -5737,31 +5755,31 @@
         <v>12.5</v>
       </c>
       <c r="AH22">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AI22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22">
         <v>3.9</v>
       </c>
       <c r="AK22">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL22">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AM22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN22">
         <v>3.55</v>
       </c>
       <c r="AO22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP22">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AQ22">
         <v>36</v>
@@ -5770,22 +5788,22 @@
         <v>4.1</v>
       </c>
       <c r="AS22">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AT22">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AU22">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AV22">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AW22">
         <v>65</v>
       </c>
       <c r="AX22">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AY22">
         <v>100</v>
@@ -5794,13 +5812,13 @@
         <v>3.95</v>
       </c>
       <c r="BA22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB22">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="BC22">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD22">
         <v>4.2</v>
@@ -5830,7 +5848,7 @@
         <v>328</v>
       </c>
       <c r="BM22" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5853,13 +5871,13 @@
         <v>1.81</v>
       </c>
       <c r="G23">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H23">
         <v>3.65</v>
       </c>
       <c r="I23">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J23">
         <v>3.65</v>
@@ -5871,10 +5889,10 @@
         <v>2.14</v>
       </c>
       <c r="M23">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O23">
         <v>1.88</v>
@@ -6027,7 +6045,7 @@
         <v>329</v>
       </c>
       <c r="BM23" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6197,7 +6215,7 @@
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6224,7 +6242,7 @@
         <v>330</v>
       </c>
       <c r="BM24" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6421,7 +6439,7 @@
         <v>331</v>
       </c>
       <c r="BM25" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6444,7 +6462,7 @@
         <v>4.3</v>
       </c>
       <c r="G26">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H26">
         <v>1.84</v>
@@ -6618,7 +6636,7 @@
         <v>332</v>
       </c>
       <c r="BM26" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6671,10 +6689,10 @@
         <v>2.06</v>
       </c>
       <c r="Q27">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R27">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
         <v>1.95</v>
@@ -6776,7 +6794,7 @@
         <v>150</v>
       </c>
       <c r="AZ27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA27">
         <v>28</v>
@@ -6788,7 +6806,7 @@
         <v>65</v>
       </c>
       <c r="BD27">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6815,7 +6833,7 @@
         <v>333</v>
       </c>
       <c r="BM27" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6835,34 +6853,34 @@
         <v>179</v>
       </c>
       <c r="F28">
-        <v>2.8</v>
+        <v>1.43</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H28">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="I28">
-        <v>2.7</v>
+        <v>14</v>
       </c>
       <c r="J28">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K28">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L28">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="M28">
-        <v>2.52</v>
+        <v>110</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="O28">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="P28">
         <v>1.01</v>
@@ -7012,7 +7030,7 @@
         <v>334</v>
       </c>
       <c r="BM28" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7062,13 +7080,13 @@
         <v>1.77</v>
       </c>
       <c r="P29">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q29">
         <v>2.32</v>
       </c>
       <c r="R29">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
         <v>2.04</v>
@@ -7209,7 +7227,7 @@
         <v>335</v>
       </c>
       <c r="BM29" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7238,7 +7256,7 @@
         <v>9.4</v>
       </c>
       <c r="I30">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J30">
         <v>5.7</v>
@@ -7268,7 +7286,7 @@
         <v>1.91</v>
       </c>
       <c r="S30">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T30">
         <v>19.5</v>
@@ -7370,7 +7388,7 @@
         <v>5.3</v>
       </c>
       <c r="BA30">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BB30">
         <v>46</v>
@@ -7406,7 +7424,7 @@
         <v>336</v>
       </c>
       <c r="BM30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7474,7 +7492,7 @@
         <v>17</v>
       </c>
       <c r="V31">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W31">
         <v>9.800000000000001</v>
@@ -7489,7 +7507,7 @@
         <v>15</v>
       </c>
       <c r="AA31">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AB31">
         <v>18.5</v>
@@ -7516,7 +7534,7 @@
         <v>17</v>
       </c>
       <c r="AJ31">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK31">
         <v>44</v>
@@ -7564,7 +7582,7 @@
         <v>110</v>
       </c>
       <c r="AZ31">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BA31">
         <v>75</v>
@@ -7603,7 +7621,7 @@
         <v>337</v>
       </c>
       <c r="BM31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7641,16 +7659,16 @@
         <v>3.75</v>
       </c>
       <c r="L32">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M32">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N32">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O32">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="P32">
         <v>1.67</v>
@@ -7773,7 +7791,7 @@
         <v>55</v>
       </c>
       <c r="BD32">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7800,7 +7818,7 @@
         <v>338</v>
       </c>
       <c r="BM32" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7835,10 +7853,10 @@
         <v>3.25</v>
       </c>
       <c r="K33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M33">
         <v>1.74</v>
@@ -7847,22 +7865,22 @@
         <v>2.34</v>
       </c>
       <c r="O33">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="P33">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q33">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R33">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T33">
-        <v>2.86</v>
+        <v>8.4</v>
       </c>
       <c r="U33">
         <v>980</v>
@@ -7874,13 +7892,13 @@
         <v>980</v>
       </c>
       <c r="X33">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Y33">
         <v>980</v>
       </c>
       <c r="Z33">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AA33">
         <v>1000</v>
@@ -7889,28 +7907,28 @@
         <v>6.2</v>
       </c>
       <c r="AC33">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD33">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE33">
         <v>980</v>
       </c>
       <c r="AF33">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AI33">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ33">
-        <v>2.04</v>
+        <v>9.6</v>
       </c>
       <c r="AK33">
         <v>980</v>
@@ -7922,55 +7940,55 @@
         <v>980</v>
       </c>
       <c r="AN33">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
         <v>1000</v>
       </c>
       <c r="AR33">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS33">
         <v>980</v>
       </c>
       <c r="AT33">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="AU33">
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AW33">
         <v>1000</v>
       </c>
       <c r="AX33">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AY33">
         <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BA33">
         <v>980</v>
       </c>
       <c r="BB33">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="BC33">
         <v>980</v>
       </c>
       <c r="BD33">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7997,7 +8015,7 @@
         <v>339</v>
       </c>
       <c r="BM33" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8035,16 +8053,16 @@
         <v>3.2</v>
       </c>
       <c r="L34">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M34">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N34">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O34">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="P34">
         <v>2.08</v>
@@ -8056,7 +8074,7 @@
         <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T34">
         <v>4.6</v>
@@ -8071,7 +8089,7 @@
         <v>980</v>
       </c>
       <c r="X34">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y34">
         <v>17.5</v>
@@ -8089,13 +8107,13 @@
         <v>980</v>
       </c>
       <c r="AD34">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE34">
         <v>7.2</v>
       </c>
       <c r="AF34">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG34">
         <v>14.5</v>
@@ -8113,13 +8131,13 @@
         <v>980</v>
       </c>
       <c r="AL34">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AM34">
         <v>16</v>
       </c>
       <c r="AN34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO34">
         <v>980</v>
@@ -8167,7 +8185,7 @@
         <v>980</v>
       </c>
       <c r="BD34">
-        <v>2.74</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -8194,7 +8212,7 @@
         <v>340</v>
       </c>
       <c r="BM34" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8214,22 +8232,22 @@
         <v>186</v>
       </c>
       <c r="F35">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="G35">
         <v>14.5</v>
       </c>
       <c r="H35">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="I35">
         <v>990</v>
       </c>
       <c r="J35">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="K35">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="L35">
         <v>1.07</v>
@@ -8244,130 +8262,130 @@
         <v>21</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF35" t="s">
         <v>225</v>
@@ -8387,11 +8405,11 @@
       <c r="BK35" t="s">
         <v>302</v>
       </c>
-      <c r="BL35">
-        <v>0</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
+      <c r="BL35" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8417,7 +8435,7 @@
         <v>1000</v>
       </c>
       <c r="H36">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="I36">
         <v>990</v>
@@ -8429,142 +8447,142 @@
         <v>990</v>
       </c>
       <c r="L36">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M36">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="N36">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="O36">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AU36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AW36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ36">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB36">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD36">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF36" t="s">
         <v>226</v>
@@ -8584,11 +8602,11 @@
       <c r="BK36" t="s">
         <v>303</v>
       </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
+      <c r="BL36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8608,160 +8626,160 @@
         <v>188</v>
       </c>
       <c r="F37">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="G37">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="H37">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I37">
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K37">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="L37">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="M37">
-        <v>2.58</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>26</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF37" t="s">
         <v>227</v>
@@ -8781,11 +8799,11 @@
       <c r="BK37" t="s">
         <v>304</v>
       </c>
-      <c r="BL37">
-        <v>0</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
+      <c r="BL37" t="s">
+        <v>343</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8805,34 +8823,34 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="G38">
-        <v>2.22</v>
+        <v>3.75</v>
       </c>
       <c r="H38">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I38">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J38">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K38">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L38">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="M38">
-        <v>2.62</v>
+        <v>990</v>
       </c>
       <c r="N38">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="O38">
-        <v>2.96</v>
+        <v>990</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -9002,34 +9020,34 @@
         <v>190</v>
       </c>
       <c r="F39">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="G39">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H39">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I39">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J39">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="K39">
         <v>990</v>
       </c>
       <c r="L39">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="M39">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O39">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="P39">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="387">
   <si>
     <t>League</t>
   </si>
@@ -823,6 +823,9 @@
     <t>1.228001955</t>
   </si>
   <si>
+    <t>1.227992543</t>
+  </si>
+  <si>
     <t>1.228202318</t>
   </si>
   <si>
@@ -1048,6 +1051,15 @@
     <t>1.228004158</t>
   </si>
   <si>
+    <t>1.228019895</t>
+  </si>
+  <si>
+    <t>1.228002039</t>
+  </si>
+  <si>
+    <t>1.227992627</t>
+  </si>
+  <si>
     <t>1.228202282</t>
   </si>
   <si>
@@ -1154,6 +1166,15 @@
   </si>
   <si>
     <t>1.228004009</t>
+  </si>
+  <si>
+    <t>1.228019820</t>
+  </si>
+  <si>
+    <t>1.228001964</t>
+  </si>
+  <si>
+    <t>1.227992552</t>
   </si>
 </sst>
 </file>
@@ -1740,13 +1761,13 @@
         <v>1.04</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J2">
         <v>1.01</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="L2">
         <v>1.06</v>
@@ -1797,13 +1818,13 @@
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC2">
         <v>1000</v>
       </c>
       <c r="AD2">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AE2">
         <v>1000</v>
@@ -1902,13 +1923,13 @@
         <v>231</v>
       </c>
       <c r="BK2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BM2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1955,7 +1976,7 @@
         <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="P3">
         <v>1.01</v>
@@ -2099,13 +2120,13 @@
         <v>232</v>
       </c>
       <c r="BK3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BM3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2125,19 +2146,19 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="H4">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -2149,7 +2170,7 @@
         <v>1000</v>
       </c>
       <c r="N4">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="O4">
         <v>6.4</v>
@@ -2296,13 +2317,13 @@
         <v>233</v>
       </c>
       <c r="BK4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BM4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2355,7 +2376,7 @@
         <v>1.79</v>
       </c>
       <c r="Q5">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R5">
         <v>1.74</v>
@@ -2493,13 +2514,13 @@
         <v>234</v>
       </c>
       <c r="BK5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BM5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2519,28 +2540,28 @@
         <v>157</v>
       </c>
       <c r="F6">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G6">
         <v>110</v>
       </c>
       <c r="H6">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="I6">
-        <v>110</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="K6">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>1.08</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1.03</v>
@@ -2690,13 +2711,13 @@
         <v>235</v>
       </c>
       <c r="BK6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BM6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2719,10 +2740,10 @@
         <v>1.76</v>
       </c>
       <c r="G7">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="H7">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
         <v>6.6</v>
@@ -2737,10 +2758,10 @@
         <v>1.64</v>
       </c>
       <c r="M7">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="N7">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="O7">
         <v>2.58</v>
@@ -2887,13 +2908,13 @@
         <v>236</v>
       </c>
       <c r="BK7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BM7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3084,13 +3105,13 @@
         <v>237</v>
       </c>
       <c r="BK8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BM8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3113,16 +3134,16 @@
         <v>2.78</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H9">
         <v>2.02</v>
       </c>
       <c r="I9">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J9">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -3131,10 +3152,10 @@
         <v>1.8</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="N9">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="O9">
         <v>2.24</v>
@@ -3281,13 +3302,13 @@
         <v>238</v>
       </c>
       <c r="BK9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BL9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BM9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3307,19 +3328,19 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="G10">
-        <v>110</v>
+        <v>2.42</v>
       </c>
       <c r="H10">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I10">
         <v>1000</v>
       </c>
       <c r="J10">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="K10">
         <v>8.4</v>
@@ -3331,7 +3352,7 @@
         <v>13.5</v>
       </c>
       <c r="N10">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="O10">
         <v>6.4</v>
@@ -3349,97 +3370,97 @@
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>4.4</v>
+        <v>1.03</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AM10">
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>17.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>5.9</v>
+        <v>1.03</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -3457,7 +3478,7 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>17.5</v>
+        <v>1.03</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3478,13 +3499,13 @@
         <v>239</v>
       </c>
       <c r="BK10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BL10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BM10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3513,7 +3534,7 @@
         <v>3.8</v>
       </c>
       <c r="I11">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>3.55</v>
@@ -3522,7 +3543,7 @@
         <v>3.65</v>
       </c>
       <c r="L11">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="M11">
         <v>2.14</v>
@@ -3531,19 +3552,19 @@
         <v>1.88</v>
       </c>
       <c r="O11">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="P11">
         <v>1.77</v>
       </c>
       <c r="Q11">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R11">
         <v>2.14</v>
       </c>
       <c r="S11">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T11">
         <v>12.5</v>
@@ -3564,7 +3585,7 @@
         <v>34</v>
       </c>
       <c r="Z11">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AA11">
         <v>80</v>
@@ -3591,13 +3612,13 @@
         <v>38</v>
       </c>
       <c r="AI11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ11">
         <v>12</v>
       </c>
       <c r="AK11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL11">
         <v>9.800000000000001</v>
@@ -3612,7 +3633,7 @@
         <v>18</v>
       </c>
       <c r="AP11">
-        <v>44</v>
+        <v>1.03</v>
       </c>
       <c r="AQ11">
         <v>60</v>
@@ -3627,7 +3648,7 @@
         <v>19</v>
       </c>
       <c r="AU11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV11">
         <v>30</v>
@@ -3636,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="AX11">
-        <v>75</v>
+        <v>1.03</v>
       </c>
       <c r="AY11">
         <v>100</v>
@@ -3654,7 +3675,7 @@
         <v>46</v>
       </c>
       <c r="BD11">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3675,13 +3696,13 @@
         <v>240</v>
       </c>
       <c r="BK11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BL11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BM11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3872,13 +3893,13 @@
         <v>241</v>
       </c>
       <c r="BK12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BL12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BM12" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3898,7 +3919,7 @@
         <v>164</v>
       </c>
       <c r="F13">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G13">
         <v>2.48</v>
@@ -3931,7 +3952,7 @@
         <v>1.71</v>
       </c>
       <c r="Q13">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
         <v>2.26</v>
@@ -3967,7 +3988,7 @@
         <v>10.5</v>
       </c>
       <c r="AC13">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD13">
         <v>7.4</v>
@@ -4030,7 +4051,7 @@
         <v>38</v>
       </c>
       <c r="AX13">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY13">
         <v>85</v>
@@ -4048,7 +4069,7 @@
         <v>30</v>
       </c>
       <c r="BD13">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -4069,13 +4090,13 @@
         <v>242</v>
       </c>
       <c r="BK13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BL13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BM13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4266,13 +4287,13 @@
         <v>243</v>
       </c>
       <c r="BK14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BL14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BM14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4346,13 +4367,13 @@
         <v>13.5</v>
       </c>
       <c r="X15">
-        <v>23</v>
+        <v>1.03</v>
       </c>
       <c r="Y15">
         <v>30</v>
       </c>
       <c r="Z15">
-        <v>70</v>
+        <v>1.03</v>
       </c>
       <c r="AA15">
         <v>95</v>
@@ -4376,7 +4397,7 @@
         <v>19</v>
       </c>
       <c r="AH15">
-        <v>48</v>
+        <v>1.03</v>
       </c>
       <c r="AI15">
         <v>65</v>
@@ -4400,7 +4421,7 @@
         <v>24</v>
       </c>
       <c r="AP15">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AQ15">
         <v>85</v>
@@ -4418,13 +4439,13 @@
         <v>29</v>
       </c>
       <c r="AV15">
-        <v>40</v>
+        <v>1.03</v>
       </c>
       <c r="AW15">
         <v>55</v>
       </c>
       <c r="AX15">
-        <v>120</v>
+        <v>1.03</v>
       </c>
       <c r="AY15">
         <v>170</v>
@@ -4442,7 +4463,7 @@
         <v>80</v>
       </c>
       <c r="BD15">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -4463,13 +4484,13 @@
         <v>244</v>
       </c>
       <c r="BK15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BL15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BM15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4531,97 +4552,97 @@
         <v>2.24</v>
       </c>
       <c r="T16">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="U16">
         <v>12</v>
       </c>
       <c r="V16">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="W16">
         <v>11</v>
       </c>
       <c r="X16">
-        <v>14</v>
+        <v>1.03</v>
       </c>
       <c r="Y16">
         <v>19</v>
       </c>
       <c r="Z16">
-        <v>34</v>
+        <v>1.03</v>
       </c>
       <c r="AA16">
         <v>46</v>
       </c>
       <c r="AB16">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AC16">
         <v>11.5</v>
       </c>
       <c r="AD16">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AE16">
         <v>8.4</v>
       </c>
       <c r="AF16">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG16">
         <v>14</v>
       </c>
       <c r="AH16">
-        <v>5.5</v>
+        <v>1.03</v>
       </c>
       <c r="AI16">
         <v>38</v>
       </c>
       <c r="AJ16">
-        <v>15</v>
+        <v>1.03</v>
       </c>
       <c r="AK16">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AM16">
         <v>14.5</v>
       </c>
       <c r="AN16">
-        <v>16</v>
+        <v>1.03</v>
       </c>
       <c r="AO16">
         <v>22</v>
       </c>
       <c r="AP16">
-        <v>40</v>
+        <v>1.03</v>
       </c>
       <c r="AQ16">
         <v>60</v>
       </c>
       <c r="AR16">
-        <v>36</v>
+        <v>1.03</v>
       </c>
       <c r="AS16">
         <v>55</v>
       </c>
       <c r="AT16">
-        <v>29</v>
+        <v>1.03</v>
       </c>
       <c r="AU16">
         <v>40</v>
       </c>
       <c r="AV16">
-        <v>42</v>
+        <v>1.03</v>
       </c>
       <c r="AW16">
         <v>1000</v>
       </c>
       <c r="AX16">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY16">
         <v>1000</v>
@@ -4639,7 +4660,7 @@
         <v>34</v>
       </c>
       <c r="BD16">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4660,13 +4681,13 @@
         <v>245</v>
       </c>
       <c r="BK16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BL16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BM16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4686,7 +4707,7 @@
         <v>168</v>
       </c>
       <c r="F17">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G17">
         <v>1.88</v>
@@ -4695,7 +4716,7 @@
         <v>4.3</v>
       </c>
       <c r="I17">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -4725,7 +4746,7 @@
         <v>2.02</v>
       </c>
       <c r="S17">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T17">
         <v>16.5</v>
@@ -4740,13 +4761,13 @@
         <v>23</v>
       </c>
       <c r="X17">
-        <v>25</v>
+        <v>1.03</v>
       </c>
       <c r="Y17">
         <v>42</v>
       </c>
       <c r="Z17">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AA17">
         <v>110</v>
@@ -4755,10 +4776,10 @@
         <v>8</v>
       </c>
       <c r="AC17">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD17">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE17">
         <v>11.5</v>
@@ -4770,7 +4791,7 @@
         <v>22</v>
       </c>
       <c r="AH17">
-        <v>34</v>
+        <v>1.03</v>
       </c>
       <c r="AI17">
         <v>60</v>
@@ -4794,7 +4815,7 @@
         <v>23</v>
       </c>
       <c r="AP17">
-        <v>38</v>
+        <v>1.03</v>
       </c>
       <c r="AQ17">
         <v>65</v>
@@ -4803,7 +4824,7 @@
         <v>15</v>
       </c>
       <c r="AS17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT17">
         <v>13</v>
@@ -4812,13 +4833,13 @@
         <v>22</v>
       </c>
       <c r="AV17">
-        <v>22</v>
+        <v>1.03</v>
       </c>
       <c r="AW17">
         <v>38</v>
       </c>
       <c r="AX17">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AY17">
         <v>110</v>
@@ -4827,7 +4848,7 @@
         <v>1.01</v>
       </c>
       <c r="BA17">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BB17">
         <v>1.01</v>
@@ -4836,7 +4857,7 @@
         <v>55</v>
       </c>
       <c r="BD17">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="BE17">
         <v>800</v>
@@ -4857,13 +4878,13 @@
         <v>246</v>
       </c>
       <c r="BK17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BL17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BM17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4916,13 +4937,13 @@
         <v>1.76</v>
       </c>
       <c r="Q18">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R18">
         <v>2.16</v>
       </c>
       <c r="S18">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="T18">
         <v>14.5</v>
@@ -4943,7 +4964,7 @@
         <v>34</v>
       </c>
       <c r="Z18">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AA18">
         <v>100</v>
@@ -4991,7 +5012,7 @@
         <v>18.5</v>
       </c>
       <c r="AP18">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AQ18">
         <v>60</v>
@@ -5015,7 +5036,7 @@
         <v>34</v>
       </c>
       <c r="AX18">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="AY18">
         <v>95</v>
@@ -5027,13 +5048,13 @@
         <v>11.5</v>
       </c>
       <c r="BB18">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="BC18">
         <v>55</v>
       </c>
       <c r="BD18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BE18">
         <v>950</v>
@@ -5054,13 +5075,13 @@
         <v>247</v>
       </c>
       <c r="BK18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BL18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BM18" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5101,10 +5122,10 @@
         <v>1.68</v>
       </c>
       <c r="M19">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="N19">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="O19">
         <v>2.48</v>
@@ -5251,13 +5272,13 @@
         <v>248</v>
       </c>
       <c r="BK19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BL19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BM19" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5277,19 +5298,19 @@
         <v>171</v>
       </c>
       <c r="F20">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="G20">
         <v>1000</v>
       </c>
       <c r="H20">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="I20">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J20">
-        <v>1.14</v>
+        <v>3.55</v>
       </c>
       <c r="K20">
         <v>9.6</v>
@@ -5301,7 +5322,7 @@
         <v>21</v>
       </c>
       <c r="N20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="O20">
         <v>6.4</v>
@@ -5319,97 +5340,97 @@
         <v>1000</v>
       </c>
       <c r="T20">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="U20">
         <v>1000</v>
       </c>
       <c r="V20">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="W20">
         <v>1000</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="Y20">
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AA20">
         <v>1000</v>
       </c>
       <c r="AB20">
-        <v>2.9</v>
+        <v>1.03</v>
       </c>
       <c r="AC20">
         <v>1000</v>
       </c>
       <c r="AD20">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AE20">
         <v>1000</v>
       </c>
       <c r="AF20">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AG20">
         <v>1000</v>
       </c>
       <c r="AH20">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="AI20">
         <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="AK20">
         <v>1000</v>
       </c>
       <c r="AL20">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM20">
         <v>1000</v>
       </c>
       <c r="AN20">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO20">
         <v>1000</v>
       </c>
       <c r="AP20">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ20">
         <v>1000</v>
       </c>
       <c r="AR20">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AS20">
         <v>1000</v>
       </c>
       <c r="AT20">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="AU20">
         <v>1000</v>
       </c>
       <c r="AV20">
-        <v>14</v>
+        <v>1.03</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>9.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AY20">
         <v>1000</v>
@@ -5427,7 +5448,7 @@
         <v>1000</v>
       </c>
       <c r="BD20">
-        <v>21</v>
+        <v>1.03</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5448,13 +5469,13 @@
         <v>249</v>
       </c>
       <c r="BK20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="BM20" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5477,10 +5498,10 @@
         <v>1.94</v>
       </c>
       <c r="G21">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="H21">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I21">
         <v>4.6</v>
@@ -5588,7 +5609,7 @@
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS21">
         <v>34</v>
@@ -5606,7 +5627,7 @@
         <v>1000</v>
       </c>
       <c r="AX21">
-        <v>4.1</v>
+        <v>1.45</v>
       </c>
       <c r="AY21">
         <v>1000</v>
@@ -5645,13 +5666,13 @@
         <v>250</v>
       </c>
       <c r="BK21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BL21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BM21" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5842,13 +5863,13 @@
         <v>251</v>
       </c>
       <c r="BK22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BL22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BM22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5889,10 +5910,10 @@
         <v>2.14</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="N23">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O23">
         <v>1.88</v>
@@ -6039,13 +6060,13 @@
         <v>252</v>
       </c>
       <c r="BK23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BL23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BM23" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6107,97 +6128,97 @@
         <v>1000</v>
       </c>
       <c r="T24">
-        <v>7.4</v>
+        <v>1.03</v>
       </c>
       <c r="U24">
         <v>1000</v>
       </c>
       <c r="V24">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="W24">
         <v>1000</v>
       </c>
       <c r="X24">
-        <v>18.5</v>
+        <v>1.03</v>
       </c>
       <c r="Y24">
         <v>1000</v>
       </c>
       <c r="Z24">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AA24">
         <v>1000</v>
       </c>
       <c r="AB24">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AC24">
         <v>1000</v>
       </c>
       <c r="AD24">
-        <v>6</v>
+        <v>1.03</v>
       </c>
       <c r="AE24">
         <v>1000</v>
       </c>
       <c r="AF24">
-        <v>14</v>
+        <v>1.03</v>
       </c>
       <c r="AG24">
         <v>1000</v>
       </c>
       <c r="AH24">
-        <v>42</v>
+        <v>1.03</v>
       </c>
       <c r="AI24">
         <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AK24">
         <v>1000</v>
       </c>
       <c r="AL24">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="AM24">
         <v>1000</v>
       </c>
       <c r="AN24">
-        <v>19.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO24">
         <v>1000</v>
       </c>
       <c r="AP24">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
       </c>
       <c r="AR24">
-        <v>25</v>
+        <v>1.03</v>
       </c>
       <c r="AS24">
         <v>1000</v>
       </c>
       <c r="AT24">
-        <v>26</v>
+        <v>1.03</v>
       </c>
       <c r="AU24">
         <v>1000</v>
       </c>
       <c r="AV24">
-        <v>44</v>
+        <v>1.03</v>
       </c>
       <c r="AW24">
         <v>1000</v>
       </c>
       <c r="AX24">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AY24">
         <v>1000</v>
@@ -6215,7 +6236,7 @@
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>16.5</v>
+        <v>1.03</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6236,13 +6257,13 @@
         <v>253</v>
       </c>
       <c r="BK24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BL24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BM24" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6433,13 +6454,13 @@
         <v>254</v>
       </c>
       <c r="BK25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BL25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BM25" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6465,7 +6486,7 @@
         <v>5.1</v>
       </c>
       <c r="H26">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I26">
         <v>1.95</v>
@@ -6630,13 +6651,13 @@
         <v>255</v>
       </c>
       <c r="BK26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BL26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BM26" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6662,7 +6683,7 @@
         <v>2.4</v>
       </c>
       <c r="H27">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I27">
         <v>3.75</v>
@@ -6794,7 +6815,7 @@
         <v>150</v>
       </c>
       <c r="AZ27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27">
         <v>28</v>
@@ -6827,13 +6848,13 @@
         <v>256</v>
       </c>
       <c r="BK27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BL27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BM27" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6853,19 +6874,19 @@
         <v>179</v>
       </c>
       <c r="F28">
-        <v>1.43</v>
+        <v>2.4</v>
       </c>
       <c r="G28">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H28">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="I28">
-        <v>14</v>
+        <v>3.95</v>
       </c>
       <c r="J28">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K28">
         <v>4.3</v>
@@ -6874,7 +6895,7 @@
         <v>1.2</v>
       </c>
       <c r="M28">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="N28">
         <v>1.04</v>
@@ -6895,97 +6916,97 @@
         <v>1000</v>
       </c>
       <c r="T28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U28">
         <v>1000</v>
       </c>
       <c r="V28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W28">
         <v>1000</v>
       </c>
       <c r="X28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y28">
         <v>1000</v>
       </c>
       <c r="Z28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC28">
         <v>1000</v>
       </c>
       <c r="AD28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE28">
         <v>1000</v>
       </c>
       <c r="AF28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG28">
         <v>1000</v>
       </c>
       <c r="AH28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI28">
         <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK28">
         <v>1000</v>
       </c>
       <c r="AL28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM28">
         <v>1000</v>
       </c>
       <c r="AN28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO28">
         <v>1000</v>
       </c>
       <c r="AP28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ28">
         <v>1000</v>
       </c>
       <c r="AR28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS28">
         <v>1000</v>
       </c>
       <c r="AT28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU28">
         <v>1000</v>
       </c>
       <c r="AV28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW28">
         <v>1000</v>
       </c>
       <c r="AX28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY28">
         <v>1000</v>
@@ -7003,7 +7024,7 @@
         <v>1000</v>
       </c>
       <c r="BD28">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -7024,13 +7045,13 @@
         <v>257</v>
       </c>
       <c r="BK28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BL28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BM28" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7221,13 +7242,13 @@
         <v>258</v>
       </c>
       <c r="BK29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BL29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM29" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7253,10 +7274,10 @@
         <v>1.39</v>
       </c>
       <c r="H30">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J30">
         <v>5.7</v>
@@ -7277,16 +7298,16 @@
         <v>1.73</v>
       </c>
       <c r="P30">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q30">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R30">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T30">
         <v>19.5</v>
@@ -7397,7 +7418,7 @@
         <v>170</v>
       </c>
       <c r="BD30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7418,13 +7439,13 @@
         <v>259</v>
       </c>
       <c r="BK30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BL30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BM30" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7615,13 +7636,13 @@
         <v>260</v>
       </c>
       <c r="BK31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BM31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7671,13 +7692,13 @@
         <v>2.22</v>
       </c>
       <c r="P32">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="Q32">
         <v>1.94</v>
       </c>
       <c r="R32">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S32">
         <v>2.22</v>
@@ -7701,7 +7722,7 @@
         <v>32</v>
       </c>
       <c r="Z32">
-        <v>48</v>
+        <v>1.03</v>
       </c>
       <c r="AA32">
         <v>85</v>
@@ -7725,7 +7746,7 @@
         <v>18.5</v>
       </c>
       <c r="AH32">
-        <v>30</v>
+        <v>1.03</v>
       </c>
       <c r="AI32">
         <v>55</v>
@@ -7749,7 +7770,7 @@
         <v>23</v>
       </c>
       <c r="AP32">
-        <v>40</v>
+        <v>1.03</v>
       </c>
       <c r="AQ32">
         <v>70</v>
@@ -7767,13 +7788,13 @@
         <v>30</v>
       </c>
       <c r="AV32">
-        <v>29</v>
+        <v>1.03</v>
       </c>
       <c r="AW32">
         <v>50</v>
       </c>
       <c r="AX32">
-        <v>75</v>
+        <v>1.03</v>
       </c>
       <c r="AY32">
         <v>140</v>
@@ -7791,7 +7812,7 @@
         <v>55</v>
       </c>
       <c r="BD32">
-        <v>30</v>
+        <v>1.03</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7812,13 +7833,13 @@
         <v>261</v>
       </c>
       <c r="BK32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BL32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BM32" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7838,25 +7859,25 @@
         <v>184</v>
       </c>
       <c r="F33">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
       <c r="I33">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J33">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M33">
         <v>1.74</v>
@@ -7865,10 +7886,10 @@
         <v>2.34</v>
       </c>
       <c r="O33">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="P33">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q33">
         <v>2.24</v>
@@ -7877,28 +7898,28 @@
         <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="U33">
         <v>980</v>
       </c>
       <c r="V33">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>1.68</v>
+        <v>3.5</v>
       </c>
       <c r="Y33">
         <v>980</v>
       </c>
       <c r="Z33">
-        <v>1.55</v>
+        <v>3.95</v>
       </c>
       <c r="AA33">
         <v>1000</v>
@@ -7910,19 +7931,19 @@
         <v>8</v>
       </c>
       <c r="AD33">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE33">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AF33">
-        <v>2.28</v>
+        <v>5.5</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>1.52</v>
+        <v>3.75</v>
       </c>
       <c r="AI33">
         <v>980</v>
@@ -7931,64 +7952,64 @@
         <v>9.6</v>
       </c>
       <c r="AK33">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AL33">
         <v>9.199999999999999</v>
       </c>
       <c r="AM33">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN33">
-        <v>2.24</v>
+        <v>6</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="AQ33">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR33">
-        <v>1.55</v>
+        <v>3.65</v>
       </c>
       <c r="AS33">
         <v>980</v>
       </c>
       <c r="AT33">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="AU33">
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>1.52</v>
+        <v>3.95</v>
       </c>
       <c r="AW33">
         <v>1000</v>
       </c>
       <c r="AX33">
-        <v>1.55</v>
+        <v>3.95</v>
       </c>
       <c r="AY33">
         <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="BA33">
         <v>980</v>
       </c>
       <c r="BB33">
-        <v>1.49</v>
+        <v>3.8</v>
       </c>
       <c r="BC33">
         <v>980</v>
       </c>
       <c r="BD33">
-        <v>1.52</v>
+        <v>3.95</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -8009,13 +8030,13 @@
         <v>262</v>
       </c>
       <c r="BK33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BL33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BM33" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8044,16 +8065,16 @@
         <v>2.68</v>
       </c>
       <c r="I34">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K34">
         <v>3.2</v>
       </c>
       <c r="L34">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M34">
         <v>1.68</v>
@@ -8062,7 +8083,7 @@
         <v>2.46</v>
       </c>
       <c r="O34">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="P34">
         <v>2.08</v>
@@ -8206,13 +8227,13 @@
         <v>263</v>
       </c>
       <c r="BK34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BL34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BM34" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8232,19 +8253,19 @@
         <v>186</v>
       </c>
       <c r="F35">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="G35">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="H35">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="I35">
         <v>990</v>
       </c>
       <c r="J35">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="K35">
         <v>14.5</v>
@@ -8253,10 +8274,10 @@
         <v>1.07</v>
       </c>
       <c r="M35">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="N35">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="O35">
         <v>21</v>
@@ -8274,97 +8295,97 @@
         <v>1000</v>
       </c>
       <c r="T35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U35">
         <v>1000</v>
       </c>
       <c r="V35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W35">
         <v>1000</v>
       </c>
       <c r="X35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y35">
         <v>1000</v>
       </c>
       <c r="Z35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA35">
         <v>1000</v>
       </c>
       <c r="AB35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC35">
         <v>1000</v>
       </c>
       <c r="AD35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE35">
         <v>1000</v>
       </c>
       <c r="AF35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG35">
         <v>1000</v>
       </c>
       <c r="AH35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI35">
         <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK35">
         <v>1000</v>
       </c>
       <c r="AL35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM35">
         <v>1000</v>
       </c>
       <c r="AN35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO35">
         <v>1000</v>
       </c>
       <c r="AP35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS35">
         <v>1000</v>
       </c>
       <c r="AT35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU35">
         <v>1000</v>
       </c>
       <c r="AV35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW35">
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY35">
         <v>1000</v>
@@ -8382,7 +8403,7 @@
         <v>1000</v>
       </c>
       <c r="BD35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE35">
         <v>1000</v>
@@ -8403,13 +8424,13 @@
         <v>264</v>
       </c>
       <c r="BK35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BL35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BM35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8471,97 +8492,97 @@
         <v>1000</v>
       </c>
       <c r="T36">
-        <v>9.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="U36">
         <v>1000</v>
       </c>
       <c r="V36">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="W36">
         <v>1000</v>
       </c>
       <c r="X36">
-        <v>27</v>
+        <v>1.03</v>
       </c>
       <c r="Y36">
         <v>1000</v>
       </c>
       <c r="Z36">
-        <v>85</v>
+        <v>1.03</v>
       </c>
       <c r="AA36">
         <v>1000</v>
       </c>
       <c r="AB36">
-        <v>6</v>
+        <v>1.03</v>
       </c>
       <c r="AC36">
         <v>1000</v>
       </c>
       <c r="AD36">
-        <v>6.8</v>
+        <v>1.03</v>
       </c>
       <c r="AE36">
         <v>1000</v>
       </c>
       <c r="AF36">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="AG36">
         <v>1000</v>
       </c>
       <c r="AH36">
-        <v>50</v>
+        <v>1.03</v>
       </c>
       <c r="AI36">
         <v>1000</v>
       </c>
       <c r="AJ36">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AK36">
         <v>1000</v>
       </c>
       <c r="AL36">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AM36">
         <v>1000</v>
       </c>
       <c r="AN36">
-        <v>19.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO36">
         <v>1000</v>
       </c>
       <c r="AP36">
-        <v>60</v>
+        <v>1.03</v>
       </c>
       <c r="AQ36">
         <v>1000</v>
       </c>
       <c r="AR36">
-        <v>19</v>
+        <v>1.03</v>
       </c>
       <c r="AS36">
         <v>1000</v>
       </c>
       <c r="AT36">
-        <v>19</v>
+        <v>1.03</v>
       </c>
       <c r="AU36">
         <v>1000</v>
       </c>
       <c r="AV36">
-        <v>40</v>
+        <v>1.03</v>
       </c>
       <c r="AW36">
         <v>1000</v>
       </c>
       <c r="AX36">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AY36">
         <v>1000</v>
@@ -8579,7 +8600,7 @@
         <v>1000</v>
       </c>
       <c r="BD36">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8600,13 +8621,13 @@
         <v>265</v>
       </c>
       <c r="BK36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BL36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BM36" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8638,7 +8659,7 @@
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K37">
         <v>1000</v>
@@ -8668,97 +8689,97 @@
         <v>1000</v>
       </c>
       <c r="T37">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="U37">
         <v>1000</v>
       </c>
       <c r="V37">
-        <v>23</v>
+        <v>1.03</v>
       </c>
       <c r="W37">
         <v>1000</v>
       </c>
       <c r="X37">
-        <v>65</v>
+        <v>1.03</v>
       </c>
       <c r="Y37">
         <v>1000</v>
       </c>
       <c r="Z37">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AA37">
         <v>1000</v>
       </c>
       <c r="AB37">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AC37">
         <v>1000</v>
       </c>
       <c r="AD37">
-        <v>9.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AE37">
         <v>1000</v>
       </c>
       <c r="AF37">
-        <v>38</v>
+        <v>1.03</v>
       </c>
       <c r="AG37">
         <v>1000</v>
       </c>
       <c r="AH37">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AI37">
         <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>5.7</v>
+        <v>1.03</v>
       </c>
       <c r="AK37">
         <v>1000</v>
       </c>
       <c r="AL37">
-        <v>9.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AM37">
         <v>1000</v>
       </c>
       <c r="AN37">
-        <v>28</v>
+        <v>1.03</v>
       </c>
       <c r="AO37">
         <v>1000</v>
       </c>
       <c r="AP37">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AQ37">
         <v>1000</v>
       </c>
       <c r="AR37">
-        <v>9.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AS37">
         <v>1000</v>
       </c>
       <c r="AT37">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="AU37">
         <v>1000</v>
       </c>
       <c r="AV37">
-        <v>42</v>
+        <v>1.03</v>
       </c>
       <c r="AW37">
         <v>1000</v>
       </c>
       <c r="AX37">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AY37">
         <v>1000</v>
@@ -8776,7 +8797,7 @@
         <v>1000</v>
       </c>
       <c r="BD37">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8797,13 +8818,13 @@
         <v>266</v>
       </c>
       <c r="BK37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BL37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BM37" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8823,160 +8844,160 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G38">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H38">
-        <v>3.35</v>
+        <v>1.18</v>
       </c>
       <c r="I38">
         <v>1000</v>
       </c>
       <c r="J38">
-        <v>2.3</v>
+        <v>1.11</v>
       </c>
       <c r="K38">
         <v>7.2</v>
       </c>
       <c r="L38">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="M38">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="N38">
+        <v>1.03</v>
+      </c>
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
         <v>1.01</v>
       </c>
-      <c r="O38">
-        <v>990</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ38">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB38">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE38">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF38" t="s">
         <v>228</v>
@@ -8994,13 +9015,13 @@
         <v>267</v>
       </c>
       <c r="BK38" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BM38">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>345</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9020,160 +9041,160 @@
         <v>190</v>
       </c>
       <c r="F39">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="G39">
         <v>2.44</v>
       </c>
       <c r="H39">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J39">
+        <v>3.2</v>
+      </c>
+      <c r="K39">
+        <v>4.9</v>
+      </c>
+      <c r="L39">
+        <v>1.81</v>
+      </c>
+      <c r="M39">
         <v>2.42</v>
       </c>
-      <c r="K39">
-        <v>990</v>
-      </c>
-      <c r="L39">
-        <v>1.79</v>
-      </c>
-      <c r="M39">
-        <v>2.36</v>
-      </c>
       <c r="N39">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="O39">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU39">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW39">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ39">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA39">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BB39">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC39">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BD39">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF39" t="s">
         <v>229</v>
@@ -9191,13 +9212,13 @@
         <v>268</v>
       </c>
       <c r="BK39" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL39">
-        <v>0</v>
-      </c>
-      <c r="BM39">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>346</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9217,184 +9238,184 @@
         <v>191</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L40">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="M40">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="N40">
+        <v>1.03</v>
+      </c>
+      <c r="O40">
+        <v>26</v>
+      </c>
+      <c r="P40">
         <v>1.01</v>
       </c>
-      <c r="O40">
-        <v>1000</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ40">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB40">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF40" t="s">
         <v>230</v>
       </c>
       <c r="BG40">
-        <v>0</v>
+        <v>5535792</v>
       </c>
       <c r="BH40">
-        <v>0</v>
+        <v>328696</v>
       </c>
       <c r="BI40">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>269</v>
       </c>
       <c r="BK40" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL40">
-        <v>0</v>
-      </c>
-      <c r="BM40">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -1752,34 +1752,34 @@
         <v>153</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>990</v>
+        <v>6.4</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>990</v>
+        <v>6.2</v>
       </c>
       <c r="L2">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="M2">
-        <v>990</v>
+        <v>2.32</v>
       </c>
       <c r="N2">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="P2">
         <v>1.01</v>
@@ -1794,7 +1794,7 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>9.199999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="U2">
         <v>1000</v>
@@ -1818,7 +1818,7 @@
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>7.2</v>
+        <v>1.03</v>
       </c>
       <c r="AC2">
         <v>1000</v>
@@ -1872,7 +1872,7 @@
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AU2">
         <v>1000</v>
@@ -1949,157 +1949,157 @@
         <v>154</v>
       </c>
       <c r="F3">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="G3">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I3">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="J3">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="K3">
-        <v>940</v>
+        <v>3.45</v>
       </c>
       <c r="L3">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
+        <v>2.32</v>
+      </c>
+      <c r="O3">
+        <v>2.62</v>
+      </c>
+      <c r="P3">
+        <v>1.98</v>
+      </c>
+      <c r="Q3">
         <v>2.3</v>
       </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>1.01</v>
-      </c>
-      <c r="Q3">
-        <v>2.34</v>
-      </c>
       <c r="R3">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="S3">
         <v>2.02</v>
       </c>
       <c r="T3">
-        <v>1.03</v>
+        <v>8</v>
       </c>
       <c r="U3">
         <v>10.5</v>
       </c>
       <c r="V3">
-        <v>1.13</v>
+        <v>9.6</v>
       </c>
       <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>21</v>
+      </c>
+      <c r="Y3">
+        <v>25</v>
+      </c>
+      <c r="Z3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>1000</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>6.8</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <v>14</v>
+      </c>
+      <c r="AG3">
+        <v>16.5</v>
+      </c>
+      <c r="AH3">
+        <v>11.5</v>
+      </c>
+      <c r="AI3">
+        <v>60</v>
+      </c>
+      <c r="AJ3">
+        <v>11</v>
+      </c>
+      <c r="AK3">
         <v>13</v>
       </c>
-      <c r="X3">
-        <v>1.38</v>
-      </c>
-      <c r="Y3">
-        <v>1000</v>
-      </c>
-      <c r="Z3">
-        <v>1.03</v>
-      </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>1.13</v>
-      </c>
-      <c r="AC3">
-        <v>8.4</v>
-      </c>
-      <c r="AD3">
-        <v>6.2</v>
-      </c>
-      <c r="AE3">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF3">
-        <v>1.03</v>
-      </c>
-      <c r="AG3">
-        <v>19</v>
-      </c>
-      <c r="AH3">
-        <v>1.03</v>
-      </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
+      <c r="AL3">
+        <v>10.5</v>
+      </c>
+      <c r="AM3">
+        <v>12</v>
+      </c>
+      <c r="AN3">
+        <v>19.5</v>
+      </c>
+      <c r="AO3">
+        <v>24</v>
+      </c>
+      <c r="AP3">
+        <v>12</v>
+      </c>
+      <c r="AQ3">
+        <v>75</v>
+      </c>
+      <c r="AR3">
+        <v>26</v>
+      </c>
+      <c r="AS3">
+        <v>30</v>
+      </c>
+      <c r="AT3">
         <v>9.800000000000001</v>
       </c>
-      <c r="AK3">
-        <v>14</v>
-      </c>
-      <c r="AL3">
-        <v>9.6</v>
-      </c>
-      <c r="AM3">
-        <v>13</v>
-      </c>
-      <c r="AN3">
-        <v>1.03</v>
-      </c>
-      <c r="AO3">
-        <v>1000</v>
-      </c>
-      <c r="AP3">
-        <v>1.03</v>
-      </c>
-      <c r="AQ3">
-        <v>1000</v>
-      </c>
-      <c r="AR3">
-        <v>1.38</v>
-      </c>
-      <c r="AS3">
-        <v>1000</v>
-      </c>
-      <c r="AT3">
-        <v>1.36</v>
-      </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AV3">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX3">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -2146,22 +2146,22 @@
         <v>155</v>
       </c>
       <c r="F4">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="G4">
         <v>980</v>
       </c>
       <c r="H4">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="L4">
         <v>1.2</v>
@@ -2343,157 +2343,157 @@
         <v>156</v>
       </c>
       <c r="F5">
+        <v>2.46</v>
+      </c>
+      <c r="G5">
+        <v>3.2</v>
+      </c>
+      <c r="H5">
+        <v>2.78</v>
+      </c>
+      <c r="I5">
+        <v>3.4</v>
+      </c>
+      <c r="J5">
+        <v>3.05</v>
+      </c>
+      <c r="K5">
+        <v>3.65</v>
+      </c>
+      <c r="L5">
+        <v>1.63</v>
+      </c>
+      <c r="M5">
+        <v>1.84</v>
+      </c>
+      <c r="N5">
         <v>2.2</v>
       </c>
-      <c r="G5">
-        <v>2.68</v>
-      </c>
-      <c r="H5">
-        <v>3.05</v>
-      </c>
-      <c r="I5">
-        <v>4.6</v>
-      </c>
-      <c r="J5">
-        <v>2.78</v>
-      </c>
-      <c r="K5">
-        <v>4.1</v>
-      </c>
-      <c r="L5">
-        <v>1.56</v>
-      </c>
-      <c r="M5">
-        <v>1.96</v>
-      </c>
-      <c r="N5">
-        <v>2.04</v>
-      </c>
       <c r="O5">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="P5">
         <v>1.79</v>
       </c>
       <c r="Q5">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="R5">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="S5">
         <v>2.28</v>
       </c>
       <c r="T5">
-        <v>1.14</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>1.05</v>
+        <v>7.8</v>
       </c>
       <c r="W5">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="X5">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="Y5">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="AA5">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB5">
-        <v>1.58</v>
+        <v>7.6</v>
       </c>
       <c r="AC5">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="AE5">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF5">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="AG5">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AH5">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AI5">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5">
-        <v>1.05</v>
+        <v>3.9</v>
       </c>
       <c r="AK5">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AL5">
-        <v>1.06</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM5">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN5">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="AO5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP5">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="AQ5">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AR5">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="AS5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AT5">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AU5">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AV5">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="AW5">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AX5">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="AY5">
         <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BA5">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="BB5">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BC5">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD5">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2540,34 +2540,34 @@
         <v>157</v>
       </c>
       <c r="F6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
-        <v>110</v>
+        <v>2.48</v>
       </c>
       <c r="H6">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J6">
-        <v>1.95</v>
+        <v>3.45</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="L6">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>2.68</v>
       </c>
       <c r="N6">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="O6">
-        <v>13.5</v>
+        <v>2.62</v>
       </c>
       <c r="P6">
         <v>1.01</v>
@@ -2582,7 +2582,7 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
         <v>1000</v>
@@ -2606,37 +2606,37 @@
         <v>1000</v>
       </c>
       <c r="AB6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>1000</v>
+      </c>
+      <c r="AD6">
+        <v>1.03</v>
+      </c>
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>1.03</v>
+      </c>
+      <c r="AG6">
+        <v>1000</v>
+      </c>
+      <c r="AH6">
+        <v>1.03</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
+        <v>1.03</v>
+      </c>
+      <c r="AK6">
+        <v>1000</v>
+      </c>
+      <c r="AL6">
         <v>9</v>
-      </c>
-      <c r="AC6">
-        <v>1000</v>
-      </c>
-      <c r="AD6">
-        <v>6.8</v>
-      </c>
-      <c r="AE6">
-        <v>1000</v>
-      </c>
-      <c r="AF6">
-        <v>1.03</v>
-      </c>
-      <c r="AG6">
-        <v>1000</v>
-      </c>
-      <c r="AH6">
-        <v>1.03</v>
-      </c>
-      <c r="AI6">
-        <v>1000</v>
-      </c>
-      <c r="AJ6">
-        <v>1.03</v>
-      </c>
-      <c r="AK6">
-        <v>1000</v>
-      </c>
-      <c r="AL6">
-        <v>9.199999999999999</v>
       </c>
       <c r="AM6">
         <v>1000</v>
@@ -2737,40 +2737,40 @@
         <v>158</v>
       </c>
       <c r="F7">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G7">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="H7">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="I7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="M7">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="N7">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O7">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="P7">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q7">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R7">
         <v>1.67</v>
@@ -2782,46 +2782,46 @@
         <v>9.4</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V7">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="W7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z7">
+        <v>4.4</v>
+      </c>
+      <c r="AA7">
+        <v>1000</v>
+      </c>
+      <c r="AB7">
+        <v>6.4</v>
+      </c>
+      <c r="AC7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>3.15</v>
+      </c>
+      <c r="AE7">
+        <v>10.5</v>
+      </c>
+      <c r="AF7">
+        <v>3.85</v>
+      </c>
+      <c r="AG7">
+        <v>27</v>
+      </c>
+      <c r="AH7">
         <v>4.3</v>
-      </c>
-      <c r="AA7">
-        <v>1000</v>
-      </c>
-      <c r="AB7">
-        <v>6.6</v>
-      </c>
-      <c r="AC7">
-        <v>9</v>
-      </c>
-      <c r="AD7">
-        <v>7</v>
-      </c>
-      <c r="AE7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>3.8</v>
-      </c>
-      <c r="AG7">
-        <v>26</v>
-      </c>
-      <c r="AH7">
-        <v>4.2</v>
       </c>
       <c r="AI7">
         <v>1000</v>
@@ -2830,22 +2830,22 @@
         <v>3.25</v>
       </c>
       <c r="AK7">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL7">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM7">
         <v>13</v>
       </c>
       <c r="AN7">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
@@ -2854,22 +2854,22 @@
         <v>3.75</v>
       </c>
       <c r="AS7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT7">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AU7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW7">
         <v>60</v>
       </c>
       <c r="AX7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AY7">
         <v>1000</v>
@@ -2878,16 +2878,16 @@
         <v>3.6</v>
       </c>
       <c r="BA7">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="BB7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BC7">
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2937,28 +2937,28 @@
         <v>2.34</v>
       </c>
       <c r="G8">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H8">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8">
         <v>3.1</v>
       </c>
       <c r="K8">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L8">
         <v>1.75</v>
       </c>
       <c r="M8">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="N8">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O8">
         <v>2.34</v>
@@ -3134,16 +3134,16 @@
         <v>2.78</v>
       </c>
       <c r="G9">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>2.02</v>
       </c>
       <c r="I9">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -3152,10 +3152,10 @@
         <v>1.8</v>
       </c>
       <c r="M9">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="N9">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O9">
         <v>2.24</v>
@@ -3328,34 +3328,34 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="G10">
-        <v>2.42</v>
+        <v>1.76</v>
       </c>
       <c r="H10">
         <v>5.1</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J10">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="K10">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="M10">
-        <v>13.5</v>
+        <v>2.24</v>
       </c>
       <c r="N10">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>6.4</v>
+        <v>2.94</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -3376,19 +3376,19 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>1.03</v>
+        <v>2.86</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="AA10">
         <v>1000</v>
@@ -3406,13 +3406,13 @@
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="AI10">
         <v>1000</v>
@@ -3430,13 +3430,13 @@
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
@@ -3454,13 +3454,13 @@
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -3528,13 +3528,13 @@
         <v>2.12</v>
       </c>
       <c r="G11">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H11">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11">
         <v>3.55</v>
@@ -3558,10 +3558,10 @@
         <v>1.77</v>
       </c>
       <c r="Q11">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R11">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S11">
         <v>2.3</v>
@@ -3576,7 +3576,7 @@
         <v>13.5</v>
       </c>
       <c r="W11">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X11">
         <v>24</v>
@@ -3585,7 +3585,7 @@
         <v>34</v>
       </c>
       <c r="Z11">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="AA11">
         <v>80</v>
@@ -3603,7 +3603,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG11">
         <v>16</v>
@@ -3615,10 +3615,10 @@
         <v>48</v>
       </c>
       <c r="AJ11">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK11">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL11">
         <v>9.800000000000001</v>
@@ -3630,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="AO11">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP11">
-        <v>1.03</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ11">
         <v>60</v>
@@ -3642,13 +3642,13 @@
         <v>23</v>
       </c>
       <c r="AS11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT11">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AU11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV11">
         <v>30</v>
@@ -3657,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="AX11">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="AY11">
         <v>100</v>
@@ -3669,13 +3669,13 @@
         <v>16.5</v>
       </c>
       <c r="BB11">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="BC11">
         <v>46</v>
       </c>
       <c r="BD11">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3722,130 +3722,130 @@
         <v>163</v>
       </c>
       <c r="F12">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G12">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H12">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="I12">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K12">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="M12">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="N12">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O12">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="P12">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q12">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R12">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="S12">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U12">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V12">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="W12">
         <v>12</v>
       </c>
       <c r="X12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z12">
-        <v>5.7</v>
+        <v>25</v>
       </c>
       <c r="AA12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB12">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD12">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE12">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF12">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG12">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ12">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL12">
         <v>11.5</v>
       </c>
       <c r="AM12">
+        <v>15.5</v>
+      </c>
+      <c r="AN12">
         <v>16</v>
       </c>
-      <c r="AN12">
-        <v>14.5</v>
-      </c>
       <c r="AO12">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP12">
         <v>5.9</v>
       </c>
       <c r="AQ12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR12">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AS12">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AT12">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AU12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV12">
         <v>6</v>
@@ -3860,22 +3860,22 @@
         <v>110</v>
       </c>
       <c r="AZ12">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BA12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB12">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BC12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD12">
         <v>6.8</v>
       </c>
       <c r="BE12">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="BF12" t="s">
         <v>202</v>
@@ -3925,16 +3925,16 @@
         <v>2.48</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I13">
         <v>3.2</v>
       </c>
       <c r="J13">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
         <v>2.04</v>
@@ -4051,7 +4051,7 @@
         <v>38</v>
       </c>
       <c r="AX13">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY13">
         <v>85</v>
@@ -4119,19 +4119,19 @@
         <v>4.3</v>
       </c>
       <c r="G14">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H14">
         <v>1.85</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L14">
         <v>2.08</v>
@@ -4313,22 +4313,22 @@
         <v>166</v>
       </c>
       <c r="F15">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G15">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J15">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
         <v>1.67</v>
@@ -4346,13 +4346,13 @@
         <v>1.98</v>
       </c>
       <c r="Q15">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="R15">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="S15">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T15">
         <v>8.4</v>
@@ -4382,7 +4382,7 @@
         <v>6.6</v>
       </c>
       <c r="AC15">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD15">
         <v>6.4</v>
@@ -4406,13 +4406,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK15">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL15">
         <v>9.199999999999999</v>
       </c>
       <c r="AM15">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN15">
         <v>17.5</v>
@@ -4430,13 +4430,13 @@
         <v>21</v>
       </c>
       <c r="AS15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT15">
         <v>21</v>
       </c>
       <c r="AU15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV15">
         <v>1.03</v>
@@ -4454,7 +4454,7 @@
         <v>1.01</v>
       </c>
       <c r="BA15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15">
         <v>1.01</v>
@@ -4513,10 +4513,10 @@
         <v>2.66</v>
       </c>
       <c r="G16">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H16">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I16">
         <v>3.1</v>
@@ -4528,16 +4528,16 @@
         <v>3.75</v>
       </c>
       <c r="L16">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M16">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="N16">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O16">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="P16">
         <v>1.81</v>
@@ -4570,7 +4570,7 @@
         <v>19</v>
       </c>
       <c r="Z16">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="AA16">
         <v>46</v>
@@ -4618,31 +4618,31 @@
         <v>22</v>
       </c>
       <c r="AP16">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AQ16">
         <v>60</v>
       </c>
       <c r="AR16">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AS16">
         <v>55</v>
       </c>
       <c r="AT16">
-        <v>1.03</v>
+        <v>5.7</v>
       </c>
       <c r="AU16">
         <v>40</v>
       </c>
       <c r="AV16">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="AW16">
         <v>1000</v>
       </c>
       <c r="AX16">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="AY16">
         <v>1000</v>
@@ -4707,10 +4707,10 @@
         <v>168</v>
       </c>
       <c r="F17">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G17">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H17">
         <v>4.3</v>
@@ -4725,7 +4725,7 @@
         <v>4.4</v>
       </c>
       <c r="L17">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="M17">
         <v>2.38</v>
@@ -4734,7 +4734,7 @@
         <v>1.73</v>
       </c>
       <c r="O17">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="P17">
         <v>1.7</v>
@@ -4773,16 +4773,16 @@
         <v>110</v>
       </c>
       <c r="AB17">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD17">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AE17">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AF17">
         <v>13</v>
@@ -4803,7 +4803,7 @@
         <v>15</v>
       </c>
       <c r="AL17">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AM17">
         <v>12.5</v>
@@ -4860,7 +4860,7 @@
         <v>1.03</v>
       </c>
       <c r="BE17">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="BF17" t="s">
         <v>207</v>
@@ -4904,16 +4904,16 @@
         <v>169</v>
       </c>
       <c r="F18">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G18">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H18">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I18">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -4952,31 +4952,31 @@
         <v>16.5</v>
       </c>
       <c r="V18">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="W18">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X18">
         <v>30</v>
       </c>
       <c r="Y18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z18">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA18">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB18">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18">
         <v>10.5</v>
       </c>
       <c r="AD18">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AE18">
         <v>9</v>
@@ -4988,10 +4988,10 @@
         <v>18</v>
       </c>
       <c r="AH18">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AI18">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ18">
         <v>10.5</v>
@@ -5012,7 +5012,7 @@
         <v>18.5</v>
       </c>
       <c r="AP18">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AQ18">
         <v>60</v>
@@ -5021,22 +5021,22 @@
         <v>18.5</v>
       </c>
       <c r="AS18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT18">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AU18">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AV18">
         <v>28</v>
       </c>
       <c r="AW18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX18">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AY18">
         <v>95</v>
@@ -5045,19 +5045,19 @@
         <v>8.6</v>
       </c>
       <c r="BA18">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BB18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18">
         <v>55</v>
       </c>
       <c r="BD18">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BE18">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="BF18" t="s">
         <v>208</v>
@@ -5101,46 +5101,46 @@
         <v>170</v>
       </c>
       <c r="F19">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G19">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H19">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I19">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J19">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K19">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M19">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N19">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O19">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="P19">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R19">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S19">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T19">
         <v>8.6</v>
@@ -5149,7 +5149,7 @@
         <v>14.5</v>
       </c>
       <c r="V19">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="W19">
         <v>25</v>
@@ -5158,10 +5158,10 @@
         <v>4.1</v>
       </c>
       <c r="Y19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z19">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AA19">
         <v>1000</v>
@@ -5173,13 +5173,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD19">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE19">
         <v>11.5</v>
       </c>
       <c r="AF19">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AG19">
         <v>38</v>
@@ -5203,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="AN19">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP19">
         <v>4.2</v>
@@ -5218,7 +5218,7 @@
         <v>3.45</v>
       </c>
       <c r="AS19">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AT19">
         <v>3.65</v>
@@ -5239,13 +5239,13 @@
         <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BA19">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BB19">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BC19">
         <v>1000</v>
@@ -5298,34 +5298,34 @@
         <v>171</v>
       </c>
       <c r="F20">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="G20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="I20">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="J20">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K20">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L20">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>2.74</v>
       </c>
       <c r="N20">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="O20">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="P20">
         <v>1.01</v>
@@ -5364,7 +5364,7 @@
         <v>1000</v>
       </c>
       <c r="AB20">
-        <v>1.03</v>
+        <v>2.74</v>
       </c>
       <c r="AC20">
         <v>1000</v>
@@ -5388,49 +5388,49 @@
         <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AK20">
         <v>1000</v>
       </c>
       <c r="AL20">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AM20">
         <v>1000</v>
       </c>
       <c r="AN20">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AO20">
         <v>1000</v>
       </c>
       <c r="AP20">
-        <v>1.03</v>
+        <v>8</v>
       </c>
       <c r="AQ20">
         <v>1000</v>
       </c>
       <c r="AR20">
-        <v>1.03</v>
+        <v>4.6</v>
       </c>
       <c r="AS20">
         <v>1000</v>
       </c>
       <c r="AT20">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AU20">
         <v>1000</v>
       </c>
       <c r="AV20">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>1.03</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY20">
         <v>1000</v>
@@ -5495,157 +5495,157 @@
         <v>172</v>
       </c>
       <c r="F21">
+        <v>2.3</v>
+      </c>
+      <c r="G21">
+        <v>2.44</v>
+      </c>
+      <c r="H21">
+        <v>3.1</v>
+      </c>
+      <c r="I21">
+        <v>3.45</v>
+      </c>
+      <c r="J21">
+        <v>3.55</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>1.91</v>
+      </c>
+      <c r="M21">
+        <v>2.12</v>
+      </c>
+      <c r="N21">
+        <v>1.89</v>
+      </c>
+      <c r="O21">
+        <v>2.1</v>
+      </c>
+      <c r="P21">
+        <v>1.64</v>
+      </c>
+      <c r="Q21">
+        <v>2.08</v>
+      </c>
+      <c r="R21">
         <v>1.94</v>
       </c>
-      <c r="G21">
-        <v>2.54</v>
-      </c>
-      <c r="H21">
-        <v>3.05</v>
-      </c>
-      <c r="I21">
+      <c r="S21">
+        <v>2.56</v>
+      </c>
+      <c r="T21">
+        <v>11.5</v>
+      </c>
+      <c r="U21">
+        <v>14.5</v>
+      </c>
+      <c r="V21">
+        <v>11.5</v>
+      </c>
+      <c r="W21">
+        <v>15.5</v>
+      </c>
+      <c r="X21">
+        <v>6.6</v>
+      </c>
+      <c r="Y21">
+        <v>23</v>
+      </c>
+      <c r="Z21">
+        <v>10.5</v>
+      </c>
+      <c r="AA21">
+        <v>60</v>
+      </c>
+      <c r="AB21">
+        <v>9</v>
+      </c>
+      <c r="AC21">
+        <v>12.5</v>
+      </c>
+      <c r="AD21">
+        <v>7.2</v>
+      </c>
+      <c r="AE21">
+        <v>8.4</v>
+      </c>
+      <c r="AF21">
+        <v>12</v>
+      </c>
+      <c r="AG21">
+        <v>14</v>
+      </c>
+      <c r="AH21">
+        <v>28</v>
+      </c>
+      <c r="AI21">
+        <v>40</v>
+      </c>
+      <c r="AJ21">
+        <v>13</v>
+      </c>
+      <c r="AK21">
+        <v>16</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>11.5</v>
+      </c>
+      <c r="AN21">
+        <v>14.5</v>
+      </c>
+      <c r="AO21">
+        <v>18</v>
+      </c>
+      <c r="AP21">
+        <v>10.5</v>
+      </c>
+      <c r="AQ21">
+        <v>1000</v>
+      </c>
+      <c r="AR21">
+        <v>27</v>
+      </c>
+      <c r="AS21">
+        <v>40</v>
+      </c>
+      <c r="AT21">
+        <v>21</v>
+      </c>
+      <c r="AU21">
+        <v>26</v>
+      </c>
+      <c r="AV21">
+        <v>6.4</v>
+      </c>
+      <c r="AW21">
+        <v>40</v>
+      </c>
+      <c r="AX21">
+        <v>6.8</v>
+      </c>
+      <c r="AY21">
+        <v>100</v>
+      </c>
+      <c r="AZ21">
+        <v>13.5</v>
+      </c>
+      <c r="BA21">
+        <v>24</v>
+      </c>
+      <c r="BB21">
+        <v>22</v>
+      </c>
+      <c r="BC21">
+        <v>42</v>
+      </c>
+      <c r="BD21">
         <v>4.6</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>4.7</v>
-      </c>
-      <c r="L21">
-        <v>1.75</v>
-      </c>
-      <c r="M21">
-        <v>2.3</v>
-      </c>
-      <c r="N21">
-        <v>1.77</v>
-      </c>
-      <c r="O21">
-        <v>2.32</v>
-      </c>
-      <c r="P21">
-        <v>1.65</v>
-      </c>
-      <c r="Q21">
-        <v>2.1</v>
-      </c>
-      <c r="R21">
-        <v>1.91</v>
-      </c>
-      <c r="S21">
-        <v>2.54</v>
-      </c>
-      <c r="T21">
-        <v>2.16</v>
-      </c>
-      <c r="U21">
-        <v>17</v>
-      </c>
-      <c r="V21">
-        <v>2.58</v>
-      </c>
-      <c r="W21">
-        <v>17.5</v>
-      </c>
-      <c r="X21">
-        <v>1.47</v>
-      </c>
-      <c r="Y21">
-        <v>32</v>
-      </c>
-      <c r="Z21">
-        <v>1.47</v>
-      </c>
-      <c r="AA21">
-        <v>1000</v>
-      </c>
-      <c r="AB21">
-        <v>3.15</v>
-      </c>
-      <c r="AC21">
-        <v>12</v>
-      </c>
-      <c r="AD21">
-        <v>3</v>
-      </c>
-      <c r="AE21">
-        <v>10</v>
-      </c>
-      <c r="AF21">
-        <v>1.79</v>
-      </c>
-      <c r="AG21">
-        <v>19</v>
-      </c>
-      <c r="AH21">
-        <v>2.36</v>
-      </c>
-      <c r="AI21">
-        <v>1000</v>
-      </c>
-      <c r="AJ21">
-        <v>2.14</v>
-      </c>
-      <c r="AK21">
-        <v>16.5</v>
-      </c>
-      <c r="AL21">
-        <v>3.25</v>
-      </c>
-      <c r="AM21">
-        <v>13.5</v>
-      </c>
-      <c r="AN21">
-        <v>1.82</v>
-      </c>
-      <c r="AO21">
-        <v>23</v>
-      </c>
-      <c r="AP21">
-        <v>1.3</v>
-      </c>
-      <c r="AQ21">
-        <v>1000</v>
-      </c>
-      <c r="AR21">
-        <v>1.47</v>
-      </c>
-      <c r="AS21">
-        <v>34</v>
-      </c>
-      <c r="AT21">
-        <v>1.42</v>
-      </c>
-      <c r="AU21">
-        <v>28</v>
-      </c>
-      <c r="AV21">
-        <v>3.95</v>
-      </c>
-      <c r="AW21">
-        <v>1000</v>
-      </c>
-      <c r="AX21">
-        <v>1.45</v>
-      </c>
-      <c r="AY21">
-        <v>1000</v>
-      </c>
-      <c r="AZ21">
-        <v>1.25</v>
-      </c>
-      <c r="BA21">
-        <v>20</v>
-      </c>
-      <c r="BB21">
-        <v>1.24</v>
-      </c>
-      <c r="BC21">
-        <v>1000</v>
-      </c>
-      <c r="BD21">
-        <v>1.21</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5692,157 +5692,157 @@
         <v>173</v>
       </c>
       <c r="F22">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G22">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H22">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="I22">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="J22">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K22">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L22">
         <v>2.34</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N22">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O22">
         <v>1.75</v>
       </c>
       <c r="P22">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="Q22">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="R22">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S22">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="T22">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>27</v>
       </c>
       <c r="V22">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="W22">
         <v>14</v>
       </c>
       <c r="X22">
-        <v>3.3</v>
+        <v>10.5</v>
       </c>
       <c r="Y22">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z22">
-        <v>3.55</v>
+        <v>16</v>
       </c>
       <c r="AA22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB22">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AC22">
         <v>27</v>
       </c>
       <c r="AD22">
-        <v>3.15</v>
+        <v>8.4</v>
       </c>
       <c r="AE22">
         <v>13</v>
       </c>
       <c r="AF22">
-        <v>3.15</v>
+        <v>9</v>
       </c>
       <c r="AG22">
         <v>12.5</v>
       </c>
       <c r="AH22">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AI22">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ22">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AK22">
         <v>50</v>
       </c>
       <c r="AL22">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AM22">
         <v>24</v>
       </c>
       <c r="AN22">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO22">
         <v>23</v>
       </c>
       <c r="AP22">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AQ22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR22">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS22">
         <v>130</v>
       </c>
       <c r="AT22">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AU22">
         <v>65</v>
       </c>
       <c r="AV22">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AW22">
         <v>65</v>
       </c>
       <c r="AX22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AY22">
         <v>100</v>
       </c>
       <c r="AZ22">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BA22">
         <v>60</v>
       </c>
       <c r="BB22">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="BC22">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BD22">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5889,31 +5889,31 @@
         <v>174</v>
       </c>
       <c r="F23">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G23">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H23">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I23">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J23">
         <v>3.65</v>
       </c>
       <c r="K23">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L23">
         <v>2.14</v>
       </c>
       <c r="M23">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O23">
         <v>1.88</v>
@@ -5922,13 +5922,13 @@
         <v>1.54</v>
       </c>
       <c r="Q23">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R23">
         <v>2.08</v>
       </c>
       <c r="S23">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T23">
         <v>3.6</v>
@@ -5940,25 +5940,25 @@
         <v>3.55</v>
       </c>
       <c r="W23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X23">
         <v>3.8</v>
       </c>
       <c r="Y23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z23">
         <v>4</v>
       </c>
       <c r="AA23">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB23">
         <v>3.25</v>
       </c>
       <c r="AC23">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD23">
         <v>7</v>
@@ -5970,19 +5970,19 @@
         <v>3.5</v>
       </c>
       <c r="AG23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AI23">
         <v>55</v>
       </c>
       <c r="AJ23">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AK23">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL23">
         <v>7.8</v>
@@ -5991,10 +5991,10 @@
         <v>13</v>
       </c>
       <c r="AN23">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23">
         <v>3.95</v>
@@ -6003,10 +6003,10 @@
         <v>60</v>
       </c>
       <c r="AR23">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AS23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23">
         <v>3.55</v>
@@ -6027,16 +6027,16 @@
         <v>95</v>
       </c>
       <c r="AZ23">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BA23">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BB23">
         <v>3.85</v>
       </c>
       <c r="BC23">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD23">
         <v>4.2</v>
@@ -6140,13 +6140,13 @@
         <v>1000</v>
       </c>
       <c r="X24">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
         <v>1000</v>
       </c>
       <c r="Z24">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="AA24">
         <v>1000</v>
@@ -6170,7 +6170,7 @@
         <v>1000</v>
       </c>
       <c r="AH24">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AI24">
         <v>1000</v>
@@ -6188,37 +6188,37 @@
         <v>1000</v>
       </c>
       <c r="AN24">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AO24">
         <v>1000</v>
       </c>
       <c r="AP24">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
       </c>
       <c r="AR24">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="AS24">
         <v>1000</v>
       </c>
       <c r="AT24">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AU24">
         <v>1000</v>
       </c>
       <c r="AV24">
-        <v>1.03</v>
+        <v>5.6</v>
       </c>
       <c r="AW24">
         <v>1000</v>
       </c>
       <c r="AX24">
-        <v>1.03</v>
+        <v>19.5</v>
       </c>
       <c r="AY24">
         <v>1000</v>
@@ -6283,16 +6283,16 @@
         <v>176</v>
       </c>
       <c r="F25">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G25">
         <v>2.12</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I25">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J25">
         <v>3.15</v>
@@ -6319,10 +6319,10 @@
         <v>2.3</v>
       </c>
       <c r="R25">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="S25">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="T25">
         <v>8</v>
@@ -6343,7 +6343,7 @@
         <v>32</v>
       </c>
       <c r="Z25">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA25">
         <v>120</v>
@@ -6367,10 +6367,10 @@
         <v>19.5</v>
       </c>
       <c r="AH25">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI25">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -6379,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="AL25">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM25">
         <v>11.5</v>
@@ -6388,10 +6388,10 @@
         <v>22</v>
       </c>
       <c r="AO25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP25">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ25">
         <v>110</v>
@@ -6415,7 +6415,7 @@
         <v>60</v>
       </c>
       <c r="AX25">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY25">
         <v>200</v>
@@ -6427,13 +6427,13 @@
         <v>25</v>
       </c>
       <c r="BB25">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BC25">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="BD25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6489,13 +6489,13 @@
         <v>1.86</v>
       </c>
       <c r="I26">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J26">
         <v>3.7</v>
       </c>
       <c r="K26">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26">
         <v>1.95</v>
@@ -6513,13 +6513,13 @@
         <v>1.82</v>
       </c>
       <c r="Q26">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R26">
         <v>2.06</v>
       </c>
       <c r="S26">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="T26">
         <v>12</v>
@@ -6683,7 +6683,7 @@
         <v>2.4</v>
       </c>
       <c r="H27">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I27">
         <v>3.75</v>
@@ -6874,40 +6874,40 @@
         <v>179</v>
       </c>
       <c r="F28">
-        <v>2.4</v>
+        <v>2.82</v>
       </c>
       <c r="G28">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H28">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="I28">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="J28">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K28">
         <v>4.3</v>
       </c>
       <c r="L28">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="M28">
-        <v>970</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="O28">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="P28">
         <v>1.01</v>
       </c>
       <c r="Q28">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="R28">
         <v>1.01</v>
@@ -6916,97 +6916,97 @@
         <v>1000</v>
       </c>
       <c r="T28">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="U28">
         <v>1000</v>
       </c>
       <c r="V28">
-        <v>1.03</v>
+        <v>2.74</v>
       </c>
       <c r="W28">
         <v>1000</v>
       </c>
       <c r="X28">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="Y28">
         <v>1000</v>
       </c>
       <c r="Z28">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
-        <v>1.03</v>
+        <v>2.32</v>
       </c>
       <c r="AC28">
         <v>1000</v>
       </c>
       <c r="AD28">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="AE28">
         <v>1000</v>
       </c>
       <c r="AF28">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="AG28">
         <v>1000</v>
       </c>
       <c r="AH28">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI28">
         <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="AK28">
         <v>1000</v>
       </c>
       <c r="AL28">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AM28">
         <v>1000</v>
       </c>
       <c r="AN28">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="AO28">
         <v>1000</v>
       </c>
       <c r="AP28">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AQ28">
         <v>1000</v>
       </c>
       <c r="AR28">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="AS28">
         <v>1000</v>
       </c>
       <c r="AT28">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AU28">
         <v>1000</v>
       </c>
       <c r="AV28">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="AW28">
         <v>1000</v>
       </c>
       <c r="AX28">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AY28">
         <v>1000</v>
@@ -7074,19 +7074,19 @@
         <v>1.31</v>
       </c>
       <c r="G29">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J29">
         <v>5.5</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L29">
         <v>2.28</v>
@@ -7095,7 +7095,7 @@
         <v>2.64</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O29">
         <v>1.77</v>
@@ -7104,13 +7104,13 @@
         <v>2</v>
       </c>
       <c r="Q29">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R29">
         <v>1.8</v>
       </c>
       <c r="S29">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>18</v>
@@ -7277,7 +7277,7 @@
         <v>9.6</v>
       </c>
       <c r="I30">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J30">
         <v>5.7</v>
@@ -7289,7 +7289,7 @@
         <v>2.38</v>
       </c>
       <c r="M30">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="N30">
         <v>1.68</v>
@@ -7298,37 +7298,37 @@
         <v>1.73</v>
       </c>
       <c r="P30">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q30">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S30">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T30">
         <v>19.5</v>
       </c>
       <c r="U30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W30">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X30">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y30">
         <v>85</v>
       </c>
       <c r="Z30">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA30">
         <v>360</v>
@@ -7340,7 +7340,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD30">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE30">
         <v>12.5</v>
@@ -7352,7 +7352,7 @@
         <v>36</v>
       </c>
       <c r="AH30">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AI30">
         <v>150</v>
@@ -7370,13 +7370,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AN30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30">
         <v>28</v>
       </c>
       <c r="AP30">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AQ30">
         <v>130</v>
@@ -7385,7 +7385,7 @@
         <v>10.5</v>
       </c>
       <c r="AS30">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AT30">
         <v>13</v>
@@ -7406,7 +7406,7 @@
         <v>150</v>
       </c>
       <c r="AZ30">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BA30">
         <v>5.6</v>
@@ -7418,7 +7418,7 @@
         <v>170</v>
       </c>
       <c r="BD30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7483,7 +7483,7 @@
         <v>4.5</v>
       </c>
       <c r="L31">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M31">
         <v>2.24</v>
@@ -7492,19 +7492,19 @@
         <v>1.81</v>
       </c>
       <c r="O31">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="P31">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R31">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S31">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T31">
         <v>15.5</v>
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="AA31">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AB31">
         <v>18.5</v>
@@ -7537,13 +7537,13 @@
         <v>22</v>
       </c>
       <c r="AD31">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AE31">
         <v>9.800000000000001</v>
       </c>
       <c r="AF31">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG31">
         <v>9.800000000000001</v>
@@ -7585,7 +7585,7 @@
         <v>140</v>
       </c>
       <c r="AT31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AU31">
         <v>70</v>
@@ -7597,13 +7597,13 @@
         <v>70</v>
       </c>
       <c r="AX31">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AY31">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ31">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BA31">
         <v>75</v>
@@ -7665,10 +7665,10 @@
         <v>2.18</v>
       </c>
       <c r="G32">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H32">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I32">
         <v>3.8</v>
@@ -7677,7 +7677,7 @@
         <v>3.45</v>
       </c>
       <c r="K32">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L32">
         <v>1.83</v>
@@ -7868,13 +7868,13 @@
         <v>4</v>
       </c>
       <c r="I33">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J33">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K33">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L33">
         <v>1.64</v>
@@ -7889,37 +7889,37 @@
         <v>2.58</v>
       </c>
       <c r="P33">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q33">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U33">
         <v>980</v>
       </c>
       <c r="V33">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y33">
         <v>980</v>
       </c>
       <c r="Z33">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AA33">
         <v>1000</v>
@@ -7928,22 +7928,22 @@
         <v>6.2</v>
       </c>
       <c r="AC33">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE33">
         <v>9</v>
       </c>
       <c r="AF33">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AI33">
         <v>980</v>
@@ -7952,7 +7952,7 @@
         <v>9.6</v>
       </c>
       <c r="AK33">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL33">
         <v>9.199999999999999</v>
@@ -7961,55 +7961,55 @@
         <v>12</v>
       </c>
       <c r="AN33">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AQ33">
         <v>980</v>
       </c>
       <c r="AR33">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AS33">
         <v>980</v>
       </c>
       <c r="AT33">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AU33">
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AW33">
         <v>1000</v>
       </c>
       <c r="AX33">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AY33">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ33">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BA33">
         <v>980</v>
       </c>
       <c r="BB33">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BC33">
         <v>980</v>
       </c>
       <c r="BD33">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -8077,10 +8077,10 @@
         <v>1.53</v>
       </c>
       <c r="M34">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="N34">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
         <v>2.9</v>
@@ -8092,7 +8092,7 @@
         <v>2.24</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S34">
         <v>1.91</v>
@@ -8253,28 +8253,28 @@
         <v>186</v>
       </c>
       <c r="F35">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="G35">
         <v>980</v>
       </c>
       <c r="H35">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="I35">
         <v>990</v>
       </c>
       <c r="J35">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="K35">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="L35">
         <v>1.07</v>
       </c>
       <c r="M35">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="N35">
         <v>1.09</v>
@@ -8307,13 +8307,13 @@
         <v>1000</v>
       </c>
       <c r="X35">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>1000</v>
       </c>
       <c r="Z35">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AA35">
         <v>1000</v>
@@ -8337,7 +8337,7 @@
         <v>1000</v>
       </c>
       <c r="AH35">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="AI35">
         <v>1000</v>
@@ -8355,37 +8355,37 @@
         <v>1000</v>
       </c>
       <c r="AN35">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="AO35">
         <v>1000</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>13.5</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="AS35">
         <v>1000</v>
       </c>
       <c r="AT35">
-        <v>1.03</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU35">
         <v>1000</v>
       </c>
       <c r="AV35">
-        <v>1.03</v>
+        <v>16</v>
       </c>
       <c r="AW35">
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>1.03</v>
+        <v>9.4</v>
       </c>
       <c r="AY35">
         <v>1000</v>
@@ -8456,7 +8456,7 @@
         <v>1000</v>
       </c>
       <c r="H36">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="I36">
         <v>990</v>
@@ -8471,7 +8471,7 @@
         <v>1.07</v>
       </c>
       <c r="M36">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="N36">
         <v>1.06</v>
@@ -8647,34 +8647,34 @@
         <v>188</v>
       </c>
       <c r="F37">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="G37">
-        <v>1000</v>
+        <v>1.67</v>
       </c>
       <c r="H37">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I37">
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="K37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L37">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>2.74</v>
       </c>
       <c r="N37">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="O37">
-        <v>26</v>
+        <v>5.1</v>
       </c>
       <c r="P37">
         <v>1.01</v>
@@ -8844,34 +8844,34 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="H38">
-        <v>1.18</v>
+        <v>3.75</v>
       </c>
       <c r="I38">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J38">
-        <v>1.11</v>
+        <v>3.15</v>
       </c>
       <c r="K38">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="L38">
-        <v>1.07</v>
+        <v>1.54</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>2.52</v>
       </c>
       <c r="N38">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="O38">
-        <v>36</v>
+        <v>2.82</v>
       </c>
       <c r="P38">
         <v>1.01</v>
@@ -8886,97 +8886,97 @@
         <v>1000</v>
       </c>
       <c r="T38">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="U38">
         <v>1000</v>
       </c>
       <c r="V38">
-        <v>1.03</v>
+        <v>2.86</v>
       </c>
       <c r="W38">
         <v>1000</v>
       </c>
       <c r="X38">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="Y38">
         <v>1000</v>
       </c>
       <c r="Z38">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="AA38">
         <v>1000</v>
       </c>
       <c r="AB38">
-        <v>1.03</v>
+        <v>2.74</v>
       </c>
       <c r="AC38">
         <v>1000</v>
       </c>
       <c r="AD38">
-        <v>1.03</v>
+        <v>2.72</v>
       </c>
       <c r="AE38">
         <v>1000</v>
       </c>
       <c r="AF38">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AG38">
         <v>1000</v>
       </c>
       <c r="AH38">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="AI38">
         <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="AK38">
         <v>1000</v>
       </c>
       <c r="AL38">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="AM38">
         <v>1000</v>
       </c>
       <c r="AN38">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AO38">
         <v>1000</v>
       </c>
       <c r="AP38">
-        <v>1.03</v>
+        <v>14.5</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AS38">
         <v>1000</v>
       </c>
       <c r="AT38">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AU38">
         <v>1000</v>
       </c>
       <c r="AV38">
-        <v>1.03</v>
+        <v>9.4</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>1.03</v>
+        <v>15.5</v>
       </c>
       <c r="AY38">
         <v>1000</v>
@@ -9041,34 +9041,34 @@
         <v>190</v>
       </c>
       <c r="F39">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G39">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H39">
         <v>3.1</v>
       </c>
       <c r="I39">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="J39">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K39">
         <v>4.9</v>
       </c>
       <c r="L39">
+        <v>1.97</v>
+      </c>
+      <c r="M39">
+        <v>2.22</v>
+      </c>
+      <c r="N39">
         <v>1.81</v>
       </c>
-      <c r="M39">
-        <v>2.42</v>
-      </c>
-      <c r="N39">
-        <v>1.71</v>
-      </c>
       <c r="O39">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="P39">
         <v>1.62</v>
@@ -9238,34 +9238,34 @@
         <v>191</v>
       </c>
       <c r="F40">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="G40">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H40">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>2.78</v>
       </c>
       <c r="J40">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="K40">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="L40">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>26</v>
+        <v>2.94</v>
       </c>
       <c r="P40">
         <v>1.01</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="395">
   <si>
     <t>League</t>
   </si>
@@ -244,10 +244,13 @@
     <t>Swedish Allsvenskan</t>
   </si>
   <si>
+    <t>Polish Ekstraklasa</t>
+  </si>
+  <si>
     <t>Danish Superliga</t>
   </si>
   <si>
-    <t>Polish Ekstraklasa</t>
+    <t>South African Premier Division</t>
   </si>
   <si>
     <t>Dutch Eerste Divisie</t>
@@ -265,18 +268,18 @@
     <t>Italian Serie A</t>
   </si>
   <si>
+    <t>Irish Premier Division</t>
+  </si>
+  <si>
     <t>French National</t>
   </si>
   <si>
-    <t>Irish Premier Division</t>
+    <t>English Championship</t>
   </si>
   <si>
     <t>Spanish La Liga</t>
   </si>
   <si>
-    <t>English Championship</t>
-  </si>
-  <si>
     <t>Portuguese Primeira Liga</t>
   </si>
   <si>
@@ -394,15 +397,15 @@
     <t>Brommapojkarna</t>
   </si>
   <si>
+    <t>Puszcza Niepolomice</t>
+  </si>
+  <si>
+    <t>Mjallby</t>
+  </si>
+  <si>
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>Mjallby</t>
-  </si>
-  <si>
-    <t>Puszcza Niepolomice</t>
-  </si>
-  <si>
     <t>Elfsborg</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>Beroe Stara Za</t>
   </si>
   <si>
+    <t>Mamelodi Sundowns</t>
+  </si>
+  <si>
     <t>Hapoel Haifa</t>
   </si>
   <si>
@@ -436,18 +442,18 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
     <t>Nimes</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
+    <t>Preston</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Preston</t>
-  </si>
-  <si>
     <t>Club Football Estrela</t>
   </si>
   <si>
@@ -511,15 +517,15 @@
     <t>IFK Goteborg</t>
   </si>
   <si>
+    <t>Korona Kielce</t>
+  </si>
+  <si>
+    <t>Kalmar FF</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>Kalmar FF</t>
-  </si>
-  <si>
-    <t>Korona Kielce</t>
-  </si>
-  <si>
     <t>Sirius</t>
   </si>
   <si>
@@ -529,6 +535,9 @@
     <t>Etar</t>
   </si>
   <si>
+    <t>TS Galaxy FC</t>
+  </si>
+  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
@@ -553,18 +562,18 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
     <t>Red Star</t>
   </si>
   <si>
-    <t>Drogheda</t>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Leicester</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
@@ -628,15 +637,15 @@
     <t>33214084</t>
   </si>
   <si>
+    <t>33215119</t>
+  </si>
+  <si>
+    <t>33214087</t>
+  </si>
+  <si>
     <t>33212665</t>
   </si>
   <si>
-    <t>33214087</t>
-  </si>
-  <si>
-    <t>33215119</t>
-  </si>
-  <si>
     <t>33214068</t>
   </si>
   <si>
@@ -646,6 +655,9 @@
     <t>33216242</t>
   </si>
   <si>
+    <t>33230788</t>
+  </si>
+  <si>
     <t>33223522</t>
   </si>
   <si>
@@ -670,18 +682,18 @@
     <t>33192541</t>
   </si>
   <si>
+    <t>33227187</t>
+  </si>
+  <si>
     <t>33217252</t>
   </si>
   <si>
-    <t>33227187</t>
+    <t>33209811</t>
   </si>
   <si>
     <t>33192632</t>
   </si>
   <si>
-    <t>33209811</t>
-  </si>
-  <si>
     <t>33214431</t>
   </si>
   <si>
@@ -745,15 +757,15 @@
     <t>1.227967040</t>
   </si>
   <si>
+    <t>1.227990085</t>
+  </si>
+  <si>
+    <t>1.227966949</t>
+  </si>
+  <si>
     <t>1.227942966</t>
   </si>
   <si>
-    <t>1.227966949</t>
-  </si>
-  <si>
-    <t>1.227990085</t>
-  </si>
-  <si>
     <t>1.227966669</t>
   </si>
   <si>
@@ -763,6 +775,9 @@
     <t>1.228010124</t>
   </si>
   <si>
+    <t>1.228238719</t>
+  </si>
+  <si>
     <t>1.228121213</t>
   </si>
   <si>
@@ -787,18 +802,18 @@
     <t>1.227601523</t>
   </si>
   <si>
+    <t>1.228175052</t>
+  </si>
+  <si>
     <t>1.228029737</t>
   </si>
   <si>
-    <t>1.228175052</t>
+    <t>1.227892439</t>
   </si>
   <si>
     <t>1.227610310</t>
   </si>
   <si>
-    <t>1.227892439</t>
-  </si>
-  <si>
     <t>1.227974319</t>
   </si>
   <si>
@@ -862,15 +877,15 @@
     <t>1.227967085</t>
   </si>
   <si>
+    <t>1.227990130</t>
+  </si>
+  <si>
+    <t>1.227966994</t>
+  </si>
+  <si>
     <t>1.227942976</t>
   </si>
   <si>
-    <t>1.227966994</t>
-  </si>
-  <si>
-    <t>1.227990130</t>
-  </si>
-  <si>
     <t>1.227966714</t>
   </si>
   <si>
@@ -880,6 +895,9 @@
     <t>1.228010169</t>
   </si>
   <si>
+    <t>1.228238764</t>
+  </si>
+  <si>
     <t>1.228121258</t>
   </si>
   <si>
@@ -904,18 +922,18 @@
     <t>1.227601507</t>
   </si>
   <si>
+    <t>1.228175097</t>
+  </si>
+  <si>
     <t>1.228029782</t>
   </si>
   <si>
-    <t>1.228175097</t>
+    <t>1.227892449</t>
   </si>
   <si>
     <t>1.227610294</t>
   </si>
   <si>
-    <t>1.227892449</t>
-  </si>
-  <si>
     <t>1.227974364</t>
   </si>
   <si>
@@ -979,15 +997,15 @@
     <t>1.227967124</t>
   </si>
   <si>
+    <t>1.227990169</t>
+  </si>
+  <si>
+    <t>1.227967033</t>
+  </si>
+  <si>
     <t>1.227942965</t>
   </si>
   <si>
-    <t>1.227967033</t>
-  </si>
-  <si>
-    <t>1.227990169</t>
-  </si>
-  <si>
     <t>1.227966753</t>
   </si>
   <si>
@@ -997,6 +1015,9 @@
     <t>1.228010208</t>
   </si>
   <si>
+    <t>1.228238803</t>
+  </si>
+  <si>
     <t>1.228121297</t>
   </si>
   <si>
@@ -1021,18 +1042,18 @@
     <t>1.227601522</t>
   </si>
   <si>
+    <t>1.228175136</t>
+  </si>
+  <si>
     <t>1.228029821</t>
   </si>
   <si>
-    <t>1.228175136</t>
+    <t>1.227892438</t>
   </si>
   <si>
     <t>1.227610309</t>
   </si>
   <si>
-    <t>1.227892438</t>
-  </si>
-  <si>
     <t>1.227974403</t>
   </si>
   <si>
@@ -1096,15 +1117,15 @@
     <t>1.227967049</t>
   </si>
   <si>
+    <t>1.227990094</t>
+  </si>
+  <si>
+    <t>1.227966958</t>
+  </si>
+  <si>
     <t>1.227942975</t>
   </si>
   <si>
-    <t>1.227966958</t>
-  </si>
-  <si>
-    <t>1.227990094</t>
-  </si>
-  <si>
     <t>1.227966678</t>
   </si>
   <si>
@@ -1114,6 +1135,9 @@
     <t>1.228010133</t>
   </si>
   <si>
+    <t>1.228238728</t>
+  </si>
+  <si>
     <t>1.228121222</t>
   </si>
   <si>
@@ -1138,16 +1162,16 @@
     <t>1.227601532</t>
   </si>
   <si>
+    <t>1.228175061</t>
+  </si>
+  <si>
     <t>1.228029746</t>
   </si>
   <si>
-    <t>1.228175061</t>
+    <t>1.227892448</t>
   </si>
   <si>
     <t>1.227610319</t>
-  </si>
-  <si>
-    <t>1.227892448</t>
   </si>
   <si>
     <t>1.227974328</t>
@@ -1532,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1740,46 +1764,46 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="G2">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>1.22</v>
       </c>
       <c r="I2">
-        <v>6.4</v>
+        <v>870</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>1.21</v>
       </c>
       <c r="K2">
         <v>6.2</v>
       </c>
       <c r="L2">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="M2">
-        <v>2.32</v>
+        <v>980</v>
       </c>
       <c r="N2">
-        <v>1.76</v>
+        <v>1.07</v>
       </c>
       <c r="O2">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>1.01</v>
@@ -1794,7 +1818,7 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="U2">
         <v>1000</v>
@@ -1848,7 +1872,7 @@
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
         <v>1000</v>
@@ -1872,7 +1896,7 @@
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>5.9</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
         <v>1000</v>
@@ -1908,7 +1932,7 @@
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BG2">
         <v>7223889</v>
@@ -1920,16 +1944,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BK2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="BL2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="BM2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1937,43 +1961,43 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G3">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H3">
         <v>3.55</v>
       </c>
       <c r="I3">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K3">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L3">
         <v>1.62</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N3">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O3">
         <v>2.62</v>
@@ -1982,25 +2006,25 @@
         <v>1.98</v>
       </c>
       <c r="Q3">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R3">
         <v>1.77</v>
       </c>
       <c r="S3">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T3">
         <v>8</v>
       </c>
       <c r="U3">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V3">
         <v>9.6</v>
       </c>
       <c r="W3">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="X3">
         <v>21</v>
@@ -2009,10 +2033,10 @@
         <v>25</v>
       </c>
       <c r="Z3">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB3">
         <v>7</v>
@@ -2033,7 +2057,7 @@
         <v>16.5</v>
       </c>
       <c r="AH3">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI3">
         <v>60</v>
@@ -2051,61 +2075,61 @@
         <v>12</v>
       </c>
       <c r="AN3">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO3">
         <v>24</v>
       </c>
       <c r="AP3">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR3">
         <v>26</v>
       </c>
       <c r="AS3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AT3">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AU3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV3">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AW3">
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="AY3">
         <v>180</v>
       </c>
       <c r="AZ3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA3">
         <v>27</v>
       </c>
       <c r="BB3">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BD3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BG3">
         <v>14299496</v>
@@ -2117,16 +2141,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BK3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="BL3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="BM3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2134,34 +2158,34 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
         <v>980</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="K4">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="L4">
         <v>1.2</v>
@@ -2302,7 +2326,7 @@
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BG4">
         <v>19579579</v>
@@ -2314,16 +2338,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BK4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="BL4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="BM4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2331,37 +2355,37 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="H5">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J5">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K5">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L5">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M5">
         <v>1.84</v>
@@ -2370,136 +2394,136 @@
         <v>2.2</v>
       </c>
       <c r="O5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Q5">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R5">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="S5">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="T5">
         <v>8</v>
       </c>
       <c r="U5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V5">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="W5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X5">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="Y5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z5">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AA5">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB5">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5">
         <v>5.7</v>
       </c>
       <c r="AE5">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG5">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>55</v>
+      </c>
+      <c r="AJ5">
+        <v>3.45</v>
+      </c>
+      <c r="AK5">
+        <v>17.5</v>
+      </c>
+      <c r="AL5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM5">
+        <v>14.5</v>
+      </c>
+      <c r="AN5">
+        <v>3.65</v>
+      </c>
+      <c r="AO5">
+        <v>25</v>
+      </c>
+      <c r="AP5">
+        <v>4.1</v>
+      </c>
+      <c r="AQ5">
+        <v>80</v>
+      </c>
+      <c r="AR5">
+        <v>3.9</v>
+      </c>
+      <c r="AS5">
+        <v>42</v>
+      </c>
+      <c r="AT5">
+        <v>3.85</v>
+      </c>
+      <c r="AU5">
+        <v>36</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>60</v>
+      </c>
+      <c r="AX5">
+        <v>4.2</v>
+      </c>
+      <c r="AY5">
+        <v>170</v>
+      </c>
+      <c r="AZ5">
+        <v>3.8</v>
+      </c>
+      <c r="BA5">
+        <v>32</v>
+      </c>
+      <c r="BB5">
+        <v>4</v>
+      </c>
+      <c r="BC5">
+        <v>60</v>
+      </c>
+      <c r="BD5">
         <v>4.3</v>
       </c>
-      <c r="AI5">
-        <v>44</v>
-      </c>
-      <c r="AJ5">
-        <v>3.9</v>
-      </c>
-      <c r="AK5">
-        <v>20</v>
-      </c>
-      <c r="AL5">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM5">
-        <v>15.5</v>
-      </c>
-      <c r="AN5">
-        <v>4</v>
-      </c>
-      <c r="AO5">
-        <v>24</v>
-      </c>
-      <c r="AP5">
-        <v>4.5</v>
-      </c>
-      <c r="AQ5">
-        <v>70</v>
-      </c>
-      <c r="AR5">
-        <v>4.4</v>
-      </c>
-      <c r="AS5">
-        <v>50</v>
-      </c>
-      <c r="AT5">
-        <v>4.3</v>
-      </c>
-      <c r="AU5">
-        <v>42</v>
-      </c>
-      <c r="AV5">
-        <v>4.5</v>
-      </c>
-      <c r="AW5">
-        <v>65</v>
-      </c>
-      <c r="AX5">
-        <v>4.7</v>
-      </c>
-      <c r="AY5">
-        <v>1000</v>
-      </c>
-      <c r="AZ5">
-        <v>4.3</v>
-      </c>
-      <c r="BA5">
-        <v>40</v>
-      </c>
-      <c r="BB5">
-        <v>4.4</v>
-      </c>
-      <c r="BC5">
-        <v>55</v>
-      </c>
-      <c r="BD5">
-        <v>4.8</v>
-      </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BG5">
         <v>20732043</v>
@@ -2511,16 +2535,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BK5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="BL5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="BM5" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2528,46 +2552,46 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G6">
+        <v>2.58</v>
+      </c>
+      <c r="H6">
+        <v>3.3</v>
+      </c>
+      <c r="I6">
+        <v>4.5</v>
+      </c>
+      <c r="J6">
+        <v>3.15</v>
+      </c>
+      <c r="K6">
+        <v>7.4</v>
+      </c>
+      <c r="L6">
+        <v>1.67</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>1.67</v>
+      </c>
+      <c r="O6">
         <v>2.48</v>
-      </c>
-      <c r="H6">
-        <v>3.1</v>
-      </c>
-      <c r="I6">
-        <v>4.9</v>
-      </c>
-      <c r="J6">
-        <v>3.45</v>
-      </c>
-      <c r="K6">
-        <v>8.4</v>
-      </c>
-      <c r="L6">
-        <v>1.61</v>
-      </c>
-      <c r="M6">
-        <v>2.68</v>
-      </c>
-      <c r="N6">
-        <v>1.6</v>
-      </c>
-      <c r="O6">
-        <v>2.62</v>
       </c>
       <c r="P6">
         <v>1.01</v>
@@ -2582,7 +2606,7 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="U6">
         <v>1000</v>
@@ -2696,7 +2720,7 @@
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BG6">
         <v>503236</v>
@@ -2708,16 +2732,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="BK6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="BL6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="BM6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2725,58 +2749,58 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G7">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="J7">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L7">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="M7">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N7">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O7">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="P7">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="Q7">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="R7">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="S7">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="T7">
         <v>9.4</v>
@@ -2785,22 +2809,22 @@
         <v>13.5</v>
       </c>
       <c r="V7">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="W7">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y7">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z7">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AA7">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7">
         <v>6.4</v>
@@ -2809,91 +2833,91 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD7">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AE7">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF7">
-        <v>3.85</v>
+        <v>18</v>
       </c>
       <c r="AG7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH7">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AI7">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ7">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="AK7">
         <v>11.5</v>
       </c>
       <c r="AL7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM7">
         <v>13</v>
       </c>
       <c r="AN7">
-        <v>3.9</v>
+        <v>19</v>
       </c>
       <c r="AO7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP7">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AQ7">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AR7">
-        <v>3.75</v>
+        <v>15.5</v>
       </c>
       <c r="AS7">
         <v>23</v>
       </c>
       <c r="AT7">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AU7">
         <v>26</v>
       </c>
       <c r="AV7">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AW7">
         <v>60</v>
       </c>
       <c r="AX7">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AY7">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AZ7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BA7">
         <v>17.5</v>
       </c>
       <c r="BB7">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="BC7">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="BD7">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BG7">
         <v>37456793</v>
@@ -2905,16 +2929,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BK7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="BL7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BM7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2922,19 +2946,19 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F8">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G8">
         <v>2.74</v>
@@ -2943,52 +2967,52 @@
         <v>2.86</v>
       </c>
       <c r="I8">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J8">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8">
         <v>3.65</v>
       </c>
       <c r="L8">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="M8">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="N8">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="O8">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="P8">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q8">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R8">
         <v>1.86</v>
       </c>
       <c r="S8">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="T8">
         <v>9</v>
       </c>
       <c r="U8">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V8">
         <v>8.6</v>
       </c>
       <c r="W8">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X8">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Y8">
         <v>25</v>
@@ -3018,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="AH8">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AI8">
         <v>46</v>
@@ -3036,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="AN8">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO8">
         <v>23</v>
@@ -3048,49 +3072,49 @@
         <v>65</v>
       </c>
       <c r="AR8">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AS8">
         <v>44</v>
       </c>
       <c r="AT8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU8">
         <v>36</v>
       </c>
       <c r="AV8">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AW8">
         <v>55</v>
       </c>
       <c r="AX8">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY8">
         <v>140</v>
       </c>
       <c r="AZ8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BA8">
         <v>30</v>
       </c>
       <c r="BB8">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BC8">
         <v>44</v>
       </c>
       <c r="BD8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BG8">
         <v>2618007</v>
@@ -3102,16 +3126,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BK8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="BL8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="BM8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3119,25 +3143,25 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>2.78</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H9">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I9">
         <v>2.52</v>
@@ -3164,13 +3188,13 @@
         <v>1.61</v>
       </c>
       <c r="Q9">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="R9">
         <v>1.01</v>
       </c>
       <c r="S9">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="T9">
         <v>1.07</v>
@@ -3287,7 +3311,7 @@
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BG9">
         <v>5822815</v>
@@ -3299,16 +3323,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BK9" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BL9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="BM9" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3316,46 +3340,46 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G10">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="H10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I10">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <v>3.2</v>
       </c>
       <c r="K10">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L10">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M10">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="O10">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -3376,19 +3400,19 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>2.86</v>
+        <v>1.03</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
       <c r="AA10">
         <v>1000</v>
@@ -3406,13 +3430,13 @@
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AI10">
         <v>1000</v>
@@ -3430,13 +3454,13 @@
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>5.3</v>
+        <v>1.03</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
@@ -3454,13 +3478,13 @@
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>7.6</v>
+        <v>1.03</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -3484,7 +3508,7 @@
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BG10">
         <v>844519</v>
@@ -3496,16 +3520,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BK10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BL10" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="BM10" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3513,16 +3537,16 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11">
         <v>2.12</v>
@@ -3531,13 +3555,13 @@
         <v>2.18</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
         <v>4.1</v>
       </c>
       <c r="J11">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
         <v>3.65</v>
@@ -3585,7 +3609,7 @@
         <v>34</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA11">
         <v>80</v>
@@ -3615,10 +3639,10 @@
         <v>48</v>
       </c>
       <c r="AJ11">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL11">
         <v>9.800000000000001</v>
@@ -3630,10 +3654,10 @@
         <v>16</v>
       </c>
       <c r="AO11">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP11">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ11">
         <v>60</v>
@@ -3648,7 +3672,7 @@
         <v>19.5</v>
       </c>
       <c r="AU11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AV11">
         <v>30</v>
@@ -3657,7 +3681,7 @@
         <v>38</v>
       </c>
       <c r="AX11">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AY11">
         <v>100</v>
@@ -3675,13 +3699,13 @@
         <v>46</v>
       </c>
       <c r="BD11">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BG11">
         <v>10472882</v>
@@ -3693,16 +3717,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BK11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="BL11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="BM11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3710,28 +3734,28 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F12">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G12">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
         <v>2.36</v>
       </c>
       <c r="I12">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J12">
         <v>3.45</v>
@@ -3743,16 +3767,16 @@
         <v>1.91</v>
       </c>
       <c r="M12">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="N12">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="O12">
         <v>2.1</v>
       </c>
       <c r="P12">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q12">
         <v>1.88</v>
@@ -3761,25 +3785,25 @@
         <v>2.14</v>
       </c>
       <c r="S12">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="T12">
         <v>12</v>
       </c>
       <c r="U12">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V12">
         <v>8.6</v>
       </c>
       <c r="W12">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X12">
         <v>13</v>
       </c>
       <c r="Y12">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z12">
         <v>25</v>
@@ -3830,55 +3854,55 @@
         <v>20</v>
       </c>
       <c r="AP12">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AQ12">
         <v>44</v>
       </c>
       <c r="AR12">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AS12">
         <v>60</v>
       </c>
       <c r="AT12">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AU12">
         <v>40</v>
       </c>
       <c r="AV12">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW12">
         <v>55</v>
       </c>
       <c r="AX12">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY12">
         <v>110</v>
       </c>
       <c r="AZ12">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BA12">
         <v>36</v>
       </c>
       <c r="BB12">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BC12">
         <v>22</v>
       </c>
       <c r="BD12">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BE12">
         <v>920</v>
       </c>
       <c r="BF12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BG12">
         <v>767907</v>
@@ -3890,16 +3914,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BK12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BL12" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="BM12" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3907,16 +3931,16 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13">
         <v>2.44</v>
@@ -3925,7 +3949,7 @@
         <v>2.48</v>
       </c>
       <c r="H13">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>3.2</v>
@@ -3973,7 +3997,7 @@
         <v>14.5</v>
       </c>
       <c r="X13">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y13">
         <v>22</v>
@@ -3988,7 +4012,7 @@
         <v>10.5</v>
       </c>
       <c r="AC13">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD13">
         <v>7.4</v>
@@ -4000,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="AG13">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH13">
         <v>29</v>
@@ -4060,7 +4084,7 @@
         <v>13.5</v>
       </c>
       <c r="BA13">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="BB13">
         <v>19.5</v>
@@ -4069,13 +4093,13 @@
         <v>30</v>
       </c>
       <c r="BD13">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BG13">
         <v>151472</v>
@@ -4087,16 +4111,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BK13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BL13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="BM13" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4104,196 +4128,196 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F14">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="G14">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="H14">
-        <v>1.85</v>
+        <v>2.52</v>
       </c>
       <c r="I14">
+        <v>3.1</v>
+      </c>
+      <c r="J14">
+        <v>3.05</v>
+      </c>
+      <c r="K14">
+        <v>3.75</v>
+      </c>
+      <c r="L14">
+        <v>1.67</v>
+      </c>
+      <c r="M14">
         <v>1.92</v>
       </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>4.2</v>
-      </c>
-      <c r="L14">
+      <c r="N14">
         <v>2.08</v>
       </c>
-      <c r="M14">
-        <v>2.32</v>
-      </c>
-      <c r="N14">
-        <v>1.76</v>
-      </c>
       <c r="O14">
-        <v>1.93</v>
+        <v>2.48</v>
       </c>
       <c r="P14">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="Q14">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="R14">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="T14">
+        <v>1.03</v>
+      </c>
+      <c r="U14">
         <v>12</v>
       </c>
-      <c r="U14">
+      <c r="V14">
+        <v>1.03</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <v>1.03</v>
+      </c>
+      <c r="Y14">
+        <v>19</v>
+      </c>
+      <c r="Z14">
+        <v>1.03</v>
+      </c>
+      <c r="AA14">
+        <v>46</v>
+      </c>
+      <c r="AB14">
+        <v>1.03</v>
+      </c>
+      <c r="AC14">
+        <v>11.5</v>
+      </c>
+      <c r="AD14">
+        <v>1.03</v>
+      </c>
+      <c r="AE14">
+        <v>8.4</v>
+      </c>
+      <c r="AF14">
+        <v>1.03</v>
+      </c>
+      <c r="AG14">
+        <v>14</v>
+      </c>
+      <c r="AH14">
+        <v>1.03</v>
+      </c>
+      <c r="AI14">
+        <v>38</v>
+      </c>
+      <c r="AJ14">
+        <v>1.03</v>
+      </c>
+      <c r="AK14">
         <v>21</v>
       </c>
-      <c r="V14">
-        <v>7.6</v>
-      </c>
-      <c r="W14">
-        <v>12.5</v>
-      </c>
-      <c r="X14">
-        <v>9</v>
-      </c>
-      <c r="Y14">
-        <v>15</v>
-      </c>
-      <c r="Z14">
-        <v>15</v>
-      </c>
-      <c r="AA14">
-        <v>25</v>
-      </c>
-      <c r="AB14">
-        <v>13</v>
-      </c>
-      <c r="AC14">
+      <c r="AL14">
+        <v>1.03</v>
+      </c>
+      <c r="AM14">
+        <v>14.5</v>
+      </c>
+      <c r="AN14">
+        <v>1.03</v>
+      </c>
+      <c r="AO14">
         <v>22</v>
       </c>
-      <c r="AD14">
-        <v>6.8</v>
-      </c>
-      <c r="AE14">
-        <v>11</v>
-      </c>
-      <c r="AF14">
-        <v>7.8</v>
-      </c>
-      <c r="AG14">
-        <v>13</v>
-      </c>
-      <c r="AH14">
-        <v>13.5</v>
-      </c>
-      <c r="AI14">
-        <v>23</v>
-      </c>
-      <c r="AJ14">
-        <v>25</v>
-      </c>
-      <c r="AK14">
-        <v>42</v>
-      </c>
-      <c r="AL14">
-        <v>13</v>
-      </c>
-      <c r="AM14">
-        <v>22</v>
-      </c>
-      <c r="AN14">
-        <v>13.5</v>
-      </c>
-      <c r="AO14">
-        <v>23</v>
-      </c>
       <c r="AP14">
-        <v>3.85</v>
+        <v>1.03</v>
       </c>
       <c r="AQ14">
+        <v>60</v>
+      </c>
+      <c r="AR14">
+        <v>1.03</v>
+      </c>
+      <c r="AS14">
+        <v>55</v>
+      </c>
+      <c r="AT14">
+        <v>1.03</v>
+      </c>
+      <c r="AU14">
         <v>40</v>
       </c>
-      <c r="AR14">
-        <v>4.1</v>
-      </c>
-      <c r="AS14">
-        <v>120</v>
-      </c>
-      <c r="AT14">
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <v>65</v>
-      </c>
       <c r="AV14">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AW14">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AX14">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AY14">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BA14">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="BB14">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC14">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="BD14">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="BE14">
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BG14">
-        <v>28216</v>
+        <v>5751503</v>
       </c>
       <c r="BH14">
-        <v>28220</v>
+        <v>1209555</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BK14" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BL14" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="BM14" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4301,19 +4325,19 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F15">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G15">
         <v>2.18</v>
@@ -4322,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J15">
         <v>3.35</v>
@@ -4346,10 +4370,10 @@
         <v>1.98</v>
       </c>
       <c r="Q15">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <v>2.04</v>
@@ -4469,7 +4493,7 @@
         <v>1000</v>
       </c>
       <c r="BF15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BG15">
         <v>60143</v>
@@ -4481,16 +4505,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BK15" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="BL15" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="BM15" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4498,196 +4522,196 @@
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F16">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H16">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="I16">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="J16">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="M16">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="N16">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="O16">
+        <v>1.93</v>
+      </c>
+      <c r="P16">
+        <v>1.72</v>
+      </c>
+      <c r="Q16">
+        <v>1.93</v>
+      </c>
+      <c r="R16">
+        <v>2.14</v>
+      </c>
+      <c r="S16">
         <v>2.46</v>
       </c>
-      <c r="P16">
-        <v>1.81</v>
-      </c>
-      <c r="Q16">
-        <v>2.12</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>2.24</v>
-      </c>
       <c r="T16">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="U16">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="V16">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="W16">
+        <v>12.5</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+      <c r="AA16">
+        <v>25</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>22</v>
+      </c>
+      <c r="AD16">
+        <v>6.8</v>
+      </c>
+      <c r="AE16">
         <v>11</v>
       </c>
-      <c r="X16">
-        <v>1.03</v>
-      </c>
-      <c r="Y16">
-        <v>19</v>
-      </c>
-      <c r="Z16">
-        <v>2.96</v>
-      </c>
-      <c r="AA16">
-        <v>46</v>
-      </c>
-      <c r="AB16">
-        <v>1.03</v>
-      </c>
-      <c r="AC16">
-        <v>11.5</v>
-      </c>
-      <c r="AD16">
-        <v>1.03</v>
-      </c>
-      <c r="AE16">
-        <v>8.4</v>
-      </c>
       <c r="AF16">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="AG16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH16">
-        <v>1.03</v>
+        <v>13.5</v>
       </c>
       <c r="AI16">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AJ16">
-        <v>1.03</v>
+        <v>25</v>
       </c>
       <c r="AK16">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AL16">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="AM16">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AN16">
-        <v>1.03</v>
+        <v>13.5</v>
       </c>
       <c r="AO16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP16">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ16">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AR16">
         <v>4.2</v>
       </c>
       <c r="AS16">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AT16">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AU16">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AV16">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="AW16">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AX16">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="AY16">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ16">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA16">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="BB16">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="BC16">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="BD16">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BE16">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="BF16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BG16">
-        <v>5751503</v>
+        <v>28216</v>
       </c>
       <c r="BH16">
-        <v>1209555</v>
+        <v>28220</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="BK16" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BL16" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="BM16" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4695,22 +4719,22 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F17">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G17">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H17">
         <v>4.3</v>
@@ -4722,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17">
         <v>2.24</v>
@@ -4746,7 +4770,7 @@
         <v>2.02</v>
       </c>
       <c r="S17">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="T17">
         <v>16.5</v>
@@ -4863,7 +4887,7 @@
         <v>770</v>
       </c>
       <c r="BF17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BG17">
         <v>30684</v>
@@ -4875,16 +4899,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="BK17" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BL17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="BM17" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4892,31 +4916,31 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F18">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G18">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H18">
+        <v>4.5</v>
+      </c>
+      <c r="I18">
         <v>4.6</v>
       </c>
-      <c r="I18">
-        <v>4.8</v>
-      </c>
       <c r="J18">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K18">
         <v>4.1</v>
@@ -4934,7 +4958,7 @@
         <v>1.91</v>
       </c>
       <c r="P18">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q18">
         <v>1.87</v>
@@ -4943,7 +4967,7 @@
         <v>2.16</v>
       </c>
       <c r="S18">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T18">
         <v>14.5</v>
@@ -4955,28 +4979,28 @@
         <v>16.5</v>
       </c>
       <c r="W18">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X18">
         <v>30</v>
       </c>
       <c r="Y18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z18">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA18">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB18">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC18">
         <v>10.5</v>
       </c>
       <c r="AD18">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AE18">
         <v>9</v>
@@ -4988,13 +5012,13 @@
         <v>18</v>
       </c>
       <c r="AH18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18">
         <v>65</v>
       </c>
       <c r="AJ18">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK18">
         <v>12</v>
@@ -5012,7 +5036,7 @@
         <v>18.5</v>
       </c>
       <c r="AP18">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AQ18">
         <v>60</v>
@@ -5021,7 +5045,7 @@
         <v>18.5</v>
       </c>
       <c r="AS18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT18">
         <v>16.5</v>
@@ -5036,7 +5060,7 @@
         <v>32</v>
       </c>
       <c r="AX18">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY18">
         <v>95</v>
@@ -5045,22 +5069,22 @@
         <v>8.6</v>
       </c>
       <c r="BA18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB18">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BC18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BD18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BE18">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="BF18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BG18">
         <v>30679</v>
@@ -5072,16 +5096,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BK18" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="BL18" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="BM18" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5089,22 +5113,22 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G19">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H19">
         <v>6.6</v>
@@ -5113,13 +5137,13 @@
         <v>9.4</v>
       </c>
       <c r="J19">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K19">
         <v>4.5</v>
       </c>
       <c r="L19">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M19">
         <v>1.93</v>
@@ -5128,19 +5152,19 @@
         <v>2.08</v>
       </c>
       <c r="O19">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="R19">
         <v>1.58</v>
       </c>
       <c r="S19">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="T19">
         <v>8.6</v>
@@ -5257,7 +5281,7 @@
         <v>1000</v>
       </c>
       <c r="BF19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG19">
         <v>4127866</v>
@@ -5269,63 +5293,63 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BK19" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="BL19" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="BM19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F20">
-        <v>4.5</v>
+        <v>1.27</v>
       </c>
       <c r="G20">
-        <v>980</v>
+        <v>1.99</v>
       </c>
       <c r="H20">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="I20">
-        <v>1.94</v>
+        <v>22</v>
       </c>
       <c r="J20">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="K20">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="M20">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="N20">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O20">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="P20">
         <v>1.01</v>
@@ -5340,97 +5364,97 @@
         <v>1000</v>
       </c>
       <c r="T20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U20">
         <v>1000</v>
       </c>
       <c r="V20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W20">
         <v>1000</v>
       </c>
       <c r="X20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA20">
         <v>1000</v>
       </c>
       <c r="AB20">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="AC20">
         <v>1000</v>
       </c>
       <c r="AD20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE20">
         <v>1000</v>
       </c>
       <c r="AF20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG20">
         <v>1000</v>
       </c>
       <c r="AH20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI20">
         <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="AK20">
         <v>1000</v>
       </c>
       <c r="AL20">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AM20">
         <v>1000</v>
       </c>
       <c r="AN20">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AO20">
         <v>1000</v>
       </c>
       <c r="AP20">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ20">
         <v>1000</v>
       </c>
       <c r="AR20">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS20">
         <v>1000</v>
       </c>
       <c r="AT20">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AU20">
         <v>1000</v>
       </c>
       <c r="AV20">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AY20">
         <v>1000</v>
@@ -5448,625 +5472,625 @@
         <v>1000</v>
       </c>
       <c r="BD20">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BG20">
-        <v>5266551</v>
+        <v>6772440</v>
       </c>
       <c r="BH20">
-        <v>52465647</v>
+        <v>20785087</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="BK20" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BL20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="BM20" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F21">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="G21">
-        <v>2.44</v>
+        <v>980</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="I21">
-        <v>3.45</v>
+        <v>1.99</v>
       </c>
       <c r="J21">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L21">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="M21">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="N21">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="O21">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="P21">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="Q21">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="R21">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="S21">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="T21">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="U21">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="V21">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="W21">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="X21">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="Y21">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z21">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AA21">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AC21">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD21">
-        <v>7.2</v>
+        <v>1.03</v>
       </c>
       <c r="AE21">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AF21">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="AG21">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH21">
-        <v>28</v>
+        <v>1.03</v>
       </c>
       <c r="AI21">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AK21">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL21">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="AM21">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AN21">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO21">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AP21">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ21">
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>27</v>
+        <v>1.03</v>
       </c>
       <c r="AS21">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AT21">
-        <v>21</v>
+        <v>1.03</v>
       </c>
       <c r="AU21">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AV21">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AW21">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AX21">
-        <v>6.8</v>
+        <v>1.03</v>
       </c>
       <c r="AY21">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA21">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="BB21">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="BC21">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BG21">
-        <v>6394</v>
+        <v>5266551</v>
       </c>
       <c r="BH21">
-        <v>2487036</v>
+        <v>52465647</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="BK21" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BL21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="BM21" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F22">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="G22">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="H22">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="I22">
-        <v>1.71</v>
+        <v>3.5</v>
       </c>
       <c r="J22">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="K22">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="M22">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="N22">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="O22">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="P22">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q22">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="R22">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="S22">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="U22">
+        <v>14</v>
+      </c>
+      <c r="V22">
+        <v>11.5</v>
+      </c>
+      <c r="W22">
+        <v>13</v>
+      </c>
+      <c r="X22">
+        <v>4.8</v>
+      </c>
+      <c r="Y22">
+        <v>23</v>
+      </c>
+      <c r="Z22">
+        <v>9.4</v>
+      </c>
+      <c r="AA22">
+        <v>60</v>
+      </c>
+      <c r="AB22">
+        <v>9</v>
+      </c>
+      <c r="AC22">
+        <v>11.5</v>
+      </c>
+      <c r="AD22">
+        <v>7.2</v>
+      </c>
+      <c r="AE22">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF22">
+        <v>12</v>
+      </c>
+      <c r="AG22">
+        <v>14.5</v>
+      </c>
+      <c r="AH22">
+        <v>29</v>
+      </c>
+      <c r="AI22">
+        <v>40</v>
+      </c>
+      <c r="AJ22">
+        <v>13</v>
+      </c>
+      <c r="AK22">
+        <v>15.5</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>14</v>
+      </c>
+      <c r="AN22">
+        <v>15.5</v>
+      </c>
+      <c r="AO22">
+        <v>18.5</v>
+      </c>
+      <c r="AP22">
+        <v>10.5</v>
+      </c>
+      <c r="AQ22">
+        <v>1000</v>
+      </c>
+      <c r="AR22">
         <v>27</v>
       </c>
-      <c r="V22">
-        <v>10</v>
-      </c>
-      <c r="W22">
-        <v>14</v>
-      </c>
-      <c r="X22">
-        <v>10.5</v>
-      </c>
-      <c r="Y22">
-        <v>14.5</v>
-      </c>
-      <c r="Z22">
-        <v>16</v>
-      </c>
-      <c r="AA22">
-        <v>22</v>
-      </c>
-      <c r="AB22">
-        <v>3.75</v>
-      </c>
-      <c r="AC22">
-        <v>27</v>
-      </c>
-      <c r="AD22">
-        <v>8.4</v>
-      </c>
-      <c r="AE22">
-        <v>13</v>
-      </c>
-      <c r="AF22">
-        <v>9</v>
-      </c>
-      <c r="AG22">
-        <v>12.5</v>
-      </c>
-      <c r="AH22">
-        <v>3.55</v>
-      </c>
-      <c r="AI22">
+      <c r="AS22">
+        <v>40</v>
+      </c>
+      <c r="AT22">
         <v>19.5</v>
       </c>
-      <c r="AJ22">
-        <v>4</v>
-      </c>
-      <c r="AK22">
-        <v>50</v>
-      </c>
-      <c r="AL22">
-        <v>3.7</v>
-      </c>
-      <c r="AM22">
-        <v>24</v>
-      </c>
-      <c r="AN22">
-        <v>3.7</v>
-      </c>
-      <c r="AO22">
-        <v>23</v>
-      </c>
-      <c r="AP22">
-        <v>3.9</v>
-      </c>
-      <c r="AQ22">
-        <v>34</v>
-      </c>
-      <c r="AR22">
-        <v>4.2</v>
-      </c>
-      <c r="AS22">
-        <v>130</v>
-      </c>
-      <c r="AT22">
-        <v>4.1</v>
-      </c>
       <c r="AU22">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AV22">
-        <v>4.1</v>
+        <v>29</v>
       </c>
       <c r="AW22">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AX22">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="AY22">
         <v>100</v>
       </c>
       <c r="AZ22">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="BA22">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="BB22">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="BC22">
-        <v>9.6</v>
+        <v>36</v>
       </c>
       <c r="BD22">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BG22">
-        <v>11378686</v>
+        <v>6394</v>
       </c>
       <c r="BH22">
-        <v>315069</v>
+        <v>2487036</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BK22" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BL22" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="BM22" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F23">
-        <v>1.87</v>
+        <v>4.8</v>
       </c>
       <c r="G23">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H23">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="J23">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="K23">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="N23">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O23">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="P23">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="Q23">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="R23">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="S23">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="T23">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V23">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="W23">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="X23">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y23">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Z23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AA23">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="AB23">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="AC23">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AD23">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="AE23">
+        <v>11</v>
+      </c>
+      <c r="AF23">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>14</v>
+      </c>
+      <c r="AI23">
+        <v>16</v>
+      </c>
+      <c r="AJ23">
+        <v>36</v>
+      </c>
+      <c r="AK23">
+        <v>48</v>
+      </c>
+      <c r="AL23">
+        <v>17.5</v>
+      </c>
+      <c r="AM23">
+        <v>19.5</v>
+      </c>
+      <c r="AN23">
+        <v>13.5</v>
+      </c>
+      <c r="AO23">
+        <v>19.5</v>
+      </c>
+      <c r="AP23">
+        <v>23</v>
+      </c>
+      <c r="AQ23">
+        <v>28</v>
+      </c>
+      <c r="AR23">
+        <v>13.5</v>
+      </c>
+      <c r="AS23">
+        <v>110</v>
+      </c>
+      <c r="AT23">
+        <v>12</v>
+      </c>
+      <c r="AU23">
+        <v>60</v>
+      </c>
+      <c r="AV23">
+        <v>12</v>
+      </c>
+      <c r="AW23">
+        <v>60</v>
+      </c>
+      <c r="AX23">
+        <v>13</v>
+      </c>
+      <c r="AY23">
+        <v>85</v>
+      </c>
+      <c r="AZ23">
         <v>11.5</v>
       </c>
-      <c r="AF23">
-        <v>3.5</v>
-      </c>
-      <c r="AG23">
-        <v>20</v>
-      </c>
-      <c r="AH23">
-        <v>3.95</v>
-      </c>
-      <c r="AI23">
-        <v>55</v>
-      </c>
-      <c r="AJ23">
-        <v>3.4</v>
-      </c>
-      <c r="AK23">
-        <v>17</v>
-      </c>
-      <c r="AL23">
+      <c r="BA23">
+        <v>48</v>
+      </c>
+      <c r="BB23">
+        <v>5.7</v>
+      </c>
+      <c r="BC23">
         <v>7.8</v>
       </c>
-      <c r="AM23">
-        <v>13</v>
-      </c>
-      <c r="AN23">
-        <v>3.5</v>
-      </c>
-      <c r="AO23">
-        <v>21</v>
-      </c>
-      <c r="AP23">
-        <v>3.95</v>
-      </c>
-      <c r="AQ23">
-        <v>60</v>
-      </c>
-      <c r="AR23">
-        <v>3.7</v>
-      </c>
-      <c r="AS23">
-        <v>29</v>
-      </c>
-      <c r="AT23">
-        <v>3.55</v>
-      </c>
-      <c r="AU23">
-        <v>23</v>
-      </c>
-      <c r="AV23">
-        <v>3.8</v>
-      </c>
-      <c r="AW23">
-        <v>38</v>
-      </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
-      <c r="AY23">
-        <v>95</v>
-      </c>
-      <c r="AZ23">
-        <v>3.2</v>
-      </c>
-      <c r="BA23">
-        <v>13</v>
-      </c>
-      <c r="BB23">
-        <v>3.85</v>
-      </c>
-      <c r="BC23">
-        <v>42</v>
-      </c>
       <c r="BD23">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BG23">
-        <v>419126</v>
+        <v>11378686</v>
       </c>
       <c r="BH23">
-        <v>419129</v>
+        <v>315069</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="BK23" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="BL23" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="BM23" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6074,196 +6098,196 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F24">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H24">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
-        <v>990</v>
+        <v>4.5</v>
       </c>
       <c r="J24">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K24">
-        <v>990</v>
+        <v>4.5</v>
       </c>
       <c r="L24">
-        <v>1.08</v>
+        <v>2.14</v>
       </c>
       <c r="M24">
-        <v>12.5</v>
+        <v>2.58</v>
       </c>
       <c r="N24">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="O24">
-        <v>13.5</v>
+        <v>1.88</v>
       </c>
       <c r="P24">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="Q24">
-        <v>1000</v>
+        <v>1.82</v>
       </c>
       <c r="R24">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="S24">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="T24">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="U24">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="V24">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="W24">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Y24">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z24">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="AA24">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB24">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="AC24">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD24">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AE24">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AF24">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="AG24">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH24">
+        <v>3.95</v>
+      </c>
+      <c r="AI24">
+        <v>55</v>
+      </c>
+      <c r="AJ24">
+        <v>3.4</v>
+      </c>
+      <c r="AK24">
+        <v>17</v>
+      </c>
+      <c r="AL24">
+        <v>7.8</v>
+      </c>
+      <c r="AM24">
+        <v>13</v>
+      </c>
+      <c r="AN24">
+        <v>3.5</v>
+      </c>
+      <c r="AO24">
+        <v>21</v>
+      </c>
+      <c r="AP24">
+        <v>3.95</v>
+      </c>
+      <c r="AQ24">
+        <v>60</v>
+      </c>
+      <c r="AR24">
+        <v>3.7</v>
+      </c>
+      <c r="AS24">
+        <v>29</v>
+      </c>
+      <c r="AT24">
+        <v>3.55</v>
+      </c>
+      <c r="AU24">
+        <v>23</v>
+      </c>
+      <c r="AV24">
+        <v>3.8</v>
+      </c>
+      <c r="AW24">
+        <v>38</v>
+      </c>
+      <c r="AX24">
         <v>4</v>
       </c>
-      <c r="AI24">
-        <v>1000</v>
-      </c>
-      <c r="AJ24">
-        <v>1.03</v>
-      </c>
-      <c r="AK24">
-        <v>1000</v>
-      </c>
-      <c r="AL24">
-        <v>1.03</v>
-      </c>
-      <c r="AM24">
-        <v>1000</v>
-      </c>
-      <c r="AN24">
+      <c r="AY24">
+        <v>95</v>
+      </c>
+      <c r="AZ24">
+        <v>3.2</v>
+      </c>
+      <c r="BA24">
+        <v>13</v>
+      </c>
+      <c r="BB24">
+        <v>3.85</v>
+      </c>
+      <c r="BC24">
+        <v>42</v>
+      </c>
+      <c r="BD24">
         <v>4.2</v>
       </c>
-      <c r="AO24">
-        <v>1000</v>
-      </c>
-      <c r="AP24">
-        <v>12</v>
-      </c>
-      <c r="AQ24">
-        <v>1000</v>
-      </c>
-      <c r="AR24">
-        <v>3.4</v>
-      </c>
-      <c r="AS24">
-        <v>1000</v>
-      </c>
-      <c r="AT24">
-        <v>6.4</v>
-      </c>
-      <c r="AU24">
-        <v>1000</v>
-      </c>
-      <c r="AV24">
-        <v>5.6</v>
-      </c>
-      <c r="AW24">
-        <v>1000</v>
-      </c>
-      <c r="AX24">
-        <v>19.5</v>
-      </c>
-      <c r="AY24">
-        <v>1000</v>
-      </c>
-      <c r="AZ24">
-        <v>1.01</v>
-      </c>
-      <c r="BA24">
-        <v>1000</v>
-      </c>
-      <c r="BB24">
-        <v>1.01</v>
-      </c>
-      <c r="BC24">
-        <v>1000</v>
-      </c>
-      <c r="BD24">
-        <v>1.03</v>
-      </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BG24">
-        <v>4465708</v>
+        <v>419126</v>
       </c>
       <c r="BH24">
-        <v>5313392</v>
+        <v>419129</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="BK24" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="BL24" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="BM24" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6271,196 +6295,196 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G25">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
       <c r="H25">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="I25">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J25">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K25">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="L25">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="M25">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="O25">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="Q25">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="R25">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="S25">
-        <v>1.88</v>
+        <v>1000</v>
       </c>
       <c r="T25">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="U25">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="V25">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="W25">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="X25">
-        <v>27</v>
+        <v>1.03</v>
       </c>
       <c r="Y25">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z25">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="AA25">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB25">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AC25">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD25">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AE25">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AF25">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="AG25">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25">
-        <v>13.5</v>
+        <v>1.03</v>
       </c>
       <c r="AI25">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ25">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="AK25">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AL25">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AM25">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AN25">
-        <v>22</v>
+        <v>1.03</v>
       </c>
       <c r="AO25">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AP25">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ25">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AR25">
-        <v>19.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS25">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AT25">
-        <v>24</v>
+        <v>1.03</v>
       </c>
       <c r="AU25">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AV25">
-        <v>46</v>
+        <v>1.03</v>
       </c>
       <c r="AW25">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AX25">
-        <v>15.5</v>
+        <v>1.03</v>
       </c>
       <c r="AY25">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA25">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="BB25">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC25">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="BD25">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BG25">
-        <v>10478536</v>
+        <v>4465708</v>
       </c>
       <c r="BH25">
-        <v>565024</v>
+        <v>5313392</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BK25" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="BL25" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="BM25" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6468,196 +6492,196 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="G26">
-        <v>5.1</v>
+        <v>2.12</v>
       </c>
       <c r="H26">
-        <v>1.86</v>
+        <v>4.4</v>
       </c>
       <c r="I26">
-        <v>1.93</v>
+        <v>4.8</v>
       </c>
       <c r="J26">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K26">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L26">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="N26">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
       <c r="P26">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="Q26">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="R26">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="S26">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="T26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V26">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="W26">
+        <v>12.5</v>
+      </c>
+      <c r="X26">
+        <v>27</v>
+      </c>
+      <c r="Y26">
+        <v>32</v>
+      </c>
+      <c r="Z26">
+        <v>14.5</v>
+      </c>
+      <c r="AA26">
+        <v>120</v>
+      </c>
+      <c r="AB26">
+        <v>6.4</v>
+      </c>
+      <c r="AC26">
+        <v>7.2</v>
+      </c>
+      <c r="AD26">
+        <v>7</v>
+      </c>
+      <c r="AE26">
+        <v>7.6</v>
+      </c>
+      <c r="AF26">
+        <v>17</v>
+      </c>
+      <c r="AG26">
+        <v>19.5</v>
+      </c>
+      <c r="AH26">
+        <v>13.5</v>
+      </c>
+      <c r="AI26">
+        <v>80</v>
+      </c>
+      <c r="AJ26">
+        <v>10</v>
+      </c>
+      <c r="AK26">
+        <v>11</v>
+      </c>
+      <c r="AL26">
         <v>10.5</v>
       </c>
-      <c r="X26">
-        <v>9.4</v>
-      </c>
-      <c r="Y26">
-        <v>12.5</v>
-      </c>
-      <c r="Z26">
-        <v>16.5</v>
-      </c>
-      <c r="AA26">
-        <v>23</v>
-      </c>
-      <c r="AB26">
-        <v>13.5</v>
-      </c>
-      <c r="AC26">
-        <v>18.5</v>
-      </c>
-      <c r="AD26">
-        <v>7.2</v>
-      </c>
-      <c r="AE26">
-        <v>9.6</v>
-      </c>
-      <c r="AF26">
-        <v>8.4</v>
-      </c>
-      <c r="AG26">
+      <c r="AM26">
         <v>11.5</v>
       </c>
-      <c r="AH26">
+      <c r="AN26">
+        <v>22</v>
+      </c>
+      <c r="AO26">
+        <v>25</v>
+      </c>
+      <c r="AP26">
+        <v>14.5</v>
+      </c>
+      <c r="AQ26">
+        <v>110</v>
+      </c>
+      <c r="AR26">
+        <v>19.5</v>
+      </c>
+      <c r="AS26">
+        <v>26</v>
+      </c>
+      <c r="AT26">
+        <v>24</v>
+      </c>
+      <c r="AU26">
+        <v>28</v>
+      </c>
+      <c r="AV26">
+        <v>46</v>
+      </c>
+      <c r="AW26">
+        <v>60</v>
+      </c>
+      <c r="AX26">
         <v>15.5</v>
       </c>
-      <c r="AI26">
-        <v>22</v>
-      </c>
-      <c r="AJ26">
-        <v>26</v>
-      </c>
-      <c r="AK26">
-        <v>38</v>
-      </c>
-      <c r="AL26">
-        <v>15</v>
-      </c>
-      <c r="AM26">
-        <v>20</v>
-      </c>
-      <c r="AN26">
-        <v>16</v>
-      </c>
-      <c r="AO26">
-        <v>22</v>
-      </c>
-      <c r="AP26">
-        <v>5.8</v>
-      </c>
-      <c r="AQ26">
-        <v>40</v>
-      </c>
-      <c r="AR26">
-        <v>6.4</v>
-      </c>
-      <c r="AS26">
-        <v>110</v>
-      </c>
-      <c r="AT26">
-        <v>6.2</v>
-      </c>
-      <c r="AU26">
-        <v>65</v>
-      </c>
-      <c r="AV26">
-        <v>6.2</v>
-      </c>
-      <c r="AW26">
-        <v>70</v>
-      </c>
-      <c r="AX26">
-        <v>6.4</v>
-      </c>
       <c r="AY26">
+        <v>200</v>
+      </c>
+      <c r="AZ26">
+        <v>17.5</v>
+      </c>
+      <c r="BA26">
+        <v>25</v>
+      </c>
+      <c r="BB26">
+        <v>14.5</v>
+      </c>
+      <c r="BC26">
         <v>120</v>
       </c>
-      <c r="AZ26">
-        <v>6.2</v>
-      </c>
-      <c r="BA26">
-        <v>65</v>
-      </c>
-      <c r="BB26">
-        <v>4.5</v>
-      </c>
-      <c r="BC26">
-        <v>13.5</v>
-      </c>
       <c r="BD26">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BG26">
-        <v>2250259</v>
+        <v>10478536</v>
       </c>
       <c r="BH26">
-        <v>44800</v>
+        <v>565024</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BK26" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BL26" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="BM26" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6665,196 +6689,196 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F27">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="G27">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H27">
+        <v>1.83</v>
+      </c>
+      <c r="I27">
+        <v>1.93</v>
+      </c>
+      <c r="J27">
         <v>3.7</v>
       </c>
-      <c r="I27">
-        <v>3.75</v>
-      </c>
-      <c r="J27">
-        <v>3.2</v>
-      </c>
       <c r="K27">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L27">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="M27">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="N27">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="O27">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="P27">
+        <v>1.84</v>
+      </c>
+      <c r="Q27">
+        <v>1.95</v>
+      </c>
+      <c r="R27">
         <v>2.06</v>
       </c>
-      <c r="Q27">
-        <v>2.1</v>
-      </c>
-      <c r="R27">
-        <v>1.9</v>
-      </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U27">
+        <v>16</v>
+      </c>
+      <c r="V27">
+        <v>7.8</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
         <v>9.4</v>
       </c>
-      <c r="V27">
-        <v>10.5</v>
-      </c>
-      <c r="W27">
-        <v>11</v>
-      </c>
-      <c r="X27">
-        <v>21</v>
-      </c>
       <c r="Y27">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="Z27">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AA27">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AB27">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AC27">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AD27">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE27">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="AF27">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG27">
+        <v>11.5</v>
+      </c>
+      <c r="AH27">
+        <v>15.5</v>
+      </c>
+      <c r="AI27">
+        <v>22</v>
+      </c>
+      <c r="AJ27">
+        <v>26</v>
+      </c>
+      <c r="AK27">
+        <v>38</v>
+      </c>
+      <c r="AL27">
+        <v>15</v>
+      </c>
+      <c r="AM27">
+        <v>20</v>
+      </c>
+      <c r="AN27">
         <v>16</v>
-      </c>
-      <c r="AH27">
-        <v>46</v>
-      </c>
-      <c r="AI27">
-        <v>55</v>
-      </c>
-      <c r="AJ27">
-        <v>12</v>
-      </c>
-      <c r="AK27">
-        <v>13</v>
-      </c>
-      <c r="AL27">
-        <v>11</v>
-      </c>
-      <c r="AM27">
-        <v>11.5</v>
-      </c>
-      <c r="AN27">
-        <v>20</v>
       </c>
       <c r="AO27">
         <v>22</v>
       </c>
       <c r="AP27">
+        <v>6</v>
+      </c>
+      <c r="AQ27">
+        <v>40</v>
+      </c>
+      <c r="AR27">
+        <v>6.6</v>
+      </c>
+      <c r="AS27">
+        <v>110</v>
+      </c>
+      <c r="AT27">
+        <v>6.4</v>
+      </c>
+      <c r="AU27">
         <v>65</v>
       </c>
-      <c r="AQ27">
-        <v>75</v>
-      </c>
-      <c r="AR27">
-        <v>29</v>
-      </c>
-      <c r="AS27">
-        <v>32</v>
-      </c>
-      <c r="AT27">
-        <v>27</v>
-      </c>
-      <c r="AU27">
-        <v>30</v>
-      </c>
       <c r="AV27">
-        <v>48</v>
+        <v>6.4</v>
       </c>
       <c r="AW27">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX27">
-        <v>95</v>
+        <v>6.6</v>
       </c>
       <c r="AY27">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AZ27">
-        <v>25</v>
+        <v>6.4</v>
       </c>
       <c r="BA27">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="BB27">
-        <v>48</v>
+        <v>4.6</v>
       </c>
       <c r="BC27">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="BD27">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BG27">
-        <v>60310</v>
+        <v>2250259</v>
       </c>
       <c r="BH27">
-        <v>60297</v>
+        <v>44800</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BK27" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BL27" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="BM27" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6862,196 +6886,196 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F28">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="G28">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="H28">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="I28">
-        <v>2.72</v>
+        <v>3.65</v>
       </c>
       <c r="J28">
         <v>3.15</v>
       </c>
       <c r="K28">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="L28">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="N28">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="O28">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="P28">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="Q28">
-        <v>990</v>
+        <v>2.1</v>
       </c>
       <c r="R28">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>1.45</v>
+        <v>8.6</v>
       </c>
       <c r="U28">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="V28">
-        <v>2.74</v>
+        <v>10</v>
       </c>
       <c r="W28">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="X28">
-        <v>2.46</v>
+        <v>20</v>
       </c>
       <c r="Y28">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z28">
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="AA28">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB28">
-        <v>2.32</v>
+        <v>7.8</v>
       </c>
       <c r="AC28">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="AE28">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AF28">
-        <v>3.55</v>
+        <v>14.5</v>
       </c>
       <c r="AG28">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH28">
-        <v>8.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AI28">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ28">
-        <v>3.35</v>
+        <v>12.5</v>
       </c>
       <c r="AK28">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL28">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="AM28">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN28">
-        <v>5.3</v>
+        <v>20</v>
       </c>
       <c r="AO28">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP28">
-        <v>7.4</v>
+        <v>60</v>
       </c>
       <c r="AQ28">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AR28">
-        <v>3.1</v>
+        <v>30</v>
       </c>
       <c r="AS28">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AT28">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AU28">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AV28">
-        <v>7.6</v>
+        <v>48</v>
       </c>
       <c r="AW28">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX28">
-        <v>11.5</v>
+        <v>95</v>
       </c>
       <c r="AY28">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ28">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BA28">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="BB28">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="BC28">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD28">
-        <v>1.03</v>
+        <v>60</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BG28">
-        <v>77586</v>
+        <v>60310</v>
       </c>
       <c r="BH28">
-        <v>496950</v>
+        <v>60297</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BK28" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="BL28" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="BM28" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7059,16 +7083,16 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F29">
         <v>1.31</v>
@@ -7227,7 +7251,7 @@
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BG29">
         <v>184325</v>
@@ -7239,16 +7263,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BK29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="BL29" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="BM29" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7256,196 +7280,196 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30">
-        <v>1.38</v>
+        <v>2.84</v>
       </c>
       <c r="G30">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="H30">
-        <v>9.6</v>
+        <v>2.1</v>
       </c>
       <c r="I30">
-        <v>9.800000000000001</v>
+        <v>2.96</v>
       </c>
       <c r="J30">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="K30">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="M30">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="N30">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="Q30">
-        <v>2.08</v>
+        <v>990</v>
       </c>
       <c r="R30">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="S30">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="T30">
-        <v>19.5</v>
+        <v>1.03</v>
       </c>
       <c r="U30">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="V30">
-        <v>30</v>
+        <v>1.03</v>
       </c>
       <c r="W30">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="X30">
-        <v>75</v>
+        <v>1.03</v>
       </c>
       <c r="Y30">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z30">
-        <v>110</v>
+        <v>1.03</v>
       </c>
       <c r="AA30">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB30">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AC30">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD30">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="AE30">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AF30">
-        <v>32</v>
+        <v>1.03</v>
       </c>
       <c r="AG30">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH30">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AI30">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ30">
-        <v>7.8</v>
+        <v>1.03</v>
       </c>
       <c r="AK30">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AL30">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AM30">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AN30">
-        <v>25</v>
+        <v>1.03</v>
       </c>
       <c r="AO30">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AP30">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AQ30">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AR30">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS30">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AT30">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AU30">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AV30">
-        <v>30</v>
+        <v>1.03</v>
       </c>
       <c r="AW30">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX30">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="AY30">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AZ30">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="BA30">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="BB30">
-        <v>46</v>
+        <v>1.01</v>
       </c>
       <c r="BC30">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="BD30">
-        <v>26</v>
+        <v>1.03</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BG30">
-        <v>52480964</v>
+        <v>77586</v>
       </c>
       <c r="BH30">
-        <v>66183</v>
+        <v>496950</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="BK30" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="BL30" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BM30" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7453,16 +7477,16 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F31">
         <v>5.2</v>
@@ -7471,10 +7495,10 @@
         <v>5.3</v>
       </c>
       <c r="H31">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I31">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J31">
         <v>4.4</v>
@@ -7498,10 +7522,10 @@
         <v>1.87</v>
       </c>
       <c r="Q31">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R31">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S31">
         <v>2.16</v>
@@ -7582,7 +7606,7 @@
         <v>42</v>
       </c>
       <c r="AS31">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AT31">
         <v>55</v>
@@ -7612,16 +7636,16 @@
         <v>8</v>
       </c>
       <c r="BC31">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BG31">
         <v>56295</v>
@@ -7633,16 +7657,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BK31" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="BL31" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="BM31" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7650,196 +7674,196 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
         <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F32">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
       <c r="G32">
-        <v>2.3</v>
+        <v>1.39</v>
       </c>
       <c r="H32">
-        <v>3.55</v>
+        <v>9.6</v>
       </c>
       <c r="I32">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="K32">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="L32">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="M32">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="N32">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="O32">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="P32">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q32">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R32">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="S32">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="T32">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="U32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>34</v>
+      </c>
+      <c r="X32">
+        <v>75</v>
+      </c>
+      <c r="Y32">
+        <v>85</v>
+      </c>
+      <c r="Z32">
+        <v>110</v>
+      </c>
+      <c r="AA32">
+        <v>360</v>
+      </c>
+      <c r="AB32">
+        <v>8.6</v>
+      </c>
+      <c r="AC32">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD32">
+        <v>11.5</v>
+      </c>
+      <c r="AE32">
+        <v>12.5</v>
+      </c>
+      <c r="AF32">
+        <v>32</v>
+      </c>
+      <c r="AG32">
+        <v>36</v>
+      </c>
+      <c r="AH32">
+        <v>100</v>
+      </c>
+      <c r="AI32">
+        <v>150</v>
+      </c>
+      <c r="AJ32">
+        <v>7.8</v>
+      </c>
+      <c r="AK32">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL32">
+        <v>9.4</v>
+      </c>
+      <c r="AM32">
         <v>9.800000000000001</v>
       </c>
-      <c r="W32">
-        <v>16.5</v>
-      </c>
-      <c r="X32">
-        <v>18</v>
-      </c>
-      <c r="Y32">
-        <v>32</v>
-      </c>
-      <c r="Z32">
-        <v>1.03</v>
-      </c>
-      <c r="AA32">
-        <v>85</v>
-      </c>
-      <c r="AB32">
-        <v>7.2</v>
-      </c>
-      <c r="AC32">
-        <v>12</v>
-      </c>
-      <c r="AD32">
-        <v>6</v>
-      </c>
-      <c r="AE32">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF32">
-        <v>11</v>
-      </c>
-      <c r="AG32">
-        <v>18.5</v>
-      </c>
-      <c r="AH32">
-        <v>1.03</v>
-      </c>
-      <c r="AI32">
-        <v>55</v>
-      </c>
-      <c r="AJ32">
-        <v>10</v>
-      </c>
-      <c r="AK32">
-        <v>17</v>
-      </c>
-      <c r="AL32">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AM32">
-        <v>13.5</v>
-      </c>
       <c r="AN32">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AO32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AP32">
-        <v>1.03</v>
+        <v>100</v>
       </c>
       <c r="AQ32">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AR32">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AS32">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AT32">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AU32">
+        <v>14</v>
+      </c>
+      <c r="AV32">
         <v>30</v>
       </c>
-      <c r="AV32">
-        <v>1.03</v>
-      </c>
       <c r="AW32">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AX32">
-        <v>1.03</v>
+        <v>100</v>
       </c>
       <c r="AY32">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AZ32">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BA32">
-        <v>23</v>
+        <v>5.6</v>
       </c>
       <c r="BB32">
-        <v>1.01</v>
+        <v>46</v>
       </c>
       <c r="BC32">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="BD32">
-        <v>1.03</v>
+        <v>28</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BG32">
-        <v>36362918</v>
+        <v>52480964</v>
       </c>
       <c r="BH32">
-        <v>48788</v>
+        <v>66183</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="BK32" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="BL32" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="BM32" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7847,196 +7871,196 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G33">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J33">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K33">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="M33">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="N33">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="O33">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="P33">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="Q33">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="R33">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="T33">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="U33">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W33">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="X33">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="Y33">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z33">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AA33">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB33">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AC33">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AD33">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AE33">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF33">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AG33">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH33">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="AI33">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ33">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK33">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL33">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AM33">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AN33">
-        <v>3.85</v>
+        <v>13.5</v>
       </c>
       <c r="AO33">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP33">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AQ33">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AR33">
-        <v>3.8</v>
+        <v>20</v>
       </c>
       <c r="AS33">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AT33">
-        <v>3.85</v>
+        <v>17.5</v>
       </c>
       <c r="AU33">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AV33">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AW33">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AX33">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AY33">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ33">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="BA33">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="BB33">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BC33">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BD33">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG33">
-        <v>2760854</v>
+        <v>36362918</v>
       </c>
       <c r="BH33">
-        <v>5287019</v>
+        <v>48788</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="BK33" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="BL33" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="BM33" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8044,196 +8068,196 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
         <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F34">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>3.3</v>
+        <v>2.08</v>
       </c>
       <c r="H34">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="J34">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K34">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="M34">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="P34">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q34">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R34">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S34">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T34">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U34">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="V34">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="W34">
         <v>980</v>
       </c>
       <c r="X34">
-        <v>14</v>
+        <v>3.7</v>
       </c>
       <c r="Y34">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Z34">
-        <v>36</v>
+        <v>4.1</v>
       </c>
       <c r="AA34">
+        <v>1000</v>
+      </c>
+      <c r="AB34">
+        <v>6.2</v>
+      </c>
+      <c r="AC34">
+        <v>7.8</v>
+      </c>
+      <c r="AD34">
+        <v>7.6</v>
+      </c>
+      <c r="AE34">
+        <v>9</v>
+      </c>
+      <c r="AF34">
+        <v>5.7</v>
+      </c>
+      <c r="AG34">
         <v>980</v>
       </c>
-      <c r="AB34">
-        <v>8.4</v>
-      </c>
-      <c r="AC34">
-        <v>980</v>
-      </c>
-      <c r="AD34">
-        <v>6.4</v>
-      </c>
-      <c r="AE34">
-        <v>7.2</v>
-      </c>
-      <c r="AF34">
-        <v>11.5</v>
-      </c>
-      <c r="AG34">
-        <v>14.5</v>
-      </c>
       <c r="AH34">
-        <v>29</v>
+        <v>3.95</v>
       </c>
       <c r="AI34">
         <v>980</v>
       </c>
       <c r="AJ34">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK34">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AL34">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AN34">
-        <v>20</v>
+        <v>3.85</v>
       </c>
       <c r="AO34">
         <v>980</v>
       </c>
       <c r="AP34">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AQ34">
         <v>980</v>
       </c>
       <c r="AR34">
-        <v>44</v>
+        <v>3.8</v>
       </c>
       <c r="AS34">
         <v>980</v>
       </c>
       <c r="AT34">
-        <v>32</v>
+        <v>3.85</v>
       </c>
       <c r="AU34">
         <v>980</v>
       </c>
       <c r="AV34">
-        <v>50</v>
+        <v>4.1</v>
       </c>
       <c r="AW34">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX34">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="AY34">
         <v>980</v>
       </c>
       <c r="AZ34">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="BA34">
         <v>980</v>
       </c>
       <c r="BB34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC34">
         <v>980</v>
       </c>
       <c r="BD34">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="BE34">
         <v>1000</v>
       </c>
       <c r="BF34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BG34">
-        <v>198126</v>
+        <v>2760854</v>
       </c>
       <c r="BH34">
-        <v>22498185</v>
+        <v>5287019</v>
       </c>
       <c r="BI34">
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BK34" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="BL34" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="BM34" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8241,231 +8265,231 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="G35">
+        <v>3.3</v>
+      </c>
+      <c r="H35">
+        <v>2.7</v>
+      </c>
+      <c r="I35">
+        <v>2.8</v>
+      </c>
+      <c r="J35">
+        <v>3.05</v>
+      </c>
+      <c r="K35">
+        <v>3.15</v>
+      </c>
+      <c r="L35">
+        <v>1.49</v>
+      </c>
+      <c r="M35">
+        <v>1.61</v>
+      </c>
+      <c r="N35">
+        <v>2.64</v>
+      </c>
+      <c r="O35">
+        <v>3.05</v>
+      </c>
+      <c r="P35">
+        <v>2.16</v>
+      </c>
+      <c r="Q35">
+        <v>2.32</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.86</v>
+      </c>
+      <c r="T35">
+        <v>7.2</v>
+      </c>
+      <c r="U35">
+        <v>8.6</v>
+      </c>
+      <c r="V35">
+        <v>7.4</v>
+      </c>
+      <c r="W35">
         <v>980</v>
       </c>
-      <c r="H35">
-        <v>2.06</v>
-      </c>
-      <c r="I35">
-        <v>990</v>
-      </c>
-      <c r="J35">
-        <v>1.97</v>
-      </c>
-      <c r="K35">
-        <v>12.5</v>
-      </c>
-      <c r="L35">
-        <v>1.07</v>
-      </c>
-      <c r="M35">
+      <c r="X35">
+        <v>14</v>
+      </c>
+      <c r="Y35">
+        <v>17.5</v>
+      </c>
+      <c r="Z35">
+        <v>7.8</v>
+      </c>
+      <c r="AA35">
         <v>980</v>
       </c>
-      <c r="N35">
-        <v>1.09</v>
-      </c>
-      <c r="O35">
+      <c r="AB35">
+        <v>8</v>
+      </c>
+      <c r="AC35">
+        <v>980</v>
+      </c>
+      <c r="AD35">
+        <v>6.4</v>
+      </c>
+      <c r="AE35">
+        <v>7.2</v>
+      </c>
+      <c r="AF35">
+        <v>11.5</v>
+      </c>
+      <c r="AG35">
+        <v>14.5</v>
+      </c>
+      <c r="AH35">
+        <v>32</v>
+      </c>
+      <c r="AI35">
+        <v>980</v>
+      </c>
+      <c r="AJ35">
+        <v>15.5</v>
+      </c>
+      <c r="AK35">
+        <v>980</v>
+      </c>
+      <c r="AL35">
+        <v>13</v>
+      </c>
+      <c r="AM35">
+        <v>16</v>
+      </c>
+      <c r="AN35">
         <v>21</v>
       </c>
-      <c r="P35">
-        <v>1.01</v>
-      </c>
-      <c r="Q35">
-        <v>1000</v>
-      </c>
-      <c r="R35">
-        <v>1.01</v>
-      </c>
-      <c r="S35">
-        <v>1000</v>
-      </c>
-      <c r="T35">
-        <v>1.03</v>
-      </c>
-      <c r="U35">
-        <v>1000</v>
-      </c>
-      <c r="V35">
-        <v>1.03</v>
-      </c>
-      <c r="W35">
-        <v>1000</v>
-      </c>
-      <c r="X35">
-        <v>2.4</v>
-      </c>
-      <c r="Y35">
-        <v>1000</v>
-      </c>
-      <c r="Z35">
-        <v>4.9</v>
-      </c>
-      <c r="AA35">
-        <v>1000</v>
-      </c>
-      <c r="AB35">
-        <v>1.03</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-      <c r="AD35">
-        <v>1.03</v>
-      </c>
-      <c r="AE35">
-        <v>1000</v>
-      </c>
-      <c r="AF35">
-        <v>1.03</v>
-      </c>
-      <c r="AG35">
-        <v>1000</v>
-      </c>
-      <c r="AH35">
-        <v>8.6</v>
-      </c>
-      <c r="AI35">
-        <v>1000</v>
-      </c>
-      <c r="AJ35">
-        <v>1.03</v>
-      </c>
-      <c r="AK35">
-        <v>1000</v>
-      </c>
-      <c r="AL35">
-        <v>1.03</v>
-      </c>
-      <c r="AM35">
-        <v>1000</v>
-      </c>
-      <c r="AN35">
-        <v>7.2</v>
-      </c>
       <c r="AO35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP35">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AQ35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR35">
-        <v>3.75</v>
+        <v>46</v>
       </c>
       <c r="AS35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT35">
-        <v>8.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AU35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV35">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="AW35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX35">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AY35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ35">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BA35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB35">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BC35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD35">
-        <v>1.03</v>
+        <v>8</v>
       </c>
       <c r="BE35">
         <v>1000</v>
       </c>
       <c r="BF35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BG35">
-        <v>5327519</v>
+        <v>198126</v>
       </c>
       <c r="BH35">
-        <v>16916284</v>
+        <v>22498185</v>
       </c>
       <c r="BI35">
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BK35" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="BL35" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="BM35" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:65">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G36">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="H36">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="I36">
         <v>990</v>
       </c>
       <c r="J36">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="K36">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="L36">
         <v>1.07</v>
@@ -8474,10 +8498,10 @@
         <v>980</v>
       </c>
       <c r="N36">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="O36">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P36">
         <v>1.01</v>
@@ -8606,75 +8630,75 @@
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BG36">
-        <v>16916720</v>
+        <v>5327519</v>
       </c>
       <c r="BH36">
-        <v>3806543</v>
+        <v>16916284</v>
       </c>
       <c r="BI36">
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BK36" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="BL36" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="BM36" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:65">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F37">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="G37">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="H37">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="I37">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J37">
-        <v>3.9</v>
+        <v>1.21</v>
       </c>
       <c r="K37">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="L37">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="M37">
-        <v>2.74</v>
+        <v>990</v>
       </c>
       <c r="N37">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="O37">
-        <v>5.1</v>
+        <v>26</v>
       </c>
       <c r="P37">
         <v>1.01</v>
@@ -8803,75 +8827,75 @@
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BG37">
-        <v>328191</v>
+        <v>16916720</v>
       </c>
       <c r="BH37">
-        <v>3206731</v>
+        <v>3806543</v>
       </c>
       <c r="BI37">
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BK37" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="BL37" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="BM37" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:65">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F38">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="G38">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="H38">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="I38">
-        <v>5.9</v>
+        <v>980</v>
       </c>
       <c r="J38">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L38">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="M38">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="N38">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="O38">
-        <v>2.82</v>
+        <v>5.1</v>
       </c>
       <c r="P38">
         <v>1.01</v>
@@ -8886,97 +8910,97 @@
         <v>1000</v>
       </c>
       <c r="T38">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="U38">
         <v>1000</v>
       </c>
       <c r="V38">
-        <v>2.86</v>
+        <v>1.03</v>
       </c>
       <c r="W38">
         <v>1000</v>
       </c>
       <c r="X38">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="Y38">
         <v>1000</v>
       </c>
       <c r="Z38">
-        <v>3.2</v>
+        <v>1.03</v>
       </c>
       <c r="AA38">
         <v>1000</v>
       </c>
       <c r="AB38">
-        <v>2.74</v>
+        <v>1.03</v>
       </c>
       <c r="AC38">
         <v>1000</v>
       </c>
       <c r="AD38">
-        <v>2.72</v>
+        <v>1.03</v>
       </c>
       <c r="AE38">
         <v>1000</v>
       </c>
       <c r="AF38">
-        <v>4.9</v>
+        <v>1.03</v>
       </c>
       <c r="AG38">
         <v>1000</v>
       </c>
       <c r="AH38">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="AI38">
         <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="AK38">
         <v>1000</v>
       </c>
       <c r="AL38">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM38">
         <v>1000</v>
       </c>
       <c r="AN38">
-        <v>4.9</v>
+        <v>1.03</v>
       </c>
       <c r="AO38">
         <v>1000</v>
       </c>
       <c r="AP38">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="AS38">
         <v>1000</v>
       </c>
       <c r="AT38">
-        <v>6</v>
+        <v>1.03</v>
       </c>
       <c r="AU38">
         <v>1000</v>
       </c>
       <c r="AV38">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>15.5</v>
+        <v>1.03</v>
       </c>
       <c r="AY38">
         <v>1000</v>
@@ -9000,28 +9024,28 @@
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BG38">
-        <v>330234</v>
+        <v>328191</v>
       </c>
       <c r="BH38">
-        <v>10778437</v>
+        <v>3206731</v>
       </c>
       <c r="BI38">
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BK38" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BL38" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="BM38" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9029,76 +9053,76 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F39">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="G39">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="H39">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I39">
-        <v>3.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J39">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K39">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="L39">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="M39">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="N39">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="O39">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="P39">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="Q39">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="R39">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="S39">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="T39">
         <v>1.03</v>
       </c>
       <c r="U39">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="V39">
         <v>1.03</v>
       </c>
       <c r="W39">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="X39">
         <v>1.03</v>
       </c>
       <c r="Y39">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z39">
         <v>1.03</v>
@@ -9110,67 +9134,67 @@
         <v>1.03</v>
       </c>
       <c r="AC39">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD39">
         <v>1.03</v>
       </c>
       <c r="AE39">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AF39">
         <v>1.03</v>
       </c>
       <c r="AG39">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH39">
         <v>1.03</v>
       </c>
       <c r="AI39">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39">
         <v>1.03</v>
       </c>
       <c r="AK39">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL39">
         <v>1.03</v>
       </c>
       <c r="AM39">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AN39">
         <v>1.03</v>
       </c>
       <c r="AO39">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AP39">
         <v>1.03</v>
       </c>
       <c r="AQ39">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
       </c>
       <c r="AS39">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AT39">
         <v>1.03</v>
       </c>
       <c r="AU39">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AV39">
         <v>1.03</v>
       </c>
       <c r="AW39">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AX39">
         <v>1.03</v>
@@ -9182,13 +9206,13 @@
         <v>1.01</v>
       </c>
       <c r="BA39">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="BB39">
         <v>1.01</v>
       </c>
       <c r="BC39">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="BD39">
         <v>1.03</v>
@@ -9197,28 +9221,28 @@
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BG39">
-        <v>2295419</v>
+        <v>330234</v>
       </c>
       <c r="BH39">
-        <v>5129865</v>
+        <v>10778437</v>
       </c>
       <c r="BI39">
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BK39" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="BL39" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="BM39" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9226,76 +9250,76 @@
         <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
         <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F40">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="G40">
-        <v>990</v>
+        <v>2.24</v>
       </c>
       <c r="H40">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="I40">
-        <v>2.78</v>
+        <v>3.95</v>
       </c>
       <c r="J40">
-        <v>1.63</v>
+        <v>3.7</v>
       </c>
       <c r="K40">
-        <v>990</v>
+        <v>4.9</v>
       </c>
       <c r="L40">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="O40">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="P40">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="Q40">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="R40">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="S40">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="T40">
         <v>1.03</v>
       </c>
       <c r="U40">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="V40">
         <v>1.03</v>
       </c>
       <c r="W40">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="X40">
         <v>1.03</v>
       </c>
       <c r="Y40">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z40">
         <v>1.03</v>
@@ -9307,67 +9331,67 @@
         <v>1.03</v>
       </c>
       <c r="AC40">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD40">
         <v>1.03</v>
       </c>
       <c r="AE40">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AF40">
         <v>1.03</v>
       </c>
       <c r="AG40">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH40">
         <v>1.03</v>
       </c>
       <c r="AI40">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ40">
         <v>1.03</v>
       </c>
       <c r="AK40">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL40">
         <v>1.03</v>
       </c>
       <c r="AM40">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN40">
         <v>1.03</v>
       </c>
       <c r="AO40">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP40">
         <v>1.03</v>
       </c>
       <c r="AQ40">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AR40">
         <v>1.03</v>
       </c>
       <c r="AS40">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AT40">
         <v>1.03</v>
       </c>
       <c r="AU40">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AV40">
         <v>1.03</v>
       </c>
       <c r="AW40">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AX40">
         <v>1.03</v>
@@ -9379,13 +9403,13 @@
         <v>1.01</v>
       </c>
       <c r="BA40">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="BB40">
         <v>1.01</v>
       </c>
       <c r="BC40">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="BD40">
         <v>1.03</v>
@@ -9394,28 +9418,225 @@
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BG40">
-        <v>5535792</v>
+        <v>2295419</v>
       </c>
       <c r="BH40">
-        <v>328696</v>
+        <v>5129865</v>
       </c>
       <c r="BI40">
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BK40" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="BL40" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="BM40" t="s">
-        <v>386</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41">
+        <v>1.75</v>
+      </c>
+      <c r="G41">
+        <v>480</v>
+      </c>
+      <c r="H41">
+        <v>1.08</v>
+      </c>
+      <c r="I41">
+        <v>870</v>
+      </c>
+      <c r="J41">
+        <v>1.75</v>
+      </c>
+      <c r="K41">
+        <v>330</v>
+      </c>
+      <c r="L41">
+        <v>1.07</v>
+      </c>
+      <c r="M41">
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <v>1.03</v>
+      </c>
+      <c r="O41">
+        <v>26</v>
+      </c>
+      <c r="P41">
+        <v>1.01</v>
+      </c>
+      <c r="Q41">
+        <v>1000</v>
+      </c>
+      <c r="R41">
+        <v>1.01</v>
+      </c>
+      <c r="S41">
+        <v>1000</v>
+      </c>
+      <c r="T41">
+        <v>1.03</v>
+      </c>
+      <c r="U41">
+        <v>1000</v>
+      </c>
+      <c r="V41">
+        <v>1.03</v>
+      </c>
+      <c r="W41">
+        <v>1000</v>
+      </c>
+      <c r="X41">
+        <v>1.03</v>
+      </c>
+      <c r="Y41">
+        <v>1000</v>
+      </c>
+      <c r="Z41">
+        <v>1.03</v>
+      </c>
+      <c r="AA41">
+        <v>1000</v>
+      </c>
+      <c r="AB41">
+        <v>1.03</v>
+      </c>
+      <c r="AC41">
+        <v>1000</v>
+      </c>
+      <c r="AD41">
+        <v>1.03</v>
+      </c>
+      <c r="AE41">
+        <v>1000</v>
+      </c>
+      <c r="AF41">
+        <v>1.03</v>
+      </c>
+      <c r="AG41">
+        <v>1000</v>
+      </c>
+      <c r="AH41">
+        <v>1.03</v>
+      </c>
+      <c r="AI41">
+        <v>1000</v>
+      </c>
+      <c r="AJ41">
+        <v>1.03</v>
+      </c>
+      <c r="AK41">
+        <v>1000</v>
+      </c>
+      <c r="AL41">
+        <v>1.03</v>
+      </c>
+      <c r="AM41">
+        <v>1000</v>
+      </c>
+      <c r="AN41">
+        <v>1.03</v>
+      </c>
+      <c r="AO41">
+        <v>1000</v>
+      </c>
+      <c r="AP41">
+        <v>1.03</v>
+      </c>
+      <c r="AQ41">
+        <v>1000</v>
+      </c>
+      <c r="AR41">
+        <v>1.03</v>
+      </c>
+      <c r="AS41">
+        <v>1000</v>
+      </c>
+      <c r="AT41">
+        <v>1.03</v>
+      </c>
+      <c r="AU41">
+        <v>1000</v>
+      </c>
+      <c r="AV41">
+        <v>1.03</v>
+      </c>
+      <c r="AW41">
+        <v>1000</v>
+      </c>
+      <c r="AX41">
+        <v>1.03</v>
+      </c>
+      <c r="AY41">
+        <v>1000</v>
+      </c>
+      <c r="AZ41">
+        <v>1.01</v>
+      </c>
+      <c r="BA41">
+        <v>1000</v>
+      </c>
+      <c r="BB41">
+        <v>1.01</v>
+      </c>
+      <c r="BC41">
+        <v>1000</v>
+      </c>
+      <c r="BD41">
+        <v>1.03</v>
+      </c>
+      <c r="BE41">
+        <v>1000</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG41">
+        <v>5535792</v>
+      </c>
+      <c r="BH41">
+        <v>328696</v>
+      </c>
+      <c r="BI41">
+        <v>58805</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -1830,13 +1830,13 @@
         <v>161</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G2">
         <v>2.32</v>
       </c>
       <c r="H2">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
         <v>4.7</v>
@@ -1872,49 +1872,49 @@
         <v>2.16</v>
       </c>
       <c r="T2">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U2">
         <v>12.5</v>
       </c>
       <c r="V2">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W2">
         <v>14.5</v>
       </c>
       <c r="X2">
-        <v>1.06</v>
+        <v>2.18</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>1.06</v>
+        <v>2.18</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="AC2">
         <v>9.199999999999999</v>
       </c>
       <c r="AD2">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="AE2">
         <v>8.6</v>
       </c>
       <c r="AF2">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="AG2">
         <v>19</v>
       </c>
       <c r="AH2">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI2">
         <v>1000</v>
@@ -1926,61 +1926,61 @@
         <v>13.5</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="AM2">
         <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>1.16</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.06</v>
+        <v>2.18</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>2.72</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>1.06</v>
+        <v>2.1</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="BA2">
         <v>22</v>
       </c>
       <c r="BB2">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="BC2">
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -2027,58 +2027,58 @@
         <v>162</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G3">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J3">
         <v>3.15</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M3">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="N3">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="P3">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q3">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R3">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S3">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="U3">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="V3">
         <v>10</v>
       </c>
       <c r="W3">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <v>21</v>
@@ -2087,22 +2087,22 @@
         <v>25</v>
       </c>
       <c r="Z3">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC3">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD3">
         <v>6.8</v>
       </c>
       <c r="AE3">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF3">
         <v>14</v>
@@ -2111,10 +2111,10 @@
         <v>24</v>
       </c>
       <c r="AH3">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ3">
         <v>11.5</v>
@@ -2126,58 +2126,58 @@
         <v>10.5</v>
       </c>
       <c r="AM3">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN3">
         <v>19</v>
       </c>
       <c r="AO3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR3">
         <v>26</v>
       </c>
       <c r="AS3">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AT3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU3">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AV3">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AW3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY3">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AZ3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BB3">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BC3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD3">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -2224,22 +2224,22 @@
         <v>163</v>
       </c>
       <c r="F4">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G4">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="H4">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="I4">
         <v>980</v>
       </c>
       <c r="J4">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="K4">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L4">
         <v>1.2</v>
@@ -2290,13 +2290,13 @@
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC4">
         <v>1000</v>
       </c>
       <c r="AD4">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE4">
         <v>1000</v>
@@ -2421,16 +2421,16 @@
         <v>164</v>
       </c>
       <c r="F5">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G5">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J5">
         <v>3.15</v>
@@ -2442,10 +2442,10 @@
         <v>1.68</v>
       </c>
       <c r="M5">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N5">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
         <v>2.48</v>
@@ -2463,115 +2463,115 @@
         <v>2.08</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U5">
         <v>13</v>
       </c>
       <c r="V5">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="W5">
         <v>14</v>
       </c>
       <c r="X5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>27</v>
       </c>
       <c r="Z5">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA5">
         <v>80</v>
       </c>
       <c r="AB5">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="AC5">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5">
-        <v>2.94</v>
+        <v>6.2</v>
       </c>
       <c r="AE5">
         <v>9.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AG5">
         <v>18.5</v>
       </c>
       <c r="AH5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AI5">
         <v>55</v>
       </c>
       <c r="AJ5">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AK5">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL5">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="AM5">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN5">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="AO5">
         <v>25</v>
       </c>
       <c r="AP5">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AQ5">
         <v>80</v>
       </c>
       <c r="AR5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AS5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT5">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AU5">
         <v>36</v>
       </c>
       <c r="AV5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AW5">
         <v>60</v>
       </c>
       <c r="AX5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AY5">
         <v>170</v>
       </c>
       <c r="AZ5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BA5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BC5">
         <v>60</v>
       </c>
       <c r="BD5">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2618,157 +2618,157 @@
         <v>165</v>
       </c>
       <c r="F6">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="G6">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="H6">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="I6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L6">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="N6">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="P6">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="Q6">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R6">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="S6">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="T6">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="W6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X6">
-        <v>3.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AA6">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="AC6">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD6">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AE6">
         <v>8.800000000000001</v>
       </c>
       <c r="AF6">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG6">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH6">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AI6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ6">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AK6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AM6">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP6">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
       </c>
       <c r="AR6">
+        <v>4.1</v>
+      </c>
+      <c r="AS6">
+        <v>55</v>
+      </c>
+      <c r="AT6">
         <v>4</v>
-      </c>
-      <c r="AS6">
-        <v>1000</v>
-      </c>
-      <c r="AT6">
-        <v>3.95</v>
       </c>
       <c r="AU6">
         <v>46</v>
       </c>
       <c r="AV6">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AX6">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="AY6">
         <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="BA6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BB6">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="BC6">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD6">
-        <v>1.39</v>
+        <v>2.48</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2815,7 +2815,7 @@
         <v>166</v>
       </c>
       <c r="F7">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G7">
         <v>2.24</v>
@@ -2827,10 +2827,10 @@
         <v>4.4</v>
       </c>
       <c r="J7">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K7">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
         <v>1.87</v>
@@ -2857,25 +2857,25 @@
         <v>2.38</v>
       </c>
       <c r="T7">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="U7">
         <v>16</v>
       </c>
       <c r="V7">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>16.5</v>
       </c>
       <c r="X7">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y7">
         <v>32</v>
       </c>
       <c r="Z7">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="AA7">
         <v>1000</v>
@@ -2893,13 +2893,13 @@
         <v>9.4</v>
       </c>
       <c r="AF7">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="AG7">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH7">
-        <v>1.96</v>
+        <v>6</v>
       </c>
       <c r="AI7">
         <v>1000</v>
@@ -2917,55 +2917,55 @@
         <v>12</v>
       </c>
       <c r="AN7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO7">
         <v>21</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>5.9</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="AS7">
         <v>1000</v>
       </c>
       <c r="AT7">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="AU7">
         <v>24</v>
       </c>
       <c r="AV7">
-        <v>2.76</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX7">
-        <v>1.66</v>
+        <v>4.5</v>
       </c>
       <c r="AY7">
         <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="BA7">
         <v>16.5</v>
       </c>
       <c r="BB7">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="BC7">
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -3012,22 +3012,22 @@
         <v>167</v>
       </c>
       <c r="F8">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G8">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I8">
         <v>5.6</v>
       </c>
       <c r="J8">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K8">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L8">
         <v>1.7</v>
@@ -3048,7 +3048,7 @@
         <v>2.3</v>
       </c>
       <c r="R8">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S8">
         <v>2.04</v>
@@ -3066,13 +3066,13 @@
         <v>18.5</v>
       </c>
       <c r="X8">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y8">
         <v>46</v>
       </c>
       <c r="Z8">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>160</v>
@@ -3087,7 +3087,7 @@
         <v>6.8</v>
       </c>
       <c r="AE8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8">
         <v>18</v>
@@ -3096,13 +3096,13 @@
         <v>26</v>
       </c>
       <c r="AH8">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AI8">
         <v>95</v>
       </c>
       <c r="AJ8">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK8">
         <v>11.5</v>
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="AP8">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AQ8">
         <v>110</v>
@@ -3138,31 +3138,31 @@
         <v>26</v>
       </c>
       <c r="AV8">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AW8">
         <v>60</v>
       </c>
       <c r="AX8">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AY8">
         <v>190</v>
       </c>
       <c r="AZ8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BA8">
         <v>17.5</v>
       </c>
       <c r="BB8">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BC8">
         <v>130</v>
       </c>
       <c r="BD8">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -3209,22 +3209,22 @@
         <v>168</v>
       </c>
       <c r="F9">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
         <v>2.94</v>
       </c>
       <c r="I9">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J9">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L9">
         <v>1.74</v>
@@ -3263,13 +3263,13 @@
         <v>14</v>
       </c>
       <c r="X9">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>25</v>
       </c>
       <c r="Z9">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AA9">
         <v>65</v>
@@ -3317,13 +3317,13 @@
         <v>23</v>
       </c>
       <c r="AP9">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ9">
         <v>65</v>
       </c>
       <c r="AR9">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AS9">
         <v>44</v>
@@ -3406,34 +3406,34 @@
         <v>169</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G10">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H10">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I10">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J10">
         <v>3.45</v>
       </c>
       <c r="K10">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L10">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="M10">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="N10">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O10">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="P10">
         <v>1.72</v>
@@ -3460,13 +3460,13 @@
         <v>13.5</v>
       </c>
       <c r="X10">
-        <v>1.69</v>
+        <v>11</v>
       </c>
       <c r="Y10">
         <v>18.5</v>
       </c>
       <c r="Z10">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AA10">
         <v>1000</v>
@@ -3490,13 +3490,13 @@
         <v>14</v>
       </c>
       <c r="AH10">
-        <v>3.95</v>
+        <v>17.5</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AK10">
         <v>1000</v>
@@ -3514,7 +3514,7 @@
         <v>22</v>
       </c>
       <c r="AP10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
@@ -3526,13 +3526,13 @@
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AW10">
         <v>1000</v>
@@ -3603,157 +3603,157 @@
         <v>170</v>
       </c>
       <c r="F11">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="G11">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="H11">
+        <v>4.6</v>
+      </c>
+      <c r="I11">
+        <v>4.9</v>
+      </c>
+      <c r="J11">
+        <v>3.35</v>
+      </c>
+      <c r="K11">
+        <v>3.9</v>
+      </c>
+      <c r="L11">
+        <v>1.6</v>
+      </c>
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+      <c r="N11">
+        <v>2.26</v>
+      </c>
+      <c r="O11">
+        <v>2.66</v>
+      </c>
+      <c r="P11">
+        <v>2.02</v>
+      </c>
+      <c r="Q11">
+        <v>2.3</v>
+      </c>
+      <c r="R11">
+        <v>1.76</v>
+      </c>
+      <c r="S11">
+        <v>1.98</v>
+      </c>
+      <c r="T11">
+        <v>4.7</v>
+      </c>
+      <c r="U11">
+        <v>11.5</v>
+      </c>
+      <c r="V11">
+        <v>5.3</v>
+      </c>
+      <c r="W11">
+        <v>17.5</v>
+      </c>
+      <c r="X11">
+        <v>6.6</v>
+      </c>
+      <c r="Y11">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>7.4</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AB11">
         <v>6</v>
       </c>
-      <c r="I11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J11">
-        <v>3.4</v>
-      </c>
-      <c r="K11">
-        <v>4.9</v>
-      </c>
-      <c r="L11">
-        <v>1.64</v>
-      </c>
-      <c r="M11">
-        <v>1.83</v>
-      </c>
-      <c r="N11">
-        <v>2.2</v>
-      </c>
-      <c r="O11">
-        <v>2.58</v>
-      </c>
-      <c r="P11">
-        <v>2.12</v>
-      </c>
-      <c r="Q11">
-        <v>2.52</v>
-      </c>
-      <c r="R11">
-        <v>1.66</v>
-      </c>
-      <c r="S11">
-        <v>1.9</v>
-      </c>
-      <c r="T11">
-        <v>1.25</v>
-      </c>
-      <c r="U11">
-        <v>12</v>
-      </c>
-      <c r="V11">
-        <v>1.03</v>
-      </c>
-      <c r="W11">
-        <v>20</v>
-      </c>
-      <c r="X11">
-        <v>1.03</v>
-      </c>
-      <c r="Y11">
-        <v>1000</v>
-      </c>
-      <c r="Z11">
-        <v>1.01</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>3.6</v>
-      </c>
       <c r="AC11">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD11">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE11">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AF11">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="AG11">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH11">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AI11">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ11">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="AK11">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AL11">
-        <v>2.98</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM11">
         <v>11.5</v>
       </c>
       <c r="AN11">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AO11">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AP11">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AQ11">
         <v>1000</v>
       </c>
       <c r="AR11">
-        <v>1.66</v>
+        <v>5.9</v>
       </c>
       <c r="AS11">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AT11">
-        <v>1.55</v>
+        <v>6</v>
       </c>
       <c r="AU11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AV11">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="AW11">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX11">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BA11">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="BB11">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3800,103 +3800,103 @@
         <v>171</v>
       </c>
       <c r="F12">
+        <v>2.04</v>
+      </c>
+      <c r="G12">
         <v>2.1</v>
       </c>
-      <c r="G12">
-        <v>2.16</v>
-      </c>
       <c r="H12">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J12">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L12">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="N12">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="O12">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P12">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q12">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R12">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="S12">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T12">
         <v>14.5</v>
       </c>
       <c r="U12">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="V12">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="W12">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="X12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y12">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z12">
-        <v>3.7</v>
+        <v>12.5</v>
       </c>
       <c r="AA12">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB12">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12">
+        <v>11</v>
+      </c>
+      <c r="AD12">
+        <v>7.8</v>
+      </c>
+      <c r="AE12">
+        <v>8.6</v>
+      </c>
+      <c r="AF12">
+        <v>14</v>
+      </c>
+      <c r="AG12">
+        <v>16</v>
+      </c>
+      <c r="AH12">
+        <v>38</v>
+      </c>
+      <c r="AI12">
+        <v>44</v>
+      </c>
+      <c r="AJ12">
         <v>12</v>
-      </c>
-      <c r="AD12">
-        <v>5</v>
-      </c>
-      <c r="AE12">
-        <v>36</v>
-      </c>
-      <c r="AF12">
-        <v>6.8</v>
-      </c>
-      <c r="AG12">
-        <v>17.5</v>
-      </c>
-      <c r="AH12">
-        <v>24</v>
-      </c>
-      <c r="AI12">
-        <v>42</v>
-      </c>
-      <c r="AJ12">
-        <v>6.2</v>
       </c>
       <c r="AK12">
         <v>16.5</v>
       </c>
       <c r="AL12">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM12">
         <v>11</v>
@@ -3908,52 +3908,52 @@
         <v>17</v>
       </c>
       <c r="AP12">
-        <v>7.6</v>
+        <v>44</v>
       </c>
       <c r="AQ12">
         <v>50</v>
       </c>
       <c r="AR12">
+        <v>22</v>
+      </c>
+      <c r="AS12">
+        <v>32</v>
+      </c>
+      <c r="AT12">
+        <v>18.5</v>
+      </c>
+      <c r="AU12">
         <v>23</v>
       </c>
-      <c r="AS12">
-        <v>1000</v>
-      </c>
-      <c r="AT12">
-        <v>18</v>
-      </c>
-      <c r="AU12">
-        <v>21</v>
-      </c>
       <c r="AV12">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AW12">
         <v>34</v>
       </c>
       <c r="AX12">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AY12">
         <v>85</v>
       </c>
       <c r="AZ12">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="BA12">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="BB12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC12">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BD12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE12">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="BF12" t="s">
         <v>213</v>
@@ -3997,31 +3997,31 @@
         <v>172</v>
       </c>
       <c r="F13">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H13">
         <v>2.3</v>
       </c>
       <c r="I13">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J13">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13">
         <v>1.91</v>
       </c>
       <c r="M13">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>2.1</v>
@@ -4054,13 +4054,13 @@
         <v>13</v>
       </c>
       <c r="Y13">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13">
         <v>25</v>
       </c>
       <c r="AA13">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB13">
         <v>11.5</v>
@@ -4105,13 +4105,13 @@
         <v>20</v>
       </c>
       <c r="AP13">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ13">
         <v>44</v>
       </c>
       <c r="AR13">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS13">
         <v>60</v>
@@ -4123,31 +4123,31 @@
         <v>40</v>
       </c>
       <c r="AV13">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW13">
         <v>55</v>
       </c>
       <c r="AX13">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY13">
         <v>110</v>
       </c>
       <c r="AZ13">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BA13">
         <v>36</v>
       </c>
       <c r="BB13">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BC13">
         <v>21</v>
       </c>
       <c r="BD13">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BE13">
         <v>920</v>
@@ -4194,13 +4194,13 @@
         <v>173</v>
       </c>
       <c r="F14">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G14">
         <v>2.48</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I14">
         <v>3.15</v>
@@ -4209,7 +4209,7 @@
         <v>3.6</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14">
         <v>2.04</v>
@@ -4224,16 +4224,16 @@
         <v>1.97</v>
       </c>
       <c r="P14">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q14">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R14">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="S14">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T14">
         <v>13</v>
@@ -4254,7 +4254,7 @@
         <v>22</v>
       </c>
       <c r="Z14">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA14">
         <v>55</v>
@@ -4263,7 +4263,7 @@
         <v>10.5</v>
       </c>
       <c r="AC14">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD14">
         <v>7.6</v>
@@ -4287,7 +4287,7 @@
         <v>14.5</v>
       </c>
       <c r="AK14">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL14">
         <v>10.5</v>
@@ -4308,7 +4308,7 @@
         <v>44</v>
       </c>
       <c r="AR14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS14">
         <v>34</v>
@@ -4320,13 +4320,13 @@
         <v>25</v>
       </c>
       <c r="AV14">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AW14">
         <v>38</v>
       </c>
       <c r="AX14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY14">
         <v>85</v>
@@ -4344,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="BD14">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -4394,13 +4394,13 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H15">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="I15">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -4409,19 +4409,19 @@
         <v>4.2</v>
       </c>
       <c r="L15">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="M15">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O15">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="P15">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q15">
         <v>1.88</v>
@@ -4430,61 +4430,61 @@
         <v>2.14</v>
       </c>
       <c r="S15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U15">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V15">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB15">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD15">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE15">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF15">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG15">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ15">
         <v>25</v>
       </c>
       <c r="AK15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL15">
         <v>13</v>
@@ -4496,55 +4496,55 @@
         <v>15</v>
       </c>
       <c r="AO15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP15">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AQ15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AR15">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AS15">
         <v>110</v>
       </c>
       <c r="AT15">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AU15">
+        <v>65</v>
+      </c>
+      <c r="AV15">
+        <v>4.9</v>
+      </c>
+      <c r="AW15">
+        <v>70</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>120</v>
+      </c>
+      <c r="AZ15">
+        <v>4.7</v>
+      </c>
+      <c r="BA15">
         <v>60</v>
       </c>
-      <c r="AV15">
-        <v>4.6</v>
-      </c>
-      <c r="AW15">
-        <v>65</v>
-      </c>
-      <c r="AX15">
-        <v>4.8</v>
-      </c>
-      <c r="AY15">
-        <v>110</v>
-      </c>
-      <c r="AZ15">
-        <v>4.5</v>
-      </c>
-      <c r="BA15">
-        <v>55</v>
-      </c>
       <c r="BB15">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BC15">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD15">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BE15">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="BF15" t="s">
         <v>216</v>
@@ -4588,10 +4588,10 @@
         <v>175</v>
       </c>
       <c r="F16">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G16">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4603,61 +4603,61 @@
         <v>3.35</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M16">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O16">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P16">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S16">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T16">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U16">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W16">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X16">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="Y16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z16">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AA16">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB16">
         <v>6.6</v>
       </c>
       <c r="AC16">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD16">
         <v>6.4</v>
@@ -4672,7 +4672,7 @@
         <v>19</v>
       </c>
       <c r="AH16">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AI16">
         <v>65</v>
@@ -4681,10 +4681,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK16">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL16">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM16">
         <v>12</v>
@@ -4696,7 +4696,7 @@
         <v>24</v>
       </c>
       <c r="AP16">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AQ16">
         <v>85</v>
@@ -4705,40 +4705,40 @@
         <v>21</v>
       </c>
       <c r="AS16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16">
         <v>28</v>
       </c>
       <c r="AV16">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AW16">
         <v>55</v>
       </c>
       <c r="AX16">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AY16">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AZ16">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BA16">
         <v>23</v>
       </c>
       <c r="BB16">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC16">
         <v>80</v>
       </c>
       <c r="BD16">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4785,25 +4785,25 @@
         <v>176</v>
       </c>
       <c r="F17">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I17">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J17">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>3.75</v>
       </c>
       <c r="L17">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="M17">
         <v>1.88</v>
@@ -4812,7 +4812,7 @@
         <v>2.12</v>
       </c>
       <c r="O17">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="P17">
         <v>1.82</v>
@@ -4827,115 +4827,115 @@
         <v>2.22</v>
       </c>
       <c r="T17">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="U17">
         <v>12</v>
       </c>
       <c r="V17">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="W17">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X17">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="Y17">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z17">
-        <v>1.03</v>
+        <v>5.2</v>
       </c>
       <c r="AA17">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB17">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AC17">
         <v>11.5</v>
       </c>
       <c r="AD17">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AE17">
         <v>8.4</v>
       </c>
       <c r="AF17">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="AG17">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH17">
-        <v>1.03</v>
+        <v>5.4</v>
       </c>
       <c r="AI17">
         <v>38</v>
       </c>
       <c r="AJ17">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AK17">
         <v>21</v>
       </c>
       <c r="AL17">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="AM17">
         <v>14.5</v>
       </c>
       <c r="AN17">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AO17">
         <v>22</v>
       </c>
       <c r="AP17">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AQ17">
         <v>60</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>5.2</v>
       </c>
       <c r="AS17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AT17">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="AU17">
         <v>40</v>
       </c>
       <c r="AV17">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AW17">
         <v>1000</v>
       </c>
       <c r="AX17">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="AY17">
         <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA17">
         <v>38</v>
       </c>
       <c r="BB17">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BC17">
         <v>36</v>
       </c>
       <c r="BD17">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4982,13 +4982,13 @@
         <v>177</v>
       </c>
       <c r="F18">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G18">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H18">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
         <v>4.7</v>
@@ -4997,28 +4997,28 @@
         <v>4</v>
       </c>
       <c r="K18">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
         <v>2.24</v>
       </c>
       <c r="M18">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="N18">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O18">
         <v>1.81</v>
       </c>
       <c r="P18">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q18">
         <v>1.8</v>
       </c>
       <c r="R18">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S18">
         <v>2.4</v>
@@ -5027,115 +5027,115 @@
         <v>16.5</v>
       </c>
       <c r="U18">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="V18">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="W18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X18">
-        <v>1.03</v>
+        <v>30</v>
       </c>
       <c r="Y18">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z18">
-        <v>1.03</v>
+        <v>15.5</v>
       </c>
       <c r="AA18">
         <v>110</v>
       </c>
       <c r="AB18">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18">
         <v>11</v>
       </c>
       <c r="AD18">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AE18">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AF18">
+        <v>16</v>
+      </c>
+      <c r="AG18">
+        <v>18</v>
+      </c>
+      <c r="AH18">
+        <v>44</v>
+      </c>
+      <c r="AI18">
+        <v>55</v>
+      </c>
+      <c r="AJ18">
+        <v>11</v>
+      </c>
+      <c r="AK18">
+        <v>12.5</v>
+      </c>
+      <c r="AL18">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>16.5</v>
+      </c>
+      <c r="AO18">
+        <v>18</v>
+      </c>
+      <c r="AP18">
+        <v>46</v>
+      </c>
+      <c r="AQ18">
+        <v>55</v>
+      </c>
+      <c r="AR18">
+        <v>18.5</v>
+      </c>
+      <c r="AS18">
+        <v>20</v>
+      </c>
+      <c r="AT18">
+        <v>16</v>
+      </c>
+      <c r="AU18">
+        <v>17.5</v>
+      </c>
+      <c r="AV18">
+        <v>27</v>
+      </c>
+      <c r="AW18">
+        <v>30</v>
+      </c>
+      <c r="AX18">
+        <v>15.5</v>
+      </c>
+      <c r="AY18">
+        <v>85</v>
+      </c>
+      <c r="AZ18">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA18">
+        <v>10</v>
+      </c>
+      <c r="BB18">
         <v>13</v>
       </c>
-      <c r="AG18">
-        <v>22</v>
-      </c>
-      <c r="AH18">
-        <v>1.03</v>
-      </c>
-      <c r="AI18">
-        <v>60</v>
-      </c>
-      <c r="AJ18">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK18">
-        <v>15</v>
-      </c>
-      <c r="AL18">
-        <v>9</v>
-      </c>
-      <c r="AM18">
-        <v>12.5</v>
-      </c>
-      <c r="AN18">
-        <v>13</v>
-      </c>
-      <c r="AO18">
-        <v>23</v>
-      </c>
-      <c r="AP18">
-        <v>1.03</v>
-      </c>
-      <c r="AQ18">
-        <v>65</v>
-      </c>
-      <c r="AR18">
-        <v>15</v>
-      </c>
-      <c r="AS18">
-        <v>25</v>
-      </c>
-      <c r="AT18">
-        <v>13</v>
-      </c>
-      <c r="AU18">
-        <v>22</v>
-      </c>
-      <c r="AV18">
-        <v>22</v>
-      </c>
-      <c r="AW18">
-        <v>38</v>
-      </c>
-      <c r="AX18">
-        <v>1.03</v>
-      </c>
-      <c r="AY18">
-        <v>110</v>
-      </c>
-      <c r="AZ18">
-        <v>1.01</v>
-      </c>
-      <c r="BA18">
-        <v>12</v>
-      </c>
-      <c r="BB18">
-        <v>1.01</v>
-      </c>
       <c r="BC18">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="BD18">
-        <v>1.03</v>
+        <v>34</v>
       </c>
       <c r="BE18">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="BF18" t="s">
         <v>219</v>
@@ -5179,160 +5179,160 @@
         <v>178</v>
       </c>
       <c r="F19">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G19">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H19">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I19">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J19">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K19">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M19">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="N19">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P19">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q19">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R19">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S19">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T19">
         <v>14.5</v>
       </c>
       <c r="U19">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="V19">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="W19">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="X19">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Y19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z19">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="AA19">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB19">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC19">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD19">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE19">
         <v>9</v>
       </c>
       <c r="AF19">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG19">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH19">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="AI19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ19">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK19">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL19">
         <v>9.4</v>
       </c>
       <c r="AM19">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AN19">
-        <v>3.35</v>
+        <v>17</v>
       </c>
       <c r="AO19">
         <v>18.5</v>
       </c>
       <c r="AP19">
-        <v>3.8</v>
+        <v>13.5</v>
       </c>
       <c r="AQ19">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR19">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AS19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT19">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU19">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AV19">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AW19">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX19">
-        <v>3.9</v>
+        <v>15</v>
       </c>
       <c r="AY19">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA19">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB19">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="BC19">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BD19">
-        <v>7.4</v>
+        <v>36</v>
       </c>
       <c r="BE19">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="BF19" t="s">
         <v>220</v>
@@ -5376,157 +5376,157 @@
         <v>179</v>
       </c>
       <c r="F20">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="G20">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="H20">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="I20">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J20">
+        <v>3.6</v>
+      </c>
+      <c r="K20">
+        <v>4.1</v>
+      </c>
+      <c r="L20">
+        <v>1.68</v>
+      </c>
+      <c r="M20">
+        <v>1.9</v>
+      </c>
+      <c r="N20">
+        <v>2.12</v>
+      </c>
+      <c r="O20">
+        <v>2.48</v>
+      </c>
+      <c r="P20">
+        <v>2.02</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>1.72</v>
+      </c>
+      <c r="S20">
+        <v>1.98</v>
+      </c>
+      <c r="T20">
+        <v>9.4</v>
+      </c>
+      <c r="U20">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <v>4.6</v>
+      </c>
+      <c r="W20">
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <v>4.1</v>
+      </c>
+      <c r="Y20">
+        <v>55</v>
+      </c>
+      <c r="Z20">
+        <v>4.2</v>
+      </c>
+      <c r="AA20">
+        <v>210</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>8.6</v>
+      </c>
+      <c r="AD20">
+        <v>7.6</v>
+      </c>
+      <c r="AE20">
+        <v>10.5</v>
+      </c>
+      <c r="AF20">
         <v>3.85</v>
       </c>
-      <c r="K20">
-        <v>4.5</v>
-      </c>
-      <c r="L20">
-        <v>1.71</v>
-      </c>
-      <c r="M20">
-        <v>1.93</v>
-      </c>
-      <c r="N20">
-        <v>2.06</v>
-      </c>
-      <c r="O20">
-        <v>2.42</v>
-      </c>
-      <c r="P20">
-        <v>2.14</v>
-      </c>
-      <c r="Q20">
-        <v>2.56</v>
-      </c>
-      <c r="R20">
-        <v>1.64</v>
-      </c>
-      <c r="S20">
-        <v>1.88</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>14.5</v>
-      </c>
-      <c r="V20">
-        <v>3.8</v>
-      </c>
-      <c r="W20">
-        <v>25</v>
-      </c>
-      <c r="X20">
+      <c r="AG20">
+        <v>36</v>
+      </c>
+      <c r="AH20">
         <v>4.2</v>
       </c>
-      <c r="Y20">
-        <v>80</v>
-      </c>
-      <c r="Z20">
-        <v>4.4</v>
-      </c>
-      <c r="AA20">
-        <v>1000</v>
-      </c>
-      <c r="AB20">
-        <v>5.6</v>
-      </c>
-      <c r="AC20">
-        <v>8</v>
-      </c>
-      <c r="AD20">
-        <v>7.2</v>
-      </c>
-      <c r="AE20">
+      <c r="AI20">
+        <v>120</v>
+      </c>
+      <c r="AJ20">
+        <v>7.6</v>
+      </c>
+      <c r="AK20">
         <v>11.5</v>
       </c>
-      <c r="AF20">
-        <v>4</v>
-      </c>
-      <c r="AG20">
-        <v>38</v>
-      </c>
-      <c r="AH20">
-        <v>4.3</v>
-      </c>
-      <c r="AI20">
-        <v>1000</v>
-      </c>
-      <c r="AJ20">
-        <v>6.6</v>
-      </c>
-      <c r="AK20">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AL20">
-        <v>3.4</v>
+        <v>8.6</v>
       </c>
       <c r="AM20">
         <v>13</v>
       </c>
       <c r="AN20">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP20">
+        <v>4.2</v>
+      </c>
+      <c r="AQ20">
+        <v>140</v>
+      </c>
+      <c r="AR20">
+        <v>14</v>
+      </c>
+      <c r="AS20">
+        <v>22</v>
+      </c>
+      <c r="AT20">
+        <v>4.8</v>
+      </c>
+      <c r="AU20">
+        <v>26</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>60</v>
+      </c>
+      <c r="AX20">
+        <v>4.2</v>
+      </c>
+      <c r="AY20">
+        <v>230</v>
+      </c>
+      <c r="AZ20">
+        <v>3.45</v>
+      </c>
+      <c r="BA20">
+        <v>17</v>
+      </c>
+      <c r="BB20">
+        <v>4.2</v>
+      </c>
+      <c r="BC20">
+        <v>180</v>
+      </c>
+      <c r="BD20">
         <v>4.3</v>
-      </c>
-      <c r="AQ20">
-        <v>1000</v>
-      </c>
-      <c r="AR20">
-        <v>10.5</v>
-      </c>
-      <c r="AS20">
-        <v>17.5</v>
-      </c>
-      <c r="AT20">
-        <v>3.75</v>
-      </c>
-      <c r="AU20">
-        <v>24</v>
-      </c>
-      <c r="AV20">
-        <v>4.1</v>
-      </c>
-      <c r="AW20">
-        <v>65</v>
-      </c>
-      <c r="AX20">
-        <v>4.3</v>
-      </c>
-      <c r="AY20">
-        <v>1000</v>
-      </c>
-      <c r="AZ20">
-        <v>3.35</v>
-      </c>
-      <c r="BA20">
-        <v>14</v>
-      </c>
-      <c r="BB20">
-        <v>4.3</v>
-      </c>
-      <c r="BC20">
-        <v>1000</v>
-      </c>
-      <c r="BD20">
-        <v>4.4</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5573,34 +5573,34 @@
         <v>180</v>
       </c>
       <c r="F21">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="G21">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="H21">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J21">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="K21">
-        <v>950</v>
+        <v>14</v>
       </c>
       <c r="L21">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="M21">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O21">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="P21">
         <v>1.12</v>
@@ -5791,13 +5791,13 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="N22">
         <v>1.73</v>
       </c>
       <c r="O22">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>1.8</v>
@@ -5812,31 +5812,31 @@
         <v>2.94</v>
       </c>
       <c r="T22">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="U22">
         <v>18.5</v>
       </c>
       <c r="V22">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="W22">
         <v>10.5</v>
       </c>
       <c r="X22">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y22">
         <v>11.5</v>
       </c>
       <c r="Z22">
-        <v>1.46</v>
+        <v>2.42</v>
       </c>
       <c r="AA22">
         <v>19</v>
       </c>
       <c r="AB22">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AC22">
         <v>23</v>
@@ -5845,7 +5845,7 @@
         <v>4.1</v>
       </c>
       <c r="AE22">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF22">
         <v>4.1</v>
@@ -5854,73 +5854,73 @@
         <v>11</v>
       </c>
       <c r="AH22">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AI22">
         <v>19</v>
       </c>
       <c r="AJ22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AK22">
         <v>1000</v>
       </c>
       <c r="AL22">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AM22">
         <v>24</v>
       </c>
       <c r="AN22">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="AO22">
         <v>23</v>
       </c>
       <c r="AP22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1000</v>
       </c>
       <c r="AR22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AS22">
         <v>1000</v>
       </c>
       <c r="AT22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1000</v>
       </c>
       <c r="AV22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AW22">
         <v>1000</v>
       </c>
       <c r="AX22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AY22">
         <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="BA22">
         <v>1000</v>
       </c>
       <c r="BB22">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="BC22">
         <v>10.5</v>
       </c>
       <c r="BD22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5967,7 +5967,7 @@
         <v>182</v>
       </c>
       <c r="F23">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G23">
         <v>2.44</v>
@@ -5976,40 +5976,40 @@
         <v>3.2</v>
       </c>
       <c r="I23">
+        <v>3.45</v>
+      </c>
+      <c r="J23">
         <v>3.5</v>
-      </c>
-      <c r="J23">
-        <v>3.4</v>
       </c>
       <c r="K23">
         <v>3.6</v>
       </c>
       <c r="L23">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="M23">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N23">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O23">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P23">
         <v>1.78</v>
       </c>
       <c r="Q23">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T23">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="U23">
         <v>14</v>
@@ -6021,19 +6021,19 @@
         <v>13</v>
       </c>
       <c r="X23">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="Y23">
         <v>23</v>
       </c>
       <c r="Z23">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AA23">
         <v>60</v>
       </c>
       <c r="AB23">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC23">
         <v>11</v>
@@ -6051,13 +6051,13 @@
         <v>14.5</v>
       </c>
       <c r="AH23">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ23">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK23">
         <v>15.5</v>
@@ -6075,19 +6075,19 @@
         <v>18.5</v>
       </c>
       <c r="AP23">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ23">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AR23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS23">
         <v>32</v>
       </c>
       <c r="AT23">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AU23">
         <v>26</v>
@@ -6096,28 +6096,28 @@
         <v>29</v>
       </c>
       <c r="AW23">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AX23">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AY23">
         <v>100</v>
       </c>
       <c r="AZ23">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA23">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="BB23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BD23">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -6167,22 +6167,22 @@
         <v>4.8</v>
       </c>
       <c r="G24">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H24">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I24">
         <v>1.71</v>
       </c>
       <c r="J24">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L24">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="M24">
         <v>2.68</v>
@@ -6191,22 +6191,22 @@
         <v>1.59</v>
       </c>
       <c r="O24">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P24">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q24">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R24">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S24">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T24">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="U24">
         <v>23</v>
@@ -6215,7 +6215,7 @@
         <v>10</v>
       </c>
       <c r="W24">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="X24">
         <v>10.5</v>
@@ -6224,22 +6224,22 @@
         <v>12</v>
       </c>
       <c r="Z24">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA24">
         <v>18.5</v>
       </c>
       <c r="AB24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC24">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AD24">
         <v>9.6</v>
       </c>
       <c r="AE24">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF24">
         <v>9.199999999999999</v>
@@ -6266,37 +6266,37 @@
         <v>19.5</v>
       </c>
       <c r="AN24">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO24">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ24">
         <v>28</v>
       </c>
       <c r="AR24">
+        <v>14</v>
+      </c>
+      <c r="AS24">
+        <v>160</v>
+      </c>
+      <c r="AT24">
+        <v>40</v>
+      </c>
+      <c r="AU24">
+        <v>85</v>
+      </c>
+      <c r="AV24">
+        <v>40</v>
+      </c>
+      <c r="AW24">
+        <v>90</v>
+      </c>
+      <c r="AX24">
         <v>13.5</v>
-      </c>
-      <c r="AS24">
-        <v>110</v>
-      </c>
-      <c r="AT24">
-        <v>12</v>
-      </c>
-      <c r="AU24">
-        <v>60</v>
-      </c>
-      <c r="AV24">
-        <v>12</v>
-      </c>
-      <c r="AW24">
-        <v>60</v>
-      </c>
-      <c r="AX24">
-        <v>13</v>
       </c>
       <c r="AY24">
         <v>85</v>
@@ -6305,16 +6305,16 @@
         <v>11.5</v>
       </c>
       <c r="BA24">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="BB24">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="BC24">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BD24">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6361,31 +6361,31 @@
         <v>184</v>
       </c>
       <c r="F25">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G25">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="H25">
         <v>3.5</v>
       </c>
       <c r="I25">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J25">
         <v>3.65</v>
       </c>
       <c r="K25">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L25">
         <v>2.14</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N25">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O25">
         <v>1.88</v>
@@ -6433,7 +6433,7 @@
         <v>14.5</v>
       </c>
       <c r="AD25">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE25">
         <v>11.5</v>
@@ -6558,25 +6558,25 @@
         <v>185</v>
       </c>
       <c r="F26">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="G26">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L26">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M26">
         <v>1.71</v>
@@ -6591,7 +6591,7 @@
         <v>2.08</v>
       </c>
       <c r="Q26">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R26">
         <v>1.79</v>
@@ -6609,16 +6609,16 @@
         <v>4.4</v>
       </c>
       <c r="W26">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X26">
-        <v>1.68</v>
+        <v>4.2</v>
       </c>
       <c r="Y26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z26">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AA26">
         <v>1000</v>
@@ -6627,7 +6627,7 @@
         <v>3.8</v>
       </c>
       <c r="AC26">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD26">
         <v>3.7</v>
@@ -6639,10 +6639,10 @@
         <v>5</v>
       </c>
       <c r="AG26">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH26">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="AI26">
         <v>1000</v>
@@ -6651,7 +6651,7 @@
         <v>4.6</v>
       </c>
       <c r="AK26">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL26">
         <v>4.5</v>
@@ -6666,49 +6666,49 @@
         <v>26</v>
       </c>
       <c r="AP26">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
         <v>1000</v>
       </c>
       <c r="AR26">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AS26">
+        <v>36</v>
+      </c>
+      <c r="AT26">
+        <v>1.57</v>
+      </c>
+      <c r="AU26">
+        <v>36</v>
+      </c>
+      <c r="AV26">
+        <v>1.52</v>
+      </c>
+      <c r="AW26">
+        <v>1000</v>
+      </c>
+      <c r="AX26">
+        <v>1.18</v>
+      </c>
+      <c r="AY26">
+        <v>1000</v>
+      </c>
+      <c r="AZ26">
+        <v>1.14</v>
+      </c>
+      <c r="BA26">
         <v>34</v>
       </c>
-      <c r="AT26">
-        <v>1.7</v>
-      </c>
-      <c r="AU26">
-        <v>34</v>
-      </c>
-      <c r="AV26">
-        <v>1.34</v>
-      </c>
-      <c r="AW26">
-        <v>1000</v>
-      </c>
-      <c r="AX26">
-        <v>1.3</v>
-      </c>
-      <c r="AY26">
-        <v>1000</v>
-      </c>
-      <c r="AZ26">
-        <v>1.25</v>
-      </c>
-      <c r="BA26">
-        <v>32</v>
-      </c>
       <c r="BB26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BC26">
         <v>1000</v>
       </c>
       <c r="BD26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6761,43 +6761,43 @@
         <v>2.12</v>
       </c>
       <c r="H27">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I27">
         <v>4.8</v>
       </c>
       <c r="J27">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M27">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="N27">
         <v>2.5</v>
       </c>
       <c r="O27">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="P27">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
       </c>
       <c r="R27">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T27">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U27">
         <v>8.800000000000001</v>
@@ -6806,7 +6806,7 @@
         <v>11</v>
       </c>
       <c r="W27">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X27">
         <v>27</v>
@@ -6815,13 +6815,13 @@
         <v>32</v>
       </c>
       <c r="Z27">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA27">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB27">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC27">
         <v>7.2</v>
@@ -6833,16 +6833,16 @@
         <v>7.6</v>
       </c>
       <c r="AF27">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG27">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH27">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AI27">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ27">
         <v>10</v>
@@ -6857,25 +6857,25 @@
         <v>11.5</v>
       </c>
       <c r="AN27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AQ27">
         <v>110</v>
       </c>
       <c r="AR27">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AS27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27">
         <v>28</v>
@@ -6887,25 +6887,25 @@
         <v>60</v>
       </c>
       <c r="AX27">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY27">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AZ27">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BA27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BC27">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD27">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6955,16 +6955,16 @@
         <v>4.5</v>
       </c>
       <c r="G28">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I28">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J28">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K28">
         <v>4.1</v>
@@ -6994,40 +6994,40 @@
         <v>2.22</v>
       </c>
       <c r="T28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U28">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V28">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="W28">
+        <v>10.5</v>
+      </c>
+      <c r="X28">
         <v>10</v>
-      </c>
-      <c r="X28">
-        <v>9.4</v>
       </c>
       <c r="Y28">
         <v>12.5</v>
       </c>
       <c r="Z28">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB28">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC28">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD28">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE28">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF28">
         <v>8.4</v>
@@ -7036,7 +7036,7 @@
         <v>11.5</v>
       </c>
       <c r="AH28">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI28">
         <v>21</v>
@@ -7045,64 +7045,64 @@
         <v>26</v>
       </c>
       <c r="AK28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL28">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AM28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN28">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO28">
         <v>22</v>
       </c>
       <c r="AP28">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ28">
         <v>40</v>
       </c>
       <c r="AR28">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AS28">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT28">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AU28">
         <v>65</v>
       </c>
       <c r="AV28">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AW28">
         <v>70</v>
       </c>
       <c r="AX28">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AY28">
         <v>120</v>
       </c>
       <c r="AZ28">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="BA28">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB28">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="BC28">
         <v>13</v>
       </c>
       <c r="BD28">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -7149,25 +7149,25 @@
         <v>188</v>
       </c>
       <c r="F29">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G29">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="H29">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I29">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J29">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="M29">
         <v>1.7</v>
@@ -7176,25 +7176,25 @@
         <v>2.44</v>
       </c>
       <c r="O29">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="P29">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S29">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T29">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U29">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V29">
         <v>10</v>
@@ -7209,52 +7209,52 @@
         <v>22</v>
       </c>
       <c r="Z29">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA29">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB29">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD29">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE29">
         <v>7</v>
       </c>
       <c r="AF29">
+        <v>13.5</v>
+      </c>
+      <c r="AG29">
+        <v>14.5</v>
+      </c>
+      <c r="AH29">
+        <v>42</v>
+      </c>
+      <c r="AI29">
+        <v>48</v>
+      </c>
+      <c r="AJ29">
+        <v>13</v>
+      </c>
+      <c r="AK29">
         <v>14</v>
       </c>
-      <c r="AG29">
-        <v>15.5</v>
-      </c>
-      <c r="AH29">
-        <v>44</v>
-      </c>
-      <c r="AI29">
-        <v>50</v>
-      </c>
-      <c r="AJ29">
+      <c r="AL29">
+        <v>11.5</v>
+      </c>
+      <c r="AM29">
         <v>12.5</v>
       </c>
-      <c r="AK29">
-        <v>13.5</v>
-      </c>
-      <c r="AL29">
-        <v>11</v>
-      </c>
-      <c r="AM29">
-        <v>12</v>
-      </c>
       <c r="AN29">
+        <v>18.5</v>
+      </c>
+      <c r="AO29">
         <v>20</v>
-      </c>
-      <c r="AO29">
-        <v>21</v>
       </c>
       <c r="AP29">
         <v>60</v>
@@ -7266,7 +7266,7 @@
         <v>30</v>
       </c>
       <c r="AS29">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT29">
         <v>28</v>
@@ -7281,10 +7281,10 @@
         <v>55</v>
       </c>
       <c r="AX29">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AY29">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AZ29">
         <v>25</v>
@@ -7296,7 +7296,7 @@
         <v>48</v>
       </c>
       <c r="BC29">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BD29">
         <v>60</v>
@@ -7346,157 +7346,157 @@
         <v>189</v>
       </c>
       <c r="F30">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="G30">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="I30">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J30">
         <v>3.3</v>
       </c>
       <c r="K30">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="M30">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="N30">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="P30">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q30">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="R30">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S30">
         <v>2.22</v>
       </c>
       <c r="T30">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="U30">
         <v>13.5</v>
       </c>
       <c r="V30">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="W30">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X30">
-        <v>1.03</v>
+        <v>1.99</v>
       </c>
       <c r="Y30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z30">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="AA30">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB30">
-        <v>1.03</v>
+        <v>1.99</v>
       </c>
       <c r="AC30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD30">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AE30">
         <v>8.6</v>
       </c>
       <c r="AF30">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AG30">
         <v>13</v>
       </c>
       <c r="AH30">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="AI30">
         <v>32</v>
       </c>
       <c r="AJ30">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="AK30">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL30">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="AM30">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AN30">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="AO30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP30">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="AQ30">
         <v>1000</v>
       </c>
       <c r="AR30">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="AS30">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AT30">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="AU30">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AV30">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="AW30">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX30">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="AY30">
         <v>1000</v>
       </c>
       <c r="AZ30">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="BA30">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="BB30">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="BC30">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BD30">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7546,7 +7546,7 @@
         <v>1.3</v>
       </c>
       <c r="G31">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -7570,16 +7570,16 @@
         <v>1.61</v>
       </c>
       <c r="O31">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P31">
         <v>2</v>
       </c>
       <c r="Q31">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R31">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -7597,13 +7597,13 @@
         <v>40</v>
       </c>
       <c r="X31">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y31">
         <v>110</v>
       </c>
       <c r="Z31">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA31">
         <v>410</v>
@@ -7618,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="AE31">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF31">
         <v>6.8</v>
@@ -7627,7 +7627,7 @@
         <v>44</v>
       </c>
       <c r="AH31">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI31">
         <v>180</v>
@@ -7651,7 +7651,7 @@
         <v>34</v>
       </c>
       <c r="AP31">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ31">
         <v>150</v>
@@ -7675,7 +7675,7 @@
         <v>40</v>
       </c>
       <c r="AX31">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY31">
         <v>180</v>
@@ -7693,7 +7693,7 @@
         <v>230</v>
       </c>
       <c r="BD31">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7740,16 +7740,16 @@
         <v>191</v>
       </c>
       <c r="F32">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G32">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H32">
+        <v>1.68</v>
+      </c>
+      <c r="I32">
         <v>1.7</v>
-      </c>
-      <c r="I32">
-        <v>1.72</v>
       </c>
       <c r="J32">
         <v>4.4</v>
@@ -7758,7 +7758,7 @@
         <v>4.5</v>
       </c>
       <c r="L32">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="M32">
         <v>2.24</v>
@@ -7767,7 +7767,7 @@
         <v>1.81</v>
       </c>
       <c r="O32">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P32">
         <v>1.87</v>
@@ -7782,7 +7782,7 @@
         <v>2.16</v>
       </c>
       <c r="T32">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U32">
         <v>17</v>
@@ -7800,10 +7800,10 @@
         <v>10.5</v>
       </c>
       <c r="Z32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA32">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="AB32">
         <v>18.5</v>
@@ -7812,16 +7812,16 @@
         <v>22</v>
       </c>
       <c r="AD32">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE32">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AF32">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG32">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH32">
         <v>15.5</v>
@@ -7860,7 +7860,7 @@
         <v>140</v>
       </c>
       <c r="AT32">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AU32">
         <v>70</v>
@@ -7872,7 +7872,7 @@
         <v>70</v>
       </c>
       <c r="AX32">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AY32">
         <v>100</v>
@@ -7884,13 +7884,13 @@
         <v>75</v>
       </c>
       <c r="BB32">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BC32">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BD32">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7937,37 +7937,37 @@
         <v>192</v>
       </c>
       <c r="F33">
+        <v>1.37</v>
+      </c>
+      <c r="G33">
         <v>1.38</v>
       </c>
-      <c r="G33">
-        <v>1.39</v>
-      </c>
       <c r="H33">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I33">
         <v>9.800000000000001</v>
       </c>
       <c r="J33">
+        <v>5.7</v>
+      </c>
+      <c r="K33">
         <v>5.8</v>
       </c>
-      <c r="K33">
-        <v>5.9</v>
-      </c>
       <c r="L33">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="M33">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="N33">
         <v>1.68</v>
       </c>
       <c r="O33">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P33">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q33">
         <v>2.08</v>
@@ -7976,13 +7976,13 @@
         <v>1.92</v>
       </c>
       <c r="S33">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="U33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V33">
         <v>30</v>
@@ -7991,13 +7991,13 @@
         <v>34</v>
       </c>
       <c r="X33">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y33">
         <v>85</v>
       </c>
       <c r="Z33">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA33">
         <v>340</v>
@@ -8021,10 +8021,10 @@
         <v>36</v>
       </c>
       <c r="AH33">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI33">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ33">
         <v>7.8</v>
@@ -8033,13 +8033,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AL33">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM33">
         <v>9.800000000000001</v>
       </c>
       <c r="AN33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO33">
         <v>28</v>
@@ -8048,7 +8048,7 @@
         <v>100</v>
       </c>
       <c r="AQ33">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AR33">
         <v>10.5</v>
@@ -8057,7 +8057,7 @@
         <v>11.5</v>
       </c>
       <c r="AT33">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AU33">
         <v>14</v>
@@ -8075,7 +8075,7 @@
         <v>150</v>
       </c>
       <c r="AZ33">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BA33">
         <v>5.6</v>
@@ -8087,7 +8087,7 @@
         <v>170</v>
       </c>
       <c r="BD33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>32</v>
       </c>
       <c r="Z34">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AA34">
         <v>80</v>
@@ -8218,7 +8218,7 @@
         <v>18</v>
       </c>
       <c r="AH34">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AI34">
         <v>50</v>
@@ -8242,7 +8242,7 @@
         <v>22</v>
       </c>
       <c r="AP34">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AQ34">
         <v>65</v>
@@ -8260,31 +8260,31 @@
         <v>29</v>
       </c>
       <c r="AV34">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AW34">
         <v>46</v>
       </c>
       <c r="AX34">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AY34">
         <v>120</v>
       </c>
       <c r="AZ34">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BA34">
         <v>21</v>
       </c>
       <c r="BB34">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BC34">
         <v>48</v>
       </c>
       <c r="BD34">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -8349,16 +8349,16 @@
         <v>950</v>
       </c>
       <c r="L35">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="M35">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="N35">
         <v>1.07</v>
       </c>
       <c r="O35">
-        <v>26</v>
+        <v>6.4</v>
       </c>
       <c r="P35">
         <v>1.12</v>
@@ -8528,16 +8528,16 @@
         <v>195</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G36">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J36">
         <v>3.4</v>
@@ -8564,7 +8564,7 @@
         <v>2.28</v>
       </c>
       <c r="R36">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S36">
         <v>1.9</v>
@@ -8573,22 +8573,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="U36">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V36">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W36">
         <v>980</v>
       </c>
       <c r="X36">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y36">
         <v>980</v>
       </c>
       <c r="Z36">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA36">
         <v>1000</v>
@@ -8606,19 +8606,19 @@
         <v>9</v>
       </c>
       <c r="AF36">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG36">
         <v>980</v>
       </c>
       <c r="AH36">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI36">
         <v>980</v>
       </c>
       <c r="AJ36">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AK36">
         <v>12</v>
@@ -8630,55 +8630,55 @@
         <v>12</v>
       </c>
       <c r="AN36">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO36">
         <v>980</v>
       </c>
       <c r="AP36">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AQ36">
         <v>980</v>
       </c>
       <c r="AR36">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AS36">
         <v>980</v>
       </c>
       <c r="AT36">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AU36">
         <v>980</v>
       </c>
       <c r="AV36">
+        <v>6.4</v>
+      </c>
+      <c r="AW36">
+        <v>1000</v>
+      </c>
+      <c r="AX36">
         <v>6.2</v>
       </c>
-      <c r="AW36">
-        <v>1000</v>
-      </c>
-      <c r="AX36">
-        <v>6</v>
-      </c>
       <c r="AY36">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ36">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BA36">
         <v>980</v>
       </c>
       <c r="BB36">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BC36">
         <v>980</v>
       </c>
       <c r="BD36">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8731,151 +8731,151 @@
         <v>3.25</v>
       </c>
       <c r="H37">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I37">
         <v>2.76</v>
       </c>
       <c r="J37">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>3.1</v>
       </c>
       <c r="L37">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M37">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="N37">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P37">
         <v>2.18</v>
       </c>
       <c r="Q37">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R37">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T37">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V37">
         <v>7.2</v>
       </c>
       <c r="W37">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="X37">
         <v>14</v>
       </c>
       <c r="Y37">
+        <v>17</v>
+      </c>
+      <c r="Z37">
+        <v>38</v>
+      </c>
+      <c r="AA37">
+        <v>46</v>
+      </c>
+      <c r="AB37">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC37">
+        <v>9.4</v>
+      </c>
+      <c r="AD37">
+        <v>6.6</v>
+      </c>
+      <c r="AE37">
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <v>12</v>
+      </c>
+      <c r="AG37">
+        <v>14</v>
+      </c>
+      <c r="AH37">
+        <v>34</v>
+      </c>
+      <c r="AI37">
+        <v>44</v>
+      </c>
+      <c r="AJ37">
         <v>17.5</v>
       </c>
-      <c r="Z37">
-        <v>7.8</v>
-      </c>
-      <c r="AA37">
-        <v>980</v>
-      </c>
-      <c r="AB37">
-        <v>8</v>
-      </c>
-      <c r="AC37">
-        <v>980</v>
-      </c>
-      <c r="AD37">
-        <v>6.4</v>
-      </c>
-      <c r="AE37">
-        <v>7.2</v>
-      </c>
-      <c r="AF37">
-        <v>11.5</v>
-      </c>
-      <c r="AG37">
-        <v>14.5</v>
-      </c>
-      <c r="AH37">
-        <v>32</v>
-      </c>
-      <c r="AI37">
-        <v>980</v>
-      </c>
-      <c r="AJ37">
-        <v>17</v>
-      </c>
       <c r="AK37">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL37">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM37">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN37">
         <v>21</v>
       </c>
       <c r="AO37">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP37">
         <v>55</v>
       </c>
       <c r="AQ37">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AR37">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AS37">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AT37">
         <v>40</v>
       </c>
       <c r="AU37">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AV37">
-        <v>8.4</v>
+        <v>65</v>
       </c>
       <c r="AW37">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AX37">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AY37">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AZ37">
-        <v>3.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA37">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="BB37">
-        <v>7.6</v>
+        <v>32</v>
       </c>
       <c r="BC37">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BD37">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8922,25 +8922,25 @@
         <v>197</v>
       </c>
       <c r="F38">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="G38">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="H38">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="I38">
-        <v>870</v>
+        <v>38</v>
       </c>
       <c r="J38">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="K38">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L38">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="M38">
         <v>980</v>
@@ -8949,7 +8949,7 @@
         <v>1.09</v>
       </c>
       <c r="O38">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="P38">
         <v>1.12</v>
@@ -9125,10 +9125,10 @@
         <v>1000</v>
       </c>
       <c r="H39">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I39">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J39">
         <v>1.21</v>
@@ -9137,16 +9137,16 @@
         <v>330</v>
       </c>
       <c r="L39">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="M39">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="N39">
         <v>1.06</v>
       </c>
       <c r="O39">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="P39">
         <v>1.12</v>
@@ -9173,13 +9173,13 @@
         <v>1000</v>
       </c>
       <c r="X39">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="Y39">
         <v>1000</v>
       </c>
       <c r="Z39">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="AA39">
         <v>1000</v>
@@ -9197,13 +9197,13 @@
         <v>1000</v>
       </c>
       <c r="AF39">
-        <v>1.03</v>
+        <v>5.5</v>
       </c>
       <c r="AG39">
         <v>1000</v>
       </c>
       <c r="AH39">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AI39">
         <v>1000</v>
@@ -9221,13 +9221,13 @@
         <v>1000</v>
       </c>
       <c r="AN39">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="AO39">
         <v>1000</v>
       </c>
       <c r="AP39">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AQ39">
         <v>1000</v>
@@ -9239,19 +9239,19 @@
         <v>1000</v>
       </c>
       <c r="AT39">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AU39">
         <v>1000</v>
       </c>
       <c r="AV39">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW39">
         <v>1000</v>
       </c>
       <c r="AX39">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AY39">
         <v>1000</v>
@@ -9319,13 +9319,13 @@
         <v>1.35</v>
       </c>
       <c r="G40">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H40">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I40">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J40">
         <v>4.6</v>
@@ -9334,16 +9334,16 @@
         <v>5.8</v>
       </c>
       <c r="L40">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="M40">
         <v>2.08</v>
       </c>
       <c r="N40">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O40">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="P40">
         <v>2.24</v>
@@ -9367,16 +9367,16 @@
         <v>5.3</v>
       </c>
       <c r="W40">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X40">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="Y40">
         <v>1000</v>
       </c>
       <c r="Z40">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AA40">
         <v>1000</v>
@@ -9394,13 +9394,13 @@
         <v>13</v>
       </c>
       <c r="AF40">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="AG40">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH40">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AI40">
         <v>1000</v>
@@ -9412,61 +9412,61 @@
         <v>8</v>
       </c>
       <c r="AL40">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AM40">
         <v>12</v>
       </c>
       <c r="AN40">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AO40">
         <v>40</v>
       </c>
       <c r="AP40">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AQ40">
         <v>1000</v>
       </c>
       <c r="AR40">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AS40">
         <v>12.5</v>
       </c>
       <c r="AT40">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AU40">
         <v>19</v>
       </c>
       <c r="AV40">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AW40">
         <v>60</v>
       </c>
       <c r="AX40">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AY40">
         <v>1000</v>
       </c>
       <c r="AZ40">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="BA40">
         <v>8.4</v>
       </c>
       <c r="BB40">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="BC40">
         <v>1000</v>
       </c>
       <c r="BD40">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -9513,34 +9513,34 @@
         <v>200</v>
       </c>
       <c r="F41">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="G41">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="H41">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I41">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="J41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K41">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L41">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="M41">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="N41">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="O41">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="P41">
         <v>1.57</v>
@@ -9555,19 +9555,19 @@
         <v>2.76</v>
       </c>
       <c r="T41">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="U41">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W41">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="X41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Y41">
         <v>1000</v>
@@ -9579,22 +9579,22 @@
         <v>1000</v>
       </c>
       <c r="AB41">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AC41">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD41">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="AE41">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AF41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG41">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AH41">
         <v>1.03</v>
@@ -9603,22 +9603,22 @@
         <v>1000</v>
       </c>
       <c r="AJ41">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AK41">
+        <v>13</v>
+      </c>
+      <c r="AL41">
+        <v>1.09</v>
+      </c>
+      <c r="AM41">
         <v>12</v>
       </c>
-      <c r="AL41">
-        <v>1.03</v>
-      </c>
-      <c r="AM41">
-        <v>11.5</v>
-      </c>
       <c r="AN41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AO41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP41">
         <v>1.03</v>
@@ -9627,19 +9627,19 @@
         <v>1000</v>
       </c>
       <c r="AR41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AS41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AU41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV41">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AW41">
         <v>1000</v>
@@ -9651,13 +9651,13 @@
         <v>1000</v>
       </c>
       <c r="AZ41">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA41">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="BB41">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC41">
         <v>1000</v>
@@ -9710,157 +9710,157 @@
         <v>201</v>
       </c>
       <c r="F42">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G42">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I42">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J42">
         <v>3.7</v>
       </c>
       <c r="K42">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L42">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="M42">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N42">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O42">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="P42">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q42">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R42">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S42">
         <v>2.32</v>
       </c>
       <c r="T42">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="U42">
         <v>19</v>
       </c>
       <c r="V42">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="W42">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X42">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="Y42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z42">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AA42">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB42">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AC42">
         <v>12.5</v>
       </c>
       <c r="AD42">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="AE42">
         <v>11</v>
       </c>
       <c r="AF42">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="AG42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH42">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AI42">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ42">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="AK42">
         <v>16.5</v>
       </c>
       <c r="AL42">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="AM42">
         <v>13</v>
       </c>
       <c r="AN42">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="AO42">
         <v>23</v>
       </c>
       <c r="AP42">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AQ42">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR42">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="AS42">
         <v>32</v>
       </c>
       <c r="AT42">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AU42">
         <v>27</v>
       </c>
       <c r="AV42">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AW42">
         <v>44</v>
       </c>
       <c r="AX42">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AY42">
         <v>1000</v>
       </c>
       <c r="AZ42">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BA42">
         <v>17.5</v>
       </c>
       <c r="BB42">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC42">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD42">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="BE42">
         <v>1000</v>
@@ -9907,25 +9907,25 @@
         <v>202</v>
       </c>
       <c r="F43">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G43">
         <v>4.8</v>
       </c>
       <c r="H43">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I43">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J43">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K43">
-        <v>330</v>
+        <v>4.9</v>
       </c>
       <c r="L43">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M43">
         <v>2.16</v>
@@ -9934,7 +9934,7 @@
         <v>1.86</v>
       </c>
       <c r="O43">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="P43">
         <v>1.72</v>
@@ -9946,88 +9946,88 @@
         <v>1.12</v>
       </c>
       <c r="S43">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="T43">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="U43">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V43">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="W43">
         <v>12</v>
       </c>
       <c r="X43">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y43">
         <v>16</v>
       </c>
       <c r="Z43">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AA43">
         <v>1000</v>
       </c>
       <c r="AB43">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC43">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD43">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AE43">
         <v>10.5</v>
       </c>
       <c r="AF43">
+        <v>1.07</v>
+      </c>
+      <c r="AG43">
+        <v>13</v>
+      </c>
+      <c r="AH43">
+        <v>1.04</v>
+      </c>
+      <c r="AI43">
+        <v>1000</v>
+      </c>
+      <c r="AJ43">
         <v>1.03</v>
       </c>
-      <c r="AG43">
-        <v>13.5</v>
-      </c>
-      <c r="AH43">
-        <v>1.02</v>
-      </c>
-      <c r="AI43">
-        <v>1000</v>
-      </c>
-      <c r="AJ43">
-        <v>1.02</v>
-      </c>
       <c r="AK43">
         <v>1000</v>
       </c>
       <c r="AL43">
+        <v>1.04</v>
+      </c>
+      <c r="AM43">
+        <v>19</v>
+      </c>
+      <c r="AN43">
+        <v>1.04</v>
+      </c>
+      <c r="AO43">
+        <v>1000</v>
+      </c>
+      <c r="AP43">
         <v>1.03</v>
       </c>
-      <c r="AM43">
-        <v>19.5</v>
-      </c>
-      <c r="AN43">
-        <v>1.03</v>
-      </c>
-      <c r="AO43">
-        <v>1000</v>
-      </c>
-      <c r="AP43">
-        <v>1.02</v>
-      </c>
       <c r="AQ43">
         <v>1000</v>
       </c>
       <c r="AR43">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AS43">
         <v>1000</v>
       </c>
       <c r="AT43">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AU43">
         <v>1000</v>
@@ -10039,25 +10039,25 @@
         <v>1000</v>
       </c>
       <c r="AX43">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY43">
         <v>1000</v>
       </c>
       <c r="AZ43">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="BA43">
         <v>1000</v>
       </c>
       <c r="BB43">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="BC43">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD43">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE43">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="368">
   <si>
     <t>League</t>
   </si>
@@ -625,33 +625,6 @@
     <t>Sporting Cristal</t>
   </si>
   <si>
-    <t>33228860</t>
-  </si>
-  <si>
-    <t>33220780</t>
-  </si>
-  <si>
-    <t>33223820</t>
-  </si>
-  <si>
-    <t>33216243</t>
-  </si>
-  <si>
-    <t>33215247</t>
-  </si>
-  <si>
-    <t>33214615</t>
-  </si>
-  <si>
-    <t>33217951</t>
-  </si>
-  <si>
-    <t>33223164</t>
-  </si>
-  <si>
-    <t>33223165</t>
-  </si>
-  <si>
     <t>33223516</t>
   </si>
   <si>
@@ -751,33 +724,6 @@
     <t>33215359</t>
   </si>
   <si>
-    <t>1.228202273</t>
-  </si>
-  <si>
-    <t>1.228074436</t>
-  </si>
-  <si>
-    <t>1.228127090</t>
-  </si>
-  <si>
-    <t>1.228009988</t>
-  </si>
-  <si>
-    <t>1.228244717</t>
-  </si>
-  <si>
-    <t>1.227979262</t>
-  </si>
-  <si>
-    <t>1.228037298</t>
-  </si>
-  <si>
-    <t>1.228114841</t>
-  </si>
-  <si>
-    <t>1.228114751</t>
-  </si>
-  <si>
     <t>1.228120557</t>
   </si>
   <si>
@@ -877,33 +823,6 @@
     <t>1.227992543</t>
   </si>
   <si>
-    <t>1.228202318</t>
-  </si>
-  <si>
-    <t>1.228074481</t>
-  </si>
-  <si>
-    <t>1.228127135</t>
-  </si>
-  <si>
-    <t>1.228010033</t>
-  </si>
-  <si>
-    <t>1.228244720</t>
-  </si>
-  <si>
-    <t>1.227979307</t>
-  </si>
-  <si>
-    <t>1.228037343</t>
-  </si>
-  <si>
-    <t>1.228114886</t>
-  </si>
-  <si>
-    <t>1.228114796</t>
-  </si>
-  <si>
     <t>1.228120612</t>
   </si>
   <si>
@@ -1003,33 +922,6 @@
     <t>1.227992588</t>
   </si>
   <si>
-    <t>1.228202357</t>
-  </si>
-  <si>
-    <t>1.228074520</t>
-  </si>
-  <si>
-    <t>1.228127174</t>
-  </si>
-  <si>
-    <t>1.228010072</t>
-  </si>
-  <si>
-    <t>1.228244764</t>
-  </si>
-  <si>
-    <t>1.227979346</t>
-  </si>
-  <si>
-    <t>1.228037382</t>
-  </si>
-  <si>
-    <t>1.228114925</t>
-  </si>
-  <si>
-    <t>1.228114835</t>
-  </si>
-  <si>
     <t>1.228120653</t>
   </si>
   <si>
@@ -1127,33 +1019,6 @@
   </si>
   <si>
     <t>1.227992627</t>
-  </si>
-  <si>
-    <t>1.228202282</t>
-  </si>
-  <si>
-    <t>1.228074445</t>
-  </si>
-  <si>
-    <t>1.228127099</t>
-  </si>
-  <si>
-    <t>1.228009997</t>
-  </si>
-  <si>
-    <t>1.228244765</t>
-  </si>
-  <si>
-    <t>1.227979271</t>
-  </si>
-  <si>
-    <t>1.228037307</t>
-  </si>
-  <si>
-    <t>1.228114850</t>
-  </si>
-  <si>
-    <t>1.228114760</t>
   </si>
   <si>
     <t>1.228120572</t>
@@ -1985,8 +1850,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>203</v>
+      <c r="BF2">
+        <v>33228860</v>
       </c>
       <c r="BG2">
         <v>7223889</v>
@@ -1997,17 +1862,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>329</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>371</v>
+      <c r="BJ2">
+        <v>1.228202273</v>
+      </c>
+      <c r="BK2">
+        <v>1.228202318</v>
+      </c>
+      <c r="BL2">
+        <v>1.228202357</v>
+      </c>
+      <c r="BM2">
+        <v>1.228202282</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2182,8 +2047,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>204</v>
+      <c r="BF3">
+        <v>33220780</v>
       </c>
       <c r="BG3">
         <v>14299496</v>
@@ -2194,17 +2059,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>372</v>
+      <c r="BJ3">
+        <v>1.228074436</v>
+      </c>
+      <c r="BK3">
+        <v>1.228074481</v>
+      </c>
+      <c r="BL3">
+        <v>1.22807452</v>
+      </c>
+      <c r="BM3">
+        <v>1.228074445</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2379,8 +2244,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>205</v>
+      <c r="BF4">
+        <v>33223820</v>
       </c>
       <c r="BG4">
         <v>19579579</v>
@@ -2391,17 +2256,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>373</v>
+      <c r="BJ4">
+        <v>1.22812709</v>
+      </c>
+      <c r="BK4">
+        <v>1.228127135</v>
+      </c>
+      <c r="BL4">
+        <v>1.228127174</v>
+      </c>
+      <c r="BM4">
+        <v>1.228127099</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2576,8 +2441,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>206</v>
+      <c r="BF5">
+        <v>33216243</v>
       </c>
       <c r="BG5">
         <v>20732043</v>
@@ -2588,17 +2453,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>248</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>374</v>
+      <c r="BJ5">
+        <v>1.228009988</v>
+      </c>
+      <c r="BK5">
+        <v>1.228010033</v>
+      </c>
+      <c r="BL5">
+        <v>1.228010072</v>
+      </c>
+      <c r="BM5">
+        <v>1.228009997</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2773,8 +2638,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>207</v>
+      <c r="BF6">
+        <v>33215247</v>
       </c>
       <c r="BG6">
         <v>11265718</v>
@@ -2785,17 +2650,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>375</v>
+      <c r="BJ6">
+        <v>1.228244717</v>
+      </c>
+      <c r="BK6">
+        <v>1.22824472</v>
+      </c>
+      <c r="BL6">
+        <v>1.228244764</v>
+      </c>
+      <c r="BM6">
+        <v>1.228244765</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2970,8 +2835,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>208</v>
+      <c r="BF7">
+        <v>33214615</v>
       </c>
       <c r="BG7">
         <v>503236</v>
@@ -2982,17 +2847,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>376</v>
+      <c r="BJ7">
+        <v>1.227979262</v>
+      </c>
+      <c r="BK7">
+        <v>1.227979307</v>
+      </c>
+      <c r="BL7">
+        <v>1.227979346</v>
+      </c>
+      <c r="BM7">
+        <v>1.227979271</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3167,8 +3032,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>209</v>
+      <c r="BF8">
+        <v>33217951</v>
       </c>
       <c r="BG8">
         <v>37456793</v>
@@ -3179,17 +3044,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>293</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>377</v>
+      <c r="BJ8">
+        <v>1.228037298</v>
+      </c>
+      <c r="BK8">
+        <v>1.228037343</v>
+      </c>
+      <c r="BL8">
+        <v>1.228037382</v>
+      </c>
+      <c r="BM8">
+        <v>1.228037307</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3364,8 +3229,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>210</v>
+      <c r="BF9">
+        <v>33223164</v>
       </c>
       <c r="BG9">
         <v>2618007</v>
@@ -3376,17 +3241,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>378</v>
+      <c r="BJ9">
+        <v>1.228114841</v>
+      </c>
+      <c r="BK9">
+        <v>1.228114886</v>
+      </c>
+      <c r="BL9">
+        <v>1.228114925</v>
+      </c>
+      <c r="BM9">
+        <v>1.22811485</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3561,8 +3426,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>211</v>
+      <c r="BF10">
+        <v>33223165</v>
       </c>
       <c r="BG10">
         <v>5822815</v>
@@ -3573,17 +3438,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>379</v>
+      <c r="BJ10">
+        <v>1.228114751</v>
+      </c>
+      <c r="BK10">
+        <v>1.228114796</v>
+      </c>
+      <c r="BL10">
+        <v>1.228114835</v>
+      </c>
+      <c r="BM10">
+        <v>1.22811476</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3603,163 +3468,163 @@
         <v>170</v>
       </c>
       <c r="F11">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H11">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="I11">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K11">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N11">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="O11">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="P11">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q11">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R11">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="T11">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U11">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="V11">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="W11">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X11">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y11">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z11">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="AC11">
         <v>7.6</v>
       </c>
       <c r="AD11">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE11">
+        <v>9.4</v>
+      </c>
+      <c r="AF11">
+        <v>19</v>
+      </c>
+      <c r="AG11">
+        <v>980</v>
+      </c>
+      <c r="AH11">
+        <v>6.6</v>
+      </c>
+      <c r="AI11">
+        <v>980</v>
+      </c>
+      <c r="AJ11">
+        <v>8</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
         <v>9</v>
-      </c>
-      <c r="AF11">
-        <v>5.8</v>
-      </c>
-      <c r="AG11">
-        <v>26</v>
-      </c>
-      <c r="AH11">
-        <v>7.2</v>
-      </c>
-      <c r="AI11">
-        <v>90</v>
-      </c>
-      <c r="AJ11">
-        <v>8.6</v>
-      </c>
-      <c r="AK11">
-        <v>11</v>
-      </c>
-      <c r="AL11">
-        <v>8.800000000000001</v>
       </c>
       <c r="AM11">
         <v>11.5</v>
       </c>
       <c r="AN11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AO11">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP11">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR11">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="AS11">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AT11">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AU11">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AV11">
+        <v>6.2</v>
+      </c>
+      <c r="AW11">
+        <v>980</v>
+      </c>
+      <c r="AX11">
         <v>6.8</v>
       </c>
-      <c r="AW11">
-        <v>55</v>
-      </c>
-      <c r="AX11">
-        <v>7.6</v>
-      </c>
       <c r="AY11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ11">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="BA11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB11">
+        <v>6.8</v>
+      </c>
+      <c r="BC11">
+        <v>980</v>
+      </c>
+      <c r="BD11">
         <v>7.2</v>
       </c>
-      <c r="BC11">
-        <v>1000</v>
-      </c>
-      <c r="BD11">
-        <v>7.8</v>
-      </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="BG11">
         <v>844519</v>
@@ -3771,16 +3636,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="BK11" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="BL11" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="BM11" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3800,16 +3665,16 @@
         <v>171</v>
       </c>
       <c r="F12">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G12">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H12">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I12">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>3.75</v>
@@ -3818,145 +3683,145 @@
         <v>3.85</v>
       </c>
       <c r="L12">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="M12">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="N12">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="O12">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P12">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q12">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="R12">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="S12">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="T12">
+        <v>17</v>
+      </c>
+      <c r="U12">
+        <v>18.5</v>
+      </c>
+      <c r="V12">
+        <v>17</v>
+      </c>
+      <c r="W12">
+        <v>19</v>
+      </c>
+      <c r="X12">
+        <v>27</v>
+      </c>
+      <c r="Y12">
+        <v>32</v>
+      </c>
+      <c r="Z12">
+        <v>48</v>
+      </c>
+      <c r="AA12">
+        <v>75</v>
+      </c>
+      <c r="AB12">
+        <v>11</v>
+      </c>
+      <c r="AC12">
+        <v>12</v>
+      </c>
+      <c r="AD12">
+        <v>8</v>
+      </c>
+      <c r="AE12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF12">
         <v>14.5</v>
-      </c>
-      <c r="U12">
-        <v>16</v>
-      </c>
-      <c r="V12">
-        <v>14.5</v>
-      </c>
-      <c r="W12">
-        <v>16.5</v>
-      </c>
-      <c r="X12">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>29</v>
-      </c>
-      <c r="Z12">
-        <v>12.5</v>
-      </c>
-      <c r="AA12">
-        <v>80</v>
-      </c>
-      <c r="AB12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC12">
-        <v>11</v>
-      </c>
-      <c r="AD12">
-        <v>7.8</v>
-      </c>
-      <c r="AE12">
-        <v>8.6</v>
-      </c>
-      <c r="AF12">
-        <v>14</v>
       </c>
       <c r="AG12">
         <v>16</v>
       </c>
       <c r="AH12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ12">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK12">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL12">
         <v>9.800000000000001</v>
       </c>
       <c r="AM12">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AQ12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AR12">
         <v>22</v>
       </c>
       <c r="AS12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AT12">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AU12">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AV12">
+        <v>27</v>
+      </c>
+      <c r="AW12">
+        <v>30</v>
+      </c>
+      <c r="AX12">
+        <v>55</v>
+      </c>
+      <c r="AY12">
+        <v>75</v>
+      </c>
+      <c r="AZ12">
+        <v>10</v>
+      </c>
+      <c r="BA12">
+        <v>11.5</v>
+      </c>
+      <c r="BB12">
         <v>29</v>
       </c>
-      <c r="AW12">
-        <v>34</v>
-      </c>
-      <c r="AX12">
-        <v>13</v>
-      </c>
-      <c r="AY12">
-        <v>85</v>
-      </c>
-      <c r="AZ12">
-        <v>11.5</v>
-      </c>
-      <c r="BA12">
-        <v>13.5</v>
-      </c>
-      <c r="BB12">
-        <v>24</v>
-      </c>
       <c r="BC12">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BD12">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="BE12">
-        <v>840</v>
+        <v>980</v>
       </c>
       <c r="BF12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="BG12">
         <v>10472882</v>
@@ -3968,16 +3833,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="BK12" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="BL12" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="BM12" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3997,103 +3862,103 @@
         <v>172</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="G13">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="I13">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="J13">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K13">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L13">
+        <v>2.04</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
         <v>1.91</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
       <c r="O13">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R13">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="S13">
         <v>2.26</v>
       </c>
       <c r="T13">
+        <v>13.5</v>
+      </c>
+      <c r="U13">
+        <v>14.5</v>
+      </c>
+      <c r="V13">
+        <v>9.6</v>
+      </c>
+      <c r="W13">
+        <v>10.5</v>
+      </c>
+      <c r="X13">
         <v>12</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
+        <v>13.5</v>
+      </c>
+      <c r="Z13">
+        <v>22</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>13.5</v>
+      </c>
+      <c r="AC13">
         <v>15</v>
       </c>
-      <c r="V13">
-        <v>8.6</v>
-      </c>
-      <c r="W13">
-        <v>11.5</v>
-      </c>
-      <c r="X13">
-        <v>13</v>
-      </c>
-      <c r="Y13">
-        <v>16</v>
-      </c>
-      <c r="Z13">
-        <v>25</v>
-      </c>
-      <c r="AA13">
-        <v>34</v>
-      </c>
-      <c r="AB13">
-        <v>11.5</v>
-      </c>
-      <c r="AC13">
+      <c r="AD13">
+        <v>7.8</v>
+      </c>
+      <c r="AE13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>10.5</v>
+      </c>
+      <c r="AH13">
+        <v>19.5</v>
+      </c>
+      <c r="AI13">
+        <v>21</v>
+      </c>
+      <c r="AJ13">
+        <v>24</v>
+      </c>
+      <c r="AK13">
+        <v>27</v>
+      </c>
+      <c r="AL13">
         <v>14</v>
-      </c>
-      <c r="AD13">
-        <v>7.2</v>
-      </c>
-      <c r="AE13">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF13">
-        <v>10.5</v>
-      </c>
-      <c r="AG13">
-        <v>13</v>
-      </c>
-      <c r="AH13">
-        <v>19</v>
-      </c>
-      <c r="AI13">
-        <v>28</v>
-      </c>
-      <c r="AJ13">
-        <v>19.5</v>
-      </c>
-      <c r="AK13">
-        <v>24</v>
-      </c>
-      <c r="AL13">
-        <v>12.5</v>
       </c>
       <c r="AM13">
         <v>15.5</v>
@@ -4102,58 +3967,58 @@
         <v>16</v>
       </c>
       <c r="AO13">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AP13">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="AQ13">
+        <v>36</v>
+      </c>
+      <c r="AR13">
+        <v>55</v>
+      </c>
+      <c r="AS13">
+        <v>75</v>
+      </c>
+      <c r="AT13">
+        <v>34</v>
+      </c>
+      <c r="AU13">
         <v>44</v>
       </c>
-      <c r="AR13">
-        <v>6.6</v>
-      </c>
-      <c r="AS13">
-        <v>60</v>
-      </c>
-      <c r="AT13">
-        <v>6.4</v>
-      </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>40</v>
-      </c>
-      <c r="AV13">
-        <v>6.6</v>
       </c>
       <c r="AW13">
         <v>55</v>
       </c>
       <c r="AX13">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="AY13">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AZ13">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="BA13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BB13">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC13">
+        <v>14.5</v>
+      </c>
+      <c r="BD13">
         <v>21</v>
       </c>
-      <c r="BD13">
-        <v>7.4</v>
-      </c>
       <c r="BE13">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="BF13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="BG13">
         <v>767907</v>
@@ -4165,16 +4030,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="BK13" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="BL13" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="BM13" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4194,109 +4059,109 @@
         <v>173</v>
       </c>
       <c r="F14">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="G14">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>3.05</v>
       </c>
-      <c r="I14">
-        <v>3.15</v>
-      </c>
       <c r="J14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L14">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="M14">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="P14">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q14">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R14">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S14">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T14">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U14">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V14">
+        <v>11.5</v>
+      </c>
+      <c r="W14">
         <v>12.5</v>
       </c>
-      <c r="W14">
-        <v>14.5</v>
-      </c>
       <c r="X14">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z14">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AA14">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB14">
         <v>10.5</v>
       </c>
       <c r="AC14">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD14">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE14">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AF14">
         <v>12</v>
       </c>
       <c r="AG14">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH14">
         <v>29</v>
       </c>
       <c r="AI14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK14">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL14">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM14">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN14">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO14">
         <v>17</v>
@@ -4305,52 +4170,52 @@
         <v>36</v>
       </c>
       <c r="AQ14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AR14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AS14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AT14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV14">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AW14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX14">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AY14">
         <v>85</v>
       </c>
       <c r="AZ14">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="BA14">
+        <v>22</v>
+      </c>
+      <c r="BB14">
+        <v>24</v>
+      </c>
+      <c r="BC14">
+        <v>28</v>
+      </c>
+      <c r="BD14">
         <v>18</v>
       </c>
-      <c r="BB14">
-        <v>19.5</v>
-      </c>
-      <c r="BC14">
-        <v>30</v>
-      </c>
-      <c r="BD14">
-        <v>5.9</v>
-      </c>
       <c r="BE14">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="BG14">
         <v>151472</v>
@@ -4362,16 +4227,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="BK14" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="BL14" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="BM14" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4391,163 +4256,163 @@
         <v>174</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G15">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H15">
+        <v>1.95</v>
+      </c>
+      <c r="I15">
+        <v>1.97</v>
+      </c>
+      <c r="J15">
+        <v>3.95</v>
+      </c>
+      <c r="K15">
+        <v>4.1</v>
+      </c>
+      <c r="L15">
+        <v>2.14</v>
+      </c>
+      <c r="M15">
+        <v>2.18</v>
+      </c>
+      <c r="N15">
+        <v>1.85</v>
+      </c>
+      <c r="O15">
         <v>1.88</v>
       </c>
-      <c r="I15">
-        <v>1.95</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>4.2</v>
-      </c>
-      <c r="L15">
-        <v>2.12</v>
-      </c>
-      <c r="M15">
-        <v>2.16</v>
-      </c>
-      <c r="N15">
-        <v>1.86</v>
-      </c>
-      <c r="O15">
-        <v>1.9</v>
-      </c>
       <c r="P15">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q15">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R15">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T15">
+        <v>15.5</v>
+      </c>
+      <c r="U15">
+        <v>16.5</v>
+      </c>
+      <c r="V15">
+        <v>9.6</v>
+      </c>
+      <c r="W15">
+        <v>10.5</v>
+      </c>
+      <c r="X15">
         <v>11.5</v>
       </c>
-      <c r="U15">
-        <v>19.5</v>
-      </c>
-      <c r="V15">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W15">
-        <v>11</v>
-      </c>
-      <c r="X15">
-        <v>8.800000000000001</v>
-      </c>
       <c r="Y15">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AA15">
+        <v>22</v>
+      </c>
+      <c r="AB15">
+        <v>15</v>
+      </c>
+      <c r="AC15">
+        <v>17.5</v>
+      </c>
+      <c r="AD15">
+        <v>8</v>
+      </c>
+      <c r="AE15">
+        <v>9</v>
+      </c>
+      <c r="AF15">
+        <v>9.4</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>17.5</v>
+      </c>
+      <c r="AI15">
+        <v>19</v>
+      </c>
+      <c r="AJ15">
+        <v>28</v>
+      </c>
+      <c r="AK15">
+        <v>32</v>
+      </c>
+      <c r="AL15">
         <v>15.5</v>
       </c>
-      <c r="AA15">
-        <v>26</v>
-      </c>
-      <c r="AB15">
-        <v>12.5</v>
-      </c>
-      <c r="AC15">
-        <v>21</v>
-      </c>
-      <c r="AD15">
-        <v>7.6</v>
-      </c>
-      <c r="AE15">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF15">
-        <v>8.6</v>
-      </c>
-      <c r="AG15">
-        <v>11.5</v>
-      </c>
-      <c r="AH15">
-        <v>14</v>
-      </c>
-      <c r="AI15">
-        <v>24</v>
-      </c>
-      <c r="AJ15">
-        <v>25</v>
-      </c>
-      <c r="AK15">
-        <v>40</v>
-      </c>
-      <c r="AL15">
-        <v>13</v>
-      </c>
       <c r="AM15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN15">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP15">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AQ15">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AR15">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AS15">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AT15">
-        <v>5.1</v>
+        <v>44</v>
       </c>
       <c r="AU15">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AV15">
-        <v>4.9</v>
+        <v>48</v>
       </c>
       <c r="AW15">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX15">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AY15">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AZ15">
-        <v>4.7</v>
+        <v>36</v>
       </c>
       <c r="BA15">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="BB15">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="BC15">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BD15">
-        <v>5.1</v>
+        <v>18.5</v>
       </c>
       <c r="BE15">
         <v>990</v>
       </c>
       <c r="BF15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="BG15">
         <v>28216</v>
@@ -4559,16 +4424,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="BK15" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="BL15" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="BM15" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4594,13 +4459,13 @@
         <v>2.14</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J16">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K16">
         <v>3.55</v>
@@ -4609,142 +4474,142 @@
         <v>1.73</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N16">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="O16">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="P16">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R16">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="S16">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U16">
+        <v>11</v>
+      </c>
+      <c r="V16">
         <v>12</v>
       </c>
-      <c r="V16">
+      <c r="W16">
+        <v>12.5</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>30</v>
+      </c>
+      <c r="Z16">
+        <v>55</v>
+      </c>
+      <c r="AA16">
+        <v>90</v>
+      </c>
+      <c r="AB16">
+        <v>7.4</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>7.2</v>
+      </c>
+      <c r="AE16">
+        <v>7.6</v>
+      </c>
+      <c r="AF16">
+        <v>15.5</v>
+      </c>
+      <c r="AG16">
+        <v>18</v>
+      </c>
+      <c r="AH16">
+        <v>50</v>
+      </c>
+      <c r="AI16">
+        <v>60</v>
+      </c>
+      <c r="AJ16">
         <v>10.5</v>
       </c>
-      <c r="W16">
-        <v>14.5</v>
-      </c>
-      <c r="X16">
-        <v>6.6</v>
-      </c>
-      <c r="Y16">
-        <v>32</v>
-      </c>
-      <c r="Z16">
-        <v>6.2</v>
-      </c>
-      <c r="AA16">
-        <v>110</v>
-      </c>
-      <c r="AB16">
-        <v>6.6</v>
-      </c>
-      <c r="AC16">
-        <v>9</v>
-      </c>
-      <c r="AD16">
-        <v>6.4</v>
-      </c>
-      <c r="AE16">
-        <v>8.4</v>
-      </c>
-      <c r="AF16">
-        <v>14</v>
-      </c>
-      <c r="AG16">
-        <v>19</v>
-      </c>
-      <c r="AH16">
-        <v>6</v>
-      </c>
-      <c r="AI16">
+      <c r="AK16">
+        <v>12</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>11</v>
+      </c>
+      <c r="AN16">
+        <v>19.5</v>
+      </c>
+      <c r="AO16">
+        <v>22</v>
+      </c>
+      <c r="AP16">
         <v>65</v>
       </c>
-      <c r="AJ16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK16">
-        <v>13.5</v>
-      </c>
-      <c r="AL16">
-        <v>9</v>
-      </c>
-      <c r="AM16">
-        <v>12</v>
-      </c>
-      <c r="AN16">
-        <v>17.5</v>
-      </c>
-      <c r="AO16">
-        <v>24</v>
-      </c>
-      <c r="AP16">
-        <v>6.2</v>
-      </c>
       <c r="AQ16">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AR16">
         <v>21</v>
       </c>
       <c r="AS16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AT16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV16">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AW16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AX16">
-        <v>6.4</v>
+        <v>16.5</v>
       </c>
       <c r="AY16">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AZ16">
-        <v>5.2</v>
+        <v>17</v>
       </c>
       <c r="BA16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB16">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="BC16">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BD16">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="BE16">
         <v>1000</v>
       </c>
       <c r="BF16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BG16">
         <v>60143</v>
@@ -4756,16 +4621,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="BK16" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="BL16" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="BM16" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4785,163 +4650,163 @@
         <v>176</v>
       </c>
       <c r="F17">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="G17">
+        <v>2.98</v>
+      </c>
+      <c r="H17">
+        <v>2.92</v>
+      </c>
+      <c r="I17">
+        <v>2.94</v>
+      </c>
+      <c r="J17">
+        <v>3.1</v>
+      </c>
+      <c r="K17">
         <v>3.2</v>
       </c>
-      <c r="H17">
-        <v>2.62</v>
-      </c>
-      <c r="I17">
-        <v>3.15</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3.75</v>
-      </c>
       <c r="L17">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M17">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="O17">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="P17">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q17">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S17">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U17">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="V17">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W17">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X17">
-        <v>4.9</v>
+        <v>15.5</v>
       </c>
       <c r="Y17">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z17">
-        <v>5.2</v>
+        <v>40</v>
       </c>
       <c r="AA17">
         <v>48</v>
       </c>
       <c r="AB17">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="AC17">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD17">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="AE17">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AF17">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="AG17">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH17">
-        <v>5.4</v>
+        <v>30</v>
       </c>
       <c r="AI17">
         <v>38</v>
       </c>
       <c r="AJ17">
-        <v>4.9</v>
+        <v>15.5</v>
       </c>
       <c r="AK17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL17">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM17">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AO17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP17">
-        <v>5.9</v>
+        <v>48</v>
       </c>
       <c r="AQ17">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR17">
-        <v>5.2</v>
+        <v>38</v>
       </c>
       <c r="AS17">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AT17">
-        <v>5.1</v>
+        <v>30</v>
       </c>
       <c r="AU17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AV17">
-        <v>5.9</v>
+        <v>44</v>
       </c>
       <c r="AW17">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX17">
-        <v>3.05</v>
+        <v>13</v>
       </c>
       <c r="AY17">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AZ17">
-        <v>3.7</v>
+        <v>24</v>
       </c>
       <c r="BA17">
         <v>38</v>
       </c>
       <c r="BB17">
-        <v>3.35</v>
+        <v>17.5</v>
       </c>
       <c r="BC17">
         <v>36</v>
       </c>
       <c r="BD17">
-        <v>1.8</v>
+        <v>14.5</v>
       </c>
       <c r="BE17">
         <v>1000</v>
       </c>
       <c r="BF17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BG17">
         <v>5751503</v>
@@ -4953,16 +4818,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="BK17" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="BL17" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="BM17" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4982,163 +4847,163 @@
         <v>177</v>
       </c>
       <c r="F18">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="G18">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18">
+        <v>2.22</v>
+      </c>
+      <c r="M18">
         <v>2.24</v>
       </c>
-      <c r="M18">
-        <v>2.36</v>
-      </c>
       <c r="N18">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P18">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q18">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R18">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S18">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T18">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="U18">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V18">
+        <v>15.5</v>
+      </c>
+      <c r="W18">
         <v>17.5</v>
       </c>
-      <c r="W18">
-        <v>19</v>
-      </c>
       <c r="X18">
+        <v>27</v>
+      </c>
+      <c r="Y18">
         <v>30</v>
       </c>
-      <c r="Y18">
-        <v>36</v>
-      </c>
       <c r="Z18">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AA18">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB18">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC18">
         <v>11</v>
       </c>
       <c r="AD18">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE18">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18">
+        <v>38</v>
+      </c>
+      <c r="AI18">
         <v>44</v>
       </c>
-      <c r="AI18">
-        <v>55</v>
-      </c>
       <c r="AJ18">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK18">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL18">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM18">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AN18">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AQ18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR18">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AS18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT18">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AU18">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AV18">
         <v>27</v>
       </c>
       <c r="AW18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX18">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AY18">
         <v>85</v>
       </c>
       <c r="AZ18">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BA18">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BB18">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="BC18">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BD18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="BE18">
-        <v>810</v>
+        <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BG18">
         <v>30684</v>
@@ -5150,16 +5015,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="BK18" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="BL18" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="BM18" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5179,25 +5044,25 @@
         <v>178</v>
       </c>
       <c r="F19">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="G19">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="H19">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="I19">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L19">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="M19">
         <v>2.26</v>
@@ -5206,136 +5071,136 @@
         <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="P19">
+        <v>1.72</v>
+      </c>
+      <c r="Q19">
         <v>1.74</v>
       </c>
-      <c r="Q19">
-        <v>1.84</v>
-      </c>
       <c r="R19">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="S19">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T19">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
         <v>15.5</v>
       </c>
-      <c r="V19">
-        <v>16</v>
-      </c>
       <c r="W19">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X19">
         <v>27</v>
       </c>
       <c r="Y19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z19">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AA19">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB19">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC19">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD19">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AE19">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AF19">
+        <v>14.5</v>
+      </c>
+      <c r="AG19">
         <v>15.5</v>
       </c>
-      <c r="AG19">
-        <v>16.5</v>
-      </c>
       <c r="AH19">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AI19">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ19">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK19">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL19">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM19">
         <v>10.5</v>
       </c>
       <c r="AN19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO19">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP19">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AQ19">
         <v>55</v>
       </c>
       <c r="AR19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU19">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AV19">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AW19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX19">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AY19">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BA19">
         <v>12.5</v>
       </c>
       <c r="BB19">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="BC19">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BD19">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="BE19">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="BF19" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="BG19">
         <v>30679</v>
@@ -5347,16 +5212,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="BK19" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="BL19" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="BM19" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5376,163 +5241,163 @@
         <v>179</v>
       </c>
       <c r="F20">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G20">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="I20">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K20">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M20">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="N20">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="O20">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="P20">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q20">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R20">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S20">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="T20">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="U20">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V20">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="W20">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="X20">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="Y20">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z20">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AA20">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AB20">
         <v>6</v>
       </c>
       <c r="AC20">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD20">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE20">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF20">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="AG20">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AH20">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="AI20">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AJ20">
         <v>7.6</v>
       </c>
       <c r="AK20">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AL20">
         <v>8.6</v>
       </c>
       <c r="AM20">
+        <v>980</v>
+      </c>
+      <c r="AN20">
+        <v>5.6</v>
+      </c>
+      <c r="AO20">
+        <v>980</v>
+      </c>
+      <c r="AP20">
+        <v>5.9</v>
+      </c>
+      <c r="AQ20">
+        <v>980</v>
+      </c>
+      <c r="AR20">
         <v>13</v>
       </c>
-      <c r="AN20">
-        <v>4.1</v>
-      </c>
-      <c r="AO20">
-        <v>32</v>
-      </c>
-      <c r="AP20">
-        <v>4.2</v>
-      </c>
-      <c r="AQ20">
-        <v>140</v>
-      </c>
-      <c r="AR20">
-        <v>14</v>
-      </c>
       <c r="AS20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT20">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AU20">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AV20">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AW20">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AX20">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AY20">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AZ20">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="BA20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB20">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="BC20">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="BD20">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="BG20">
         <v>4127866</v>
@@ -5544,16 +5409,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="BK20" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="BL20" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="BM20" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5573,163 +5438,163 @@
         <v>180</v>
       </c>
       <c r="F21">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="G21">
+        <v>1.6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4.5</v>
+      </c>
+      <c r="L21">
+        <v>1.76</v>
+      </c>
+      <c r="M21">
+        <v>1.87</v>
+      </c>
+      <c r="N21">
+        <v>2.14</v>
+      </c>
+      <c r="O21">
+        <v>2.36</v>
+      </c>
+      <c r="P21">
+        <v>2.22</v>
+      </c>
+      <c r="Q21">
+        <v>2.4</v>
+      </c>
+      <c r="R21">
+        <v>1.72</v>
+      </c>
+      <c r="S21">
         <v>1.81</v>
       </c>
-      <c r="H21">
-        <v>5.7</v>
-      </c>
-      <c r="I21">
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <v>3.7</v>
-      </c>
-      <c r="K21">
-        <v>14</v>
-      </c>
-      <c r="L21">
-        <v>1.39</v>
-      </c>
-      <c r="M21">
-        <v>2.48</v>
-      </c>
-      <c r="N21">
-        <v>1.67</v>
-      </c>
-      <c r="O21">
-        <v>3.55</v>
-      </c>
-      <c r="P21">
-        <v>1.12</v>
-      </c>
-      <c r="Q21">
-        <v>1000</v>
-      </c>
-      <c r="R21">
-        <v>1.12</v>
-      </c>
-      <c r="S21">
-        <v>1000</v>
-      </c>
       <c r="T21">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="U21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V21">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="W21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X21">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="Y21">
         <v>1000</v>
       </c>
       <c r="Z21">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AA21">
         <v>1000</v>
       </c>
       <c r="AB21">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AC21">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="AE21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AG21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="AI21">
         <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AK21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN21">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AO21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP21">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="AQ21">
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="AS21">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AT21">
-        <v>1.03</v>
+        <v>5.4</v>
       </c>
       <c r="AU21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV21">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AW21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX21">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="AY21">
         <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BA21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB21">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="BC21">
         <v>1000</v>
       </c>
       <c r="BD21">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="BG21">
         <v>6772440</v>
@@ -5741,16 +5606,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="BK21" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="BL21" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="BM21" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5770,163 +5635,163 @@
         <v>181</v>
       </c>
       <c r="F22">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H22">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="I22">
+        <v>1.74</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4.6</v>
+      </c>
+      <c r="L22">
+        <v>2.2</v>
+      </c>
+      <c r="M22">
+        <v>2.24</v>
+      </c>
+      <c r="N22">
         <v>1.8</v>
       </c>
-      <c r="J22">
-        <v>3.65</v>
-      </c>
-      <c r="K22">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>2.36</v>
-      </c>
-      <c r="N22">
-        <v>1.73</v>
-      </c>
       <c r="O22">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="P22">
         <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R22">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S22">
-        <v>2.94</v>
+        <v>2.26</v>
       </c>
       <c r="T22">
-        <v>1.78</v>
+        <v>5.1</v>
       </c>
       <c r="U22">
         <v>18.5</v>
       </c>
       <c r="V22">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="W22">
         <v>10.5</v>
       </c>
       <c r="X22">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Y22">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z22">
-        <v>2.42</v>
+        <v>5.6</v>
       </c>
       <c r="AA22">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AB22">
-        <v>1.62</v>
+        <v>6.4</v>
       </c>
       <c r="AC22">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AD22">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE22">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF22">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG22">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH22">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="AI22">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AJ22">
-        <v>1.25</v>
+        <v>2.98</v>
       </c>
       <c r="AK22">
         <v>1000</v>
       </c>
       <c r="AL22">
-        <v>1.62</v>
+        <v>6.4</v>
       </c>
       <c r="AM22">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AN22">
-        <v>1.9</v>
+        <v>17.5</v>
       </c>
       <c r="AO22">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="AQ22">
         <v>1000</v>
       </c>
       <c r="AR22">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="AS22">
         <v>1000</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="AU22">
         <v>1000</v>
       </c>
       <c r="AV22">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="AW22">
         <v>1000</v>
       </c>
       <c r="AX22">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="AY22">
         <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="BA22">
         <v>1000</v>
       </c>
       <c r="BB22">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="BC22">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BD22">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="BG22">
         <v>5266551</v>
@@ -5938,16 +5803,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="BK22" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="BL22" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="BM22" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5967,79 +5832,79 @@
         <v>182</v>
       </c>
       <c r="F23">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G23">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I23">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L23">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="M23">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="N23">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="O23">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="P23">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="Q23">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="R23">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="S23">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="T23">
+        <v>15</v>
+      </c>
+      <c r="U23">
+        <v>17.5</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <v>16</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23">
+        <v>24</v>
+      </c>
+      <c r="Z23">
+        <v>46</v>
+      </c>
+      <c r="AA23">
+        <v>55</v>
+      </c>
+      <c r="AB23">
+        <v>11.5</v>
+      </c>
+      <c r="AC23">
         <v>12.5</v>
       </c>
-      <c r="U23">
-        <v>14</v>
-      </c>
-      <c r="V23">
-        <v>11.5</v>
-      </c>
-      <c r="W23">
-        <v>13</v>
-      </c>
-      <c r="X23">
-        <v>10.5</v>
-      </c>
-      <c r="Y23">
-        <v>23</v>
-      </c>
-      <c r="Z23">
-        <v>28</v>
-      </c>
-      <c r="AA23">
-        <v>60</v>
-      </c>
-      <c r="AB23">
-        <v>9.4</v>
-      </c>
-      <c r="AC23">
-        <v>11</v>
-      </c>
       <c r="AD23">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE23">
         <v>8.199999999999999</v>
@@ -6048,19 +5913,19 @@
         <v>12.5</v>
       </c>
       <c r="AG23">
+        <v>14</v>
+      </c>
+      <c r="AH23">
+        <v>30</v>
+      </c>
+      <c r="AI23">
+        <v>980</v>
+      </c>
+      <c r="AJ23">
         <v>14.5</v>
       </c>
-      <c r="AH23">
-        <v>32</v>
-      </c>
-      <c r="AI23">
-        <v>38</v>
-      </c>
-      <c r="AJ23">
-        <v>13.5</v>
-      </c>
       <c r="AK23">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL23">
         <v>10</v>
@@ -6072,58 +5937,58 @@
         <v>14.5</v>
       </c>
       <c r="AO23">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP23">
-        <v>5.5</v>
+        <v>36</v>
       </c>
       <c r="AQ23">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AR23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23">
         <v>32</v>
       </c>
       <c r="AT23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV23">
         <v>29</v>
       </c>
       <c r="AW23">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AX23">
-        <v>5.9</v>
+        <v>48</v>
       </c>
       <c r="AY23">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AZ23">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="BA23">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="BB23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC23">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BD23">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="BE23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF23" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="BG23">
         <v>6394</v>
@@ -6135,16 +6000,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="BK23" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="BL23" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="BM23" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6170,52 +6035,52 @@
         <v>5.2</v>
       </c>
       <c r="H24">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I24">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="J24">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K24">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L24">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="M24">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="N24">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O24">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="P24">
         <v>1.67</v>
       </c>
       <c r="Q24">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R24">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S24">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T24">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="U24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W24">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="X24">
         <v>10.5</v>
@@ -6227,16 +6092,16 @@
         <v>16.5</v>
       </c>
       <c r="AA24">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC24">
         <v>32</v>
       </c>
       <c r="AD24">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE24">
         <v>10.5</v>
@@ -6257,7 +6122,7 @@
         <v>36</v>
       </c>
       <c r="AK24">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL24">
         <v>17.5</v>
@@ -6266,61 +6131,61 @@
         <v>19.5</v>
       </c>
       <c r="AN24">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO24">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ24">
         <v>28</v>
       </c>
       <c r="AR24">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AS24">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AT24">
         <v>40</v>
       </c>
       <c r="AU24">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AV24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AW24">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AX24">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="AY24">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AZ24">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="BA24">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="BB24">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="BC24">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BD24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BE24">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="BG24">
         <v>11378686</v>
@@ -6332,16 +6197,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="BK24" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="BL24" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="BM24" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6361,163 +6226,163 @@
         <v>184</v>
       </c>
       <c r="F25">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G25">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="H25">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I25">
+        <v>4.4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4.3</v>
+      </c>
+      <c r="L25">
+        <v>2.44</v>
+      </c>
+      <c r="M25">
+        <v>2.54</v>
+      </c>
+      <c r="N25">
+        <v>1.65</v>
+      </c>
+      <c r="O25">
+        <v>1.7</v>
+      </c>
+      <c r="P25">
+        <v>1.65</v>
+      </c>
+      <c r="Q25">
+        <v>1.76</v>
+      </c>
+      <c r="R25">
+        <v>2.3</v>
+      </c>
+      <c r="S25">
+        <v>2.54</v>
+      </c>
+      <c r="T25">
+        <v>14</v>
+      </c>
+      <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25">
+        <v>14.5</v>
+      </c>
+      <c r="W25">
+        <v>980</v>
+      </c>
+      <c r="X25">
         <v>4.5</v>
       </c>
-      <c r="J25">
-        <v>3.65</v>
-      </c>
-      <c r="K25">
+      <c r="Y25">
+        <v>980</v>
+      </c>
+      <c r="Z25">
+        <v>4.8</v>
+      </c>
+      <c r="AA25">
+        <v>980</v>
+      </c>
+      <c r="AB25">
+        <v>9.6</v>
+      </c>
+      <c r="AC25">
+        <v>14</v>
+      </c>
+      <c r="AD25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>10.5</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>19.5</v>
+      </c>
+      <c r="AH25">
         <v>4.6</v>
       </c>
-      <c r="L25">
-        <v>2.14</v>
-      </c>
-      <c r="M25">
-        <v>2.48</v>
-      </c>
-      <c r="N25">
-        <v>1.67</v>
-      </c>
-      <c r="O25">
-        <v>1.88</v>
-      </c>
-      <c r="P25">
-        <v>1.6</v>
-      </c>
-      <c r="Q25">
-        <v>1.82</v>
-      </c>
-      <c r="R25">
-        <v>2.22</v>
-      </c>
-      <c r="S25">
-        <v>2.66</v>
-      </c>
-      <c r="T25">
-        <v>3.6</v>
-      </c>
-      <c r="U25">
-        <v>24</v>
-      </c>
-      <c r="V25">
-        <v>3.55</v>
-      </c>
-      <c r="W25">
-        <v>22</v>
-      </c>
-      <c r="X25">
-        <v>3.8</v>
-      </c>
-      <c r="Y25">
-        <v>38</v>
-      </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-      <c r="AA25">
-        <v>90</v>
-      </c>
-      <c r="AB25">
-        <v>3.25</v>
-      </c>
-      <c r="AC25">
-        <v>14.5</v>
-      </c>
-      <c r="AD25">
-        <v>7.8</v>
-      </c>
-      <c r="AE25">
-        <v>11.5</v>
-      </c>
-      <c r="AF25">
-        <v>3.5</v>
-      </c>
-      <c r="AG25">
-        <v>20</v>
-      </c>
-      <c r="AH25">
-        <v>3.95</v>
-      </c>
       <c r="AI25">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ25">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="AK25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AM25">
         <v>13</v>
       </c>
       <c r="AN25">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO25">
         <v>21</v>
       </c>
       <c r="AP25">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="AQ25">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR25">
-        <v>3.7</v>
+        <v>17</v>
       </c>
       <c r="AS25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AT25">
+        <v>13.5</v>
+      </c>
+      <c r="AU25">
+        <v>22</v>
+      </c>
+      <c r="AV25">
+        <v>21</v>
+      </c>
+      <c r="AW25">
+        <v>36</v>
+      </c>
+      <c r="AX25">
+        <v>4.8</v>
+      </c>
+      <c r="AY25">
+        <v>90</v>
+      </c>
+      <c r="AZ25">
         <v>3.55</v>
       </c>
-      <c r="AU25">
-        <v>23</v>
-      </c>
-      <c r="AV25">
-        <v>3.8</v>
-      </c>
-      <c r="AW25">
-        <v>38</v>
-      </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>95</v>
-      </c>
-      <c r="AZ25">
-        <v>3.2</v>
-      </c>
       <c r="BA25">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BB25">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="BC25">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD25">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="BE25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BG25">
         <v>419126</v>
@@ -6529,16 +6394,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="BK25" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="BL25" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="BM25" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6558,163 +6423,163 @@
         <v>185</v>
       </c>
       <c r="F26">
+        <v>2.22</v>
+      </c>
+      <c r="G26">
         <v>2.3</v>
       </c>
-      <c r="G26">
-        <v>2.58</v>
-      </c>
       <c r="H26">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>4.2</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
         <v>1.57</v>
       </c>
       <c r="M26">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="O26">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="P26">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q26">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R26">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S26">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="U26">
+        <v>980</v>
+      </c>
+      <c r="V26">
         <v>9.6</v>
       </c>
-      <c r="V26">
-        <v>4.4</v>
-      </c>
       <c r="W26">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="X26">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="Y26">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z26">
-        <v>1.18</v>
+        <v>3.3</v>
       </c>
       <c r="AA26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB26">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC26">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD26">
+        <v>6.6</v>
+      </c>
+      <c r="AE26">
+        <v>980</v>
+      </c>
+      <c r="AF26">
+        <v>14.5</v>
+      </c>
+      <c r="AG26">
+        <v>980</v>
+      </c>
+      <c r="AH26">
+        <v>3.9</v>
+      </c>
+      <c r="AI26">
+        <v>980</v>
+      </c>
+      <c r="AJ26">
+        <v>10.5</v>
+      </c>
+      <c r="AK26">
+        <v>13.5</v>
+      </c>
+      <c r="AL26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM26">
+        <v>13</v>
+      </c>
+      <c r="AN26">
+        <v>7</v>
+      </c>
+      <c r="AO26">
+        <v>980</v>
+      </c>
+      <c r="AP26">
+        <v>3.45</v>
+      </c>
+      <c r="AQ26">
+        <v>1000</v>
+      </c>
+      <c r="AR26">
+        <v>7.4</v>
+      </c>
+      <c r="AS26">
+        <v>980</v>
+      </c>
+      <c r="AT26">
+        <v>7.6</v>
+      </c>
+      <c r="AU26">
+        <v>980</v>
+      </c>
+      <c r="AV26">
         <v>3.7</v>
       </c>
-      <c r="AE26">
-        <v>8</v>
-      </c>
-      <c r="AF26">
-        <v>5</v>
-      </c>
-      <c r="AG26">
-        <v>18.5</v>
-      </c>
-      <c r="AH26">
-        <v>1.62</v>
-      </c>
-      <c r="AI26">
-        <v>1000</v>
-      </c>
-      <c r="AJ26">
-        <v>4.6</v>
-      </c>
-      <c r="AK26">
-        <v>14.5</v>
-      </c>
-      <c r="AL26">
-        <v>4.5</v>
-      </c>
-      <c r="AM26">
-        <v>13.5</v>
-      </c>
-      <c r="AN26">
-        <v>5.4</v>
-      </c>
-      <c r="AO26">
-        <v>26</v>
-      </c>
-      <c r="AP26">
-        <v>1.18</v>
-      </c>
-      <c r="AQ26">
-        <v>1000</v>
-      </c>
-      <c r="AR26">
-        <v>1.57</v>
-      </c>
-      <c r="AS26">
-        <v>36</v>
-      </c>
-      <c r="AT26">
-        <v>1.57</v>
-      </c>
-      <c r="AU26">
-        <v>36</v>
-      </c>
-      <c r="AV26">
-        <v>1.52</v>
-      </c>
       <c r="AW26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX26">
-        <v>1.18</v>
+        <v>3.45</v>
       </c>
       <c r="AY26">
         <v>1000</v>
       </c>
       <c r="AZ26">
-        <v>1.14</v>
+        <v>3.05</v>
       </c>
       <c r="BA26">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="BB26">
-        <v>1.18</v>
+        <v>3.3</v>
       </c>
       <c r="BC26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD26">
-        <v>1.18</v>
+        <v>3.45</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="BG26">
         <v>4465708</v>
@@ -6726,16 +6591,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="BK26" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="BL26" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="BM26" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6755,163 +6620,163 @@
         <v>186</v>
       </c>
       <c r="F27">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="G27">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="H27">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="I27">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L27">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="O27">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="P27">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q27">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R27">
+        <v>1.72</v>
+      </c>
+      <c r="S27">
         <v>1.77</v>
       </c>
-      <c r="S27">
-        <v>1.82</v>
-      </c>
       <c r="T27">
+        <v>7.8</v>
+      </c>
+      <c r="U27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>30</v>
+      </c>
+      <c r="Y27">
+        <v>36</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+      <c r="AA27">
+        <v>150</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>6.4</v>
+      </c>
+      <c r="AD27">
+        <v>7.4</v>
+      </c>
+      <c r="AE27">
         <v>8</v>
       </c>
-      <c r="U27">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="V27">
+      <c r="AF27">
+        <v>19.5</v>
+      </c>
+      <c r="AG27">
+        <v>22</v>
+      </c>
+      <c r="AH27">
+        <v>65</v>
+      </c>
+      <c r="AI27">
+        <v>95</v>
+      </c>
+      <c r="AJ27">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK27">
+        <v>10.5</v>
+      </c>
+      <c r="AL27">
+        <v>10</v>
+      </c>
+      <c r="AM27">
         <v>11</v>
-      </c>
-      <c r="W27">
-        <v>12</v>
-      </c>
-      <c r="X27">
-        <v>27</v>
-      </c>
-      <c r="Y27">
-        <v>32</v>
-      </c>
-      <c r="Z27">
-        <v>17.5</v>
-      </c>
-      <c r="AA27">
-        <v>130</v>
-      </c>
-      <c r="AB27">
-        <v>6.6</v>
-      </c>
-      <c r="AC27">
-        <v>7.2</v>
-      </c>
-      <c r="AD27">
-        <v>7</v>
-      </c>
-      <c r="AE27">
-        <v>7.6</v>
-      </c>
-      <c r="AF27">
-        <v>17.5</v>
-      </c>
-      <c r="AG27">
-        <v>19</v>
-      </c>
-      <c r="AH27">
-        <v>46</v>
-      </c>
-      <c r="AI27">
-        <v>85</v>
-      </c>
-      <c r="AJ27">
-        <v>10</v>
-      </c>
-      <c r="AK27">
-        <v>11</v>
-      </c>
-      <c r="AL27">
-        <v>10.5</v>
-      </c>
-      <c r="AM27">
-        <v>11.5</v>
       </c>
       <c r="AN27">
         <v>23</v>
       </c>
       <c r="AO27">
+        <v>26</v>
+      </c>
+      <c r="AP27">
+        <v>90</v>
+      </c>
+      <c r="AQ27">
+        <v>120</v>
+      </c>
+      <c r="AR27">
+        <v>20</v>
+      </c>
+      <c r="AS27">
+        <v>23</v>
+      </c>
+      <c r="AT27">
         <v>24</v>
       </c>
-      <c r="AP27">
-        <v>17.5</v>
-      </c>
-      <c r="AQ27">
-        <v>110</v>
-      </c>
-      <c r="AR27">
-        <v>22</v>
-      </c>
-      <c r="AS27">
-        <v>25</v>
-      </c>
-      <c r="AT27">
-        <v>25</v>
-      </c>
       <c r="AU27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AW27">
         <v>60</v>
       </c>
       <c r="AX27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY27">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AZ27">
+        <v>16</v>
+      </c>
+      <c r="BA27">
+        <v>23</v>
+      </c>
+      <c r="BB27">
+        <v>19.5</v>
+      </c>
+      <c r="BC27">
+        <v>150</v>
+      </c>
+      <c r="BD27">
         <v>20</v>
       </c>
-      <c r="BA27">
-        <v>24</v>
-      </c>
-      <c r="BB27">
-        <v>17.5</v>
-      </c>
-      <c r="BC27">
-        <v>130</v>
-      </c>
-      <c r="BD27">
-        <v>21</v>
-      </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="BG27">
         <v>10478536</v>
@@ -6923,16 +6788,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="BK27" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="BL27" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="BM27" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6952,163 +6817,163 @@
         <v>187</v>
       </c>
       <c r="F28">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H28">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="I28">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="J28">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K28">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L28">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="M28">
+        <v>2.1</v>
+      </c>
+      <c r="N28">
+        <v>1.92</v>
+      </c>
+      <c r="O28">
+        <v>1.95</v>
+      </c>
+      <c r="P28">
+        <v>1.85</v>
+      </c>
+      <c r="Q28">
+        <v>1.9</v>
+      </c>
+      <c r="R28">
         <v>2.12</v>
       </c>
-      <c r="N28">
-        <v>1.9</v>
-      </c>
-      <c r="O28">
-        <v>2.06</v>
-      </c>
-      <c r="P28">
-        <v>1.82</v>
-      </c>
-      <c r="Q28">
-        <v>1.94</v>
-      </c>
-      <c r="R28">
-        <v>2.06</v>
-      </c>
       <c r="S28">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T28">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U28">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="V28">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W28">
+        <v>9.6</v>
+      </c>
+      <c r="X28">
         <v>10.5</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>12</v>
+      </c>
+      <c r="Z28">
+        <v>19.5</v>
+      </c>
+      <c r="AA28">
+        <v>22</v>
+      </c>
+      <c r="AB28">
+        <v>15.5</v>
+      </c>
+      <c r="AC28">
+        <v>17</v>
+      </c>
+      <c r="AD28">
+        <v>7.8</v>
+      </c>
+      <c r="AE28">
+        <v>8.6</v>
+      </c>
+      <c r="AF28">
+        <v>9.4</v>
+      </c>
+      <c r="AG28">
         <v>10</v>
       </c>
-      <c r="Y28">
-        <v>12.5</v>
-      </c>
-      <c r="Z28">
+      <c r="AH28">
+        <v>17.5</v>
+      </c>
+      <c r="AI28">
+        <v>20</v>
+      </c>
+      <c r="AJ28">
+        <v>29</v>
+      </c>
+      <c r="AK28">
+        <v>34</v>
+      </c>
+      <c r="AL28">
         <v>16</v>
       </c>
-      <c r="AA28">
-        <v>23</v>
-      </c>
-      <c r="AB28">
-        <v>15</v>
-      </c>
-      <c r="AC28">
-        <v>19</v>
-      </c>
-      <c r="AD28">
-        <v>8</v>
-      </c>
-      <c r="AE28">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF28">
-        <v>8.4</v>
-      </c>
-      <c r="AG28">
-        <v>11.5</v>
-      </c>
-      <c r="AH28">
-        <v>16.5</v>
-      </c>
-      <c r="AI28">
-        <v>21</v>
-      </c>
-      <c r="AJ28">
-        <v>26</v>
-      </c>
-      <c r="AK28">
-        <v>40</v>
-      </c>
-      <c r="AL28">
-        <v>16.5</v>
-      </c>
       <c r="AM28">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AN28">
         <v>17</v>
       </c>
       <c r="AO28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP28">
-        <v>6.4</v>
+        <v>30</v>
       </c>
       <c r="AQ28">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AR28">
-        <v>6.2</v>
+        <v>16.5</v>
       </c>
       <c r="AS28">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AT28">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AU28">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AV28">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AW28">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AX28">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="AY28">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ28">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="BA28">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BB28">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="BC28">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD28">
-        <v>6.6</v>
+        <v>19</v>
       </c>
       <c r="BE28">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BG28">
         <v>2250259</v>
@@ -7120,16 +6985,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="BK28" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="BL28" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="BM28" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7149,46 +7014,46 @@
         <v>188</v>
       </c>
       <c r="F29">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G29">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H29">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29">
         <v>3.55</v>
       </c>
       <c r="J29">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L29">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="M29">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="N29">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="O29">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="P29">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q29">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R29">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S29">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
         <v>8.800000000000001</v>
@@ -7197,10 +7062,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W29">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X29">
         <v>20</v>
@@ -7209,103 +7074,103 @@
         <v>22</v>
       </c>
       <c r="Z29">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA29">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB29">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC29">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD29">
         <v>6.6</v>
       </c>
       <c r="AE29">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF29">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG29">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH29">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ29">
         <v>13</v>
       </c>
       <c r="AK29">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL29">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM29">
         <v>12.5</v>
       </c>
       <c r="AN29">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP29">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ29">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR29">
         <v>30</v>
       </c>
       <c r="AS29">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU29">
         <v>32</v>
       </c>
       <c r="AV29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AW29">
+        <v>60</v>
+      </c>
+      <c r="AX29">
+        <v>100</v>
+      </c>
+      <c r="AY29">
+        <v>160</v>
+      </c>
+      <c r="AZ29">
+        <v>30</v>
+      </c>
+      <c r="BA29">
+        <v>32</v>
+      </c>
+      <c r="BB29">
         <v>55</v>
       </c>
-      <c r="AX29">
-        <v>42</v>
-      </c>
-      <c r="AY29">
-        <v>140</v>
-      </c>
-      <c r="AZ29">
-        <v>25</v>
-      </c>
-      <c r="BA29">
-        <v>29</v>
-      </c>
-      <c r="BB29">
-        <v>48</v>
-      </c>
       <c r="BC29">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BD29">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="BG29">
         <v>60310</v>
@@ -7317,16 +7182,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="BK29" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="BL29" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="BM29" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7346,163 +7211,163 @@
         <v>189</v>
       </c>
       <c r="F30">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="G30">
+        <v>2.68</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>2.6</v>
-      </c>
       <c r="I30">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L30">
         <v>1.82</v>
       </c>
       <c r="M30">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
         <v>2.22</v>
       </c>
       <c r="P30">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="Q30">
+        <v>2.48</v>
+      </c>
+      <c r="R30">
+        <v>1.68</v>
+      </c>
+      <c r="S30">
+        <v>2.9</v>
+      </c>
+      <c r="T30">
         <v>1.94</v>
       </c>
-      <c r="R30">
-        <v>2.06</v>
-      </c>
-      <c r="S30">
-        <v>2.22</v>
-      </c>
-      <c r="T30">
-        <v>5.1</v>
-      </c>
       <c r="U30">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="V30">
-        <v>4.7</v>
+        <v>1.93</v>
       </c>
       <c r="W30">
+        <v>980</v>
+      </c>
+      <c r="X30">
+        <v>1.12</v>
+      </c>
+      <c r="Y30">
+        <v>1000</v>
+      </c>
+      <c r="Z30">
+        <v>1.04</v>
+      </c>
+      <c r="AA30">
+        <v>1000</v>
+      </c>
+      <c r="AB30">
+        <v>1.9</v>
+      </c>
+      <c r="AC30">
+        <v>980</v>
+      </c>
+      <c r="AD30">
+        <v>6.8</v>
+      </c>
+      <c r="AE30">
+        <v>980</v>
+      </c>
+      <c r="AF30">
         <v>11.5</v>
       </c>
-      <c r="X30">
-        <v>1.99</v>
-      </c>
-      <c r="Y30">
-        <v>19</v>
-      </c>
-      <c r="Z30">
-        <v>2.1</v>
-      </c>
-      <c r="AA30">
-        <v>44</v>
-      </c>
-      <c r="AB30">
-        <v>1.99</v>
-      </c>
-      <c r="AC30">
-        <v>12</v>
-      </c>
-      <c r="AD30">
-        <v>4.2</v>
-      </c>
-      <c r="AE30">
-        <v>8.6</v>
-      </c>
-      <c r="AF30">
-        <v>5</v>
-      </c>
       <c r="AG30">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH30">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="AI30">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ30">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="AK30">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL30">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="AM30">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AN30">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="AO30">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AP30">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="AQ30">
         <v>1000</v>
       </c>
       <c r="AR30">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="AS30">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AT30">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="AU30">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AV30">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="AW30">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AX30">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="AY30">
         <v>1000</v>
       </c>
       <c r="AZ30">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="BA30">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="BB30">
-        <v>2.06</v>
+        <v>1.02</v>
       </c>
       <c r="BC30">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="BD30">
-        <v>2.22</v>
+        <v>1.36</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="BG30">
         <v>77586</v>
@@ -7514,16 +7379,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="BK30" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="BL30" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="BM30" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7543,163 +7408,163 @@
         <v>190</v>
       </c>
       <c r="F31">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="G31">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I31">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J31">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K31">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L31">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="M31">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="N31">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O31">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P31">
         <v>2</v>
       </c>
       <c r="Q31">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R31">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="S31">
         <v>2</v>
       </c>
       <c r="T31">
+        <v>19</v>
+      </c>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <v>36</v>
+      </c>
+      <c r="X31">
+        <v>60</v>
+      </c>
+      <c r="Y31">
+        <v>95</v>
+      </c>
+      <c r="Z31">
         <v>18</v>
       </c>
-      <c r="U31">
-        <v>24</v>
-      </c>
-      <c r="V31">
-        <v>6.4</v>
-      </c>
-      <c r="W31">
-        <v>40</v>
-      </c>
-      <c r="X31">
-        <v>7.2</v>
-      </c>
-      <c r="Y31">
-        <v>110</v>
-      </c>
-      <c r="Z31">
+      <c r="AA31">
+        <v>980</v>
+      </c>
+      <c r="AB31">
+        <v>8.4</v>
+      </c>
+      <c r="AC31">
+        <v>9.4</v>
+      </c>
+      <c r="AD31">
+        <v>11.5</v>
+      </c>
+      <c r="AE31">
+        <v>13</v>
+      </c>
+      <c r="AF31">
+        <v>32</v>
+      </c>
+      <c r="AG31">
+        <v>38</v>
+      </c>
+      <c r="AH31">
+        <v>17</v>
+      </c>
+      <c r="AI31">
+        <v>980</v>
+      </c>
+      <c r="AJ31">
         <v>7.6</v>
       </c>
-      <c r="AA31">
-        <v>410</v>
-      </c>
-      <c r="AB31">
-        <v>7.6</v>
-      </c>
-      <c r="AC31">
+      <c r="AK31">
+        <v>8.4</v>
+      </c>
+      <c r="AL31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM31">
         <v>10</v>
-      </c>
-      <c r="AD31">
-        <v>11</v>
-      </c>
-      <c r="AE31">
-        <v>14.5</v>
-      </c>
-      <c r="AF31">
-        <v>6.8</v>
-      </c>
-      <c r="AG31">
-        <v>44</v>
-      </c>
-      <c r="AH31">
-        <v>7.4</v>
-      </c>
-      <c r="AI31">
-        <v>180</v>
-      </c>
-      <c r="AJ31">
-        <v>6.8</v>
-      </c>
-      <c r="AK31">
-        <v>9</v>
-      </c>
-      <c r="AL31">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM31">
-        <v>11.5</v>
       </c>
       <c r="AN31">
         <v>24</v>
       </c>
       <c r="AO31">
+        <v>28</v>
+      </c>
+      <c r="AP31">
+        <v>16.5</v>
+      </c>
+      <c r="AQ31">
+        <v>130</v>
+      </c>
+      <c r="AR31">
+        <v>10</v>
+      </c>
+      <c r="AS31">
+        <v>11.5</v>
+      </c>
+      <c r="AT31">
+        <v>12.5</v>
+      </c>
+      <c r="AU31">
+        <v>14</v>
+      </c>
+      <c r="AV31">
+        <v>30</v>
+      </c>
+      <c r="AW31">
         <v>34</v>
       </c>
-      <c r="AP31">
-        <v>7.4</v>
-      </c>
-      <c r="AQ31">
+      <c r="AX31">
+        <v>17</v>
+      </c>
+      <c r="AY31">
         <v>150</v>
       </c>
-      <c r="AR31">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AS31">
-        <v>12</v>
-      </c>
-      <c r="AT31">
-        <v>11.5</v>
-      </c>
-      <c r="AU31">
-        <v>16</v>
-      </c>
-      <c r="AV31">
-        <v>6.8</v>
-      </c>
-      <c r="AW31">
-        <v>40</v>
-      </c>
-      <c r="AX31">
-        <v>7.4</v>
-      </c>
-      <c r="AY31">
-        <v>180</v>
-      </c>
       <c r="AZ31">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="BA31">
         <v>5.5</v>
       </c>
       <c r="BB31">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="BC31">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="BD31">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="BG31">
         <v>184325</v>
@@ -7711,16 +7576,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="BK31" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="BL31" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="BM31" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7740,61 +7605,61 @@
         <v>191</v>
       </c>
       <c r="F32">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G32">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H32">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="I32">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J32">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K32">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L32">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="M32">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="N32">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="O32">
+        <v>1.75</v>
+      </c>
+      <c r="P32">
+        <v>1.82</v>
+      </c>
+      <c r="Q32">
         <v>1.85</v>
       </c>
-      <c r="P32">
-        <v>1.87</v>
-      </c>
-      <c r="Q32">
-        <v>1.91</v>
-      </c>
       <c r="R32">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="S32">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V32">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="W32">
         <v>9.800000000000001</v>
       </c>
       <c r="X32">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y32">
         <v>10.5</v>
@@ -7806,97 +7671,97 @@
         <v>17</v>
       </c>
       <c r="AB32">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC32">
         <v>22</v>
       </c>
       <c r="AD32">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE32">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AF32">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG32">
         <v>9.6</v>
       </c>
       <c r="AH32">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI32">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ32">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL32">
         <v>19</v>
       </c>
       <c r="AM32">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN32">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO32">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP32">
+        <v>28</v>
+      </c>
+      <c r="AQ32">
         <v>29</v>
       </c>
-      <c r="AQ32">
-        <v>32</v>
-      </c>
       <c r="AR32">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AS32">
         <v>140</v>
       </c>
       <c r="AT32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AU32">
         <v>70</v>
       </c>
       <c r="AV32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW32">
         <v>70</v>
       </c>
       <c r="AX32">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AY32">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ32">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BA32">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB32">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="BC32">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="BD32">
-        <v>19.5</v>
+        <v>320</v>
       </c>
       <c r="BE32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF32" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="BG32">
         <v>56295</v>
@@ -7908,16 +7773,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="BK32" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="BL32" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="BM32" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7937,97 +7802,97 @@
         <v>192</v>
       </c>
       <c r="F33">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="G33">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H33">
+        <v>9.4</v>
+      </c>
+      <c r="I33">
         <v>9.6</v>
       </c>
-      <c r="I33">
-        <v>9.800000000000001</v>
-      </c>
       <c r="J33">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="K33">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="M33">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="N33">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="O33">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P33">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q33">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R33">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T33">
+        <v>19.5</v>
+      </c>
+      <c r="U33">
         <v>20</v>
       </c>
-      <c r="U33">
-        <v>22</v>
-      </c>
       <c r="V33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X33">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y33">
         <v>85</v>
       </c>
       <c r="Z33">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA33">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB33">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33">
         <v>9.199999999999999</v>
       </c>
       <c r="AD33">
+        <v>11</v>
+      </c>
+      <c r="AE33">
         <v>11.5</v>
       </c>
-      <c r="AE33">
-        <v>12.5</v>
-      </c>
       <c r="AF33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH33">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI33">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ33">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK33">
         <v>8.199999999999999</v>
@@ -8036,31 +7901,31 @@
         <v>9.6</v>
       </c>
       <c r="AM33">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AN33">
         <v>26</v>
       </c>
       <c r="AO33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP33">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AQ33">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AR33">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AS33">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AT33">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU33">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AV33">
         <v>30</v>
@@ -8069,31 +7934,31 @@
         <v>34</v>
       </c>
       <c r="AX33">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AY33">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AZ33">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="BA33">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BB33">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="BC33">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BD33">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="BG33">
         <v>52480964</v>
@@ -8105,16 +7970,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="BK33" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="BL33" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="BM33" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8134,13 +7999,13 @@
         <v>193</v>
       </c>
       <c r="F34">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G34">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H34">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I34">
         <v>3.75</v>
@@ -8149,10 +8014,10 @@
         <v>3.45</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M34">
         <v>2.14</v>
@@ -8161,136 +8026,136 @@
         <v>1.88</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P34">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q34">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R34">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="S34">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T34">
+        <v>13.5</v>
+      </c>
+      <c r="U34">
+        <v>15</v>
+      </c>
+      <c r="V34">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>15.5</v>
+      </c>
+      <c r="X34">
+        <v>23</v>
+      </c>
+      <c r="Y34">
+        <v>26</v>
+      </c>
+      <c r="Z34">
+        <v>55</v>
+      </c>
+      <c r="AA34">
+        <v>65</v>
+      </c>
+      <c r="AB34">
         <v>10</v>
       </c>
-      <c r="U34">
-        <v>17.5</v>
-      </c>
-      <c r="V34">
-        <v>10.5</v>
-      </c>
-      <c r="W34">
-        <v>17.5</v>
-      </c>
-      <c r="X34">
-        <v>18.5</v>
-      </c>
-      <c r="Y34">
-        <v>32</v>
-      </c>
-      <c r="Z34">
-        <v>4.1</v>
-      </c>
-      <c r="AA34">
-        <v>80</v>
-      </c>
-      <c r="AB34">
-        <v>7.8</v>
-      </c>
       <c r="AC34">
+        <v>11</v>
+      </c>
+      <c r="AD34">
+        <v>7.6</v>
+      </c>
+      <c r="AE34">
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <v>13.5</v>
+      </c>
+      <c r="AG34">
+        <v>15</v>
+      </c>
+      <c r="AH34">
+        <v>36</v>
+      </c>
+      <c r="AI34">
+        <v>40</v>
+      </c>
+      <c r="AJ34">
         <v>13</v>
       </c>
-      <c r="AD34">
-        <v>6</v>
-      </c>
-      <c r="AE34">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF34">
+      <c r="AK34">
+        <v>14.5</v>
+      </c>
+      <c r="AL34">
+        <v>10</v>
+      </c>
+      <c r="AM34">
         <v>11</v>
       </c>
-      <c r="AG34">
-        <v>18</v>
-      </c>
-      <c r="AH34">
-        <v>4.3</v>
-      </c>
-      <c r="AI34">
-        <v>50</v>
-      </c>
-      <c r="AJ34">
-        <v>10.5</v>
-      </c>
-      <c r="AK34">
-        <v>17.5</v>
-      </c>
-      <c r="AL34">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AM34">
+      <c r="AN34">
+        <v>14.5</v>
+      </c>
+      <c r="AO34">
+        <v>17</v>
+      </c>
+      <c r="AP34">
+        <v>42</v>
+      </c>
+      <c r="AQ34">
+        <v>48</v>
+      </c>
+      <c r="AR34">
+        <v>25</v>
+      </c>
+      <c r="AS34">
+        <v>28</v>
+      </c>
+      <c r="AT34">
+        <v>19.5</v>
+      </c>
+      <c r="AU34">
+        <v>22</v>
+      </c>
+      <c r="AV34">
+        <v>30</v>
+      </c>
+      <c r="AW34">
+        <v>34</v>
+      </c>
+      <c r="AX34">
+        <v>16.5</v>
+      </c>
+      <c r="AY34">
+        <v>85</v>
+      </c>
+      <c r="AZ34">
         <v>13.5</v>
       </c>
-      <c r="AN34">
-        <v>13</v>
-      </c>
-      <c r="AO34">
-        <v>22</v>
-      </c>
-      <c r="AP34">
-        <v>4</v>
-      </c>
-      <c r="AQ34">
-        <v>65</v>
-      </c>
-      <c r="AR34">
+      <c r="BA34">
+        <v>15</v>
+      </c>
+      <c r="BB34">
+        <v>30</v>
+      </c>
+      <c r="BC34">
+        <v>36</v>
+      </c>
+      <c r="BD34">
         <v>20</v>
       </c>
-      <c r="AS34">
-        <v>36</v>
-      </c>
-      <c r="AT34">
-        <v>17</v>
-      </c>
-      <c r="AU34">
-        <v>29</v>
-      </c>
-      <c r="AV34">
-        <v>4.3</v>
-      </c>
-      <c r="AW34">
-        <v>46</v>
-      </c>
-      <c r="AX34">
-        <v>4.1</v>
-      </c>
-      <c r="AY34">
-        <v>120</v>
-      </c>
-      <c r="AZ34">
-        <v>3.55</v>
-      </c>
-      <c r="BA34">
-        <v>21</v>
-      </c>
-      <c r="BB34">
-        <v>3.9</v>
-      </c>
-      <c r="BC34">
-        <v>48</v>
-      </c>
-      <c r="BD34">
-        <v>4.2</v>
-      </c>
       <c r="BE34">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF34" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="BG34">
         <v>36362918</v>
@@ -8302,16 +8167,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="BK34" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="BL34" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="BM34" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8331,34 +8196,34 @@
         <v>194</v>
       </c>
       <c r="F35">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="G35">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H35">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J35">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="K35">
-        <v>950</v>
+        <v>10.5</v>
       </c>
       <c r="L35">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="M35">
-        <v>990</v>
+        <v>1.97</v>
       </c>
       <c r="N35">
-        <v>1.07</v>
+        <v>2.02</v>
       </c>
       <c r="O35">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="P35">
         <v>1.12</v>
@@ -8373,97 +8238,97 @@
         <v>1000</v>
       </c>
       <c r="T35">
-        <v>8.6</v>
+        <v>1.05</v>
       </c>
       <c r="U35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y35">
         <v>1000</v>
       </c>
       <c r="Z35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AA35">
         <v>1000</v>
       </c>
       <c r="AB35">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="AC35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD35">
-        <v>7.2</v>
+        <v>1.05</v>
       </c>
       <c r="AE35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AI35">
         <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>8.199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AK35">
         <v>1000</v>
       </c>
       <c r="AL35">
-        <v>9</v>
+        <v>1.05</v>
       </c>
       <c r="AM35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AO35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AS35">
         <v>1000</v>
       </c>
       <c r="AT35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AU35">
         <v>1000</v>
       </c>
       <c r="AV35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AW35">
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AY35">
         <v>1000</v>
@@ -8481,13 +8346,13 @@
         <v>1000</v>
       </c>
       <c r="BD35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="BE35">
         <v>1000</v>
       </c>
       <c r="BF35" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="BG35">
         <v>16918367</v>
@@ -8499,16 +8364,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="BK35" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="BL35" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="BM35" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8528,163 +8393,163 @@
         <v>195</v>
       </c>
       <c r="F36">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G36">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J36">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M36">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="N36">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="O36">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="P36">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q36">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R36">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T36">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <v>14.5</v>
+      </c>
+      <c r="X36">
+        <v>22</v>
+      </c>
+      <c r="Y36">
+        <v>27</v>
+      </c>
+      <c r="Z36">
+        <v>15</v>
+      </c>
+      <c r="AA36">
+        <v>95</v>
+      </c>
+      <c r="AB36">
+        <v>6.6</v>
+      </c>
+      <c r="AC36">
+        <v>7.6</v>
+      </c>
+      <c r="AD36">
+        <v>6.8</v>
+      </c>
+      <c r="AE36">
+        <v>7.6</v>
+      </c>
+      <c r="AF36">
+        <v>16</v>
+      </c>
+      <c r="AG36">
+        <v>980</v>
+      </c>
+      <c r="AH36">
+        <v>44</v>
+      </c>
+      <c r="AI36">
+        <v>65</v>
+      </c>
+      <c r="AJ36">
+        <v>10</v>
+      </c>
+      <c r="AK36">
+        <v>17</v>
+      </c>
+      <c r="AL36">
+        <v>9.6</v>
+      </c>
+      <c r="AM36">
         <v>11.5</v>
       </c>
-      <c r="V36">
-        <v>4.8</v>
-      </c>
-      <c r="W36">
-        <v>980</v>
-      </c>
-      <c r="X36">
-        <v>5.4</v>
-      </c>
-      <c r="Y36">
-        <v>980</v>
-      </c>
-      <c r="Z36">
-        <v>6.4</v>
-      </c>
-      <c r="AA36">
-        <v>1000</v>
-      </c>
-      <c r="AB36">
-        <v>6.2</v>
-      </c>
-      <c r="AC36">
-        <v>7.8</v>
-      </c>
-      <c r="AD36">
-        <v>7.6</v>
-      </c>
-      <c r="AE36">
-        <v>9</v>
-      </c>
-      <c r="AF36">
-        <v>5.5</v>
-      </c>
-      <c r="AG36">
-        <v>980</v>
-      </c>
-      <c r="AH36">
-        <v>6</v>
-      </c>
-      <c r="AI36">
-        <v>980</v>
-      </c>
-      <c r="AJ36">
-        <v>4.7</v>
-      </c>
-      <c r="AK36">
-        <v>12</v>
-      </c>
-      <c r="AL36">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM36">
-        <v>12</v>
-      </c>
       <c r="AN36">
-        <v>5.7</v>
+        <v>21</v>
       </c>
       <c r="AO36">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AP36">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AQ36">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AR36">
-        <v>5.2</v>
+        <v>23</v>
       </c>
       <c r="AS36">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AT36">
-        <v>5.7</v>
+        <v>23</v>
       </c>
       <c r="AU36">
         <v>980</v>
       </c>
       <c r="AV36">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="AW36">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX36">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AY36">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AZ36">
-        <v>5.1</v>
+        <v>19</v>
       </c>
       <c r="BA36">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="BB36">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BC36">
         <v>980</v>
       </c>
       <c r="BD36">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="BG36">
         <v>2760854</v>
@@ -8696,16 +8561,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="BK36" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="BL36" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="BM36" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8725,163 +8590,163 @@
         <v>196</v>
       </c>
       <c r="F37">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="G37">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H37">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="I37">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="J37">
+        <v>2.98</v>
+      </c>
+      <c r="K37">
         <v>3</v>
       </c>
-      <c r="K37">
-        <v>3.1</v>
-      </c>
       <c r="L37">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M37">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="N37">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="P37">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R37">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S37">
         <v>1.84</v>
       </c>
       <c r="T37">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="U37">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="V37">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="W37">
         <v>8.4</v>
       </c>
       <c r="X37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z37">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA37">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB37">
+        <v>7.8</v>
+      </c>
+      <c r="AC37">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC37">
-        <v>9.4</v>
-      </c>
       <c r="AD37">
+        <v>6.2</v>
+      </c>
+      <c r="AE37">
         <v>6.6</v>
       </c>
-      <c r="AE37">
-        <v>7</v>
-      </c>
       <c r="AF37">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG37">
         <v>14</v>
       </c>
       <c r="AH37">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AI37">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ37">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK37">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL37">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM37">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AN37">
         <v>21</v>
       </c>
       <c r="AO37">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP37">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AQ37">
         <v>80</v>
       </c>
       <c r="AR37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AS37">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AT37">
         <v>40</v>
       </c>
       <c r="AU37">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AV37">
         <v>65</v>
       </c>
       <c r="AW37">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AX37">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AY37">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AZ37">
-        <v>9.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="BA37">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB37">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="BC37">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD37">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="BG37">
         <v>198126</v>
@@ -8893,16 +8758,16 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="BK37" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="BL37" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="BM37" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8922,163 +8787,163 @@
         <v>197</v>
       </c>
       <c r="F38">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="G38">
-        <v>4.3</v>
+        <v>2.48</v>
       </c>
       <c r="H38">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I38">
-        <v>38</v>
+        <v>4.1</v>
       </c>
       <c r="J38">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="K38">
-        <v>9.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="M38">
-        <v>980</v>
+        <v>1.6</v>
       </c>
       <c r="N38">
-        <v>1.09</v>
+        <v>2.66</v>
       </c>
       <c r="O38">
-        <v>6.4</v>
+        <v>2.98</v>
       </c>
       <c r="P38">
-        <v>1.12</v>
+        <v>2.12</v>
       </c>
       <c r="Q38">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="R38">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="S38">
-        <v>1000</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V38">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="W38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X38">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="Y38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z38">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="AA38">
         <v>1000</v>
       </c>
       <c r="AB38">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="AC38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD38">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="AE38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF38">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AG38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH38">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="AI38">
         <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>1.03</v>
+        <v>2.86</v>
       </c>
       <c r="AK38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL38">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="AM38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN38">
-        <v>1.03</v>
+        <v>5.4</v>
       </c>
       <c r="AO38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP38">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="AS38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT38">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="AU38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV38">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="AY38">
         <v>1000</v>
       </c>
       <c r="AZ38">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB38">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="BC38">
         <v>1000</v>
       </c>
       <c r="BD38">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="BG38">
         <v>5327519</v>
@@ -9090,16 +8955,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="BK38" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="BL38" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="BM38" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9119,163 +8984,163 @@
         <v>198</v>
       </c>
       <c r="F39">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="G39">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="H39">
-        <v>1.24</v>
+        <v>5.4</v>
       </c>
       <c r="I39">
-        <v>870</v>
+        <v>6.4</v>
       </c>
       <c r="J39">
-        <v>1.21</v>
+        <v>3.4</v>
       </c>
       <c r="K39">
-        <v>330</v>
+        <v>3.85</v>
       </c>
       <c r="L39">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="M39">
-        <v>980</v>
+        <v>1.69</v>
       </c>
       <c r="N39">
-        <v>1.06</v>
+        <v>2.44</v>
       </c>
       <c r="O39">
-        <v>6.4</v>
+        <v>2.64</v>
       </c>
       <c r="P39">
-        <v>1.12</v>
+        <v>2.12</v>
       </c>
       <c r="Q39">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="R39">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="S39">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="T39">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="U39">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="V39">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="W39">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="X39">
-        <v>2.44</v>
+        <v>3.8</v>
       </c>
       <c r="Y39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z39">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AA39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB39">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="AC39">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD39">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="AE39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF39">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="AG39">
         <v>1000</v>
       </c>
       <c r="AH39">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AI39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ39">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AK39">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AL39">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AM39">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN39">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="AO39">
         <v>1000</v>
       </c>
       <c r="AP39">
-        <v>10.5</v>
+        <v>3.95</v>
       </c>
       <c r="AQ39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR39">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AS39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV39">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="AW39">
         <v>1000</v>
       </c>
       <c r="AX39">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="AY39">
         <v>1000</v>
       </c>
       <c r="AZ39">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BA39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB39">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD39">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="BG39">
         <v>16916720</v>
@@ -9287,16 +9152,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="BK39" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="BL39" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="BM39" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9316,163 +9181,163 @@
         <v>199</v>
       </c>
       <c r="F40">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="G40">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="H40">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J40">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K40">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L40">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="M40">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="N40">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="O40">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="P40">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q40">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R40">
         <v>1.59</v>
       </c>
       <c r="S40">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="T40">
+        <v>5.3</v>
+      </c>
+      <c r="U40">
+        <v>15</v>
+      </c>
+      <c r="V40">
+        <v>6.4</v>
+      </c>
+      <c r="W40">
+        <v>980</v>
+      </c>
+      <c r="X40">
+        <v>7.6</v>
+      </c>
+      <c r="Y40">
+        <v>1000</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>1000</v>
+      </c>
+      <c r="AB40">
+        <v>6.2</v>
+      </c>
+      <c r="AC40">
+        <v>7.2</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>980</v>
+      </c>
+      <c r="AF40">
+        <v>6.8</v>
+      </c>
+      <c r="AG40">
+        <v>980</v>
+      </c>
+      <c r="AH40">
+        <v>3.1</v>
+      </c>
+      <c r="AI40">
+        <v>1000</v>
+      </c>
+      <c r="AJ40">
+        <v>6.4</v>
+      </c>
+      <c r="AK40">
+        <v>7.8</v>
+      </c>
+      <c r="AL40">
+        <v>9</v>
+      </c>
+      <c r="AM40">
+        <v>980</v>
+      </c>
+      <c r="AN40">
+        <v>6.6</v>
+      </c>
+      <c r="AO40">
+        <v>980</v>
+      </c>
+      <c r="AP40">
+        <v>4.6</v>
+      </c>
+      <c r="AQ40">
+        <v>1000</v>
+      </c>
+      <c r="AR40">
+        <v>9.4</v>
+      </c>
+      <c r="AS40">
+        <v>12</v>
+      </c>
+      <c r="AT40">
+        <v>14</v>
+      </c>
+      <c r="AU40">
+        <v>980</v>
+      </c>
+      <c r="AV40">
+        <v>7.2</v>
+      </c>
+      <c r="AW40">
+        <v>980</v>
+      </c>
+      <c r="AX40">
+        <v>4.2</v>
+      </c>
+      <c r="AY40">
+        <v>1000</v>
+      </c>
+      <c r="AZ40">
+        <v>4.1</v>
+      </c>
+      <c r="BA40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BB40">
+        <v>4.1</v>
+      </c>
+      <c r="BC40">
+        <v>1000</v>
+      </c>
+      <c r="BD40">
         <v>4.7</v>
       </c>
-      <c r="U40">
-        <v>16</v>
-      </c>
-      <c r="V40">
-        <v>5.3</v>
-      </c>
-      <c r="W40">
-        <v>30</v>
-      </c>
-      <c r="X40">
-        <v>1.4</v>
-      </c>
-      <c r="Y40">
-        <v>1000</v>
-      </c>
-      <c r="Z40">
-        <v>1.14</v>
-      </c>
-      <c r="AA40">
-        <v>1000</v>
-      </c>
-      <c r="AB40">
-        <v>5.9</v>
-      </c>
-      <c r="AC40">
-        <v>7.6</v>
-      </c>
-      <c r="AD40">
-        <v>4.4</v>
-      </c>
-      <c r="AE40">
-        <v>13</v>
-      </c>
-      <c r="AF40">
-        <v>1.93</v>
-      </c>
-      <c r="AG40">
-        <v>46</v>
-      </c>
-      <c r="AH40">
-        <v>1.26</v>
-      </c>
-      <c r="AI40">
-        <v>1000</v>
-      </c>
-      <c r="AJ40">
-        <v>5.9</v>
-      </c>
-      <c r="AK40">
-        <v>8</v>
-      </c>
-      <c r="AL40">
-        <v>4.3</v>
-      </c>
-      <c r="AM40">
-        <v>12</v>
-      </c>
-      <c r="AN40">
-        <v>1.92</v>
-      </c>
-      <c r="AO40">
-        <v>40</v>
-      </c>
-      <c r="AP40">
-        <v>1.26</v>
-      </c>
-      <c r="AQ40">
-        <v>1000</v>
-      </c>
-      <c r="AR40">
-        <v>4.4</v>
-      </c>
-      <c r="AS40">
-        <v>12.5</v>
-      </c>
-      <c r="AT40">
-        <v>5</v>
-      </c>
-      <c r="AU40">
-        <v>19</v>
-      </c>
-      <c r="AV40">
-        <v>1.95</v>
-      </c>
-      <c r="AW40">
-        <v>60</v>
-      </c>
-      <c r="AX40">
-        <v>1.14</v>
-      </c>
-      <c r="AY40">
-        <v>1000</v>
-      </c>
-      <c r="AZ40">
-        <v>3.75</v>
-      </c>
-      <c r="BA40">
-        <v>8.4</v>
-      </c>
-      <c r="BB40">
-        <v>1.01</v>
-      </c>
-      <c r="BC40">
-        <v>1000</v>
-      </c>
-      <c r="BD40">
-        <v>1.04</v>
-      </c>
       <c r="BE40">
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="BG40">
         <v>328191</v>
@@ -9484,16 +9349,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="BK40" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="BL40" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="BM40" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9513,163 +9378,163 @@
         <v>200</v>
       </c>
       <c r="F41">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G41">
+        <v>1.97</v>
+      </c>
+      <c r="H41">
+        <v>4.6</v>
+      </c>
+      <c r="I41">
+        <v>5.1</v>
+      </c>
+      <c r="J41">
+        <v>3.55</v>
+      </c>
+      <c r="K41">
+        <v>3.8</v>
+      </c>
+      <c r="L41">
+        <v>1.86</v>
+      </c>
+      <c r="M41">
+        <v>2.04</v>
+      </c>
+      <c r="N41">
+        <v>1.96</v>
+      </c>
+      <c r="O41">
+        <v>2.18</v>
+      </c>
+      <c r="P41">
+        <v>1.87</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
         <v>2.16</v>
       </c>
-      <c r="H41">
-        <v>3.85</v>
-      </c>
-      <c r="I41">
-        <v>4.8</v>
-      </c>
-      <c r="J41">
-        <v>3.3</v>
-      </c>
-      <c r="K41">
-        <v>4.3</v>
-      </c>
-      <c r="L41">
-        <v>1.71</v>
-      </c>
-      <c r="M41">
-        <v>2.6</v>
-      </c>
-      <c r="N41">
-        <v>1.62</v>
-      </c>
-      <c r="O41">
-        <v>2.42</v>
-      </c>
-      <c r="P41">
-        <v>1.57</v>
-      </c>
-      <c r="Q41">
-        <v>2.58</v>
-      </c>
-      <c r="R41">
-        <v>1.64</v>
-      </c>
-      <c r="S41">
-        <v>2.76</v>
-      </c>
       <c r="T41">
-        <v>1.09</v>
+        <v>11.5</v>
       </c>
       <c r="U41">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="V41">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="W41">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="X41">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="Y41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z41">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="AA41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB41">
-        <v>1.13</v>
+        <v>7.6</v>
       </c>
       <c r="AC41">
+        <v>9.6</v>
+      </c>
+      <c r="AD41">
+        <v>7.2</v>
+      </c>
+      <c r="AE41">
+        <v>8.6</v>
+      </c>
+      <c r="AF41">
+        <v>4.4</v>
+      </c>
+      <c r="AG41">
+        <v>21</v>
+      </c>
+      <c r="AH41">
+        <v>3.8</v>
+      </c>
+      <c r="AI41">
+        <v>980</v>
+      </c>
+      <c r="AJ41">
         <v>10</v>
       </c>
-      <c r="AD41">
-        <v>1.17</v>
-      </c>
-      <c r="AE41">
-        <v>9</v>
-      </c>
-      <c r="AF41">
-        <v>1.04</v>
-      </c>
-      <c r="AG41">
-        <v>18.5</v>
-      </c>
-      <c r="AH41">
-        <v>1.03</v>
-      </c>
-      <c r="AI41">
-        <v>1000</v>
-      </c>
-      <c r="AJ41">
-        <v>1.09</v>
-      </c>
       <c r="AK41">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL41">
-        <v>1.09</v>
+        <v>8.4</v>
       </c>
       <c r="AM41">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN41">
-        <v>1.04</v>
+        <v>5.8</v>
       </c>
       <c r="AO41">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AP41">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AQ41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR41">
-        <v>1.04</v>
+        <v>17.5</v>
       </c>
       <c r="AS41">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AT41">
-        <v>1.04</v>
+        <v>5.8</v>
       </c>
       <c r="AU41">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AV41">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="AW41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX41">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AY41">
         <v>1000</v>
       </c>
       <c r="AZ41">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="BA41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB41">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="BC41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD41">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="BE41">
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="BG41">
         <v>330234</v>
@@ -9681,16 +9546,16 @@
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="BK41" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="BL41" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="BM41" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9710,163 +9575,163 @@
         <v>201</v>
       </c>
       <c r="F42">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="G42">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H42">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I42">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="J42">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K42">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L42">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="M42">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="N42">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="P42">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="Q42">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="R42">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="S42">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T42">
-        <v>3.6</v>
+        <v>15.5</v>
       </c>
       <c r="U42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V42">
-        <v>3.55</v>
+        <v>15</v>
       </c>
       <c r="W42">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X42">
-        <v>3.9</v>
+        <v>21</v>
       </c>
       <c r="Y42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z42">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA42">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB42">
-        <v>3.45</v>
+        <v>10</v>
       </c>
       <c r="AC42">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD42">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="AE42">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF42">
+        <v>14</v>
+      </c>
+      <c r="AG42">
+        <v>16</v>
+      </c>
+      <c r="AH42">
+        <v>7.4</v>
+      </c>
+      <c r="AI42">
+        <v>55</v>
+      </c>
+      <c r="AJ42">
+        <v>12</v>
+      </c>
+      <c r="AK42">
+        <v>14</v>
+      </c>
+      <c r="AL42">
+        <v>9.4</v>
+      </c>
+      <c r="AM42">
         <v>11</v>
       </c>
-      <c r="AF42">
-        <v>3.6</v>
-      </c>
-      <c r="AG42">
+      <c r="AN42">
+        <v>15.5</v>
+      </c>
+      <c r="AO42">
         <v>18</v>
       </c>
-      <c r="AH42">
-        <v>4.1</v>
-      </c>
-      <c r="AI42">
-        <v>50</v>
-      </c>
-      <c r="AJ42">
-        <v>3.55</v>
-      </c>
-      <c r="AK42">
-        <v>16.5</v>
-      </c>
-      <c r="AL42">
-        <v>3.4</v>
-      </c>
-      <c r="AM42">
-        <v>13</v>
-      </c>
-      <c r="AN42">
-        <v>3.75</v>
-      </c>
-      <c r="AO42">
-        <v>23</v>
-      </c>
       <c r="AP42">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="AQ42">
         <v>60</v>
       </c>
       <c r="AR42">
-        <v>3.9</v>
+        <v>21</v>
       </c>
       <c r="AS42">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AT42">
-        <v>3.8</v>
+        <v>17.5</v>
       </c>
       <c r="AU42">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AV42">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="AW42">
+        <v>40</v>
+      </c>
+      <c r="AX42">
+        <v>7.8</v>
+      </c>
+      <c r="AY42">
+        <v>100</v>
+      </c>
+      <c r="AZ42">
+        <v>5.3</v>
+      </c>
+      <c r="BA42">
+        <v>14.5</v>
+      </c>
+      <c r="BB42">
+        <v>7</v>
+      </c>
+      <c r="BC42">
         <v>44</v>
       </c>
-      <c r="AX42">
-        <v>4.3</v>
-      </c>
-      <c r="AY42">
-        <v>1000</v>
-      </c>
-      <c r="AZ42">
-        <v>3.55</v>
-      </c>
-      <c r="BA42">
-        <v>17.5</v>
-      </c>
-      <c r="BB42">
-        <v>4</v>
-      </c>
-      <c r="BC42">
-        <v>46</v>
-      </c>
       <c r="BD42">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE42">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF42" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="BG42">
         <v>2295419</v>
@@ -9878,16 +9743,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="BK42" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="BL42" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="BM42" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9907,163 +9772,163 @@
         <v>202</v>
       </c>
       <c r="F43">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="G43">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H43">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="I43">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="J43">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K43">
-        <v>4.9</v>
+        <v>190</v>
       </c>
       <c r="L43">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="M43">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="N43">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O43">
-        <v>3.95</v>
+        <v>2.08</v>
       </c>
       <c r="P43">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q43">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="R43">
-        <v>1.12</v>
+        <v>2.1</v>
       </c>
       <c r="S43">
-        <v>9.4</v>
+        <v>2.3</v>
       </c>
       <c r="T43">
-        <v>1.05</v>
+        <v>11.5</v>
       </c>
       <c r="U43">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V43">
-        <v>1.16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W43">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="X43">
-        <v>1.05</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y43">
         <v>16</v>
       </c>
       <c r="Z43">
-        <v>1.03</v>
+        <v>18</v>
       </c>
       <c r="AA43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB43">
-        <v>1.05</v>
+        <v>11.5</v>
       </c>
       <c r="AC43">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD43">
-        <v>1.18</v>
+        <v>6.8</v>
       </c>
       <c r="AE43">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF43">
-        <v>1.07</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH43">
-        <v>1.04</v>
+        <v>16</v>
       </c>
       <c r="AI43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ43">
-        <v>1.03</v>
+        <v>20</v>
       </c>
       <c r="AK43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL43">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="AM43">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN43">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="AO43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP43">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="AQ43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR43">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="AS43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT43">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="AU43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV43">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AW43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX43">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AY43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ43">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="BA43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB43">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="BC43">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BD43">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="BE43">
         <v>1000</v>
       </c>
       <c r="BF43" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="BG43">
         <v>5535792</v>
@@ -10075,16 +9940,16 @@
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="BK43" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="BL43" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="BM43" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="257">
   <si>
     <t>League</t>
   </si>
@@ -271,12 +271,12 @@
     <t>Italian Serie A</t>
   </si>
   <si>
+    <t>Irish Premier Division</t>
+  </si>
+  <si>
     <t>French National</t>
   </si>
   <si>
-    <t>Irish Premier Division</t>
-  </si>
-  <si>
     <t>English Championship</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>Brazilian Serie C</t>
   </si>
   <si>
+    <t>Paraguayan Primera Division</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
@@ -364,6 +367,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
@@ -430,12 +436,12 @@
     <t>Beroe Stara Za</t>
   </si>
   <si>
+    <t>Hapoel Haifa</t>
+  </si>
+  <si>
     <t>Mamelodi Sundowns</t>
   </si>
   <si>
-    <t>Hapoel Haifa</t>
-  </si>
-  <si>
     <t>Rapid Bucharest</t>
   </si>
   <si>
@@ -457,12 +463,12 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
     <t>Nimes</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Preston</t>
   </si>
   <si>
@@ -490,6 +496,9 @@
     <t>Penarol</t>
   </si>
   <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
     <t>El Nacional</t>
   </si>
   <si>
@@ -556,12 +565,12 @@
     <t>Etar</t>
   </si>
   <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
     <t>TS Galaxy FC</t>
   </si>
   <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
     <t>Universitatea Craiova</t>
   </si>
   <si>
@@ -583,12 +592,12 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
     <t>Red Star</t>
   </si>
   <si>
-    <t>Drogheda</t>
-  </si>
-  <si>
     <t>Leicester</t>
   </si>
   <si>
@@ -616,6 +625,9 @@
     <t>River Plate (Uru)</t>
   </si>
   <si>
+    <t>Club Sportivo Ameliano</t>
+  </si>
+  <si>
     <t>Delfin</t>
   </si>
   <si>
@@ -625,78 +637,6 @@
     <t>Sporting Cristal</t>
   </si>
   <si>
-    <t>33223516</t>
-  </si>
-  <si>
-    <t>33215148</t>
-  </si>
-  <si>
-    <t>33217058</t>
-  </si>
-  <si>
-    <t>33214084</t>
-  </si>
-  <si>
-    <t>33212665</t>
-  </si>
-  <si>
-    <t>33214087</t>
-  </si>
-  <si>
-    <t>33215119</t>
-  </si>
-  <si>
-    <t>33214068</t>
-  </si>
-  <si>
-    <t>33214060</t>
-  </si>
-  <si>
-    <t>33216242</t>
-  </si>
-  <si>
-    <t>33230788</t>
-  </si>
-  <si>
-    <t>33223522</t>
-  </si>
-  <si>
-    <t>33221165</t>
-  </si>
-  <si>
-    <t>33213710</t>
-  </si>
-  <si>
-    <t>33217247</t>
-  </si>
-  <si>
-    <t>33215973</t>
-  </si>
-  <si>
-    <t>33214610</t>
-  </si>
-  <si>
-    <t>33218238</t>
-  </si>
-  <si>
-    <t>33192541</t>
-  </si>
-  <si>
-    <t>33217252</t>
-  </si>
-  <si>
-    <t>33227187</t>
-  </si>
-  <si>
-    <t>33209811</t>
-  </si>
-  <si>
-    <t>33192632</t>
-  </si>
-  <si>
-    <t>33214431</t>
-  </si>
-  <si>
     <t>33231266</t>
   </si>
   <si>
@@ -715,6 +655,9 @@
     <t>33215723</t>
   </si>
   <si>
+    <t>33226352</t>
+  </si>
+  <si>
     <t>33216501</t>
   </si>
   <si>
@@ -724,78 +667,6 @@
     <t>33215359</t>
   </si>
   <si>
-    <t>1.228120557</t>
-  </si>
-  <si>
-    <t>1.227993361</t>
-  </si>
-  <si>
-    <t>1.228025008</t>
-  </si>
-  <si>
-    <t>1.227967040</t>
-  </si>
-  <si>
-    <t>1.227942966</t>
-  </si>
-  <si>
-    <t>1.227966949</t>
-  </si>
-  <si>
-    <t>1.227990085</t>
-  </si>
-  <si>
-    <t>1.227966669</t>
-  </si>
-  <si>
-    <t>1.227966399</t>
-  </si>
-  <si>
-    <t>1.228010124</t>
-  </si>
-  <si>
-    <t>1.228238719</t>
-  </si>
-  <si>
-    <t>1.228121213</t>
-  </si>
-  <si>
-    <t>1.228083120</t>
-  </si>
-  <si>
-    <t>1.227962452</t>
-  </si>
-  <si>
-    <t>1.228036096</t>
-  </si>
-  <si>
-    <t>1.228004344</t>
-  </si>
-  <si>
-    <t>1.227979822</t>
-  </si>
-  <si>
-    <t>1.228041978</t>
-  </si>
-  <si>
-    <t>1.227601523</t>
-  </si>
-  <si>
-    <t>1.228029737</t>
-  </si>
-  <si>
-    <t>1.228175052</t>
-  </si>
-  <si>
-    <t>1.227892439</t>
-  </si>
-  <si>
-    <t>1.227610310</t>
-  </si>
-  <si>
-    <t>1.227974319</t>
-  </si>
-  <si>
     <t>1.228243821</t>
   </si>
   <si>
@@ -814,6 +685,9 @@
     <t>1.228003990</t>
   </si>
   <si>
+    <t>1.228297316</t>
+  </si>
+  <si>
     <t>1.228019811</t>
   </si>
   <si>
@@ -823,78 +697,6 @@
     <t>1.227992543</t>
   </si>
   <si>
-    <t>1.228120612</t>
-  </si>
-  <si>
-    <t>1.227993371</t>
-  </si>
-  <si>
-    <t>1.228025053</t>
-  </si>
-  <si>
-    <t>1.227967085</t>
-  </si>
-  <si>
-    <t>1.227942976</t>
-  </si>
-  <si>
-    <t>1.227966994</t>
-  </si>
-  <si>
-    <t>1.227990130</t>
-  </si>
-  <si>
-    <t>1.227966714</t>
-  </si>
-  <si>
-    <t>1.227966444</t>
-  </si>
-  <si>
-    <t>1.228010169</t>
-  </si>
-  <si>
-    <t>1.228238764</t>
-  </si>
-  <si>
-    <t>1.228121258</t>
-  </si>
-  <si>
-    <t>1.228083165</t>
-  </si>
-  <si>
-    <t>1.227962497</t>
-  </si>
-  <si>
-    <t>1.228036141</t>
-  </si>
-  <si>
-    <t>1.228004389</t>
-  </si>
-  <si>
-    <t>1.227979832</t>
-  </si>
-  <si>
-    <t>1.228042023</t>
-  </si>
-  <si>
-    <t>1.227601507</t>
-  </si>
-  <si>
-    <t>1.228029782</t>
-  </si>
-  <si>
-    <t>1.228175097</t>
-  </si>
-  <si>
-    <t>1.227892449</t>
-  </si>
-  <si>
-    <t>1.227610294</t>
-  </si>
-  <si>
-    <t>1.227974364</t>
-  </si>
-  <si>
     <t>1.228243866</t>
   </si>
   <si>
@@ -913,6 +715,9 @@
     <t>1.228004080</t>
   </si>
   <si>
+    <t>1.228297319</t>
+  </si>
+  <si>
     <t>1.228019856</t>
   </si>
   <si>
@@ -922,78 +727,6 @@
     <t>1.227992588</t>
   </si>
   <si>
-    <t>1.228120653</t>
-  </si>
-  <si>
-    <t>1.227993360</t>
-  </si>
-  <si>
-    <t>1.228025092</t>
-  </si>
-  <si>
-    <t>1.227967124</t>
-  </si>
-  <si>
-    <t>1.227942965</t>
-  </si>
-  <si>
-    <t>1.227967033</t>
-  </si>
-  <si>
-    <t>1.227990169</t>
-  </si>
-  <si>
-    <t>1.227966753</t>
-  </si>
-  <si>
-    <t>1.227966483</t>
-  </si>
-  <si>
-    <t>1.228010208</t>
-  </si>
-  <si>
-    <t>1.228238803</t>
-  </si>
-  <si>
-    <t>1.228121297</t>
-  </si>
-  <si>
-    <t>1.228083204</t>
-  </si>
-  <si>
-    <t>1.227962536</t>
-  </si>
-  <si>
-    <t>1.228036180</t>
-  </si>
-  <si>
-    <t>1.228004428</t>
-  </si>
-  <si>
-    <t>1.227979821</t>
-  </si>
-  <si>
-    <t>1.228042062</t>
-  </si>
-  <si>
-    <t>1.227601522</t>
-  </si>
-  <si>
-    <t>1.228029821</t>
-  </si>
-  <si>
-    <t>1.228175136</t>
-  </si>
-  <si>
-    <t>1.227892438</t>
-  </si>
-  <si>
-    <t>1.227610309</t>
-  </si>
-  <si>
-    <t>1.227974403</t>
-  </si>
-  <si>
     <t>1.228243905</t>
   </si>
   <si>
@@ -1012,6 +745,9 @@
     <t>1.228004158</t>
   </si>
   <si>
+    <t>1.228297363</t>
+  </si>
+  <si>
     <t>1.228019895</t>
   </si>
   <si>
@@ -1021,78 +757,6 @@
     <t>1.227992627</t>
   </si>
   <si>
-    <t>1.228120572</t>
-  </si>
-  <si>
-    <t>1.227993370</t>
-  </si>
-  <si>
-    <t>1.228025017</t>
-  </si>
-  <si>
-    <t>1.227967049</t>
-  </si>
-  <si>
-    <t>1.227942975</t>
-  </si>
-  <si>
-    <t>1.227966958</t>
-  </si>
-  <si>
-    <t>1.227990094</t>
-  </si>
-  <si>
-    <t>1.227966678</t>
-  </si>
-  <si>
-    <t>1.227966408</t>
-  </si>
-  <si>
-    <t>1.228010133</t>
-  </si>
-  <si>
-    <t>1.228238728</t>
-  </si>
-  <si>
-    <t>1.228121222</t>
-  </si>
-  <si>
-    <t>1.228083129</t>
-  </si>
-  <si>
-    <t>1.227962461</t>
-  </si>
-  <si>
-    <t>1.228036105</t>
-  </si>
-  <si>
-    <t>1.228004353</t>
-  </si>
-  <si>
-    <t>1.227979831</t>
-  </si>
-  <si>
-    <t>1.228041987</t>
-  </si>
-  <si>
-    <t>1.227601532</t>
-  </si>
-  <si>
-    <t>1.228029746</t>
-  </si>
-  <si>
-    <t>1.228175061</t>
-  </si>
-  <si>
-    <t>1.227892448</t>
-  </si>
-  <si>
-    <t>1.227610319</t>
-  </si>
-  <si>
-    <t>1.227974328</t>
-  </si>
-  <si>
     <t>1.228243830</t>
   </si>
   <si>
@@ -1109,6 +773,9 @@
   </si>
   <si>
     <t>1.228004009</t>
+  </si>
+  <si>
+    <t>1.228297365</t>
   </si>
   <si>
     <t>1.228019820</t>
@@ -1475,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM43"/>
+  <dimension ref="A1:BM44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,16 +1350,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F2">
         <v>1.99</v>
@@ -1880,16 +1547,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F3">
         <v>2.36</v>
@@ -2077,16 +1744,16 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F4">
         <v>1.33</v>
@@ -2274,16 +1941,16 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5">
         <v>2.24</v>
@@ -2471,16 +2138,16 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F6">
         <v>2.64</v>
@@ -2668,16 +2335,16 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F7">
         <v>1.92</v>
@@ -2865,16 +2532,16 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F8">
         <v>1.81</v>
@@ -3062,16 +2729,16 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F9">
         <v>2.4</v>
@@ -3259,16 +2926,16 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F10">
         <v>3.15</v>
@@ -3456,16 +3123,16 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F11">
         <v>1.73</v>
@@ -3623,8 +3290,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>203</v>
+      <c r="BF11">
+        <v>33223516</v>
       </c>
       <c r="BG11">
         <v>844519</v>
@@ -3635,17 +3302,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>302</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>335</v>
+      <c r="BJ11">
+        <v>1.228120557</v>
+      </c>
+      <c r="BK11">
+        <v>1.228120612</v>
+      </c>
+      <c r="BL11">
+        <v>1.228120653</v>
+      </c>
+      <c r="BM11">
+        <v>1.228120572</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3653,16 +3320,16 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F12">
         <v>2.06</v>
@@ -3820,8 +3487,8 @@
       <c r="BE12">
         <v>980</v>
       </c>
-      <c r="BF12" t="s">
-        <v>204</v>
+      <c r="BF12">
+        <v>33215148</v>
       </c>
       <c r="BG12">
         <v>10472882</v>
@@ -3832,17 +3499,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>237</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>336</v>
+      <c r="BJ12">
+        <v>1.227993361</v>
+      </c>
+      <c r="BK12">
+        <v>1.227993371</v>
+      </c>
+      <c r="BL12">
+        <v>1.22799336</v>
+      </c>
+      <c r="BM12">
+        <v>1.22799337</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3850,16 +3517,16 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F13">
         <v>3.75</v>
@@ -4017,8 +3684,8 @@
       <c r="BE13">
         <v>980</v>
       </c>
-      <c r="BF13" t="s">
-        <v>205</v>
+      <c r="BF13">
+        <v>33217058</v>
       </c>
       <c r="BG13">
         <v>767907</v>
@@ -4029,17 +3696,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>337</v>
+      <c r="BJ13">
+        <v>1.228025008</v>
+      </c>
+      <c r="BK13">
+        <v>1.228025053</v>
+      </c>
+      <c r="BL13">
+        <v>1.228025092</v>
+      </c>
+      <c r="BM13">
+        <v>1.228025017</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4047,16 +3714,16 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F14">
         <v>2.6</v>
@@ -4214,8 +3881,8 @@
       <c r="BE14">
         <v>980</v>
       </c>
-      <c r="BF14" t="s">
-        <v>206</v>
+      <c r="BF14">
+        <v>33214084</v>
       </c>
       <c r="BG14">
         <v>151472</v>
@@ -4226,17 +3893,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>305</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>338</v>
+      <c r="BJ14">
+        <v>1.22796704</v>
+      </c>
+      <c r="BK14">
+        <v>1.227967085</v>
+      </c>
+      <c r="BL14">
+        <v>1.227967124</v>
+      </c>
+      <c r="BM14">
+        <v>1.227967049</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4244,16 +3911,16 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F15">
         <v>4.1</v>
@@ -4411,8 +4078,8 @@
       <c r="BE15">
         <v>990</v>
       </c>
-      <c r="BF15" t="s">
-        <v>207</v>
+      <c r="BF15">
+        <v>33212665</v>
       </c>
       <c r="BG15">
         <v>28216</v>
@@ -4423,17 +4090,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>240</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>339</v>
+      <c r="BJ15">
+        <v>1.227942966</v>
+      </c>
+      <c r="BK15">
+        <v>1.227942976</v>
+      </c>
+      <c r="BL15">
+        <v>1.227942965</v>
+      </c>
+      <c r="BM15">
+        <v>1.227942975</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4441,16 +4108,16 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F16">
         <v>2.1</v>
@@ -4608,8 +4275,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>208</v>
+      <c r="BF16">
+        <v>33214087</v>
       </c>
       <c r="BG16">
         <v>60143</v>
@@ -4620,17 +4287,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>241</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>274</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>340</v>
+      <c r="BJ16">
+        <v>1.227966949</v>
+      </c>
+      <c r="BK16">
+        <v>1.227966994</v>
+      </c>
+      <c r="BL16">
+        <v>1.227967033</v>
+      </c>
+      <c r="BM16">
+        <v>1.227966958</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4638,16 +4305,16 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F17">
         <v>2.92</v>
@@ -4805,8 +4472,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>209</v>
+      <c r="BF17">
+        <v>33215119</v>
       </c>
       <c r="BG17">
         <v>5751503</v>
@@ -4817,17 +4484,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>242</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>275</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>341</v>
+      <c r="BJ17">
+        <v>1.227990085</v>
+      </c>
+      <c r="BK17">
+        <v>1.22799013</v>
+      </c>
+      <c r="BL17">
+        <v>1.227990169</v>
+      </c>
+      <c r="BM17">
+        <v>1.227990094</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4835,16 +4502,16 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>1.97</v>
@@ -5002,8 +4669,8 @@
       <c r="BE18">
         <v>980</v>
       </c>
-      <c r="BF18" t="s">
-        <v>210</v>
+      <c r="BF18">
+        <v>33214068</v>
       </c>
       <c r="BG18">
         <v>30684</v>
@@ -5014,17 +4681,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>243</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>276</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>309</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>342</v>
+      <c r="BJ18">
+        <v>1.227966669</v>
+      </c>
+      <c r="BK18">
+        <v>1.227966714</v>
+      </c>
+      <c r="BL18">
+        <v>1.227966753</v>
+      </c>
+      <c r="BM18">
+        <v>1.227966678</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5032,16 +4699,16 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F19">
         <v>2.06</v>
@@ -5199,8 +4866,8 @@
       <c r="BE19">
         <v>980</v>
       </c>
-      <c r="BF19" t="s">
-        <v>211</v>
+      <c r="BF19">
+        <v>33214060</v>
       </c>
       <c r="BG19">
         <v>30679</v>
@@ -5211,17 +4878,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>310</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>343</v>
+      <c r="BJ19">
+        <v>1.227966399</v>
+      </c>
+      <c r="BK19">
+        <v>1.227966444</v>
+      </c>
+      <c r="BL19">
+        <v>1.227966483</v>
+      </c>
+      <c r="BM19">
+        <v>1.227966408</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5229,16 +4896,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F20">
         <v>1.65</v>
@@ -5396,8 +5063,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>212</v>
+      <c r="BF20">
+        <v>33216242</v>
       </c>
       <c r="BG20">
         <v>4127866</v>
@@ -5408,411 +5075,411 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>278</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>344</v>
+      <c r="BJ20">
+        <v>1.228010124</v>
+      </c>
+      <c r="BK20">
+        <v>1.228010169</v>
+      </c>
+      <c r="BL20">
+        <v>1.228010208</v>
+      </c>
+      <c r="BM20">
+        <v>1.228010133</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F21">
-        <v>1.54</v>
+        <v>5.2</v>
       </c>
       <c r="G21">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1.68</v>
       </c>
       <c r="I21">
-        <v>8.800000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L21">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="M21">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="N21">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="P21">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="Q21">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R21">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="S21">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="T21">
+        <v>5.1</v>
+      </c>
+      <c r="U21">
+        <v>18.5</v>
+      </c>
+      <c r="V21">
+        <v>8.4</v>
+      </c>
+      <c r="W21">
         <v>10.5</v>
       </c>
-      <c r="U21">
-        <v>980</v>
-      </c>
-      <c r="V21">
-        <v>5.9</v>
-      </c>
-      <c r="W21">
-        <v>980</v>
-      </c>
       <c r="X21">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="Y21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AA21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AD21">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE21">
         <v>980</v>
       </c>
       <c r="AF21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG21">
+        <v>980</v>
+      </c>
+      <c r="AH21">
+        <v>5.6</v>
+      </c>
+      <c r="AI21">
+        <v>980</v>
+      </c>
+      <c r="AJ21">
+        <v>2.98</v>
+      </c>
+      <c r="AK21">
+        <v>1000</v>
+      </c>
+      <c r="AL21">
         <v>6.4</v>
       </c>
-      <c r="AG21">
-        <v>980</v>
-      </c>
-      <c r="AH21">
-        <v>2.36</v>
-      </c>
-      <c r="AI21">
-        <v>1000</v>
-      </c>
-      <c r="AJ21">
-        <v>7</v>
-      </c>
-      <c r="AK21">
-        <v>980</v>
-      </c>
-      <c r="AL21">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AM21">
         <v>980</v>
       </c>
       <c r="AN21">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="AO21">
         <v>980</v>
       </c>
       <c r="AP21">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AQ21">
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>11</v>
+        <v>2.28</v>
       </c>
       <c r="AS21">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AT21">
-        <v>5.4</v>
+        <v>2.34</v>
       </c>
       <c r="AU21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV21">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="AW21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX21">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="AY21">
         <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="BA21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB21">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="BC21">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="BD21">
-        <v>7.2</v>
+        <v>2.34</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>213</v>
+      <c r="BF21">
+        <v>33223522</v>
       </c>
       <c r="BG21">
-        <v>6772440</v>
+        <v>5266551</v>
       </c>
       <c r="BH21">
-        <v>20785087</v>
+        <v>52465647</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>312</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>345</v>
+      <c r="BJ21">
+        <v>1.228121213</v>
+      </c>
+      <c r="BK21">
+        <v>1.228121258</v>
+      </c>
+      <c r="BL21">
+        <v>1.228121297</v>
+      </c>
+      <c r="BM21">
+        <v>1.228121222</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F22">
-        <v>5.2</v>
+        <v>1.54</v>
       </c>
       <c r="G22">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H22">
-        <v>1.68</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>1.74</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L22">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="M22">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="O22">
-        <v>1.82</v>
+        <v>2.36</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="Q22">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="R22">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="S22">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="T22">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="U22">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="V22">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="W22">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="X22">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="Y22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z22">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="AA22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB22">
+        <v>6</v>
+      </c>
+      <c r="AC22">
+        <v>7</v>
+      </c>
+      <c r="AD22">
+        <v>8.6</v>
+      </c>
+      <c r="AE22">
+        <v>980</v>
+      </c>
+      <c r="AF22">
         <v>6.4</v>
       </c>
-      <c r="AC22">
-        <v>980</v>
-      </c>
-      <c r="AD22">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE22">
-        <v>980</v>
-      </c>
-      <c r="AF22">
+      <c r="AG22">
+        <v>980</v>
+      </c>
+      <c r="AH22">
+        <v>2.36</v>
+      </c>
+      <c r="AI22">
+        <v>1000</v>
+      </c>
+      <c r="AJ22">
+        <v>7</v>
+      </c>
+      <c r="AK22">
+        <v>980</v>
+      </c>
+      <c r="AL22">
         <v>8.800000000000001</v>
       </c>
-      <c r="AG22">
-        <v>980</v>
-      </c>
-      <c r="AH22">
-        <v>5.6</v>
-      </c>
-      <c r="AI22">
-        <v>980</v>
-      </c>
-      <c r="AJ22">
-        <v>2.98</v>
-      </c>
-      <c r="AK22">
-        <v>1000</v>
-      </c>
-      <c r="AL22">
+      <c r="AM22">
+        <v>980</v>
+      </c>
+      <c r="AN22">
+        <v>6</v>
+      </c>
+      <c r="AO22">
+        <v>980</v>
+      </c>
+      <c r="AP22">
+        <v>2.36</v>
+      </c>
+      <c r="AQ22">
+        <v>1000</v>
+      </c>
+      <c r="AR22">
+        <v>11</v>
+      </c>
+      <c r="AS22">
+        <v>15</v>
+      </c>
+      <c r="AT22">
+        <v>5.4</v>
+      </c>
+      <c r="AU22">
+        <v>980</v>
+      </c>
+      <c r="AV22">
         <v>6.4</v>
       </c>
-      <c r="AM22">
-        <v>980</v>
-      </c>
-      <c r="AN22">
-        <v>17.5</v>
-      </c>
-      <c r="AO22">
-        <v>980</v>
-      </c>
-      <c r="AP22">
-        <v>2.34</v>
-      </c>
-      <c r="AQ22">
-        <v>1000</v>
-      </c>
-      <c r="AR22">
-        <v>2.28</v>
-      </c>
-      <c r="AS22">
-        <v>1000</v>
-      </c>
-      <c r="AT22">
-        <v>2.34</v>
-      </c>
-      <c r="AU22">
-        <v>1000</v>
-      </c>
-      <c r="AV22">
-        <v>2.34</v>
-      </c>
       <c r="AW22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX22">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="AY22">
         <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="BA22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB22">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="BC22">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>2.34</v>
+        <v>7.2</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>214</v>
+      <c r="BF22">
+        <v>33230788</v>
       </c>
       <c r="BG22">
-        <v>5266551</v>
+        <v>6772440</v>
       </c>
       <c r="BH22">
-        <v>52465647</v>
+        <v>20785087</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>280</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>313</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>346</v>
+      <c r="BJ22">
+        <v>1.228238719</v>
+      </c>
+      <c r="BK22">
+        <v>1.228238764</v>
+      </c>
+      <c r="BL22">
+        <v>1.228238803</v>
+      </c>
+      <c r="BM22">
+        <v>1.228238728</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5820,16 +5487,16 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F23">
         <v>2.32</v>
@@ -5987,8 +5654,8 @@
       <c r="BE23">
         <v>980</v>
       </c>
-      <c r="BF23" t="s">
-        <v>215</v>
+      <c r="BF23">
+        <v>33221165</v>
       </c>
       <c r="BG23">
         <v>6394</v>
@@ -5999,17 +5666,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>248</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>281</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>347</v>
+      <c r="BJ23">
+        <v>1.22808312</v>
+      </c>
+      <c r="BK23">
+        <v>1.228083165</v>
+      </c>
+      <c r="BL23">
+        <v>1.228083204</v>
+      </c>
+      <c r="BM23">
+        <v>1.228083129</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6017,16 +5684,16 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F24">
         <v>4.8</v>
@@ -6184,8 +5851,8 @@
       <c r="BE24">
         <v>980</v>
       </c>
-      <c r="BF24" t="s">
-        <v>216</v>
+      <c r="BF24">
+        <v>33213710</v>
       </c>
       <c r="BG24">
         <v>11378686</v>
@@ -6196,17 +5863,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>348</v>
+      <c r="BJ24">
+        <v>1.227962452</v>
+      </c>
+      <c r="BK24">
+        <v>1.227962497</v>
+      </c>
+      <c r="BL24">
+        <v>1.227962536</v>
+      </c>
+      <c r="BM24">
+        <v>1.227962461</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6214,16 +5881,16 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F25">
         <v>1.91</v>
@@ -6381,8 +6048,8 @@
       <c r="BE25">
         <v>980</v>
       </c>
-      <c r="BF25" t="s">
-        <v>217</v>
+      <c r="BF25">
+        <v>33217247</v>
       </c>
       <c r="BG25">
         <v>419126</v>
@@ -6393,17 +6060,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>349</v>
+      <c r="BJ25">
+        <v>1.228036096</v>
+      </c>
+      <c r="BK25">
+        <v>1.228036141</v>
+      </c>
+      <c r="BL25">
+        <v>1.22803618</v>
+      </c>
+      <c r="BM25">
+        <v>1.228036105</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6411,16 +6078,16 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26">
         <v>2.22</v>
@@ -6578,8 +6245,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>218</v>
+      <c r="BF26">
+        <v>33215973</v>
       </c>
       <c r="BG26">
         <v>4465708</v>
@@ -6590,17 +6257,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>350</v>
+      <c r="BJ26">
+        <v>1.228004344</v>
+      </c>
+      <c r="BK26">
+        <v>1.228004389</v>
+      </c>
+      <c r="BL26">
+        <v>1.228004428</v>
+      </c>
+      <c r="BM26">
+        <v>1.228004353</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6608,16 +6275,16 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F27">
         <v>1.97</v>
@@ -6775,8 +6442,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>219</v>
+      <c r="BF27">
+        <v>33214610</v>
       </c>
       <c r="BG27">
         <v>10478536</v>
@@ -6787,17 +6454,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>351</v>
+      <c r="BJ27">
+        <v>1.227979822</v>
+      </c>
+      <c r="BK27">
+        <v>1.227979832</v>
+      </c>
+      <c r="BL27">
+        <v>1.227979821</v>
+      </c>
+      <c r="BM27">
+        <v>1.227979831</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6805,16 +6472,16 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F28">
         <v>4.3</v>
@@ -6972,8 +6639,8 @@
       <c r="BE28">
         <v>980</v>
       </c>
-      <c r="BF28" t="s">
-        <v>220</v>
+      <c r="BF28">
+        <v>33218238</v>
       </c>
       <c r="BG28">
         <v>2250259</v>
@@ -6984,17 +6651,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>319</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>352</v>
+      <c r="BJ28">
+        <v>1.228041978</v>
+      </c>
+      <c r="BK28">
+        <v>1.228042023</v>
+      </c>
+      <c r="BL28">
+        <v>1.228042062</v>
+      </c>
+      <c r="BM28">
+        <v>1.228041987</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7002,16 +6669,16 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F29">
         <v>2.5</v>
@@ -7169,8 +6836,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>221</v>
+      <c r="BF29">
+        <v>33192541</v>
       </c>
       <c r="BG29">
         <v>60310</v>
@@ -7181,17 +6848,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>320</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>353</v>
+      <c r="BJ29">
+        <v>1.227601523</v>
+      </c>
+      <c r="BK29">
+        <v>1.227601507</v>
+      </c>
+      <c r="BL29">
+        <v>1.227601522</v>
+      </c>
+      <c r="BM29">
+        <v>1.227601532</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7199,196 +6866,196 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>1.37</v>
       </c>
       <c r="G30">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="I30">
-        <v>3.3</v>
+        <v>10.5</v>
       </c>
       <c r="J30">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="K30">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L30">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="M30">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="O30">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="P30">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="R30">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="S30">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1.94</v>
+        <v>19</v>
       </c>
       <c r="U30">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="V30">
-        <v>1.93</v>
+        <v>29</v>
       </c>
       <c r="W30">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="X30">
-        <v>1.12</v>
+        <v>60</v>
       </c>
       <c r="Y30">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z30">
-        <v>1.04</v>
+        <v>18</v>
       </c>
       <c r="AA30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB30">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="AC30">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD30">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AE30">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AF30">
+        <v>32</v>
+      </c>
+      <c r="AG30">
+        <v>38</v>
+      </c>
+      <c r="AH30">
+        <v>17</v>
+      </c>
+      <c r="AI30">
+        <v>980</v>
+      </c>
+      <c r="AJ30">
+        <v>7.6</v>
+      </c>
+      <c r="AK30">
+        <v>8.4</v>
+      </c>
+      <c r="AL30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM30">
+        <v>10</v>
+      </c>
+      <c r="AN30">
+        <v>24</v>
+      </c>
+      <c r="AO30">
+        <v>28</v>
+      </c>
+      <c r="AP30">
+        <v>16.5</v>
+      </c>
+      <c r="AQ30">
+        <v>130</v>
+      </c>
+      <c r="AR30">
+        <v>10</v>
+      </c>
+      <c r="AS30">
         <v>11.5</v>
       </c>
-      <c r="AG30">
-        <v>980</v>
-      </c>
-      <c r="AH30">
-        <v>1.04</v>
-      </c>
-      <c r="AI30">
-        <v>1000</v>
-      </c>
-      <c r="AJ30">
-        <v>1.22</v>
-      </c>
-      <c r="AK30">
-        <v>1000</v>
-      </c>
-      <c r="AL30">
-        <v>1.95</v>
-      </c>
-      <c r="AM30">
-        <v>980</v>
-      </c>
-      <c r="AN30">
-        <v>2.28</v>
-      </c>
-      <c r="AO30">
-        <v>1000</v>
-      </c>
-      <c r="AP30">
-        <v>1.04</v>
-      </c>
-      <c r="AQ30">
-        <v>1000</v>
-      </c>
-      <c r="AR30">
-        <v>1.04</v>
-      </c>
-      <c r="AS30">
-        <v>1000</v>
-      </c>
       <c r="AT30">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="AU30">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AV30">
-        <v>1.04</v>
+        <v>30</v>
       </c>
       <c r="AW30">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AX30">
-        <v>1.04</v>
+        <v>17</v>
       </c>
       <c r="AY30">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ30">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="BA30">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="BB30">
-        <v>1.02</v>
+        <v>17</v>
       </c>
       <c r="BC30">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="BD30">
-        <v>1.36</v>
+        <v>19</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>222</v>
+      <c r="BF30">
+        <v>33227187</v>
       </c>
       <c r="BG30">
-        <v>77586</v>
+        <v>184325</v>
       </c>
       <c r="BH30">
-        <v>496950</v>
+        <v>184329</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>321</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>354</v>
+      <c r="BJ30">
+        <v>1.228175052</v>
+      </c>
+      <c r="BK30">
+        <v>1.228175097</v>
+      </c>
+      <c r="BL30">
+        <v>1.228175136</v>
+      </c>
+      <c r="BM30">
+        <v>1.228175061</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7396,196 +7063,196 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F31">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="G31">
-        <v>1.38</v>
+        <v>2.68</v>
       </c>
       <c r="H31">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="J31">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="K31">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="L31">
-        <v>2.38</v>
+        <v>1.82</v>
       </c>
       <c r="M31">
+        <v>1.9</v>
+      </c>
+      <c r="N31">
+        <v>2.1</v>
+      </c>
+      <c r="O31">
+        <v>2.22</v>
+      </c>
+      <c r="P31">
+        <v>1.53</v>
+      </c>
+      <c r="Q31">
         <v>2.48</v>
       </c>
-      <c r="N31">
-        <v>1.67</v>
-      </c>
-      <c r="O31">
-        <v>1.72</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>2.14</v>
-      </c>
       <c r="R31">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="T31">
-        <v>19</v>
+        <v>1.94</v>
       </c>
       <c r="U31">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="V31">
-        <v>29</v>
+        <v>1.93</v>
       </c>
       <c r="W31">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="X31">
-        <v>60</v>
+        <v>1.12</v>
       </c>
       <c r="Y31">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z31">
-        <v>18</v>
+        <v>1.04</v>
       </c>
       <c r="AA31">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB31">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC31">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD31">
+        <v>6.8</v>
+      </c>
+      <c r="AE31">
+        <v>980</v>
+      </c>
+      <c r="AF31">
         <v>11.5</v>
       </c>
-      <c r="AE31">
-        <v>13</v>
-      </c>
-      <c r="AF31">
-        <v>32</v>
-      </c>
       <c r="AG31">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH31">
-        <v>17</v>
+        <v>1.04</v>
       </c>
       <c r="AI31">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ31">
-        <v>7.6</v>
+        <v>1.22</v>
       </c>
       <c r="AK31">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AL31">
-        <v>9.199999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="AM31">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AN31">
-        <v>24</v>
+        <v>2.28</v>
       </c>
       <c r="AO31">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AP31">
-        <v>16.5</v>
+        <v>1.04</v>
       </c>
       <c r="AQ31">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AR31">
-        <v>10</v>
+        <v>1.04</v>
       </c>
       <c r="AS31">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AT31">
-        <v>12.5</v>
+        <v>1.04</v>
       </c>
       <c r="AU31">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AV31">
-        <v>30</v>
+        <v>1.04</v>
       </c>
       <c r="AW31">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX31">
-        <v>17</v>
+        <v>1.04</v>
       </c>
       <c r="AY31">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AZ31">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="BA31">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="BB31">
-        <v>17</v>
+        <v>1.02</v>
       </c>
       <c r="BC31">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="BD31">
-        <v>19</v>
+        <v>1.36</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>223</v>
+      <c r="BF31">
+        <v>33217252</v>
       </c>
       <c r="BG31">
-        <v>184325</v>
+        <v>77586</v>
       </c>
       <c r="BH31">
-        <v>184329</v>
+        <v>496950</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>355</v>
+      <c r="BJ31">
+        <v>1.228029737</v>
+      </c>
+      <c r="BK31">
+        <v>1.228029782</v>
+      </c>
+      <c r="BL31">
+        <v>1.228029821</v>
+      </c>
+      <c r="BM31">
+        <v>1.228029746</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7593,16 +7260,16 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>5.6</v>
@@ -7760,8 +7427,8 @@
       <c r="BE32">
         <v>980</v>
       </c>
-      <c r="BF32" t="s">
-        <v>224</v>
+      <c r="BF32">
+        <v>33209811</v>
       </c>
       <c r="BG32">
         <v>56295</v>
@@ -7772,17 +7439,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>356</v>
+      <c r="BJ32">
+        <v>1.227892439</v>
+      </c>
+      <c r="BK32">
+        <v>1.227892449</v>
+      </c>
+      <c r="BL32">
+        <v>1.227892438</v>
+      </c>
+      <c r="BM32">
+        <v>1.227892448</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7790,16 +7457,16 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F33">
         <v>1.41</v>
@@ -7957,8 +7624,8 @@
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>225</v>
+      <c r="BF33">
+        <v>33192632</v>
       </c>
       <c r="BG33">
         <v>52480964</v>
@@ -7969,17 +7636,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>357</v>
+      <c r="BJ33">
+        <v>1.22761031</v>
+      </c>
+      <c r="BK33">
+        <v>1.227610294</v>
+      </c>
+      <c r="BL33">
+        <v>1.227610309</v>
+      </c>
+      <c r="BM33">
+        <v>1.227610319</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7987,16 +7654,16 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F34">
         <v>2.24</v>
@@ -8154,8 +7821,8 @@
       <c r="BE34">
         <v>980</v>
       </c>
-      <c r="BF34" t="s">
-        <v>226</v>
+      <c r="BF34">
+        <v>33214431</v>
       </c>
       <c r="BG34">
         <v>36362918</v>
@@ -8166,17 +7833,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>358</v>
+      <c r="BJ34">
+        <v>1.227974319</v>
+      </c>
+      <c r="BK34">
+        <v>1.227974364</v>
+      </c>
+      <c r="BL34">
+        <v>1.227974403</v>
+      </c>
+      <c r="BM34">
+        <v>1.227974328</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8184,46 +7851,46 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F35">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G35">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H35">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I35">
         <v>980</v>
       </c>
       <c r="J35">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K35">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L35">
         <v>1.43</v>
       </c>
       <c r="M35">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="N35">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O35">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
         <v>1.12</v>
@@ -8238,7 +7905,7 @@
         <v>1000</v>
       </c>
       <c r="T35">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="U35">
         <v>980</v>
@@ -8352,7 +8019,7 @@
         <v>1000</v>
       </c>
       <c r="BF35" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="BG35">
         <v>16918367</v>
@@ -8364,16 +8031,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="BK35" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="BL35" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="BM35" t="s">
-        <v>359</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8381,22 +8048,22 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F36">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G36">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -8408,7 +8075,7 @@
         <v>3.35</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L36">
         <v>1.64</v>
@@ -8417,13 +8084,13 @@
         <v>1.69</v>
       </c>
       <c r="N36">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O36">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="P36">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q36">
         <v>2.24</v>
@@ -8432,64 +8099,64 @@
         <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T36">
         <v>8.800000000000001</v>
       </c>
       <c r="U36">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="V36">
         <v>11</v>
       </c>
       <c r="W36">
+        <v>12.5</v>
+      </c>
+      <c r="X36">
+        <v>23</v>
+      </c>
+      <c r="Y36">
+        <v>28</v>
+      </c>
+      <c r="Z36">
         <v>14.5</v>
       </c>
-      <c r="X36">
-        <v>22</v>
-      </c>
-      <c r="Y36">
-        <v>27</v>
-      </c>
-      <c r="Z36">
-        <v>15</v>
-      </c>
       <c r="AA36">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB36">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC36">
         <v>7.6</v>
       </c>
       <c r="AD36">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE36">
         <v>7.6</v>
       </c>
       <c r="AF36">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG36">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH36">
         <v>44</v>
       </c>
       <c r="AI36">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ36">
         <v>10</v>
       </c>
       <c r="AK36">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL36">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM36">
         <v>11.5</v>
@@ -8501,13 +8168,13 @@
         <v>24</v>
       </c>
       <c r="AP36">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AQ36">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AR36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS36">
         <v>27</v>
@@ -8516,22 +8183,22 @@
         <v>23</v>
       </c>
       <c r="AU36">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AV36">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AW36">
         <v>55</v>
       </c>
       <c r="AX36">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="AY36">
         <v>170</v>
       </c>
       <c r="AZ36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA36">
         <v>25</v>
@@ -8540,16 +8207,16 @@
         <v>14</v>
       </c>
       <c r="BC36">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="BD36">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="BG36">
         <v>2760854</v>
@@ -8561,16 +8228,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="BK36" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="BL36" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="BM36" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8578,34 +8245,34 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F37">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="G37">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="H37">
+        <v>3.3</v>
+      </c>
+      <c r="I37">
+        <v>3.35</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
         <v>3.05</v>
-      </c>
-      <c r="I37">
-        <v>3.1</v>
-      </c>
-      <c r="J37">
-        <v>2.98</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
       </c>
       <c r="L37">
         <v>1.51</v>
@@ -8623,130 +8290,130 @@
         <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S37">
         <v>1.84</v>
       </c>
       <c r="T37">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U37">
         <v>7.8</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="W37">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="X37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z37">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA37">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB37">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC37">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD37">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE37">
         <v>6.6</v>
       </c>
       <c r="AF37">
+        <v>14.5</v>
+      </c>
+      <c r="AG37">
+        <v>15</v>
+      </c>
+      <c r="AH37">
+        <v>46</v>
+      </c>
+      <c r="AI37">
+        <v>55</v>
+      </c>
+      <c r="AJ37">
+        <v>14</v>
+      </c>
+      <c r="AK37">
+        <v>15.5</v>
+      </c>
+      <c r="AL37">
+        <v>12</v>
+      </c>
+      <c r="AM37">
         <v>13.5</v>
       </c>
-      <c r="AG37">
-        <v>14</v>
-      </c>
-      <c r="AH37">
+      <c r="AN37">
+        <v>22</v>
+      </c>
+      <c r="AO37">
+        <v>25</v>
+      </c>
+      <c r="AP37">
+        <v>75</v>
+      </c>
+      <c r="AQ37">
+        <v>85</v>
+      </c>
+      <c r="AR37">
+        <v>40</v>
+      </c>
+      <c r="AS37">
+        <v>46</v>
+      </c>
+      <c r="AT37">
+        <v>36</v>
+      </c>
+      <c r="AU37">
+        <v>40</v>
+      </c>
+      <c r="AV37">
+        <v>60</v>
+      </c>
+      <c r="AW37">
+        <v>75</v>
+      </c>
+      <c r="AX37">
+        <v>29</v>
+      </c>
+      <c r="AY37">
+        <v>210</v>
+      </c>
+      <c r="AZ37">
         <v>42</v>
       </c>
-      <c r="AI37">
-        <v>46</v>
-      </c>
-      <c r="AJ37">
-        <v>15.5</v>
-      </c>
-      <c r="AK37">
-        <v>16</v>
-      </c>
-      <c r="AL37">
-        <v>13</v>
-      </c>
-      <c r="AM37">
-        <v>14</v>
-      </c>
-      <c r="AN37">
-        <v>21</v>
-      </c>
-      <c r="AO37">
-        <v>24</v>
-      </c>
-      <c r="AP37">
+      <c r="BA37">
+        <v>48</v>
+      </c>
+      <c r="BB37">
+        <v>60</v>
+      </c>
+      <c r="BC37">
         <v>70</v>
       </c>
-      <c r="AQ37">
-        <v>80</v>
-      </c>
-      <c r="AR37">
-        <v>46</v>
-      </c>
-      <c r="AS37">
-        <v>55</v>
-      </c>
-      <c r="AT37">
-        <v>40</v>
-      </c>
-      <c r="AU37">
-        <v>46</v>
-      </c>
-      <c r="AV37">
-        <v>65</v>
-      </c>
-      <c r="AW37">
-        <v>80</v>
-      </c>
-      <c r="AX37">
-        <v>25</v>
-      </c>
-      <c r="AY37">
-        <v>180</v>
-      </c>
-      <c r="AZ37">
-        <v>48</v>
-      </c>
-      <c r="BA37">
-        <v>55</v>
-      </c>
-      <c r="BB37">
-        <v>50</v>
-      </c>
-      <c r="BC37">
-        <v>60</v>
-      </c>
       <c r="BD37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="BG37">
         <v>198126</v>
@@ -8758,16 +8425,16 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="BK37" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="BL37" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="BM37" t="s">
-        <v>361</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8775,175 +8442,175 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G38">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="H38">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J38">
         <v>3.05</v>
       </c>
       <c r="K38">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L38">
         <v>1.52</v>
       </c>
       <c r="M38">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="N38">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="O38">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="P38">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q38">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T38">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="U38">
         <v>980</v>
       </c>
       <c r="V38">
-        <v>1.61</v>
+        <v>4.2</v>
       </c>
       <c r="W38">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="X38">
-        <v>1.53</v>
+        <v>5.1</v>
       </c>
       <c r="Y38">
         <v>980</v>
       </c>
       <c r="Z38">
-        <v>1.58</v>
+        <v>5.8</v>
       </c>
       <c r="AA38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB38">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC38">
         <v>980</v>
       </c>
       <c r="AD38">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="AE38">
         <v>980</v>
       </c>
       <c r="AF38">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AG38">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH38">
-        <v>1.58</v>
+        <v>5.7</v>
       </c>
       <c r="AI38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ38">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="AK38">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL38">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AM38">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN38">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AO38">
         <v>980</v>
       </c>
       <c r="AP38">
-        <v>1.59</v>
+        <v>5.8</v>
       </c>
       <c r="AQ38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR38">
-        <v>1.55</v>
+        <v>5.2</v>
       </c>
       <c r="AS38">
         <v>980</v>
       </c>
       <c r="AT38">
-        <v>1.55</v>
+        <v>5.2</v>
       </c>
       <c r="AU38">
         <v>980</v>
       </c>
       <c r="AV38">
-        <v>1.58</v>
+        <v>5.6</v>
       </c>
       <c r="AW38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX38">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="AY38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ38">
-        <v>1.55</v>
+        <v>5.2</v>
       </c>
       <c r="BA38">
         <v>980</v>
       </c>
       <c r="BB38">
-        <v>1.58</v>
+        <v>5.8</v>
       </c>
       <c r="BC38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD38">
-        <v>1.88</v>
+        <v>6</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="BG38">
         <v>5327519</v>
@@ -8955,16 +8622,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="BK38" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="BL38" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="BM38" t="s">
-        <v>362</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8972,64 +8639,64 @@
         <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F39">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G39">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H39">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I39">
         <v>6.4</v>
       </c>
       <c r="J39">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K39">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L39">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M39">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="N39">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="O39">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="P39">
         <v>2.12</v>
       </c>
       <c r="Q39">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="R39">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S39">
         <v>1.89</v>
       </c>
       <c r="T39">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="U39">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V39">
         <v>11.5</v>
@@ -9038,109 +8705,109 @@
         <v>16.5</v>
       </c>
       <c r="X39">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Y39">
         <v>980</v>
       </c>
       <c r="Z39">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AA39">
         <v>980</v>
       </c>
       <c r="AB39">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC39">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AD39">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE39">
         <v>980</v>
       </c>
       <c r="AF39">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AG39">
         <v>1000</v>
       </c>
       <c r="AH39">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AI39">
         <v>980</v>
       </c>
       <c r="AJ39">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AK39">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AL39">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AM39">
         <v>13</v>
       </c>
       <c r="AN39">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AO39">
         <v>1000</v>
       </c>
       <c r="AP39">
+        <v>4.5</v>
+      </c>
+      <c r="AQ39">
+        <v>980</v>
+      </c>
+      <c r="AR39">
+        <v>5.5</v>
+      </c>
+      <c r="AS39">
+        <v>980</v>
+      </c>
+      <c r="AT39">
         <v>3.95</v>
       </c>
-      <c r="AQ39">
-        <v>980</v>
-      </c>
-      <c r="AR39">
-        <v>3.45</v>
-      </c>
-      <c r="AS39">
-        <v>980</v>
-      </c>
-      <c r="AT39">
-        <v>3.5</v>
-      </c>
       <c r="AU39">
         <v>980</v>
       </c>
       <c r="AV39">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AW39">
         <v>1000</v>
       </c>
       <c r="AX39">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AY39">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ39">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BA39">
         <v>980</v>
       </c>
       <c r="BB39">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="BC39">
         <v>980</v>
       </c>
       <c r="BD39">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="BG39">
         <v>16916720</v>
@@ -9152,16 +8819,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="BK39" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="BL39" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="BM39" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9169,79 +8836,79 @@
         <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F40">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="G40">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="H40">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I40">
+        <v>15.5</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>5.5</v>
+      </c>
+      <c r="L40">
+        <v>1.94</v>
+      </c>
+      <c r="M40">
+        <v>2.04</v>
+      </c>
+      <c r="N40">
+        <v>1.97</v>
+      </c>
+      <c r="O40">
+        <v>2.06</v>
+      </c>
+      <c r="P40">
+        <v>2.3</v>
+      </c>
+      <c r="Q40">
+        <v>2.62</v>
+      </c>
+      <c r="R40">
+        <v>1.62</v>
+      </c>
+      <c r="S40">
+        <v>1.77</v>
+      </c>
+      <c r="T40">
         <v>12.5</v>
-      </c>
-      <c r="J40">
-        <v>4.8</v>
-      </c>
-      <c r="K40">
-        <v>5.3</v>
-      </c>
-      <c r="L40">
-        <v>1.91</v>
-      </c>
-      <c r="M40">
-        <v>1.99</v>
-      </c>
-      <c r="N40">
-        <v>2.02</v>
-      </c>
-      <c r="O40">
-        <v>2.1</v>
-      </c>
-      <c r="P40">
-        <v>2.26</v>
-      </c>
-      <c r="Q40">
-        <v>2.68</v>
-      </c>
-      <c r="R40">
-        <v>1.59</v>
-      </c>
-      <c r="S40">
-        <v>1.79</v>
-      </c>
-      <c r="T40">
-        <v>5.3</v>
       </c>
       <c r="U40">
         <v>15</v>
       </c>
       <c r="V40">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="W40">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="X40">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA40">
         <v>1000</v>
@@ -9253,28 +8920,28 @@
         <v>7.2</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE40">
         <v>980</v>
       </c>
       <c r="AF40">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AG40">
         <v>980</v>
       </c>
       <c r="AH40">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="AI40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ40">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AK40">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AL40">
         <v>9</v>
@@ -9283,28 +8950,28 @@
         <v>980</v>
       </c>
       <c r="AN40">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO40">
         <v>980</v>
       </c>
       <c r="AP40">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AQ40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR40">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AS40">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT40">
         <v>14</v>
       </c>
       <c r="AU40">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AV40">
         <v>7.2</v>
@@ -9313,31 +8980,31 @@
         <v>980</v>
       </c>
       <c r="AX40">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AY40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ40">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="BA40">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BB40">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BC40">
         <v>1000</v>
       </c>
       <c r="BD40">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BE40">
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="BG40">
         <v>328191</v>
@@ -9349,16 +9016,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="BK40" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="BL40" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="BM40" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9366,196 +9033,196 @@
         <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F41">
+        <v>1.9</v>
+      </c>
+      <c r="G41">
+        <v>1.94</v>
+      </c>
+      <c r="H41">
+        <v>4.3</v>
+      </c>
+      <c r="I41">
+        <v>4.8</v>
+      </c>
+      <c r="J41">
+        <v>3.65</v>
+      </c>
+      <c r="K41">
+        <v>3.9</v>
+      </c>
+      <c r="L41">
+        <v>1.85</v>
+      </c>
+      <c r="M41">
         <v>1.93</v>
       </c>
-      <c r="G41">
-        <v>1.97</v>
-      </c>
-      <c r="H41">
-        <v>4.6</v>
-      </c>
-      <c r="I41">
-        <v>5.1</v>
-      </c>
-      <c r="J41">
-        <v>3.55</v>
-      </c>
-      <c r="K41">
-        <v>3.8</v>
-      </c>
-      <c r="L41">
-        <v>1.86</v>
-      </c>
-      <c r="M41">
-        <v>2.04</v>
-      </c>
       <c r="N41">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="O41">
         <v>2.18</v>
       </c>
       <c r="P41">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T41">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U41">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V41">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="W41">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="X41">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="Y41">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z41">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="AA41">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB41">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC41">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE41">
         <v>8.6</v>
       </c>
       <c r="AF41">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="AG41">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH41">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="AI41">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ41">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK41">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AL41">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AM41">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN41">
-        <v>5.8</v>
+        <v>18</v>
       </c>
       <c r="AO41">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP41">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="AQ41">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AR41">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AS41">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AT41">
-        <v>5.8</v>
+        <v>18.5</v>
       </c>
       <c r="AU41">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AV41">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AW41">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AX41">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="AY41">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AZ41">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="BA41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB41">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="BC41">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="BD41">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="BE41">
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="BG41">
-        <v>330234</v>
+        <v>328699</v>
       </c>
       <c r="BH41">
-        <v>10778437</v>
+        <v>39325793</v>
       </c>
       <c r="BI41">
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="BK41" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="BL41" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="BM41" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9563,196 +9230,196 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F42">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="G42">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="H42">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="I42">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K42">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L42">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="M42">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="N42">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="O42">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="P42">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="Q42">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="R42">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="S42">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="T42">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="U42">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="V42">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W42">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X42">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y42">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z42">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AA42">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AB42">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC42">
+        <v>9</v>
+      </c>
+      <c r="AD42">
+        <v>7.8</v>
+      </c>
+      <c r="AE42">
+        <v>8.4</v>
+      </c>
+      <c r="AF42">
+        <v>16.5</v>
+      </c>
+      <c r="AG42">
+        <v>18.5</v>
+      </c>
+      <c r="AH42">
+        <v>42</v>
+      </c>
+      <c r="AI42">
+        <v>65</v>
+      </c>
+      <c r="AJ42">
         <v>10</v>
       </c>
-      <c r="AC42">
+      <c r="AK42">
         <v>11.5</v>
-      </c>
-      <c r="AD42">
-        <v>8</v>
-      </c>
-      <c r="AE42">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF42">
-        <v>14</v>
-      </c>
-      <c r="AG42">
-        <v>16</v>
-      </c>
-      <c r="AH42">
-        <v>7.4</v>
-      </c>
-      <c r="AI42">
-        <v>55</v>
-      </c>
-      <c r="AJ42">
-        <v>12</v>
-      </c>
-      <c r="AK42">
-        <v>14</v>
       </c>
       <c r="AL42">
         <v>9.4</v>
       </c>
       <c r="AM42">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN42">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO42">
+        <v>20</v>
+      </c>
+      <c r="AP42">
+        <v>48</v>
+      </c>
+      <c r="AQ42">
+        <v>75</v>
+      </c>
+      <c r="AR42">
+        <v>18.5</v>
+      </c>
+      <c r="AS42">
+        <v>21</v>
+      </c>
+      <c r="AT42">
         <v>18</v>
-      </c>
-      <c r="AP42">
-        <v>7.4</v>
-      </c>
-      <c r="AQ42">
-        <v>60</v>
-      </c>
-      <c r="AR42">
-        <v>21</v>
-      </c>
-      <c r="AS42">
-        <v>29</v>
-      </c>
-      <c r="AT42">
-        <v>17.5</v>
       </c>
       <c r="AU42">
         <v>20</v>
       </c>
       <c r="AV42">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AW42">
         <v>40</v>
       </c>
       <c r="AX42">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AY42">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AZ42">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="BA42">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BB42">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BC42">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="BD42">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="BE42">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="BG42">
-        <v>2295419</v>
+        <v>330234</v>
       </c>
       <c r="BH42">
-        <v>5129865</v>
+        <v>10778437</v>
       </c>
       <c r="BI42">
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="BK42" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="BL42" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="BM42" t="s">
-        <v>366</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9760,196 +9427,393 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F43">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="G43">
+        <v>1.82</v>
+      </c>
+      <c r="H43">
+        <v>4.5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
         <v>4.1</v>
       </c>
-      <c r="H43">
-        <v>2.02</v>
-      </c>
-      <c r="I43">
-        <v>2.2</v>
-      </c>
-      <c r="J43">
-        <v>3.4</v>
-      </c>
       <c r="K43">
-        <v>190</v>
+        <v>4.4</v>
       </c>
       <c r="L43">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="M43">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="N43">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="O43">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="P43">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R43">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="S43">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T43">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="U43">
+        <v>19.5</v>
+      </c>
+      <c r="V43">
+        <v>18.5</v>
+      </c>
+      <c r="W43">
+        <v>21</v>
+      </c>
+      <c r="X43">
+        <v>34</v>
+      </c>
+      <c r="Y43">
+        <v>40</v>
+      </c>
+      <c r="Z43">
+        <v>16</v>
+      </c>
+      <c r="AA43">
+        <v>120</v>
+      </c>
+      <c r="AB43">
+        <v>9.6</v>
+      </c>
+      <c r="AC43">
+        <v>11</v>
+      </c>
+      <c r="AD43">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE43">
+        <v>9.6</v>
+      </c>
+      <c r="AF43">
+        <v>16.5</v>
+      </c>
+      <c r="AG43">
+        <v>19</v>
+      </c>
+      <c r="AH43">
+        <v>42</v>
+      </c>
+      <c r="AI43">
+        <v>55</v>
+      </c>
+      <c r="AJ43">
+        <v>10.5</v>
+      </c>
+      <c r="AK43">
+        <v>12</v>
+      </c>
+      <c r="AL43">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM43">
+        <v>10</v>
+      </c>
+      <c r="AN43">
+        <v>16.5</v>
+      </c>
+      <c r="AO43">
+        <v>18</v>
+      </c>
+      <c r="AP43">
+        <v>42</v>
+      </c>
+      <c r="AQ43">
+        <v>60</v>
+      </c>
+      <c r="AR43">
         <v>17.5</v>
       </c>
-      <c r="V43">
+      <c r="AS43">
+        <v>19</v>
+      </c>
+      <c r="AT43">
+        <v>15</v>
+      </c>
+      <c r="AU43">
+        <v>17</v>
+      </c>
+      <c r="AV43">
+        <v>26</v>
+      </c>
+      <c r="AW43">
+        <v>29</v>
+      </c>
+      <c r="AX43">
+        <v>15.5</v>
+      </c>
+      <c r="AY43">
+        <v>85</v>
+      </c>
+      <c r="AZ43">
         <v>8.199999999999999</v>
       </c>
-      <c r="W43">
-        <v>980</v>
-      </c>
-      <c r="X43">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y43">
-        <v>16</v>
-      </c>
-      <c r="Z43">
-        <v>18</v>
-      </c>
-      <c r="AA43">
-        <v>980</v>
-      </c>
-      <c r="AB43">
-        <v>11.5</v>
-      </c>
-      <c r="AC43">
-        <v>18</v>
-      </c>
-      <c r="AD43">
-        <v>6.8</v>
-      </c>
-      <c r="AE43">
+      <c r="BA43">
         <v>9.199999999999999</v>
       </c>
-      <c r="AF43">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG43">
-        <v>12</v>
-      </c>
-      <c r="AH43">
-        <v>16</v>
-      </c>
-      <c r="AI43">
-        <v>980</v>
-      </c>
-      <c r="AJ43">
-        <v>20</v>
-      </c>
-      <c r="AK43">
-        <v>980</v>
-      </c>
-      <c r="AL43">
-        <v>4.3</v>
-      </c>
-      <c r="AM43">
-        <v>19.5</v>
-      </c>
-      <c r="AN43">
-        <v>4.2</v>
-      </c>
-      <c r="AO43">
-        <v>980</v>
-      </c>
-      <c r="AP43">
-        <v>4.8</v>
-      </c>
-      <c r="AQ43">
-        <v>980</v>
-      </c>
-      <c r="AR43">
-        <v>4.9</v>
-      </c>
-      <c r="AS43">
-        <v>980</v>
-      </c>
-      <c r="AT43">
-        <v>4.7</v>
-      </c>
-      <c r="AU43">
-        <v>980</v>
-      </c>
-      <c r="AV43">
-        <v>4.9</v>
-      </c>
-      <c r="AW43">
-        <v>980</v>
-      </c>
-      <c r="AX43">
-        <v>4.9</v>
-      </c>
-      <c r="AY43">
-        <v>980</v>
-      </c>
-      <c r="AZ43">
-        <v>4.7</v>
-      </c>
-      <c r="BA43">
-        <v>980</v>
-      </c>
       <c r="BB43">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="BC43">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="BD43">
-        <v>5.1</v>
+        <v>18.5</v>
       </c>
       <c r="BE43">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF43" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="BG43">
-        <v>5535792</v>
+        <v>2295419</v>
       </c>
       <c r="BH43">
-        <v>328696</v>
+        <v>5129865</v>
       </c>
       <c r="BI43">
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="BK43" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="BL43" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="BM43" t="s">
-        <v>367</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>4.1</v>
+      </c>
+      <c r="H44">
+        <v>2.06</v>
+      </c>
+      <c r="I44">
+        <v>2.2</v>
+      </c>
+      <c r="J44">
+        <v>3.55</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1.94</v>
+      </c>
+      <c r="M44">
+        <v>2.14</v>
+      </c>
+      <c r="N44">
+        <v>1.87</v>
+      </c>
+      <c r="O44">
+        <v>2.06</v>
+      </c>
+      <c r="P44">
+        <v>1.75</v>
+      </c>
+      <c r="Q44">
+        <v>1.89</v>
+      </c>
+      <c r="R44">
+        <v>2.12</v>
+      </c>
+      <c r="S44">
+        <v>2.32</v>
+      </c>
+      <c r="T44">
+        <v>12</v>
+      </c>
+      <c r="U44">
+        <v>18</v>
+      </c>
+      <c r="V44">
+        <v>8.4</v>
+      </c>
+      <c r="W44">
+        <v>12.5</v>
+      </c>
+      <c r="X44">
+        <v>3.75</v>
+      </c>
+      <c r="Y44">
+        <v>16</v>
+      </c>
+      <c r="Z44">
+        <v>18.5</v>
+      </c>
+      <c r="AA44">
+        <v>32</v>
+      </c>
+      <c r="AB44">
+        <v>12</v>
+      </c>
+      <c r="AC44">
+        <v>18.5</v>
+      </c>
+      <c r="AD44">
+        <v>3.2</v>
+      </c>
+      <c r="AE44">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG44">
+        <v>13</v>
+      </c>
+      <c r="AH44">
+        <v>15.5</v>
+      </c>
+      <c r="AI44">
+        <v>27</v>
+      </c>
+      <c r="AJ44">
+        <v>4.3</v>
+      </c>
+      <c r="AK44">
+        <v>980</v>
+      </c>
+      <c r="AL44">
+        <v>13.5</v>
+      </c>
+      <c r="AM44">
+        <v>19.5</v>
+      </c>
+      <c r="AN44">
+        <v>3.9</v>
+      </c>
+      <c r="AO44">
+        <v>980</v>
+      </c>
+      <c r="AP44">
+        <v>4.3</v>
+      </c>
+      <c r="AQ44">
+        <v>980</v>
+      </c>
+      <c r="AR44">
+        <v>4.4</v>
+      </c>
+      <c r="AS44">
+        <v>980</v>
+      </c>
+      <c r="AT44">
+        <v>4.4</v>
+      </c>
+      <c r="AU44">
+        <v>980</v>
+      </c>
+      <c r="AV44">
+        <v>4.3</v>
+      </c>
+      <c r="AW44">
+        <v>980</v>
+      </c>
+      <c r="AX44">
+        <v>4.4</v>
+      </c>
+      <c r="AY44">
+        <v>980</v>
+      </c>
+      <c r="AZ44">
+        <v>4.2</v>
+      </c>
+      <c r="BA44">
+        <v>980</v>
+      </c>
+      <c r="BB44">
+        <v>3.6</v>
+      </c>
+      <c r="BC44">
+        <v>18</v>
+      </c>
+      <c r="BD44">
+        <v>4.5</v>
+      </c>
+      <c r="BE44">
+        <v>1000</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>216</v>
+      </c>
+      <c r="BG44">
+        <v>5535792</v>
+      </c>
+      <c r="BH44">
+        <v>328696</v>
+      </c>
+      <c r="BI44">
+        <v>58805</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="207">
   <si>
     <t>League</t>
   </si>
@@ -635,156 +635,6 @@
   </si>
   <si>
     <t>Sporting Cristal</t>
-  </si>
-  <si>
-    <t>33231266</t>
-  </si>
-  <si>
-    <t>33215662</t>
-  </si>
-  <si>
-    <t>33211654</t>
-  </si>
-  <si>
-    <t>33218399</t>
-  </si>
-  <si>
-    <t>33218413</t>
-  </si>
-  <si>
-    <t>33215723</t>
-  </si>
-  <si>
-    <t>33226352</t>
-  </si>
-  <si>
-    <t>33216501</t>
-  </si>
-  <si>
-    <t>33215615</t>
-  </si>
-  <si>
-    <t>33215359</t>
-  </si>
-  <si>
-    <t>1.228243821</t>
-  </si>
-  <si>
-    <t>1.228001130</t>
-  </si>
-  <si>
-    <t>1.227927994</t>
-  </si>
-  <si>
-    <t>1.228045564</t>
-  </si>
-  <si>
-    <t>1.228046400</t>
-  </si>
-  <si>
-    <t>1.228003990</t>
-  </si>
-  <si>
-    <t>1.228297316</t>
-  </si>
-  <si>
-    <t>1.228019811</t>
-  </si>
-  <si>
-    <t>1.228001955</t>
-  </si>
-  <si>
-    <t>1.227992543</t>
-  </si>
-  <si>
-    <t>1.228243866</t>
-  </si>
-  <si>
-    <t>1.228001140</t>
-  </si>
-  <si>
-    <t>1.227927997</t>
-  </si>
-  <si>
-    <t>1.228045609</t>
-  </si>
-  <si>
-    <t>1.228046445</t>
-  </si>
-  <si>
-    <t>1.228004080</t>
-  </si>
-  <si>
-    <t>1.228297319</t>
-  </si>
-  <si>
-    <t>1.228019856</t>
-  </si>
-  <si>
-    <t>1.228002000</t>
-  </si>
-  <si>
-    <t>1.227992588</t>
-  </si>
-  <si>
-    <t>1.228243905</t>
-  </si>
-  <si>
-    <t>1.228001129</t>
-  </si>
-  <si>
-    <t>1.227928042</t>
-  </si>
-  <si>
-    <t>1.228045648</t>
-  </si>
-  <si>
-    <t>1.228046484</t>
-  </si>
-  <si>
-    <t>1.228004158</t>
-  </si>
-  <si>
-    <t>1.228297363</t>
-  </si>
-  <si>
-    <t>1.228019895</t>
-  </si>
-  <si>
-    <t>1.228002039</t>
-  </si>
-  <si>
-    <t>1.227992627</t>
-  </si>
-  <si>
-    <t>1.228243830</t>
-  </si>
-  <si>
-    <t>1.228001139</t>
-  </si>
-  <si>
-    <t>1.227928046</t>
-  </si>
-  <si>
-    <t>1.228045573</t>
-  </si>
-  <si>
-    <t>1.228046409</t>
-  </si>
-  <si>
-    <t>1.228004009</t>
-  </si>
-  <si>
-    <t>1.228297365</t>
-  </si>
-  <si>
-    <t>1.228019820</t>
-  </si>
-  <si>
-    <t>1.228001964</t>
-  </si>
-  <si>
-    <t>1.227992552</t>
   </si>
 </sst>
 </file>
@@ -8018,8 +7868,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>207</v>
+      <c r="BF35">
+        <v>33231266</v>
       </c>
       <c r="BG35">
         <v>16918367</v>
@@ -8030,17 +7880,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>217</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>237</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>247</v>
+      <c r="BJ35">
+        <v>1.228243821</v>
+      </c>
+      <c r="BK35">
+        <v>1.228243866</v>
+      </c>
+      <c r="BL35">
+        <v>1.228243905</v>
+      </c>
+      <c r="BM35">
+        <v>1.22824383</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8215,8 +8065,8 @@
       <c r="BE36">
         <v>1000</v>
       </c>
-      <c r="BF36" t="s">
-        <v>208</v>
+      <c r="BF36">
+        <v>33215662</v>
       </c>
       <c r="BG36">
         <v>2760854</v>
@@ -8227,17 +8077,17 @@
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>248</v>
+      <c r="BJ36">
+        <v>1.22800113</v>
+      </c>
+      <c r="BK36">
+        <v>1.22800114</v>
+      </c>
+      <c r="BL36">
+        <v>1.228001129</v>
+      </c>
+      <c r="BM36">
+        <v>1.228001139</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8412,8 +8262,8 @@
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>209</v>
+      <c r="BF37">
+        <v>33211654</v>
       </c>
       <c r="BG37">
         <v>198126</v>
@@ -8424,17 +8274,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>219</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>249</v>
+      <c r="BJ37">
+        <v>1.227927994</v>
+      </c>
+      <c r="BK37">
+        <v>1.227927997</v>
+      </c>
+      <c r="BL37">
+        <v>1.227928042</v>
+      </c>
+      <c r="BM37">
+        <v>1.227928046</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8609,8 +8459,8 @@
       <c r="BE38">
         <v>1000</v>
       </c>
-      <c r="BF38" t="s">
-        <v>210</v>
+      <c r="BF38">
+        <v>33218399</v>
       </c>
       <c r="BG38">
         <v>5327519</v>
@@ -8621,17 +8471,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>250</v>
+      <c r="BJ38">
+        <v>1.228045564</v>
+      </c>
+      <c r="BK38">
+        <v>1.228045609</v>
+      </c>
+      <c r="BL38">
+        <v>1.228045648</v>
+      </c>
+      <c r="BM38">
+        <v>1.228045573</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8806,8 +8656,8 @@
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>211</v>
+      <c r="BF39">
+        <v>33218413</v>
       </c>
       <c r="BG39">
         <v>16916720</v>
@@ -8818,17 +8668,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>221</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>251</v>
+      <c r="BJ39">
+        <v>1.2280464</v>
+      </c>
+      <c r="BK39">
+        <v>1.228046445</v>
+      </c>
+      <c r="BL39">
+        <v>1.228046484</v>
+      </c>
+      <c r="BM39">
+        <v>1.228046409</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9003,8 +8853,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>212</v>
+      <c r="BF40">
+        <v>33215723</v>
       </c>
       <c r="BG40">
         <v>328191</v>
@@ -9015,17 +8865,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>242</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>252</v>
+      <c r="BJ40">
+        <v>1.22800399</v>
+      </c>
+      <c r="BK40">
+        <v>1.22800408</v>
+      </c>
+      <c r="BL40">
+        <v>1.228004158</v>
+      </c>
+      <c r="BM40">
+        <v>1.228004009</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9200,8 +9050,8 @@
       <c r="BE41">
         <v>1000</v>
       </c>
-      <c r="BF41" t="s">
-        <v>213</v>
+      <c r="BF41">
+        <v>33226352</v>
       </c>
       <c r="BG41">
         <v>328699</v>
@@ -9212,17 +9062,17 @@
       <c r="BI41">
         <v>58805</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>243</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>253</v>
+      <c r="BJ41">
+        <v>1.228297316</v>
+      </c>
+      <c r="BK41">
+        <v>1.228297319</v>
+      </c>
+      <c r="BL41">
+        <v>1.228297363</v>
+      </c>
+      <c r="BM41">
+        <v>1.228297365</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9397,8 +9247,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>214</v>
+      <c r="BF42">
+        <v>33216501</v>
       </c>
       <c r="BG42">
         <v>330234</v>
@@ -9409,17 +9259,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>254</v>
+      <c r="BJ42">
+        <v>1.228019811</v>
+      </c>
+      <c r="BK42">
+        <v>1.228019856</v>
+      </c>
+      <c r="BL42">
+        <v>1.228019895</v>
+      </c>
+      <c r="BM42">
+        <v>1.22801982</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9594,8 +9444,8 @@
       <c r="BE43">
         <v>980</v>
       </c>
-      <c r="BF43" t="s">
-        <v>215</v>
+      <c r="BF43">
+        <v>33215615</v>
       </c>
       <c r="BG43">
         <v>2295419</v>
@@ -9606,17 +9456,17 @@
       <c r="BI43">
         <v>58805</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>245</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>255</v>
+      <c r="BJ43">
+        <v>1.228001955</v>
+      </c>
+      <c r="BK43">
+        <v>1.228002</v>
+      </c>
+      <c r="BL43">
+        <v>1.228002039</v>
+      </c>
+      <c r="BM43">
+        <v>1.228001964</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -9791,8 +9641,8 @@
       <c r="BE44">
         <v>1000</v>
       </c>
-      <c r="BF44" t="s">
-        <v>216</v>
+      <c r="BF44">
+        <v>33215359</v>
       </c>
       <c r="BG44">
         <v>5535792</v>
@@ -9803,17 +9653,17 @@
       <c r="BI44">
         <v>58805</v>
       </c>
-      <c r="BJ44" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>256</v>
+      <c r="BJ44">
+        <v>1.227992543</v>
+      </c>
+      <c r="BK44">
+        <v>1.227992588</v>
+      </c>
+      <c r="BL44">
+        <v>1.227992627</v>
+      </c>
+      <c r="BM44">
+        <v>1.227992552</v>
       </c>
     </row>
   </sheetData>
